--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A17F3C-8F3F-4D98-BF91-5BFA1E3C4897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA773D8-0C98-495F-A391-BCDCEB5F6744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhoUpgrade" sheetId="1" r:id="rId1"/>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
         <v>2700</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ref="C55:C101" si="3">C54</f>
+        <f t="shared" ref="C55:C118" si="3">C54</f>
         <v>49</v>
       </c>
       <c r="D55" s="1">
@@ -2152,6 +2152,966 @@
       <c r="D101" s="1">
         <f>VLOOKUP(A101,Balalnce!H:L,5,FALSE)/100</f>
         <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5050</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D102" s="1">
+        <f>VLOOKUP(A102,Balalnce!H:L,5,FALSE)/100</f>
+        <v>206.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D103" s="1">
+        <f>VLOOKUP(A103,Balalnce!H:L,5,FALSE)/100</f>
+        <v>208.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5150</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D104" s="1">
+        <f>VLOOKUP(A104,Balalnce!H:L,5,FALSE)/100</f>
+        <v>210.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>5200</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D105" s="1">
+        <f>VLOOKUP(A105,Balalnce!H:L,5,FALSE)/100</f>
+        <v>212.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5250</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D106" s="1">
+        <f>VLOOKUP(A106,Balalnce!H:L,5,FALSE)/100</f>
+        <v>214.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5300</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D107" s="1">
+        <f>VLOOKUP(A107,Balalnce!H:L,5,FALSE)/100</f>
+        <v>216.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>5350</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D108" s="1">
+        <f>VLOOKUP(A108,Balalnce!H:L,5,FALSE)/100</f>
+        <v>218.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5400</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D109" s="1">
+        <f>VLOOKUP(A109,Balalnce!H:L,5,FALSE)/100</f>
+        <v>220.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>5450</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D110" s="1">
+        <f>VLOOKUP(A110,Balalnce!H:L,5,FALSE)/100</f>
+        <v>222.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D111" s="1">
+        <f>VLOOKUP(A111,Balalnce!H:L,5,FALSE)/100</f>
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5550</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D112" s="1">
+        <f>VLOOKUP(A112,Balalnce!H:L,5,FALSE)/100</f>
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D113" s="1">
+        <f>VLOOKUP(A113,Balalnce!H:L,5,FALSE)/100</f>
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5650</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D114" s="1">
+        <f>VLOOKUP(A114,Balalnce!H:L,5,FALSE)/100</f>
+        <v>230.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D115" s="1">
+        <f>VLOOKUP(A115,Balalnce!H:L,5,FALSE)/100</f>
+        <v>232.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>5750</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D116" s="1">
+        <f>VLOOKUP(A116,Balalnce!H:L,5,FALSE)/100</f>
+        <v>234.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D117" s="1">
+        <f>VLOOKUP(A117,Balalnce!H:L,5,FALSE)/100</f>
+        <v>236.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5850</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D118" s="1">
+        <f>VLOOKUP(A118,Balalnce!H:L,5,FALSE)/100</f>
+        <v>238.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5900</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" ref="C119:C161" si="4">C118</f>
+        <v>49</v>
+      </c>
+      <c r="D119" s="1">
+        <f>VLOOKUP(A119,Balalnce!H:L,5,FALSE)/100</f>
+        <v>240.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5950</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D120" s="1">
+        <f>VLOOKUP(A120,Balalnce!H:L,5,FALSE)/100</f>
+        <v>242.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D121" s="1">
+        <f>VLOOKUP(A121,Balalnce!H:L,5,FALSE)/100</f>
+        <v>244.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>6050</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D122" s="1">
+        <f>VLOOKUP(A122,Balalnce!H:L,5,FALSE)/100</f>
+        <v>246.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>6100</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D123" s="1">
+        <f>VLOOKUP(A123,Balalnce!H:L,5,FALSE)/100</f>
+        <v>248.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>6150</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D124" s="1">
+        <f>VLOOKUP(A124,Balalnce!H:L,5,FALSE)/100</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D125" s="1">
+        <f>VLOOKUP(A125,Balalnce!H:L,5,FALSE)/100</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>6250</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D126" s="1">
+        <f>VLOOKUP(A126,Balalnce!H:L,5,FALSE)/100</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>6300</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D127" s="1">
+        <f>VLOOKUP(A127,Balalnce!H:L,5,FALSE)/100</f>
+        <v>257.10000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>6350</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D128" s="1">
+        <f>VLOOKUP(A128,Balalnce!H:L,5,FALSE)/100</f>
+        <v>259.10000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D129" s="1">
+        <f>VLOOKUP(A129,Balalnce!H:L,5,FALSE)/100</f>
+        <v>261.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>6450</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D130" s="1">
+        <f>VLOOKUP(A130,Balalnce!H:L,5,FALSE)/100</f>
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>6500</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D131" s="1">
+        <f>VLOOKUP(A131,Balalnce!H:L,5,FALSE)/100</f>
+        <v>265.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>6550</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D132" s="1">
+        <f>VLOOKUP(A132,Balalnce!H:L,5,FALSE)/100</f>
+        <v>267.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>6600</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D133" s="1">
+        <f>VLOOKUP(A133,Balalnce!H:L,5,FALSE)/100</f>
+        <v>269.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>6650</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D134" s="1">
+        <f>VLOOKUP(A134,Balalnce!H:L,5,FALSE)/100</f>
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>6700</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D135" s="1">
+        <f>VLOOKUP(A135,Balalnce!H:L,5,FALSE)/100</f>
+        <v>273.39999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>6750</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D136" s="1">
+        <f>VLOOKUP(A136,Balalnce!H:L,5,FALSE)/100</f>
+        <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D137" s="1">
+        <f>VLOOKUP(A137,Balalnce!H:L,5,FALSE)/100</f>
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>6850</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D138" s="1">
+        <f>VLOOKUP(A138,Balalnce!H:L,5,FALSE)/100</f>
+        <v>279.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>6900</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D139" s="1">
+        <f>VLOOKUP(A139,Balalnce!H:L,5,FALSE)/100</f>
+        <v>281.60000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>6950</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D140" s="1">
+        <f>VLOOKUP(A140,Balalnce!H:L,5,FALSE)/100</f>
+        <v>283.60000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D141" s="1">
+        <f>VLOOKUP(A141,Balalnce!H:L,5,FALSE)/100</f>
+        <v>285.60000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>7050</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D142" s="1">
+        <f>VLOOKUP(A142,Balalnce!H:L,5,FALSE)/100</f>
+        <v>287.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7100</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D143" s="1">
+        <f>VLOOKUP(A143,Balalnce!H:L,5,FALSE)/100</f>
+        <v>289.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>7150</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D144" s="1">
+        <f>VLOOKUP(A144,Balalnce!H:L,5,FALSE)/100</f>
+        <v>291.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D145" s="1">
+        <f>VLOOKUP(A145,Balalnce!H:L,5,FALSE)/100</f>
+        <v>293.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7250</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D146" s="1">
+        <f>VLOOKUP(A146,Balalnce!H:L,5,FALSE)/100</f>
+        <v>295.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7300</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D147" s="1">
+        <f>VLOOKUP(A147,Balalnce!H:L,5,FALSE)/100</f>
+        <v>297.89999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>7350</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D148" s="1">
+        <f>VLOOKUP(A148,Balalnce!H:L,5,FALSE)/100</f>
+        <v>299.89999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D149" s="1">
+        <f>VLOOKUP(A149,Balalnce!H:L,5,FALSE)/100</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7450</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D150" s="1">
+        <f>VLOOKUP(A150,Balalnce!H:L,5,FALSE)/100</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7500</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D151" s="1">
+        <f>VLOOKUP(A151,Balalnce!H:L,5,FALSE)/100</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>7550</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D152" s="1">
+        <f>VLOOKUP(A152,Balalnce!H:L,5,FALSE)/100</f>
+        <v>308.10000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D153" s="1">
+        <f>VLOOKUP(A153,Balalnce!H:L,5,FALSE)/100</f>
+        <v>310.10000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>7650</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D154" s="1">
+        <f>VLOOKUP(A154,Balalnce!H:L,5,FALSE)/100</f>
+        <v>312.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>7700</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D155" s="1">
+        <f>VLOOKUP(A155,Balalnce!H:L,5,FALSE)/100</f>
+        <v>314.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>7750</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D156" s="1">
+        <f>VLOOKUP(A156,Balalnce!H:L,5,FALSE)/100</f>
+        <v>316.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D157" s="1">
+        <f>VLOOKUP(A157,Balalnce!H:L,5,FALSE)/100</f>
+        <v>318.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>7850</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D158" s="1">
+        <f>VLOOKUP(A158,Balalnce!H:L,5,FALSE)/100</f>
+        <v>320.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D159" s="1">
+        <f>VLOOKUP(A159,Balalnce!H:L,5,FALSE)/100</f>
+        <v>322.39999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>7950</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D160" s="1">
+        <f>VLOOKUP(A160,Balalnce!H:L,5,FALSE)/100</f>
+        <v>324.39999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D161" s="1">
+        <f>VLOOKUP(A161,Balalnce!H:L,5,FALSE)/100</f>
+        <v>326.39999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2163,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L117"/>
+  <dimension ref="A3:L163"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L117"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134:L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4053,6 +5013,742 @@
         <v>23260</v>
       </c>
     </row>
+    <row r="118" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>114</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ref="I118:I143" si="4">J118*$B$6</f>
+        <v>575000</v>
+      </c>
+      <c r="J118">
+        <v>5750</v>
+      </c>
+      <c r="L118">
+        <f t="shared" ref="L118:L143" si="5">ROUNDUP(((I118/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>23460</v>
+      </c>
+    </row>
+    <row r="119" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>115</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="4"/>
+        <v>580000</v>
+      </c>
+      <c r="J119">
+        <v>5800</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="5"/>
+        <v>23670</v>
+      </c>
+    </row>
+    <row r="120" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>116</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="4"/>
+        <v>585000</v>
+      </c>
+      <c r="J120">
+        <v>5850</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="5"/>
+        <v>23870</v>
+      </c>
+    </row>
+    <row r="121" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>117</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="4"/>
+        <v>590000</v>
+      </c>
+      <c r="J121">
+        <v>5900</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="5"/>
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="122" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>118</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="4"/>
+        <v>595000</v>
+      </c>
+      <c r="J122">
+        <v>5950</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="5"/>
+        <v>24280</v>
+      </c>
+    </row>
+    <row r="123" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>119</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="4"/>
+        <v>600000</v>
+      </c>
+      <c r="J123">
+        <v>6000</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="5"/>
+        <v>24480</v>
+      </c>
+    </row>
+    <row r="124" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>120</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="4"/>
+        <v>605000</v>
+      </c>
+      <c r="J124">
+        <v>6050</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="5"/>
+        <v>24690</v>
+      </c>
+    </row>
+    <row r="125" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>121</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="4"/>
+        <v>610000</v>
+      </c>
+      <c r="J125">
+        <v>6100</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="5"/>
+        <v>24890</v>
+      </c>
+    </row>
+    <row r="126" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>122</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="4"/>
+        <v>615000</v>
+      </c>
+      <c r="J126">
+        <v>6150</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="5"/>
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="127" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>123</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="4"/>
+        <v>620000</v>
+      </c>
+      <c r="J127">
+        <v>6200</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="5"/>
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="128" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>124</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="4"/>
+        <v>625000</v>
+      </c>
+      <c r="J128">
+        <v>6250</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="5"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="129" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>125</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="4"/>
+        <v>630000</v>
+      </c>
+      <c r="J129">
+        <v>6300</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="5"/>
+        <v>25710</v>
+      </c>
+    </row>
+    <row r="130" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>126</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="4"/>
+        <v>635000</v>
+      </c>
+      <c r="J130">
+        <v>6350</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="5"/>
+        <v>25910</v>
+      </c>
+    </row>
+    <row r="131" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>127</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="4"/>
+        <v>640000</v>
+      </c>
+      <c r="J131">
+        <v>6400</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="5"/>
+        <v>26120</v>
+      </c>
+    </row>
+    <row r="132" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>128</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="4"/>
+        <v>645000</v>
+      </c>
+      <c r="J132">
+        <v>6450</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="5"/>
+        <v>26320</v>
+      </c>
+    </row>
+    <row r="133" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>129</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="4"/>
+        <v>650000</v>
+      </c>
+      <c r="J133">
+        <v>6500</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="5"/>
+        <v>26520</v>
+      </c>
+    </row>
+    <row r="134" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>130</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="4"/>
+        <v>655000</v>
+      </c>
+      <c r="J134">
+        <v>6550</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="5"/>
+        <v>26730</v>
+      </c>
+    </row>
+    <row r="135" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>131</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>660000</v>
+      </c>
+      <c r="J135">
+        <v>6600</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="5"/>
+        <v>26930</v>
+      </c>
+    </row>
+    <row r="136" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>132</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="4"/>
+        <v>665000</v>
+      </c>
+      <c r="J136">
+        <v>6650</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="5"/>
+        <v>27140</v>
+      </c>
+    </row>
+    <row r="137" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>133</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="4"/>
+        <v>670000</v>
+      </c>
+      <c r="J137">
+        <v>6700</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="5"/>
+        <v>27340</v>
+      </c>
+    </row>
+    <row r="138" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>134</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="4"/>
+        <v>675000</v>
+      </c>
+      <c r="J138">
+        <v>6750</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="5"/>
+        <v>27540</v>
+      </c>
+    </row>
+    <row r="139" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>135</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="4"/>
+        <v>680000</v>
+      </c>
+      <c r="J139">
+        <v>6800</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="5"/>
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="140" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>136</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="4"/>
+        <v>685000</v>
+      </c>
+      <c r="J140">
+        <v>6850</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="5"/>
+        <v>27950</v>
+      </c>
+    </row>
+    <row r="141" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>137</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="4"/>
+        <v>690000</v>
+      </c>
+      <c r="J141">
+        <v>6900</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="5"/>
+        <v>28160</v>
+      </c>
+    </row>
+    <row r="142" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>138</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="4"/>
+        <v>695000</v>
+      </c>
+      <c r="J142">
+        <v>6950</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="5"/>
+        <v>28360</v>
+      </c>
+    </row>
+    <row r="143" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>139</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
+      <c r="J143">
+        <v>7000</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="5"/>
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="144" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>140</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ref="I144:I163" si="6">J144*$B$6</f>
+        <v>705000</v>
+      </c>
+      <c r="J144">
+        <v>7050</v>
+      </c>
+      <c r="L144">
+        <f t="shared" ref="L144:L163" si="7">ROUNDUP(((I144/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>28770</v>
+      </c>
+    </row>
+    <row r="145" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>141</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="6"/>
+        <v>710000</v>
+      </c>
+      <c r="J145">
+        <v>7100</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="7"/>
+        <v>28970</v>
+      </c>
+    </row>
+    <row r="146" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>142</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="6"/>
+        <v>715000</v>
+      </c>
+      <c r="J146">
+        <v>7150</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="7"/>
+        <v>29180</v>
+      </c>
+    </row>
+    <row r="147" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>143</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="6"/>
+        <v>720000</v>
+      </c>
+      <c r="J147">
+        <v>7200</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="7"/>
+        <v>29380</v>
+      </c>
+    </row>
+    <row r="148" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>144</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="6"/>
+        <v>725000</v>
+      </c>
+      <c r="J148">
+        <v>7250</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="7"/>
+        <v>29580</v>
+      </c>
+    </row>
+    <row r="149" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>145</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="6"/>
+        <v>730000</v>
+      </c>
+      <c r="J149">
+        <v>7300</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="7"/>
+        <v>29790</v>
+      </c>
+    </row>
+    <row r="150" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>146</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="6"/>
+        <v>735000</v>
+      </c>
+      <c r="J150">
+        <v>7350</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="7"/>
+        <v>29990</v>
+      </c>
+    </row>
+    <row r="151" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>147</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="6"/>
+        <v>740000</v>
+      </c>
+      <c r="J151">
+        <v>7400</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="7"/>
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="152" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>148</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="6"/>
+        <v>745000</v>
+      </c>
+      <c r="J152">
+        <v>7450</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="7"/>
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="153" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>149</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="6"/>
+        <v>750000</v>
+      </c>
+      <c r="J153">
+        <v>7500</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="7"/>
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="154" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>150</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="6"/>
+        <v>755000</v>
+      </c>
+      <c r="J154">
+        <v>7550</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="7"/>
+        <v>30810</v>
+      </c>
+    </row>
+    <row r="155" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>151</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="6"/>
+        <v>760000</v>
+      </c>
+      <c r="J155">
+        <v>7600</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="7"/>
+        <v>31010</v>
+      </c>
+    </row>
+    <row r="156" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>152</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="6"/>
+        <v>765000</v>
+      </c>
+      <c r="J156">
+        <v>7650</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="7"/>
+        <v>31220</v>
+      </c>
+    </row>
+    <row r="157" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>153</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="6"/>
+        <v>770000</v>
+      </c>
+      <c r="J157">
+        <v>7700</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="7"/>
+        <v>31420</v>
+      </c>
+    </row>
+    <row r="158" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>154</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="6"/>
+        <v>775000</v>
+      </c>
+      <c r="J158">
+        <v>7750</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="7"/>
+        <v>31620</v>
+      </c>
+    </row>
+    <row r="159" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>155</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="6"/>
+        <v>780000</v>
+      </c>
+      <c r="J159">
+        <v>7800</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="7"/>
+        <v>31830</v>
+      </c>
+    </row>
+    <row r="160" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>156</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="6"/>
+        <v>785000</v>
+      </c>
+      <c r="J160">
+        <v>7850</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="7"/>
+        <v>32030</v>
+      </c>
+    </row>
+    <row r="161" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <v>157</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="6"/>
+        <v>790000</v>
+      </c>
+      <c r="J161">
+        <v>7900</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="7"/>
+        <v>32240</v>
+      </c>
+    </row>
+    <row r="162" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <v>158</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="6"/>
+        <v>795000</v>
+      </c>
+      <c r="J162">
+        <v>7950</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="7"/>
+        <v>32440</v>
+      </c>
+    </row>
+    <row r="163" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <v>159</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="6"/>
+        <v>800000</v>
+      </c>
+      <c r="J163">
+        <v>8000</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="7"/>
+        <v>32640</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA773D8-0C98-495F-A391-BCDCEB5F6744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1F933-1BE9-4CCA-B956-2D254459D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2434,7 +2434,7 @@
         <v>5900</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" ref="C119:C161" si="4">C118</f>
+        <f t="shared" ref="C119:C182" si="4">C118</f>
         <v>49</v>
       </c>
       <c r="D119" s="1">
@@ -3112,6 +3112,646 @@
       <c r="D161" s="1">
         <f>VLOOKUP(A161,Balalnce!H:L,5,FALSE)/100</f>
         <v>326.39999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>8050</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D162" s="1">
+        <f>VLOOKUP(A162,Balalnce!H:L,5,FALSE)/100</f>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>8100</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D163" s="1">
+        <f>VLOOKUP(A163,Balalnce!H:L,5,FALSE)/100</f>
+        <v>330.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>8150</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D164" s="1">
+        <f>VLOOKUP(A164,Balalnce!H:L,5,FALSE)/100</f>
+        <v>332.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D165" s="1">
+        <f>VLOOKUP(A165,Balalnce!H:L,5,FALSE)/100</f>
+        <v>334.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>8250</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D166" s="1">
+        <f>VLOOKUP(A166,Balalnce!H:L,5,FALSE)/100</f>
+        <v>336.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D167" s="1">
+        <f>VLOOKUP(A167,Balalnce!H:L,5,FALSE)/100</f>
+        <v>338.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>8350</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D168" s="1">
+        <f>VLOOKUP(A168,Balalnce!H:L,5,FALSE)/100</f>
+        <v>340.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>8400</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D169" s="1">
+        <f>VLOOKUP(A169,Balalnce!H:L,5,FALSE)/100</f>
+        <v>342.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>8450</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D170" s="1">
+        <f>VLOOKUP(A170,Balalnce!H:L,5,FALSE)/100</f>
+        <v>344.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>8500</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D171" s="1">
+        <f>VLOOKUP(A171,Balalnce!H:L,5,FALSE)/100</f>
+        <v>346.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>8550</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D172" s="1">
+        <f>VLOOKUP(A172,Balalnce!H:L,5,FALSE)/100</f>
+        <v>348.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D173" s="1">
+        <f>VLOOKUP(A173,Balalnce!H:L,5,FALSE)/100</f>
+        <v>350.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>8650</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D174" s="1">
+        <f>VLOOKUP(A174,Balalnce!H:L,5,FALSE)/100</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D175" s="1">
+        <f>VLOOKUP(A175,Balalnce!H:L,5,FALSE)/100</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>8750</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D176" s="1">
+        <f>VLOOKUP(A176,Balalnce!H:L,5,FALSE)/100</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>8800</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D177" s="1">
+        <f>VLOOKUP(A177,Balalnce!H:L,5,FALSE)/100</f>
+        <v>359.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>8850</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D178" s="1">
+        <f>VLOOKUP(A178,Balalnce!H:L,5,FALSE)/100</f>
+        <v>361.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D179" s="1">
+        <f>VLOOKUP(A179,Balalnce!H:L,5,FALSE)/100</f>
+        <v>363.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>8950</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D180" s="1">
+        <f>VLOOKUP(A180,Balalnce!H:L,5,FALSE)/100</f>
+        <v>365.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D181" s="1">
+        <f>VLOOKUP(A181,Balalnce!H:L,5,FALSE)/100</f>
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>9050</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="D182" s="1">
+        <f>VLOOKUP(A182,Balalnce!H:L,5,FALSE)/100</f>
+        <v>369.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>9100</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" ref="C183:C201" si="5">C182</f>
+        <v>49</v>
+      </c>
+      <c r="D183" s="1">
+        <f>VLOOKUP(A183,Balalnce!H:L,5,FALSE)/100</f>
+        <v>371.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>9150</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D184" s="1">
+        <f>VLOOKUP(A184,Balalnce!H:L,5,FALSE)/100</f>
+        <v>373.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D185" s="1">
+        <f>VLOOKUP(A185,Balalnce!H:L,5,FALSE)/100</f>
+        <v>375.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>9250</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D186" s="1">
+        <f>VLOOKUP(A186,Balalnce!H:L,5,FALSE)/100</f>
+        <v>377.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>9300</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D187" s="1">
+        <f>VLOOKUP(A187,Balalnce!H:L,5,FALSE)/100</f>
+        <v>379.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>9350</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D188" s="1">
+        <f>VLOOKUP(A188,Balalnce!H:L,5,FALSE)/100</f>
+        <v>381.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>9400</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D189" s="1">
+        <f>VLOOKUP(A189,Balalnce!H:L,5,FALSE)/100</f>
+        <v>383.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>9450</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D190" s="1">
+        <f>VLOOKUP(A190,Balalnce!H:L,5,FALSE)/100</f>
+        <v>385.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>9500</v>
+      </c>
+      <c r="C191" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D191" s="1">
+        <f>VLOOKUP(A191,Balalnce!H:L,5,FALSE)/100</f>
+        <v>387.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>9550</v>
+      </c>
+      <c r="C192" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D192" s="1">
+        <f>VLOOKUP(A192,Balalnce!H:L,5,FALSE)/100</f>
+        <v>389.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>9600</v>
+      </c>
+      <c r="C193" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D193" s="1">
+        <f>VLOOKUP(A193,Balalnce!H:L,5,FALSE)/100</f>
+        <v>391.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>9650</v>
+      </c>
+      <c r="C194" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D194" s="1">
+        <f>VLOOKUP(A194,Balalnce!H:L,5,FALSE)/100</f>
+        <v>393.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>9700</v>
+      </c>
+      <c r="C195" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D195" s="1">
+        <f>VLOOKUP(A195,Balalnce!H:L,5,FALSE)/100</f>
+        <v>395.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>9750</v>
+      </c>
+      <c r="C196" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D196" s="1">
+        <f>VLOOKUP(A196,Balalnce!H:L,5,FALSE)/100</f>
+        <v>397.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C197" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D197" s="1">
+        <f>VLOOKUP(A197,Balalnce!H:L,5,FALSE)/100</f>
+        <v>399.9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>9850</v>
+      </c>
+      <c r="C198" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D198" s="1">
+        <f>VLOOKUP(A198,Balalnce!H:L,5,FALSE)/100</f>
+        <v>401.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>9900</v>
+      </c>
+      <c r="C199" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D199" s="1">
+        <f>VLOOKUP(A199,Balalnce!H:L,5,FALSE)/100</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>9950</v>
+      </c>
+      <c r="C200" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D200" s="1">
+        <f>VLOOKUP(A200,Balalnce!H:L,5,FALSE)/100</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C201" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D201" s="1">
+        <f>VLOOKUP(A201,Balalnce!H:L,5,FALSE)/100</f>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3123,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L163"/>
+  <dimension ref="A3:L203"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134:L163"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5434,14 +6074,14 @@
         <v>140</v>
       </c>
       <c r="I144">
-        <f t="shared" ref="I144:I163" si="6">J144*$B$6</f>
+        <f t="shared" ref="I144:I173" si="6">J144*$B$6</f>
         <v>705000</v>
       </c>
       <c r="J144">
         <v>7050</v>
       </c>
       <c r="L144">
-        <f t="shared" ref="L144:L163" si="7">ROUNDUP(((I144/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L144:L173" si="7">ROUNDUP(((I144/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>28770</v>
       </c>
     </row>
@@ -5747,6 +6387,646 @@
       <c r="L163">
         <f t="shared" si="7"/>
         <v>32640</v>
+      </c>
+    </row>
+    <row r="164" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <v>160</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="6"/>
+        <v>805000</v>
+      </c>
+      <c r="J164">
+        <v>8050</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="7"/>
+        <v>32850</v>
+      </c>
+    </row>
+    <row r="165" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <v>161</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="6"/>
+        <v>810000</v>
+      </c>
+      <c r="J165">
+        <v>8100</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="7"/>
+        <v>33050</v>
+      </c>
+    </row>
+    <row r="166" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <v>162</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="6"/>
+        <v>815000</v>
+      </c>
+      <c r="J166">
+        <v>8150</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="7"/>
+        <v>33260</v>
+      </c>
+    </row>
+    <row r="167" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <v>163</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="6"/>
+        <v>820000</v>
+      </c>
+      <c r="J167">
+        <v>8200</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="7"/>
+        <v>33460</v>
+      </c>
+    </row>
+    <row r="168" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <v>164</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="6"/>
+        <v>825000</v>
+      </c>
+      <c r="J168">
+        <v>8250</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="7"/>
+        <v>33660</v>
+      </c>
+    </row>
+    <row r="169" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <v>165</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="6"/>
+        <v>830000</v>
+      </c>
+      <c r="J169">
+        <v>8300</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="7"/>
+        <v>33870</v>
+      </c>
+    </row>
+    <row r="170" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <v>166</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="6"/>
+        <v>835000</v>
+      </c>
+      <c r="J170">
+        <v>8350</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="7"/>
+        <v>34070</v>
+      </c>
+    </row>
+    <row r="171" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <v>167</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="6"/>
+        <v>840000</v>
+      </c>
+      <c r="J171">
+        <v>8400</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="7"/>
+        <v>34280</v>
+      </c>
+    </row>
+    <row r="172" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <v>168</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="6"/>
+        <v>845000</v>
+      </c>
+      <c r="J172">
+        <v>8450</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="7"/>
+        <v>34480</v>
+      </c>
+    </row>
+    <row r="173" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H173">
+        <v>169</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="6"/>
+        <v>850000</v>
+      </c>
+      <c r="J173">
+        <v>8500</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="7"/>
+        <v>34680</v>
+      </c>
+    </row>
+    <row r="174" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <v>170</v>
+      </c>
+      <c r="I174">
+        <f t="shared" ref="I174:I203" si="8">J174*$B$6</f>
+        <v>855000</v>
+      </c>
+      <c r="J174">
+        <v>8550</v>
+      </c>
+      <c r="L174">
+        <f t="shared" ref="L174:L203" si="9">ROUNDUP(((I174/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>34890</v>
+      </c>
+    </row>
+    <row r="175" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <v>171</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="8"/>
+        <v>860000</v>
+      </c>
+      <c r="J175">
+        <v>8600</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="9"/>
+        <v>35090</v>
+      </c>
+    </row>
+    <row r="176" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <v>172</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="8"/>
+        <v>865000</v>
+      </c>
+      <c r="J176">
+        <v>8650</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="9"/>
+        <v>35300</v>
+      </c>
+    </row>
+    <row r="177" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>173</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="8"/>
+        <v>870000</v>
+      </c>
+      <c r="J177">
+        <v>8700</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="9"/>
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="178" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>174</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="8"/>
+        <v>875000</v>
+      </c>
+      <c r="J178">
+        <v>8750</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="9"/>
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="179" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <v>175</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="8"/>
+        <v>880000</v>
+      </c>
+      <c r="J179">
+        <v>8800</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="9"/>
+        <v>35910</v>
+      </c>
+    </row>
+    <row r="180" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <v>176</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="8"/>
+        <v>885000</v>
+      </c>
+      <c r="J180">
+        <v>8850</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="9"/>
+        <v>36110</v>
+      </c>
+    </row>
+    <row r="181" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <v>177</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="8"/>
+        <v>890000</v>
+      </c>
+      <c r="J181">
+        <v>8900</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="9"/>
+        <v>36320</v>
+      </c>
+    </row>
+    <row r="182" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H182">
+        <v>178</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="8"/>
+        <v>895000</v>
+      </c>
+      <c r="J182">
+        <v>8950</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="9"/>
+        <v>36520</v>
+      </c>
+    </row>
+    <row r="183" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <v>179</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="8"/>
+        <v>900000</v>
+      </c>
+      <c r="J183">
+        <v>9000</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="9"/>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="184" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <v>180</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="8"/>
+        <v>905000</v>
+      </c>
+      <c r="J184">
+        <v>9050</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="9"/>
+        <v>36930</v>
+      </c>
+    </row>
+    <row r="185" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <v>181</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="8"/>
+        <v>910000</v>
+      </c>
+      <c r="J185">
+        <v>9100</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="9"/>
+        <v>37130</v>
+      </c>
+    </row>
+    <row r="186" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <v>182</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="8"/>
+        <v>915000</v>
+      </c>
+      <c r="J186">
+        <v>9150</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="9"/>
+        <v>37340</v>
+      </c>
+    </row>
+    <row r="187" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <v>183</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="8"/>
+        <v>920000</v>
+      </c>
+      <c r="J187">
+        <v>9200</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="9"/>
+        <v>37540</v>
+      </c>
+    </row>
+    <row r="188" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <v>184</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="8"/>
+        <v>925000</v>
+      </c>
+      <c r="J188">
+        <v>9250</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="9"/>
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="189" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>185</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="8"/>
+        <v>930000</v>
+      </c>
+      <c r="J189">
+        <v>9300</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="9"/>
+        <v>37950</v>
+      </c>
+    </row>
+    <row r="190" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <v>186</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="8"/>
+        <v>935000</v>
+      </c>
+      <c r="J190">
+        <v>9350</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="9"/>
+        <v>38150</v>
+      </c>
+    </row>
+    <row r="191" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <v>187</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="8"/>
+        <v>940000</v>
+      </c>
+      <c r="J191">
+        <v>9400</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="9"/>
+        <v>38360</v>
+      </c>
+    </row>
+    <row r="192" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <v>188</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="8"/>
+        <v>945000</v>
+      </c>
+      <c r="J192">
+        <v>9450</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="9"/>
+        <v>38560</v>
+      </c>
+    </row>
+    <row r="193" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <v>189</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="8"/>
+        <v>950000</v>
+      </c>
+      <c r="J193">
+        <v>9500</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="9"/>
+        <v>38760</v>
+      </c>
+    </row>
+    <row r="194" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <v>190</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="8"/>
+        <v>955000</v>
+      </c>
+      <c r="J194">
+        <v>9550</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="9"/>
+        <v>38970</v>
+      </c>
+    </row>
+    <row r="195" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <v>191</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="8"/>
+        <v>960000</v>
+      </c>
+      <c r="J195">
+        <v>9600</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="9"/>
+        <v>39170</v>
+      </c>
+    </row>
+    <row r="196" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <v>192</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="8"/>
+        <v>965000</v>
+      </c>
+      <c r="J196">
+        <v>9650</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="9"/>
+        <v>39380</v>
+      </c>
+    </row>
+    <row r="197" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <v>193</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="8"/>
+        <v>970000</v>
+      </c>
+      <c r="J197">
+        <v>9700</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="9"/>
+        <v>39580</v>
+      </c>
+    </row>
+    <row r="198" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <v>194</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="8"/>
+        <v>975000</v>
+      </c>
+      <c r="J198">
+        <v>9750</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="9"/>
+        <v>39780</v>
+      </c>
+    </row>
+    <row r="199" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <v>195</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="8"/>
+        <v>980000</v>
+      </c>
+      <c r="J199">
+        <v>9800</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="9"/>
+        <v>39990</v>
+      </c>
+    </row>
+    <row r="200" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <v>196</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="8"/>
+        <v>985000</v>
+      </c>
+      <c r="J200">
+        <v>9850</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="9"/>
+        <v>40190</v>
+      </c>
+    </row>
+    <row r="201" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <v>197</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="8"/>
+        <v>990000</v>
+      </c>
+      <c r="J201">
+        <v>9900</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="9"/>
+        <v>40400</v>
+      </c>
+    </row>
+    <row r="202" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <v>198</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="8"/>
+        <v>995000</v>
+      </c>
+      <c r="J202">
+        <v>9950</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="9"/>
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="203" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <v>199</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="8"/>
+        <v>1000000</v>
+      </c>
+      <c r="J203">
+        <v>10000</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="9"/>
+        <v>40800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1F933-1BE9-4CCA-B956-2D254459D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FD641-2CAA-4D71-9239-44FD2C37E41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhoUpgrade" sheetId="1" r:id="rId1"/>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3458,7 +3458,7 @@
         <v>9100</v>
       </c>
       <c r="C183" s="1">
-        <f t="shared" ref="C183:C201" si="5">C182</f>
+        <f t="shared" ref="C183:C241" si="5">C182</f>
         <v>49</v>
       </c>
       <c r="D183" s="1">
@@ -3752,6 +3752,646 @@
       <c r="D201" s="1">
         <f>VLOOKUP(A201,Balalnce!H:L,5,FALSE)/100</f>
         <v>408</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>10050</v>
+      </c>
+      <c r="C202" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D202" s="1">
+        <f>VLOOKUP(A202,Balalnce!H:L,5,FALSE)/100</f>
+        <v>410.1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>10100</v>
+      </c>
+      <c r="C203" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D203" s="1">
+        <f>VLOOKUP(A203,Balalnce!H:L,5,FALSE)/100</f>
+        <v>412.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>10150</v>
+      </c>
+      <c r="C204" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D204" s="1">
+        <f>VLOOKUP(A204,Balalnce!H:L,5,FALSE)/100</f>
+        <v>414.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C205" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D205" s="1">
+        <f>VLOOKUP(A205,Balalnce!H:L,5,FALSE)/100</f>
+        <v>416.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>10250</v>
+      </c>
+      <c r="C206" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D206" s="1">
+        <f>VLOOKUP(A206,Balalnce!H:L,5,FALSE)/100</f>
+        <v>418.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>10300</v>
+      </c>
+      <c r="C207" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D207" s="1">
+        <f>VLOOKUP(A207,Balalnce!H:L,5,FALSE)/100</f>
+        <v>420.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>10350</v>
+      </c>
+      <c r="C208" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D208" s="1">
+        <f>VLOOKUP(A208,Balalnce!H:L,5,FALSE)/100</f>
+        <v>422.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C209" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D209" s="1">
+        <f>VLOOKUP(A209,Balalnce!H:L,5,FALSE)/100</f>
+        <v>424.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>10450</v>
+      </c>
+      <c r="C210" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D210" s="1">
+        <f>VLOOKUP(A210,Balalnce!H:L,5,FALSE)/100</f>
+        <v>426.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>10500</v>
+      </c>
+      <c r="C211" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D211" s="1">
+        <f>VLOOKUP(A211,Balalnce!H:L,5,FALSE)/100</f>
+        <v>428.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>10550</v>
+      </c>
+      <c r="C212" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D212" s="1">
+        <f>VLOOKUP(A212,Balalnce!H:L,5,FALSE)/100</f>
+        <v>430.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>10600</v>
+      </c>
+      <c r="C213" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D213" s="1">
+        <f>VLOOKUP(A213,Balalnce!H:L,5,FALSE)/100</f>
+        <v>432.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>10650</v>
+      </c>
+      <c r="C214" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D214" s="1">
+        <f>VLOOKUP(A214,Balalnce!H:L,5,FALSE)/100</f>
+        <v>434.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>10700</v>
+      </c>
+      <c r="C215" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D215" s="1">
+        <f>VLOOKUP(A215,Balalnce!H:L,5,FALSE)/100</f>
+        <v>436.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>10750</v>
+      </c>
+      <c r="C216" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D216" s="1">
+        <f>VLOOKUP(A216,Balalnce!H:L,5,FALSE)/100</f>
+        <v>438.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C217" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D217" s="1">
+        <f>VLOOKUP(A217,Balalnce!H:L,5,FALSE)/100</f>
+        <v>440.7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>10850</v>
+      </c>
+      <c r="C218" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D218" s="1">
+        <f>VLOOKUP(A218,Balalnce!H:L,5,FALSE)/100</f>
+        <v>442.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>10900</v>
+      </c>
+      <c r="C219" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D219" s="1">
+        <f>VLOOKUP(A219,Balalnce!H:L,5,FALSE)/100</f>
+        <v>444.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>10950</v>
+      </c>
+      <c r="C220" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D220" s="1">
+        <f>VLOOKUP(A220,Balalnce!H:L,5,FALSE)/100</f>
+        <v>446.8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C221" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D221" s="1">
+        <f>VLOOKUP(A221,Balalnce!H:L,5,FALSE)/100</f>
+        <v>448.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>11050</v>
+      </c>
+      <c r="C222" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D222" s="1">
+        <f>VLOOKUP(A222,Balalnce!H:L,5,FALSE)/100</f>
+        <v>450.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>11100</v>
+      </c>
+      <c r="C223" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D223" s="1">
+        <f>VLOOKUP(A223,Balalnce!H:L,5,FALSE)/100</f>
+        <v>452.9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>11150</v>
+      </c>
+      <c r="C224" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D224" s="1">
+        <f>VLOOKUP(A224,Balalnce!H:L,5,FALSE)/100</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>11200</v>
+      </c>
+      <c r="C225" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D225" s="1">
+        <f>VLOOKUP(A225,Balalnce!H:L,5,FALSE)/100</f>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>11250</v>
+      </c>
+      <c r="C226" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D226" s="1">
+        <f>VLOOKUP(A226,Balalnce!H:L,5,FALSE)/100</f>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>11300</v>
+      </c>
+      <c r="C227" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D227" s="1">
+        <f>VLOOKUP(A227,Balalnce!H:L,5,FALSE)/100</f>
+        <v>461.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>11350</v>
+      </c>
+      <c r="C228" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D228" s="1">
+        <f>VLOOKUP(A228,Balalnce!H:L,5,FALSE)/100</f>
+        <v>463.1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>11400</v>
+      </c>
+      <c r="C229" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D229" s="1">
+        <f>VLOOKUP(A229,Balalnce!H:L,5,FALSE)/100</f>
+        <v>465.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>11450</v>
+      </c>
+      <c r="C230" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D230" s="1">
+        <f>VLOOKUP(A230,Balalnce!H:L,5,FALSE)/100</f>
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C231" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D231" s="1">
+        <f>VLOOKUP(A231,Balalnce!H:L,5,FALSE)/100</f>
+        <v>469.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>11550</v>
+      </c>
+      <c r="C232" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D232" s="1">
+        <f>VLOOKUP(A232,Balalnce!H:L,5,FALSE)/100</f>
+        <v>471.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>11600</v>
+      </c>
+      <c r="C233" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D233" s="1">
+        <f>VLOOKUP(A233,Balalnce!H:L,5,FALSE)/100</f>
+        <v>473.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>11650</v>
+      </c>
+      <c r="C234" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D234" s="1">
+        <f>VLOOKUP(A234,Balalnce!H:L,5,FALSE)/100</f>
+        <v>475.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>11700</v>
+      </c>
+      <c r="C235" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D235" s="1">
+        <f>VLOOKUP(A235,Balalnce!H:L,5,FALSE)/100</f>
+        <v>477.4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>11750</v>
+      </c>
+      <c r="C236" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D236" s="1">
+        <f>VLOOKUP(A236,Balalnce!H:L,5,FALSE)/100</f>
+        <v>479.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>11800</v>
+      </c>
+      <c r="C237" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D237" s="1">
+        <f>VLOOKUP(A237,Balalnce!H:L,5,FALSE)/100</f>
+        <v>481.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>11850</v>
+      </c>
+      <c r="C238" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D238" s="1">
+        <f>VLOOKUP(A238,Balalnce!H:L,5,FALSE)/100</f>
+        <v>483.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>11900</v>
+      </c>
+      <c r="C239" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D239" s="1">
+        <f>VLOOKUP(A239,Balalnce!H:L,5,FALSE)/100</f>
+        <v>485.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>11950</v>
+      </c>
+      <c r="C240" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D240" s="1">
+        <f>VLOOKUP(A240,Balalnce!H:L,5,FALSE)/100</f>
+        <v>487.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C241" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D241" s="1">
+        <f>VLOOKUP(A241,Balalnce!H:L,5,FALSE)/100</f>
+        <v>489.6</v>
       </c>
     </row>
   </sheetData>
@@ -3763,10 +4403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L203"/>
+  <dimension ref="A3:L243"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="J197" sqref="J197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L233" sqref="L233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6561,7 +7201,7 @@
         <v>8550</v>
       </c>
       <c r="L174">
-        <f t="shared" ref="L174:L203" si="9">ROUNDUP(((I174/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L174:L237" si="9">ROUNDUP(((I174/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>34890</v>
       </c>
     </row>
@@ -6970,7 +7610,7 @@
         <v>196</v>
       </c>
       <c r="I200">
-        <f t="shared" si="8"/>
+        <f>J200*$B$6</f>
         <v>985000</v>
       </c>
       <c r="J200">
@@ -7027,6 +7667,646 @@
       <c r="L203">
         <f t="shared" si="9"/>
         <v>40800</v>
+      </c>
+    </row>
+    <row r="204" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <v>200</v>
+      </c>
+      <c r="I204">
+        <f t="shared" ref="I204:I207" si="10">J204*$B$6</f>
+        <v>1005000</v>
+      </c>
+      <c r="J204">
+        <v>10050</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="9"/>
+        <v>41010</v>
+      </c>
+    </row>
+    <row r="205" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <v>201</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="10"/>
+        <v>1010000</v>
+      </c>
+      <c r="J205">
+        <v>10100</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="9"/>
+        <v>41210</v>
+      </c>
+    </row>
+    <row r="206" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <v>202</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="10"/>
+        <v>1015000</v>
+      </c>
+      <c r="J206">
+        <v>10150</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="9"/>
+        <v>41420</v>
+      </c>
+    </row>
+    <row r="207" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <v>203</v>
+      </c>
+      <c r="I207">
+        <f>J207*$B$6</f>
+        <v>1020000</v>
+      </c>
+      <c r="J207">
+        <v>10200</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="9"/>
+        <v>41620</v>
+      </c>
+    </row>
+    <row r="208" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <v>204</v>
+      </c>
+      <c r="I208">
+        <f t="shared" ref="I208:I243" si="11">J208*$B$6</f>
+        <v>1025000</v>
+      </c>
+      <c r="J208">
+        <v>10250</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="9"/>
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="209" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <v>205</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="11"/>
+        <v>1030000</v>
+      </c>
+      <c r="J209">
+        <v>10300</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="9"/>
+        <v>42030</v>
+      </c>
+    </row>
+    <row r="210" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <v>206</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="11"/>
+        <v>1035000</v>
+      </c>
+      <c r="J210">
+        <v>10350</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="9"/>
+        <v>42230</v>
+      </c>
+    </row>
+    <row r="211" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <v>207</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="11"/>
+        <v>1040000</v>
+      </c>
+      <c r="J211">
+        <v>10400</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="9"/>
+        <v>42440</v>
+      </c>
+    </row>
+    <row r="212" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <v>208</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="11"/>
+        <v>1045000</v>
+      </c>
+      <c r="J212">
+        <v>10450</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="9"/>
+        <v>42640</v>
+      </c>
+    </row>
+    <row r="213" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H213">
+        <v>209</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="11"/>
+        <v>1050000</v>
+      </c>
+      <c r="J213">
+        <v>10500</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="9"/>
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="214" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <v>210</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="11"/>
+        <v>1055000</v>
+      </c>
+      <c r="J214">
+        <v>10550</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="9"/>
+        <v>43050</v>
+      </c>
+    </row>
+    <row r="215" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <v>211</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="11"/>
+        <v>1060000</v>
+      </c>
+      <c r="J215">
+        <v>10600</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="9"/>
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="216" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <v>212</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="11"/>
+        <v>1065000</v>
+      </c>
+      <c r="J216">
+        <v>10650</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="9"/>
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="217" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H217">
+        <v>213</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="11"/>
+        <v>1070000</v>
+      </c>
+      <c r="J217">
+        <v>10700</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="9"/>
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="218" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H218">
+        <v>214</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="11"/>
+        <v>1075000</v>
+      </c>
+      <c r="J218">
+        <v>10750</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="9"/>
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="219" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H219">
+        <v>215</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="11"/>
+        <v>1080000</v>
+      </c>
+      <c r="J219">
+        <v>10800</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="9"/>
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="220" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <v>216</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="11"/>
+        <v>1085000</v>
+      </c>
+      <c r="J220">
+        <v>10850</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="9"/>
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="221" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <v>217</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="11"/>
+        <v>1090000</v>
+      </c>
+      <c r="J221">
+        <v>10900</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="9"/>
+        <v>44480</v>
+      </c>
+    </row>
+    <row r="222" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H222">
+        <v>218</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="11"/>
+        <v>1095000</v>
+      </c>
+      <c r="J222">
+        <v>10950</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="9"/>
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="223" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H223">
+        <v>219</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="11"/>
+        <v>1100000</v>
+      </c>
+      <c r="J223">
+        <v>11000</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="9"/>
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="224" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H224">
+        <v>220</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="11"/>
+        <v>1105000</v>
+      </c>
+      <c r="J224">
+        <v>11050</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="9"/>
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="225" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H225">
+        <v>221</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="11"/>
+        <v>1110000</v>
+      </c>
+      <c r="J225">
+        <v>11100</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="9"/>
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="226" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <v>222</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="11"/>
+        <v>1115000</v>
+      </c>
+      <c r="J226">
+        <v>11150</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="9"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="227" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H227">
+        <v>223</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="11"/>
+        <v>1120000</v>
+      </c>
+      <c r="J227">
+        <v>11200</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="9"/>
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="228" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H228">
+        <v>224</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="11"/>
+        <v>1125000</v>
+      </c>
+      <c r="J228">
+        <v>11250</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="9"/>
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="229" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H229">
+        <v>225</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="11"/>
+        <v>1130000</v>
+      </c>
+      <c r="J229">
+        <v>11300</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="9"/>
+        <v>46110</v>
+      </c>
+    </row>
+    <row r="230" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <v>226</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="11"/>
+        <v>1135000</v>
+      </c>
+      <c r="J230">
+        <v>11350</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="9"/>
+        <v>46310</v>
+      </c>
+    </row>
+    <row r="231" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <v>227</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="11"/>
+        <v>1140000</v>
+      </c>
+      <c r="J231">
+        <v>11400</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="9"/>
+        <v>46520</v>
+      </c>
+    </row>
+    <row r="232" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <v>228</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="11"/>
+        <v>1145000</v>
+      </c>
+      <c r="J232">
+        <v>11450</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="9"/>
+        <v>46720</v>
+      </c>
+    </row>
+    <row r="233" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H233">
+        <v>229</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="11"/>
+        <v>1150000</v>
+      </c>
+      <c r="J233">
+        <v>11500</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="9"/>
+        <v>46920</v>
+      </c>
+    </row>
+    <row r="234" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H234">
+        <v>230</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="11"/>
+        <v>1155000</v>
+      </c>
+      <c r="J234">
+        <v>11550</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="9"/>
+        <v>47130</v>
+      </c>
+    </row>
+    <row r="235" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <v>231</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="11"/>
+        <v>1160000</v>
+      </c>
+      <c r="J235">
+        <v>11600</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="9"/>
+        <v>47330</v>
+      </c>
+    </row>
+    <row r="236" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H236">
+        <v>232</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="11"/>
+        <v>1165000</v>
+      </c>
+      <c r="J236">
+        <v>11650</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="9"/>
+        <v>47540</v>
+      </c>
+    </row>
+    <row r="237" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <v>233</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="11"/>
+        <v>1170000</v>
+      </c>
+      <c r="J237">
+        <v>11700</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="9"/>
+        <v>47740</v>
+      </c>
+    </row>
+    <row r="238" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <v>234</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="11"/>
+        <v>1175000</v>
+      </c>
+      <c r="J238">
+        <v>11750</v>
+      </c>
+      <c r="L238">
+        <f t="shared" ref="L238:L243" si="12">ROUNDUP(((I238/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>47940</v>
+      </c>
+    </row>
+    <row r="239" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H239">
+        <v>235</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="11"/>
+        <v>1180000</v>
+      </c>
+      <c r="J239">
+        <v>11800</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="12"/>
+        <v>48150</v>
+      </c>
+    </row>
+    <row r="240" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <v>236</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="11"/>
+        <v>1185000</v>
+      </c>
+      <c r="J240">
+        <v>11850</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="12"/>
+        <v>48350</v>
+      </c>
+    </row>
+    <row r="241" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H241">
+        <v>237</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="11"/>
+        <v>1190000</v>
+      </c>
+      <c r="J241">
+        <v>11900</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="12"/>
+        <v>48560</v>
+      </c>
+    </row>
+    <row r="242" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H242">
+        <v>238</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="11"/>
+        <v>1195000</v>
+      </c>
+      <c r="J242">
+        <v>11950</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="12"/>
+        <v>48760</v>
+      </c>
+    </row>
+    <row r="243" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H243">
+        <v>239</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="11"/>
+        <v>1200000</v>
+      </c>
+      <c r="J243">
+        <v>12000</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="12"/>
+        <v>48960</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FD641-2CAA-4D71-9239-44FD2C37E41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CA09A3-91B4-470D-BC45-28AEB484B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhoUpgrade" sheetId="1" r:id="rId1"/>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3458,7 +3458,7 @@
         <v>9100</v>
       </c>
       <c r="C183" s="1">
-        <f t="shared" ref="C183:C241" si="5">C182</f>
+        <f t="shared" ref="C183:C246" si="5">C182</f>
         <v>49</v>
       </c>
       <c r="D183" s="1">
@@ -4392,6 +4392,646 @@
       <c r="D241" s="1">
         <f>VLOOKUP(A241,Balalnce!H:L,5,FALSE)/100</f>
         <v>489.6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>12050</v>
+      </c>
+      <c r="C242" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D242" s="1">
+        <f>VLOOKUP(A242,Balalnce!H:L,5,FALSE)/100</f>
+        <v>491.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>12100</v>
+      </c>
+      <c r="C243" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D243" s="1">
+        <f>VLOOKUP(A243,Balalnce!H:L,5,FALSE)/100</f>
+        <v>493.7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>12150</v>
+      </c>
+      <c r="C244" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D244" s="1">
+        <f>VLOOKUP(A244,Balalnce!H:L,5,FALSE)/100</f>
+        <v>495.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>12200</v>
+      </c>
+      <c r="C245" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D245" s="1">
+        <f>VLOOKUP(A245,Balalnce!H:L,5,FALSE)/100</f>
+        <v>497.8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>12250</v>
+      </c>
+      <c r="C246" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="D246" s="1">
+        <f>VLOOKUP(A246,Balalnce!H:L,5,FALSE)/100</f>
+        <v>499.8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>12300</v>
+      </c>
+      <c r="C247" s="1">
+        <f t="shared" ref="C247:C281" si="6">C246</f>
+        <v>49</v>
+      </c>
+      <c r="D247" s="1">
+        <f>VLOOKUP(A247,Balalnce!H:L,5,FALSE)/100</f>
+        <v>501.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>12350</v>
+      </c>
+      <c r="C248" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D248" s="1">
+        <f>VLOOKUP(A248,Balalnce!H:L,5,FALSE)/100</f>
+        <v>503.9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>12400</v>
+      </c>
+      <c r="C249" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D249" s="1">
+        <f>VLOOKUP(A249,Balalnce!H:L,5,FALSE)/100</f>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>12450</v>
+      </c>
+      <c r="C250" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D250" s="1">
+        <f>VLOOKUP(A250,Balalnce!H:L,5,FALSE)/100</f>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C251" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D251" s="1">
+        <f>VLOOKUP(A251,Balalnce!H:L,5,FALSE)/100</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <v>12550</v>
+      </c>
+      <c r="C252" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D252" s="1">
+        <f>VLOOKUP(A252,Balalnce!H:L,5,FALSE)/100</f>
+        <v>512.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <v>12600</v>
+      </c>
+      <c r="C253" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D253" s="1">
+        <f>VLOOKUP(A253,Balalnce!H:L,5,FALSE)/100</f>
+        <v>514.1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <v>12650</v>
+      </c>
+      <c r="C254" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D254" s="1">
+        <f>VLOOKUP(A254,Balalnce!H:L,5,FALSE)/100</f>
+        <v>516.20000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <v>12700</v>
+      </c>
+      <c r="C255" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D255" s="1">
+        <f>VLOOKUP(A255,Balalnce!H:L,5,FALSE)/100</f>
+        <v>518.20000000000005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>12750</v>
+      </c>
+      <c r="C256" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D256" s="1">
+        <f>VLOOKUP(A256,Balalnce!H:L,5,FALSE)/100</f>
+        <v>520.20000000000005</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C257" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D257" s="1">
+        <f>VLOOKUP(A257,Balalnce!H:L,5,FALSE)/100</f>
+        <v>522.29999999999995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>12850</v>
+      </c>
+      <c r="C258" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D258" s="1">
+        <f>VLOOKUP(A258,Balalnce!H:L,5,FALSE)/100</f>
+        <v>524.29999999999995</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <v>12900</v>
+      </c>
+      <c r="C259" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D259" s="1">
+        <f>VLOOKUP(A259,Balalnce!H:L,5,FALSE)/100</f>
+        <v>526.4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <v>12950</v>
+      </c>
+      <c r="C260" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D260" s="1">
+        <f>VLOOKUP(A260,Balalnce!H:L,5,FALSE)/100</f>
+        <v>528.4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>13000</v>
+      </c>
+      <c r="C261" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D261" s="1">
+        <f>VLOOKUP(A261,Balalnce!H:L,5,FALSE)/100</f>
+        <v>530.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>13050</v>
+      </c>
+      <c r="C262" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D262" s="1">
+        <f>VLOOKUP(A262,Balalnce!H:L,5,FALSE)/100</f>
+        <v>532.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <v>13100</v>
+      </c>
+      <c r="C263" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D263" s="1">
+        <f>VLOOKUP(A263,Balalnce!H:L,5,FALSE)/100</f>
+        <v>534.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <v>13150</v>
+      </c>
+      <c r="C264" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D264" s="1">
+        <f>VLOOKUP(A264,Balalnce!H:L,5,FALSE)/100</f>
+        <v>536.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>13200</v>
+      </c>
+      <c r="C265" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D265" s="1">
+        <f>VLOOKUP(A265,Balalnce!H:L,5,FALSE)/100</f>
+        <v>538.6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>13250</v>
+      </c>
+      <c r="C266" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D266" s="1">
+        <f>VLOOKUP(A266,Balalnce!H:L,5,FALSE)/100</f>
+        <v>540.6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>13300</v>
+      </c>
+      <c r="C267" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D267" s="1">
+        <f>VLOOKUP(A267,Balalnce!H:L,5,FALSE)/100</f>
+        <v>542.70000000000005</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>13350</v>
+      </c>
+      <c r="C268" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D268" s="1">
+        <f>VLOOKUP(A268,Balalnce!H:L,5,FALSE)/100</f>
+        <v>544.70000000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>13400</v>
+      </c>
+      <c r="C269" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D269" s="1">
+        <f>VLOOKUP(A269,Balalnce!H:L,5,FALSE)/100</f>
+        <v>546.79999999999995</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>13450</v>
+      </c>
+      <c r="C270" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D270" s="1">
+        <f>VLOOKUP(A270,Balalnce!H:L,5,FALSE)/100</f>
+        <v>548.79999999999995</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>13500</v>
+      </c>
+      <c r="C271" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D271" s="1">
+        <f>VLOOKUP(A271,Balalnce!H:L,5,FALSE)/100</f>
+        <v>550.79999999999995</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <v>13550</v>
+      </c>
+      <c r="C272" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D272" s="1">
+        <f>VLOOKUP(A272,Balalnce!H:L,5,FALSE)/100</f>
+        <v>552.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <v>13600</v>
+      </c>
+      <c r="C273" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D273" s="1">
+        <f>VLOOKUP(A273,Balalnce!H:L,5,FALSE)/100</f>
+        <v>554.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <v>13650</v>
+      </c>
+      <c r="C274" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D274" s="1">
+        <f>VLOOKUP(A274,Balalnce!H:L,5,FALSE)/100</f>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <v>13700</v>
+      </c>
+      <c r="C275" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D275" s="1">
+        <f>VLOOKUP(A275,Balalnce!H:L,5,FALSE)/100</f>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>13750</v>
+      </c>
+      <c r="C276" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D276" s="1">
+        <f>VLOOKUP(A276,Balalnce!H:L,5,FALSE)/100</f>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2">
+        <v>13800</v>
+      </c>
+      <c r="C277" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D277" s="1">
+        <f>VLOOKUP(A277,Balalnce!H:L,5,FALSE)/100</f>
+        <v>563.1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2">
+        <v>13850</v>
+      </c>
+      <c r="C278" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D278" s="1">
+        <f>VLOOKUP(A278,Balalnce!H:L,5,FALSE)/100</f>
+        <v>565.1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <v>13900</v>
+      </c>
+      <c r="C279" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D279" s="1">
+        <f>VLOOKUP(A279,Balalnce!H:L,5,FALSE)/100</f>
+        <v>567.20000000000005</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <v>13950</v>
+      </c>
+      <c r="C280" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D280" s="1">
+        <f>VLOOKUP(A280,Balalnce!H:L,5,FALSE)/100</f>
+        <v>569.20000000000005</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>14000</v>
+      </c>
+      <c r="C281" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D281" s="1">
+        <f>VLOOKUP(A281,Balalnce!H:L,5,FALSE)/100</f>
+        <v>571.20000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -4403,10 +5043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L243"/>
+  <dimension ref="A3:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L233" sqref="L233"/>
+    <sheetView topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="H281" sqref="H281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7674,7 +8314,7 @@
         <v>200</v>
       </c>
       <c r="I204">
-        <f t="shared" ref="I204:I207" si="10">J204*$B$6</f>
+        <f t="shared" ref="I204:I206" si="10">J204*$B$6</f>
         <v>1005000</v>
       </c>
       <c r="J204">
@@ -8225,7 +8865,7 @@
         <v>11750</v>
       </c>
       <c r="L238">
-        <f t="shared" ref="L238:L243" si="12">ROUNDUP(((I238/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L238:L249" si="12">ROUNDUP(((I238/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>47940</v>
       </c>
     </row>
@@ -8307,6 +8947,646 @@
       <c r="L243">
         <f t="shared" si="12"/>
         <v>48960</v>
+      </c>
+    </row>
+    <row r="244" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H244">
+        <v>240</v>
+      </c>
+      <c r="I244">
+        <f t="shared" ref="I244:I278" si="13">J244*$B$6</f>
+        <v>1205000</v>
+      </c>
+      <c r="J244">
+        <v>12050</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="12"/>
+        <v>49170</v>
+      </c>
+    </row>
+    <row r="245" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <v>241</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="13"/>
+        <v>1210000</v>
+      </c>
+      <c r="J245">
+        <v>12100</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="12"/>
+        <v>49370</v>
+      </c>
+    </row>
+    <row r="246" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H246">
+        <v>242</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="13"/>
+        <v>1215000</v>
+      </c>
+      <c r="J246">
+        <v>12150</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="12"/>
+        <v>49580</v>
+      </c>
+    </row>
+    <row r="247" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H247">
+        <v>243</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="13"/>
+        <v>1220000</v>
+      </c>
+      <c r="J247">
+        <v>12200</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="12"/>
+        <v>49780</v>
+      </c>
+    </row>
+    <row r="248" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H248">
+        <v>244</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="13"/>
+        <v>1225000</v>
+      </c>
+      <c r="J248">
+        <v>12250</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="12"/>
+        <v>49980</v>
+      </c>
+    </row>
+    <row r="249" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H249">
+        <v>245</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="13"/>
+        <v>1230000</v>
+      </c>
+      <c r="J249">
+        <v>12300</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="12"/>
+        <v>50190</v>
+      </c>
+    </row>
+    <row r="250" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H250">
+        <v>246</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="13"/>
+        <v>1235000</v>
+      </c>
+      <c r="J250">
+        <v>12350</v>
+      </c>
+      <c r="L250">
+        <f t="shared" ref="L250:L283" si="14">ROUNDUP(((I250/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>50390</v>
+      </c>
+    </row>
+    <row r="251" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H251">
+        <v>247</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="13"/>
+        <v>1240000</v>
+      </c>
+      <c r="J251">
+        <v>12400</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="14"/>
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="252" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H252">
+        <v>248</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="13"/>
+        <v>1245000</v>
+      </c>
+      <c r="J252">
+        <v>12450</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="14"/>
+        <v>50800</v>
+      </c>
+    </row>
+    <row r="253" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H253">
+        <v>249</v>
+      </c>
+      <c r="I253">
+        <f t="shared" si="13"/>
+        <v>1250000</v>
+      </c>
+      <c r="J253">
+        <v>12500</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="14"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="254" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H254">
+        <v>250</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="13"/>
+        <v>1255000</v>
+      </c>
+      <c r="J254">
+        <v>12550</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="14"/>
+        <v>51210</v>
+      </c>
+    </row>
+    <row r="255" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H255">
+        <v>251</v>
+      </c>
+      <c r="I255">
+        <f t="shared" si="13"/>
+        <v>1260000</v>
+      </c>
+      <c r="J255">
+        <v>12600</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="14"/>
+        <v>51410</v>
+      </c>
+    </row>
+    <row r="256" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H256">
+        <v>252</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="13"/>
+        <v>1265000</v>
+      </c>
+      <c r="J256">
+        <v>12650</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="14"/>
+        <v>51620</v>
+      </c>
+    </row>
+    <row r="257" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H257">
+        <v>253</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="13"/>
+        <v>1270000</v>
+      </c>
+      <c r="J257">
+        <v>12700</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="14"/>
+        <v>51820</v>
+      </c>
+    </row>
+    <row r="258" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H258">
+        <v>254</v>
+      </c>
+      <c r="I258">
+        <f t="shared" si="13"/>
+        <v>1275000</v>
+      </c>
+      <c r="J258">
+        <v>12750</v>
+      </c>
+      <c r="L258">
+        <f t="shared" si="14"/>
+        <v>52020</v>
+      </c>
+    </row>
+    <row r="259" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H259">
+        <v>255</v>
+      </c>
+      <c r="I259">
+        <f t="shared" si="13"/>
+        <v>1280000</v>
+      </c>
+      <c r="J259">
+        <v>12800</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="14"/>
+        <v>52230</v>
+      </c>
+    </row>
+    <row r="260" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H260">
+        <v>256</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="13"/>
+        <v>1285000</v>
+      </c>
+      <c r="J260">
+        <v>12850</v>
+      </c>
+      <c r="L260">
+        <f t="shared" si="14"/>
+        <v>52430</v>
+      </c>
+    </row>
+    <row r="261" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H261">
+        <v>257</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="13"/>
+        <v>1290000</v>
+      </c>
+      <c r="J261">
+        <v>12900</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="14"/>
+        <v>52640</v>
+      </c>
+    </row>
+    <row r="262" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H262">
+        <v>258</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="13"/>
+        <v>1295000</v>
+      </c>
+      <c r="J262">
+        <v>12950</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="14"/>
+        <v>52840</v>
+      </c>
+    </row>
+    <row r="263" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H263">
+        <v>259</v>
+      </c>
+      <c r="I263">
+        <f t="shared" si="13"/>
+        <v>1300000</v>
+      </c>
+      <c r="J263">
+        <v>13000</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="14"/>
+        <v>53040</v>
+      </c>
+    </row>
+    <row r="264" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H264">
+        <v>260</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="13"/>
+        <v>1305000</v>
+      </c>
+      <c r="J264">
+        <v>13050</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="14"/>
+        <v>53250</v>
+      </c>
+    </row>
+    <row r="265" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H265">
+        <v>261</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="13"/>
+        <v>1310000</v>
+      </c>
+      <c r="J265">
+        <v>13100</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="14"/>
+        <v>53450</v>
+      </c>
+    </row>
+    <row r="266" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H266">
+        <v>262</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="13"/>
+        <v>1315000</v>
+      </c>
+      <c r="J266">
+        <v>13150</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="14"/>
+        <v>53660</v>
+      </c>
+    </row>
+    <row r="267" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <v>263</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="13"/>
+        <v>1320000</v>
+      </c>
+      <c r="J267">
+        <v>13200</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="14"/>
+        <v>53860</v>
+      </c>
+    </row>
+    <row r="268" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H268">
+        <v>264</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="13"/>
+        <v>1325000</v>
+      </c>
+      <c r="J268">
+        <v>13250</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="14"/>
+        <v>54060</v>
+      </c>
+    </row>
+    <row r="269" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H269">
+        <v>265</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="13"/>
+        <v>1330000</v>
+      </c>
+      <c r="J269">
+        <v>13300</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="14"/>
+        <v>54270</v>
+      </c>
+    </row>
+    <row r="270" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H270">
+        <v>266</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="13"/>
+        <v>1335000</v>
+      </c>
+      <c r="J270">
+        <v>13350</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="14"/>
+        <v>54470</v>
+      </c>
+    </row>
+    <row r="271" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H271">
+        <v>267</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="13"/>
+        <v>1340000</v>
+      </c>
+      <c r="J271">
+        <v>13400</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="14"/>
+        <v>54680</v>
+      </c>
+    </row>
+    <row r="272" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H272">
+        <v>268</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="13"/>
+        <v>1345000</v>
+      </c>
+      <c r="J272">
+        <v>13450</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="14"/>
+        <v>54880</v>
+      </c>
+    </row>
+    <row r="273" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H273">
+        <v>269</v>
+      </c>
+      <c r="I273">
+        <f t="shared" si="13"/>
+        <v>1350000</v>
+      </c>
+      <c r="J273">
+        <v>13500</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="14"/>
+        <v>55080</v>
+      </c>
+    </row>
+    <row r="274" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H274">
+        <v>270</v>
+      </c>
+      <c r="I274">
+        <f t="shared" si="13"/>
+        <v>1355000</v>
+      </c>
+      <c r="J274">
+        <v>13550</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="14"/>
+        <v>55290</v>
+      </c>
+    </row>
+    <row r="275" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H275">
+        <v>271</v>
+      </c>
+      <c r="I275">
+        <f t="shared" si="13"/>
+        <v>1360000</v>
+      </c>
+      <c r="J275">
+        <v>13600</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="14"/>
+        <v>55490</v>
+      </c>
+    </row>
+    <row r="276" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H276">
+        <v>272</v>
+      </c>
+      <c r="I276">
+        <f t="shared" si="13"/>
+        <v>1365000</v>
+      </c>
+      <c r="J276">
+        <v>13650</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="14"/>
+        <v>55700</v>
+      </c>
+    </row>
+    <row r="277" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H277">
+        <v>273</v>
+      </c>
+      <c r="I277">
+        <f t="shared" si="13"/>
+        <v>1370000</v>
+      </c>
+      <c r="J277">
+        <v>13700</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="14"/>
+        <v>55900</v>
+      </c>
+    </row>
+    <row r="278" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H278">
+        <v>274</v>
+      </c>
+      <c r="I278">
+        <f t="shared" si="13"/>
+        <v>1375000</v>
+      </c>
+      <c r="J278">
+        <v>13750</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="14"/>
+        <v>56100</v>
+      </c>
+    </row>
+    <row r="279" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H279">
+        <v>275</v>
+      </c>
+      <c r="I279">
+        <f t="shared" ref="I279:I283" si="15">J279*$B$6</f>
+        <v>1380000</v>
+      </c>
+      <c r="J279">
+        <v>13800</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="14"/>
+        <v>56310</v>
+      </c>
+    </row>
+    <row r="280" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H280">
+        <v>276</v>
+      </c>
+      <c r="I280">
+        <f t="shared" si="15"/>
+        <v>1385000</v>
+      </c>
+      <c r="J280">
+        <v>13850</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="14"/>
+        <v>56510</v>
+      </c>
+    </row>
+    <row r="281" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H281">
+        <v>277</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="15"/>
+        <v>1390000</v>
+      </c>
+      <c r="J281">
+        <v>13900</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="14"/>
+        <v>56720</v>
+      </c>
+    </row>
+    <row r="282" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H282">
+        <v>278</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="15"/>
+        <v>1395000</v>
+      </c>
+      <c r="J282">
+        <v>13950</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="14"/>
+        <v>56920</v>
+      </c>
+    </row>
+    <row r="283" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H283">
+        <v>279</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="15"/>
+        <v>1400000</v>
+      </c>
+      <c r="J283">
+        <v>14000</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="14"/>
+        <v>57120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CA09A3-91B4-470D-BC45-28AEB484B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564707E7-3A08-4DF2-B72F-4342F0B34975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4482,7 +4482,7 @@
         <v>12300</v>
       </c>
       <c r="C247" s="1">
-        <f t="shared" ref="C247:C281" si="6">C246</f>
+        <f t="shared" ref="C247:C310" si="6">C246</f>
         <v>49</v>
       </c>
       <c r="D247" s="1">
@@ -5032,6 +5032,1926 @@
       <c r="D281" s="1">
         <f>VLOOKUP(A281,Balalnce!H:L,5,FALSE)/100</f>
         <v>571.20000000000005</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <v>14050</v>
+      </c>
+      <c r="C282" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D282" s="1">
+        <f>VLOOKUP(A282,Balalnce!H:L,5,FALSE)/100</f>
+        <v>573.29999999999995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <v>14100</v>
+      </c>
+      <c r="C283" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D283" s="1">
+        <f>VLOOKUP(A283,Balalnce!H:L,5,FALSE)/100</f>
+        <v>575.29999999999995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <v>14150</v>
+      </c>
+      <c r="C284" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D284" s="1">
+        <f>VLOOKUP(A284,Balalnce!H:L,5,FALSE)/100</f>
+        <v>577.4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <v>14200</v>
+      </c>
+      <c r="C285" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D285" s="1">
+        <f>VLOOKUP(A285,Balalnce!H:L,5,FALSE)/100</f>
+        <v>579.4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <v>14250</v>
+      </c>
+      <c r="C286" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D286" s="1">
+        <f>VLOOKUP(A286,Balalnce!H:L,5,FALSE)/100</f>
+        <v>581.4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <v>14300</v>
+      </c>
+      <c r="C287" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D287" s="1">
+        <f>VLOOKUP(A287,Balalnce!H:L,5,FALSE)/100</f>
+        <v>583.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>14350</v>
+      </c>
+      <c r="C288" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D288" s="1">
+        <f>VLOOKUP(A288,Balalnce!H:L,5,FALSE)/100</f>
+        <v>585.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <v>14400</v>
+      </c>
+      <c r="C289" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D289" s="1">
+        <f>VLOOKUP(A289,Balalnce!H:L,5,FALSE)/100</f>
+        <v>587.6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <v>14450</v>
+      </c>
+      <c r="C290" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D290" s="1">
+        <f>VLOOKUP(A290,Balalnce!H:L,5,FALSE)/100</f>
+        <v>589.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>14500</v>
+      </c>
+      <c r="C291" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D291" s="1">
+        <f>VLOOKUP(A291,Balalnce!H:L,5,FALSE)/100</f>
+        <v>591.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>14550</v>
+      </c>
+      <c r="C292" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D292" s="1">
+        <f>VLOOKUP(A292,Balalnce!H:L,5,FALSE)/100</f>
+        <v>593.70000000000005</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <v>14600</v>
+      </c>
+      <c r="C293" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D293" s="1">
+        <f>VLOOKUP(A293,Balalnce!H:L,5,FALSE)/100</f>
+        <v>595.70000000000005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>14650</v>
+      </c>
+      <c r="C294" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D294" s="1">
+        <f>VLOOKUP(A294,Balalnce!H:L,5,FALSE)/100</f>
+        <v>597.79999999999995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>14700</v>
+      </c>
+      <c r="C295" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D295" s="1">
+        <f>VLOOKUP(A295,Balalnce!H:L,5,FALSE)/100</f>
+        <v>599.79999999999995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>14750</v>
+      </c>
+      <c r="C296" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D296" s="1">
+        <f>VLOOKUP(A296,Balalnce!H:L,5,FALSE)/100</f>
+        <v>601.79999999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>14800</v>
+      </c>
+      <c r="C297" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D297" s="1">
+        <f>VLOOKUP(A297,Balalnce!H:L,5,FALSE)/100</f>
+        <v>603.9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>14850</v>
+      </c>
+      <c r="C298" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D298" s="1">
+        <f>VLOOKUP(A298,Balalnce!H:L,5,FALSE)/100</f>
+        <v>605.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>14900</v>
+      </c>
+      <c r="C299" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D299" s="1">
+        <f>VLOOKUP(A299,Balalnce!H:L,5,FALSE)/100</f>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>14950</v>
+      </c>
+      <c r="C300" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D300" s="1">
+        <f>VLOOKUP(A300,Balalnce!H:L,5,FALSE)/100</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C301" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D301" s="1">
+        <f>VLOOKUP(A301,Balalnce!H:L,5,FALSE)/100</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>15050</v>
+      </c>
+      <c r="C302" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D302" s="1">
+        <f>VLOOKUP(A302,Balalnce!H:L,5,FALSE)/100</f>
+        <v>614.1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>15100</v>
+      </c>
+      <c r="C303" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D303" s="1">
+        <f>VLOOKUP(A303,Balalnce!H:L,5,FALSE)/100</f>
+        <v>616.1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>15150</v>
+      </c>
+      <c r="C304" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D304" s="1">
+        <f>VLOOKUP(A304,Balalnce!H:L,5,FALSE)/100</f>
+        <v>618.20000000000005</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>15200</v>
+      </c>
+      <c r="C305" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D305" s="1">
+        <f>VLOOKUP(A305,Balalnce!H:L,5,FALSE)/100</f>
+        <v>620.20000000000005</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>15250</v>
+      </c>
+      <c r="C306" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D306" s="1">
+        <f>VLOOKUP(A306,Balalnce!H:L,5,FALSE)/100</f>
+        <v>622.20000000000005</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>15300</v>
+      </c>
+      <c r="C307" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D307" s="1">
+        <f>VLOOKUP(A307,Balalnce!H:L,5,FALSE)/100</f>
+        <v>624.29999999999995</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <v>15350</v>
+      </c>
+      <c r="C308" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D308" s="1">
+        <f>VLOOKUP(A308,Balalnce!H:L,5,FALSE)/100</f>
+        <v>626.29999999999995</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>15400</v>
+      </c>
+      <c r="C309" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D309" s="1">
+        <f>VLOOKUP(A309,Balalnce!H:L,5,FALSE)/100</f>
+        <v>628.4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>15450</v>
+      </c>
+      <c r="C310" s="1">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D310" s="1">
+        <f>VLOOKUP(A310,Balalnce!H:L,5,FALSE)/100</f>
+        <v>630.4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>15500</v>
+      </c>
+      <c r="C311" s="1">
+        <f t="shared" ref="C311:C374" si="7">C310</f>
+        <v>49</v>
+      </c>
+      <c r="D311" s="1">
+        <f>VLOOKUP(A311,Balalnce!H:L,5,FALSE)/100</f>
+        <v>632.4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>15550</v>
+      </c>
+      <c r="C312" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D312" s="1">
+        <f>VLOOKUP(A312,Balalnce!H:L,5,FALSE)/100</f>
+        <v>634.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <v>15600</v>
+      </c>
+      <c r="C313" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D313" s="1">
+        <f>VLOOKUP(A313,Balalnce!H:L,5,FALSE)/100</f>
+        <v>636.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>15650</v>
+      </c>
+      <c r="C314" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D314" s="1">
+        <f>VLOOKUP(A314,Balalnce!H:L,5,FALSE)/100</f>
+        <v>638.6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>15700</v>
+      </c>
+      <c r="C315" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D315" s="1">
+        <f>VLOOKUP(A315,Balalnce!H:L,5,FALSE)/100</f>
+        <v>640.6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>15750</v>
+      </c>
+      <c r="C316" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D316" s="1">
+        <f>VLOOKUP(A316,Balalnce!H:L,5,FALSE)/100</f>
+        <v>642.6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>15800</v>
+      </c>
+      <c r="C317" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D317" s="1">
+        <f>VLOOKUP(A317,Balalnce!H:L,5,FALSE)/100</f>
+        <v>644.70000000000005</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>15850</v>
+      </c>
+      <c r="C318" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D318" s="1">
+        <f>VLOOKUP(A318,Balalnce!H:L,5,FALSE)/100</f>
+        <v>646.70000000000005</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>15900</v>
+      </c>
+      <c r="C319" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D319" s="1">
+        <f>VLOOKUP(A319,Balalnce!H:L,5,FALSE)/100</f>
+        <v>648.79999999999995</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>15950</v>
+      </c>
+      <c r="C320" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D320" s="1">
+        <f>VLOOKUP(A320,Balalnce!H:L,5,FALSE)/100</f>
+        <v>650.79999999999995</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>16000</v>
+      </c>
+      <c r="C321" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D321" s="1">
+        <f>VLOOKUP(A321,Balalnce!H:L,5,FALSE)/100</f>
+        <v>652.79999999999995</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>16050</v>
+      </c>
+      <c r="C322" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D322" s="1">
+        <f>VLOOKUP(A322,Balalnce!H:L,5,FALSE)/100</f>
+        <v>654.9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>16100</v>
+      </c>
+      <c r="C323" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D323" s="1">
+        <f>VLOOKUP(A323,Balalnce!H:L,5,FALSE)/100</f>
+        <v>656.9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>16150</v>
+      </c>
+      <c r="C324" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D324" s="1">
+        <f>VLOOKUP(A324,Balalnce!H:L,5,FALSE)/100</f>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>16200</v>
+      </c>
+      <c r="C325" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D325" s="1">
+        <f>VLOOKUP(A325,Balalnce!H:L,5,FALSE)/100</f>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>16250</v>
+      </c>
+      <c r="C326" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D326" s="1">
+        <f>VLOOKUP(A326,Balalnce!H:L,5,FALSE)/100</f>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>16300</v>
+      </c>
+      <c r="C327" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D327" s="1">
+        <f>VLOOKUP(A327,Balalnce!H:L,5,FALSE)/100</f>
+        <v>665.1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>16350</v>
+      </c>
+      <c r="C328" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D328" s="1">
+        <f>VLOOKUP(A328,Balalnce!H:L,5,FALSE)/100</f>
+        <v>667.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>16400</v>
+      </c>
+      <c r="C329" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D329" s="1">
+        <f>VLOOKUP(A329,Balalnce!H:L,5,FALSE)/100</f>
+        <v>669.2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>16450</v>
+      </c>
+      <c r="C330" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D330" s="1">
+        <f>VLOOKUP(A330,Balalnce!H:L,5,FALSE)/100</f>
+        <v>671.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>16500</v>
+      </c>
+      <c r="C331" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D331" s="1">
+        <f>VLOOKUP(A331,Balalnce!H:L,5,FALSE)/100</f>
+        <v>673.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>16550</v>
+      </c>
+      <c r="C332" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D332" s="1">
+        <f>VLOOKUP(A332,Balalnce!H:L,5,FALSE)/100</f>
+        <v>675.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>16600</v>
+      </c>
+      <c r="C333" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D333" s="1">
+        <f>VLOOKUP(A333,Balalnce!H:L,5,FALSE)/100</f>
+        <v>677.3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>16650</v>
+      </c>
+      <c r="C334" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D334" s="1">
+        <f>VLOOKUP(A334,Balalnce!H:L,5,FALSE)/100</f>
+        <v>679.4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>16700</v>
+      </c>
+      <c r="C335" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D335" s="1">
+        <f>VLOOKUP(A335,Balalnce!H:L,5,FALSE)/100</f>
+        <v>681.4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>16750</v>
+      </c>
+      <c r="C336" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D336" s="1">
+        <f>VLOOKUP(A336,Balalnce!H:L,5,FALSE)/100</f>
+        <v>683.4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>16800</v>
+      </c>
+      <c r="C337" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D337" s="1">
+        <f>VLOOKUP(A337,Balalnce!H:L,5,FALSE)/100</f>
+        <v>685.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>16850</v>
+      </c>
+      <c r="C338" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D338" s="1">
+        <f>VLOOKUP(A338,Balalnce!H:L,5,FALSE)/100</f>
+        <v>687.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>16900</v>
+      </c>
+      <c r="C339" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D339" s="1">
+        <f>VLOOKUP(A339,Balalnce!H:L,5,FALSE)/100</f>
+        <v>689.6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>16950</v>
+      </c>
+      <c r="C340" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D340" s="1">
+        <f>VLOOKUP(A340,Balalnce!H:L,5,FALSE)/100</f>
+        <v>691.6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>17000</v>
+      </c>
+      <c r="C341" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D341" s="1">
+        <f>VLOOKUP(A341,Balalnce!H:L,5,FALSE)/100</f>
+        <v>693.6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>17050</v>
+      </c>
+      <c r="C342" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D342" s="1">
+        <f>VLOOKUP(A342,Balalnce!H:L,5,FALSE)/100</f>
+        <v>695.7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>17100</v>
+      </c>
+      <c r="C343" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D343" s="1">
+        <f>VLOOKUP(A343,Balalnce!H:L,5,FALSE)/100</f>
+        <v>697.7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>17150</v>
+      </c>
+      <c r="C344" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D344" s="1">
+        <f>VLOOKUP(A344,Balalnce!H:L,5,FALSE)/100</f>
+        <v>699.8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>17200</v>
+      </c>
+      <c r="C345" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D345" s="1">
+        <f>VLOOKUP(A345,Balalnce!H:L,5,FALSE)/100</f>
+        <v>701.8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>17250</v>
+      </c>
+      <c r="C346" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D346" s="1">
+        <f>VLOOKUP(A346,Balalnce!H:L,5,FALSE)/100</f>
+        <v>703.8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>17300</v>
+      </c>
+      <c r="C347" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D347" s="1">
+        <f>VLOOKUP(A347,Balalnce!H:L,5,FALSE)/100</f>
+        <v>705.9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>17350</v>
+      </c>
+      <c r="C348" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D348" s="1">
+        <f>VLOOKUP(A348,Balalnce!H:L,5,FALSE)/100</f>
+        <v>707.9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>17400</v>
+      </c>
+      <c r="C349" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D349" s="1">
+        <f>VLOOKUP(A349,Balalnce!H:L,5,FALSE)/100</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>17450</v>
+      </c>
+      <c r="C350" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D350" s="1">
+        <f>VLOOKUP(A350,Balalnce!H:L,5,FALSE)/100</f>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>17500</v>
+      </c>
+      <c r="C351" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D351" s="1">
+        <f>VLOOKUP(A351,Balalnce!H:L,5,FALSE)/100</f>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>17550</v>
+      </c>
+      <c r="C352" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D352" s="1">
+        <f>VLOOKUP(A352,Balalnce!H:L,5,FALSE)/100</f>
+        <v>716.1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>17600</v>
+      </c>
+      <c r="C353" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D353" s="1">
+        <f>VLOOKUP(A353,Balalnce!H:L,5,FALSE)/100</f>
+        <v>718.1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>17650</v>
+      </c>
+      <c r="C354" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D354" s="1">
+        <f>VLOOKUP(A354,Balalnce!H:L,5,FALSE)/100</f>
+        <v>720.2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>17700</v>
+      </c>
+      <c r="C355" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D355" s="1">
+        <f>VLOOKUP(A355,Balalnce!H:L,5,FALSE)/100</f>
+        <v>722.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>17750</v>
+      </c>
+      <c r="C356" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D356" s="1">
+        <f>VLOOKUP(A356,Balalnce!H:L,5,FALSE)/100</f>
+        <v>724.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>17800</v>
+      </c>
+      <c r="C357" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D357" s="1">
+        <f>VLOOKUP(A357,Balalnce!H:L,5,FALSE)/100</f>
+        <v>726.3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>17850</v>
+      </c>
+      <c r="C358" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D358" s="1">
+        <f>VLOOKUP(A358,Balalnce!H:L,5,FALSE)/100</f>
+        <v>728.3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>17900</v>
+      </c>
+      <c r="C359" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D359" s="1">
+        <f>VLOOKUP(A359,Balalnce!H:L,5,FALSE)/100</f>
+        <v>730.4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>17950</v>
+      </c>
+      <c r="C360" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D360" s="1">
+        <f>VLOOKUP(A360,Balalnce!H:L,5,FALSE)/100</f>
+        <v>732.4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C361" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D361" s="1">
+        <f>VLOOKUP(A361,Balalnce!H:L,5,FALSE)/100</f>
+        <v>734.4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>18050</v>
+      </c>
+      <c r="C362" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D362" s="1">
+        <f>VLOOKUP(A362,Balalnce!H:L,5,FALSE)/100</f>
+        <v>736.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>18100</v>
+      </c>
+      <c r="C363" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D363" s="1">
+        <f>VLOOKUP(A363,Balalnce!H:L,5,FALSE)/100</f>
+        <v>738.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>18150</v>
+      </c>
+      <c r="C364" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D364" s="1">
+        <f>VLOOKUP(A364,Balalnce!H:L,5,FALSE)/100</f>
+        <v>740.6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>18200</v>
+      </c>
+      <c r="C365" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D365" s="1">
+        <f>VLOOKUP(A365,Balalnce!H:L,5,FALSE)/100</f>
+        <v>742.6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>18250</v>
+      </c>
+      <c r="C366" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D366" s="1">
+        <f>VLOOKUP(A366,Balalnce!H:L,5,FALSE)/100</f>
+        <v>744.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>18300</v>
+      </c>
+      <c r="C367" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D367" s="1">
+        <f>VLOOKUP(A367,Balalnce!H:L,5,FALSE)/100</f>
+        <v>746.7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>18350</v>
+      </c>
+      <c r="C368" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D368" s="1">
+        <f>VLOOKUP(A368,Balalnce!H:L,5,FALSE)/100</f>
+        <v>748.7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>18400</v>
+      </c>
+      <c r="C369" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D369" s="1">
+        <f>VLOOKUP(A369,Balalnce!H:L,5,FALSE)/100</f>
+        <v>750.8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>18450</v>
+      </c>
+      <c r="C370" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D370" s="1">
+        <f>VLOOKUP(A370,Balalnce!H:L,5,FALSE)/100</f>
+        <v>752.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>18500</v>
+      </c>
+      <c r="C371" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D371" s="1">
+        <f>VLOOKUP(A371,Balalnce!H:L,5,FALSE)/100</f>
+        <v>754.8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>18550</v>
+      </c>
+      <c r="C372" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D372" s="1">
+        <f>VLOOKUP(A372,Balalnce!H:L,5,FALSE)/100</f>
+        <v>756.9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>18600</v>
+      </c>
+      <c r="C373" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D373" s="1">
+        <f>VLOOKUP(A373,Balalnce!H:L,5,FALSE)/100</f>
+        <v>758.9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>18650</v>
+      </c>
+      <c r="C374" s="1">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D374" s="1">
+        <f>VLOOKUP(A374,Balalnce!H:L,5,FALSE)/100</f>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>18700</v>
+      </c>
+      <c r="C375" s="1">
+        <f t="shared" ref="C375:C401" si="8">C374</f>
+        <v>49</v>
+      </c>
+      <c r="D375" s="1">
+        <f>VLOOKUP(A375,Balalnce!H:L,5,FALSE)/100</f>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>18750</v>
+      </c>
+      <c r="C376" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D376" s="1">
+        <f>VLOOKUP(A376,Balalnce!H:L,5,FALSE)/100</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>18800</v>
+      </c>
+      <c r="C377" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D377" s="1">
+        <f>VLOOKUP(A377,Balalnce!H:L,5,FALSE)/100</f>
+        <v>767.1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>18850</v>
+      </c>
+      <c r="C378" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D378" s="1">
+        <f>VLOOKUP(A378,Balalnce!H:L,5,FALSE)/100</f>
+        <v>769.1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>18900</v>
+      </c>
+      <c r="C379" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D379" s="1">
+        <f>VLOOKUP(A379,Balalnce!H:L,5,FALSE)/100</f>
+        <v>771.2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>18950</v>
+      </c>
+      <c r="C380" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D380" s="1">
+        <f>VLOOKUP(A380,Balalnce!H:L,5,FALSE)/100</f>
+        <v>773.2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>19000</v>
+      </c>
+      <c r="C381" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D381" s="1">
+        <f>VLOOKUP(A381,Balalnce!H:L,5,FALSE)/100</f>
+        <v>775.2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>19050</v>
+      </c>
+      <c r="C382" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D382" s="1">
+        <f>VLOOKUP(A382,Balalnce!H:L,5,FALSE)/100</f>
+        <v>777.3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>19100</v>
+      </c>
+      <c r="C383" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D383" s="1">
+        <f>VLOOKUP(A383,Balalnce!H:L,5,FALSE)/100</f>
+        <v>779.3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>19150</v>
+      </c>
+      <c r="C384" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D384" s="1">
+        <f>VLOOKUP(A384,Balalnce!H:L,5,FALSE)/100</f>
+        <v>781.4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>19200</v>
+      </c>
+      <c r="C385" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D385" s="1">
+        <f>VLOOKUP(A385,Balalnce!H:L,5,FALSE)/100</f>
+        <v>783.4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>19250</v>
+      </c>
+      <c r="C386" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D386" s="1">
+        <f>VLOOKUP(A386,Balalnce!H:L,5,FALSE)/100</f>
+        <v>785.4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>19300</v>
+      </c>
+      <c r="C387" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D387" s="1">
+        <f>VLOOKUP(A387,Balalnce!H:L,5,FALSE)/100</f>
+        <v>787.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>19350</v>
+      </c>
+      <c r="C388" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D388" s="1">
+        <f>VLOOKUP(A388,Balalnce!H:L,5,FALSE)/100</f>
+        <v>789.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>19400</v>
+      </c>
+      <c r="C389" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D389" s="1">
+        <f>VLOOKUP(A389,Balalnce!H:L,5,FALSE)/100</f>
+        <v>791.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>19450</v>
+      </c>
+      <c r="C390" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D390" s="1">
+        <f>VLOOKUP(A390,Balalnce!H:L,5,FALSE)/100</f>
+        <v>793.6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>19500</v>
+      </c>
+      <c r="C391" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D391" s="1">
+        <f>VLOOKUP(A391,Balalnce!H:L,5,FALSE)/100</f>
+        <v>795.6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>19550</v>
+      </c>
+      <c r="C392" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D392" s="1">
+        <f>VLOOKUP(A392,Balalnce!H:L,5,FALSE)/100</f>
+        <v>797.7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>19600</v>
+      </c>
+      <c r="C393" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D393" s="1">
+        <f>VLOOKUP(A393,Balalnce!H:L,5,FALSE)/100</f>
+        <v>799.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>19650</v>
+      </c>
+      <c r="C394" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D394" s="1">
+        <f>VLOOKUP(A394,Balalnce!H:L,5,FALSE)/100</f>
+        <v>801.8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>19700</v>
+      </c>
+      <c r="C395" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D395" s="1">
+        <f>VLOOKUP(A395,Balalnce!H:L,5,FALSE)/100</f>
+        <v>803.8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>19750</v>
+      </c>
+      <c r="C396" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D396" s="1">
+        <f>VLOOKUP(A396,Balalnce!H:L,5,FALSE)/100</f>
+        <v>805.8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>19800</v>
+      </c>
+      <c r="C397" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D397" s="1">
+        <f>VLOOKUP(A397,Balalnce!H:L,5,FALSE)/100</f>
+        <v>807.9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>19850</v>
+      </c>
+      <c r="C398" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D398" s="1">
+        <f>VLOOKUP(A398,Balalnce!H:L,5,FALSE)/100</f>
+        <v>809.9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>19900</v>
+      </c>
+      <c r="C399" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D399" s="1">
+        <f>VLOOKUP(A399,Balalnce!H:L,5,FALSE)/100</f>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>19950</v>
+      </c>
+      <c r="C400" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D400" s="1">
+        <f>VLOOKUP(A400,Balalnce!H:L,5,FALSE)/100</f>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C401" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D401" s="1">
+        <f>VLOOKUP(A401,Balalnce!H:L,5,FALSE)/100</f>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -5043,10 +6963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L283"/>
+  <dimension ref="A3:L457"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="H281" sqref="H281"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="K391" sqref="K390:K391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9514,7 +11434,7 @@
         <v>275</v>
       </c>
       <c r="I279">
-        <f t="shared" ref="I279:I283" si="15">J279*$B$6</f>
+        <f t="shared" ref="I279:I285" si="15">J279*$B$6</f>
         <v>1380000</v>
       </c>
       <c r="J279">
@@ -9587,6 +11507,2790 @@
       <c r="L283">
         <f t="shared" si="14"/>
         <v>57120</v>
+      </c>
+    </row>
+    <row r="284" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H284">
+        <v>280</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="15"/>
+        <v>1405000</v>
+      </c>
+      <c r="J284">
+        <v>14050</v>
+      </c>
+      <c r="L284">
+        <f t="shared" ref="L284:L309" si="16">ROUNDUP(((I284/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>57330</v>
+      </c>
+    </row>
+    <row r="285" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H285">
+        <v>281</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="15"/>
+        <v>1410000</v>
+      </c>
+      <c r="J285">
+        <v>14100</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="16"/>
+        <v>57530</v>
+      </c>
+    </row>
+    <row r="286" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H286">
+        <v>282</v>
+      </c>
+      <c r="I286">
+        <f t="shared" ref="I286:I311" si="17">J286*$B$6</f>
+        <v>1415000</v>
+      </c>
+      <c r="J286">
+        <v>14150</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="16"/>
+        <v>57740</v>
+      </c>
+    </row>
+    <row r="287" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H287">
+        <v>283</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="17"/>
+        <v>1420000</v>
+      </c>
+      <c r="J287">
+        <v>14200</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="16"/>
+        <v>57940</v>
+      </c>
+    </row>
+    <row r="288" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H288">
+        <v>284</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="17"/>
+        <v>1425000</v>
+      </c>
+      <c r="J288">
+        <v>14250</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="16"/>
+        <v>58140</v>
+      </c>
+    </row>
+    <row r="289" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H289">
+        <v>285</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="17"/>
+        <v>1430000</v>
+      </c>
+      <c r="J289">
+        <v>14300</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="16"/>
+        <v>58350</v>
+      </c>
+    </row>
+    <row r="290" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H290">
+        <v>286</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="17"/>
+        <v>1435000</v>
+      </c>
+      <c r="J290">
+        <v>14350</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="16"/>
+        <v>58550</v>
+      </c>
+    </row>
+    <row r="291" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H291">
+        <v>287</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="17"/>
+        <v>1440000</v>
+      </c>
+      <c r="J291">
+        <v>14400</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="16"/>
+        <v>58760</v>
+      </c>
+    </row>
+    <row r="292" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H292">
+        <v>288</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="17"/>
+        <v>1445000</v>
+      </c>
+      <c r="J292">
+        <v>14450</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="16"/>
+        <v>58960</v>
+      </c>
+    </row>
+    <row r="293" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H293">
+        <v>289</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="17"/>
+        <v>1450000</v>
+      </c>
+      <c r="J293">
+        <v>14500</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="16"/>
+        <v>59160</v>
+      </c>
+    </row>
+    <row r="294" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H294">
+        <v>290</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="17"/>
+        <v>1455000</v>
+      </c>
+      <c r="J294">
+        <v>14550</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="16"/>
+        <v>59370</v>
+      </c>
+    </row>
+    <row r="295" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H295">
+        <v>291</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="17"/>
+        <v>1460000</v>
+      </c>
+      <c r="J295">
+        <v>14600</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="16"/>
+        <v>59570</v>
+      </c>
+    </row>
+    <row r="296" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H296">
+        <v>292</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="17"/>
+        <v>1465000</v>
+      </c>
+      <c r="J296">
+        <v>14650</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="16"/>
+        <v>59780</v>
+      </c>
+    </row>
+    <row r="297" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H297">
+        <v>293</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="17"/>
+        <v>1470000</v>
+      </c>
+      <c r="J297">
+        <v>14700</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="16"/>
+        <v>59980</v>
+      </c>
+    </row>
+    <row r="298" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H298">
+        <v>294</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="17"/>
+        <v>1475000</v>
+      </c>
+      <c r="J298">
+        <v>14750</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="16"/>
+        <v>60180</v>
+      </c>
+    </row>
+    <row r="299" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H299">
+        <v>295</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="17"/>
+        <v>1480000</v>
+      </c>
+      <c r="J299">
+        <v>14800</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="16"/>
+        <v>60390</v>
+      </c>
+    </row>
+    <row r="300" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H300">
+        <v>296</v>
+      </c>
+      <c r="I300">
+        <f t="shared" si="17"/>
+        <v>1485000</v>
+      </c>
+      <c r="J300">
+        <v>14850</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="16"/>
+        <v>60590</v>
+      </c>
+    </row>
+    <row r="301" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H301">
+        <v>297</v>
+      </c>
+      <c r="I301">
+        <f t="shared" si="17"/>
+        <v>1490000</v>
+      </c>
+      <c r="J301">
+        <v>14900</v>
+      </c>
+      <c r="L301">
+        <f t="shared" si="16"/>
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="302" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H302">
+        <v>298</v>
+      </c>
+      <c r="I302">
+        <f t="shared" si="17"/>
+        <v>1495000</v>
+      </c>
+      <c r="J302">
+        <v>14950</v>
+      </c>
+      <c r="L302">
+        <f t="shared" si="16"/>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="303" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H303">
+        <v>299</v>
+      </c>
+      <c r="I303">
+        <f t="shared" si="17"/>
+        <v>1500000</v>
+      </c>
+      <c r="J303">
+        <v>15000</v>
+      </c>
+      <c r="L303">
+        <f t="shared" si="16"/>
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="304" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H304">
+        <v>300</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="17"/>
+        <v>1505000</v>
+      </c>
+      <c r="J304">
+        <v>15050</v>
+      </c>
+      <c r="L304">
+        <f t="shared" si="16"/>
+        <v>61410</v>
+      </c>
+    </row>
+    <row r="305" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H305">
+        <v>301</v>
+      </c>
+      <c r="I305">
+        <f t="shared" si="17"/>
+        <v>1510000</v>
+      </c>
+      <c r="J305">
+        <v>15100</v>
+      </c>
+      <c r="L305">
+        <f t="shared" si="16"/>
+        <v>61610</v>
+      </c>
+    </row>
+    <row r="306" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H306">
+        <v>302</v>
+      </c>
+      <c r="I306">
+        <f t="shared" si="17"/>
+        <v>1515000</v>
+      </c>
+      <c r="J306">
+        <v>15150</v>
+      </c>
+      <c r="L306">
+        <f t="shared" si="16"/>
+        <v>61820</v>
+      </c>
+    </row>
+    <row r="307" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H307">
+        <v>303</v>
+      </c>
+      <c r="I307">
+        <f t="shared" si="17"/>
+        <v>1520000</v>
+      </c>
+      <c r="J307">
+        <v>15200</v>
+      </c>
+      <c r="L307">
+        <f t="shared" si="16"/>
+        <v>62020</v>
+      </c>
+    </row>
+    <row r="308" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H308">
+        <v>304</v>
+      </c>
+      <c r="I308">
+        <f t="shared" si="17"/>
+        <v>1525000</v>
+      </c>
+      <c r="J308">
+        <v>15250</v>
+      </c>
+      <c r="L308">
+        <f t="shared" si="16"/>
+        <v>62220</v>
+      </c>
+    </row>
+    <row r="309" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H309">
+        <v>305</v>
+      </c>
+      <c r="I309">
+        <f t="shared" si="17"/>
+        <v>1530000</v>
+      </c>
+      <c r="J309">
+        <v>15300</v>
+      </c>
+      <c r="L309">
+        <f t="shared" si="16"/>
+        <v>62430</v>
+      </c>
+    </row>
+    <row r="310" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H310">
+        <v>306</v>
+      </c>
+      <c r="I310">
+        <f t="shared" si="17"/>
+        <v>1535000</v>
+      </c>
+      <c r="J310">
+        <v>15350</v>
+      </c>
+      <c r="L310">
+        <f t="shared" ref="L310:L354" si="18">ROUNDUP(((I310/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>62630</v>
+      </c>
+    </row>
+    <row r="311" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H311">
+        <v>307</v>
+      </c>
+      <c r="I311">
+        <f t="shared" si="17"/>
+        <v>1540000</v>
+      </c>
+      <c r="J311">
+        <v>15400</v>
+      </c>
+      <c r="L311">
+        <f t="shared" si="18"/>
+        <v>62840</v>
+      </c>
+    </row>
+    <row r="312" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H312">
+        <v>308</v>
+      </c>
+      <c r="I312">
+        <f t="shared" ref="I312:I354" si="19">J312*$B$6</f>
+        <v>1545000</v>
+      </c>
+      <c r="J312">
+        <v>15450</v>
+      </c>
+      <c r="L312">
+        <f t="shared" si="18"/>
+        <v>63040</v>
+      </c>
+    </row>
+    <row r="313" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H313">
+        <v>309</v>
+      </c>
+      <c r="I313">
+        <f t="shared" si="19"/>
+        <v>1550000</v>
+      </c>
+      <c r="J313">
+        <v>15500</v>
+      </c>
+      <c r="L313">
+        <f t="shared" si="18"/>
+        <v>63240</v>
+      </c>
+    </row>
+    <row r="314" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H314">
+        <v>310</v>
+      </c>
+      <c r="I314">
+        <f t="shared" si="19"/>
+        <v>1555000</v>
+      </c>
+      <c r="J314">
+        <v>15550</v>
+      </c>
+      <c r="L314">
+        <f t="shared" si="18"/>
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="315" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H315">
+        <v>311</v>
+      </c>
+      <c r="I315">
+        <f t="shared" si="19"/>
+        <v>1560000</v>
+      </c>
+      <c r="J315">
+        <v>15600</v>
+      </c>
+      <c r="L315">
+        <f t="shared" si="18"/>
+        <v>63650</v>
+      </c>
+    </row>
+    <row r="316" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H316">
+        <v>312</v>
+      </c>
+      <c r="I316">
+        <f t="shared" si="19"/>
+        <v>1565000</v>
+      </c>
+      <c r="J316">
+        <v>15650</v>
+      </c>
+      <c r="L316">
+        <f t="shared" si="18"/>
+        <v>63860</v>
+      </c>
+    </row>
+    <row r="317" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H317">
+        <v>313</v>
+      </c>
+      <c r="I317">
+        <f t="shared" si="19"/>
+        <v>1570000</v>
+      </c>
+      <c r="J317">
+        <v>15700</v>
+      </c>
+      <c r="L317">
+        <f t="shared" si="18"/>
+        <v>64060</v>
+      </c>
+    </row>
+    <row r="318" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H318">
+        <v>314</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="19"/>
+        <v>1575000</v>
+      </c>
+      <c r="J318">
+        <v>15750</v>
+      </c>
+      <c r="L318">
+        <f t="shared" si="18"/>
+        <v>64260</v>
+      </c>
+    </row>
+    <row r="319" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H319">
+        <v>315</v>
+      </c>
+      <c r="I319">
+        <f t="shared" si="19"/>
+        <v>1580000</v>
+      </c>
+      <c r="J319">
+        <v>15800</v>
+      </c>
+      <c r="L319">
+        <f t="shared" si="18"/>
+        <v>64470</v>
+      </c>
+    </row>
+    <row r="320" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H320">
+        <v>316</v>
+      </c>
+      <c r="I320">
+        <f t="shared" si="19"/>
+        <v>1585000</v>
+      </c>
+      <c r="J320">
+        <v>15850</v>
+      </c>
+      <c r="L320">
+        <f t="shared" si="18"/>
+        <v>64670</v>
+      </c>
+    </row>
+    <row r="321" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H321">
+        <v>317</v>
+      </c>
+      <c r="I321">
+        <f t="shared" si="19"/>
+        <v>1590000</v>
+      </c>
+      <c r="J321">
+        <v>15900</v>
+      </c>
+      <c r="L321">
+        <f t="shared" si="18"/>
+        <v>64880</v>
+      </c>
+    </row>
+    <row r="322" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H322">
+        <v>318</v>
+      </c>
+      <c r="I322">
+        <f t="shared" si="19"/>
+        <v>1595000</v>
+      </c>
+      <c r="J322">
+        <v>15950</v>
+      </c>
+      <c r="L322">
+        <f t="shared" si="18"/>
+        <v>65080</v>
+      </c>
+    </row>
+    <row r="323" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H323">
+        <v>319</v>
+      </c>
+      <c r="I323">
+        <f t="shared" si="19"/>
+        <v>1600000</v>
+      </c>
+      <c r="J323">
+        <v>16000</v>
+      </c>
+      <c r="L323">
+        <f t="shared" si="18"/>
+        <v>65280</v>
+      </c>
+    </row>
+    <row r="324" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H324">
+        <v>320</v>
+      </c>
+      <c r="I324">
+        <f t="shared" si="19"/>
+        <v>1605000</v>
+      </c>
+      <c r="J324">
+        <v>16050</v>
+      </c>
+      <c r="L324">
+        <f t="shared" si="18"/>
+        <v>65490</v>
+      </c>
+    </row>
+    <row r="325" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H325">
+        <v>321</v>
+      </c>
+      <c r="I325">
+        <f t="shared" si="19"/>
+        <v>1610000</v>
+      </c>
+      <c r="J325">
+        <v>16100</v>
+      </c>
+      <c r="L325">
+        <f t="shared" si="18"/>
+        <v>65690</v>
+      </c>
+    </row>
+    <row r="326" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H326">
+        <v>322</v>
+      </c>
+      <c r="I326">
+        <f t="shared" si="19"/>
+        <v>1615000</v>
+      </c>
+      <c r="J326">
+        <v>16150</v>
+      </c>
+      <c r="L326">
+        <f t="shared" si="18"/>
+        <v>65900</v>
+      </c>
+    </row>
+    <row r="327" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H327">
+        <v>323</v>
+      </c>
+      <c r="I327">
+        <f t="shared" si="19"/>
+        <v>1620000</v>
+      </c>
+      <c r="J327">
+        <v>16200</v>
+      </c>
+      <c r="L327">
+        <f t="shared" si="18"/>
+        <v>66100</v>
+      </c>
+    </row>
+    <row r="328" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H328">
+        <v>324</v>
+      </c>
+      <c r="I328">
+        <f t="shared" si="19"/>
+        <v>1625000</v>
+      </c>
+      <c r="J328">
+        <v>16250</v>
+      </c>
+      <c r="L328">
+        <f t="shared" si="18"/>
+        <v>66300</v>
+      </c>
+    </row>
+    <row r="329" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H329">
+        <v>325</v>
+      </c>
+      <c r="I329">
+        <f t="shared" si="19"/>
+        <v>1630000</v>
+      </c>
+      <c r="J329">
+        <v>16300</v>
+      </c>
+      <c r="L329">
+        <f t="shared" si="18"/>
+        <v>66510</v>
+      </c>
+    </row>
+    <row r="330" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H330">
+        <v>326</v>
+      </c>
+      <c r="I330">
+        <f t="shared" si="19"/>
+        <v>1635000</v>
+      </c>
+      <c r="J330">
+        <v>16350</v>
+      </c>
+      <c r="L330">
+        <f t="shared" si="18"/>
+        <v>66710</v>
+      </c>
+    </row>
+    <row r="331" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H331">
+        <v>327</v>
+      </c>
+      <c r="I331">
+        <f t="shared" si="19"/>
+        <v>1640000</v>
+      </c>
+      <c r="J331">
+        <v>16400</v>
+      </c>
+      <c r="L331">
+        <f t="shared" si="18"/>
+        <v>66920</v>
+      </c>
+    </row>
+    <row r="332" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H332">
+        <v>328</v>
+      </c>
+      <c r="I332">
+        <f t="shared" si="19"/>
+        <v>1645000</v>
+      </c>
+      <c r="J332">
+        <v>16450</v>
+      </c>
+      <c r="L332">
+        <f t="shared" si="18"/>
+        <v>67120</v>
+      </c>
+    </row>
+    <row r="333" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H333">
+        <v>329</v>
+      </c>
+      <c r="I333">
+        <f t="shared" si="19"/>
+        <v>1650000</v>
+      </c>
+      <c r="J333">
+        <v>16500</v>
+      </c>
+      <c r="L333">
+        <f t="shared" si="18"/>
+        <v>67320</v>
+      </c>
+    </row>
+    <row r="334" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H334">
+        <v>330</v>
+      </c>
+      <c r="I334">
+        <f t="shared" si="19"/>
+        <v>1655000</v>
+      </c>
+      <c r="J334">
+        <v>16550</v>
+      </c>
+      <c r="L334">
+        <f t="shared" si="18"/>
+        <v>67530</v>
+      </c>
+    </row>
+    <row r="335" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H335">
+        <v>331</v>
+      </c>
+      <c r="I335">
+        <f t="shared" si="19"/>
+        <v>1660000</v>
+      </c>
+      <c r="J335">
+        <v>16600</v>
+      </c>
+      <c r="L335">
+        <f t="shared" si="18"/>
+        <v>67730</v>
+      </c>
+    </row>
+    <row r="336" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H336">
+        <v>332</v>
+      </c>
+      <c r="I336">
+        <f t="shared" si="19"/>
+        <v>1665000</v>
+      </c>
+      <c r="J336">
+        <v>16650</v>
+      </c>
+      <c r="L336">
+        <f t="shared" si="18"/>
+        <v>67940</v>
+      </c>
+    </row>
+    <row r="337" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H337">
+        <v>333</v>
+      </c>
+      <c r="I337">
+        <f t="shared" si="19"/>
+        <v>1670000</v>
+      </c>
+      <c r="J337">
+        <v>16700</v>
+      </c>
+      <c r="L337">
+        <f t="shared" si="18"/>
+        <v>68140</v>
+      </c>
+    </row>
+    <row r="338" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H338">
+        <v>334</v>
+      </c>
+      <c r="I338">
+        <f t="shared" si="19"/>
+        <v>1675000</v>
+      </c>
+      <c r="J338">
+        <v>16750</v>
+      </c>
+      <c r="L338">
+        <f t="shared" si="18"/>
+        <v>68340</v>
+      </c>
+    </row>
+    <row r="339" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H339">
+        <v>335</v>
+      </c>
+      <c r="I339">
+        <f t="shared" si="19"/>
+        <v>1680000</v>
+      </c>
+      <c r="J339">
+        <v>16800</v>
+      </c>
+      <c r="L339">
+        <f t="shared" si="18"/>
+        <v>68550</v>
+      </c>
+    </row>
+    <row r="340" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H340">
+        <v>336</v>
+      </c>
+      <c r="I340">
+        <f t="shared" si="19"/>
+        <v>1685000</v>
+      </c>
+      <c r="J340">
+        <v>16850</v>
+      </c>
+      <c r="L340">
+        <f t="shared" si="18"/>
+        <v>68750</v>
+      </c>
+    </row>
+    <row r="341" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H341">
+        <v>337</v>
+      </c>
+      <c r="I341">
+        <f t="shared" si="19"/>
+        <v>1690000</v>
+      </c>
+      <c r="J341">
+        <v>16900</v>
+      </c>
+      <c r="L341">
+        <f t="shared" si="18"/>
+        <v>68960</v>
+      </c>
+    </row>
+    <row r="342" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H342">
+        <v>338</v>
+      </c>
+      <c r="I342">
+        <f t="shared" si="19"/>
+        <v>1695000</v>
+      </c>
+      <c r="J342">
+        <v>16950</v>
+      </c>
+      <c r="L342">
+        <f t="shared" si="18"/>
+        <v>69160</v>
+      </c>
+    </row>
+    <row r="343" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H343">
+        <v>339</v>
+      </c>
+      <c r="I343">
+        <f t="shared" si="19"/>
+        <v>1700000</v>
+      </c>
+      <c r="J343">
+        <v>17000</v>
+      </c>
+      <c r="L343">
+        <f t="shared" si="18"/>
+        <v>69360</v>
+      </c>
+    </row>
+    <row r="344" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H344">
+        <v>340</v>
+      </c>
+      <c r="I344">
+        <f t="shared" si="19"/>
+        <v>1705000</v>
+      </c>
+      <c r="J344">
+        <v>17050</v>
+      </c>
+      <c r="L344">
+        <f t="shared" si="18"/>
+        <v>69570</v>
+      </c>
+    </row>
+    <row r="345" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H345">
+        <v>341</v>
+      </c>
+      <c r="I345">
+        <f t="shared" si="19"/>
+        <v>1710000</v>
+      </c>
+      <c r="J345">
+        <v>17100</v>
+      </c>
+      <c r="L345">
+        <f t="shared" si="18"/>
+        <v>69770</v>
+      </c>
+    </row>
+    <row r="346" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H346">
+        <v>342</v>
+      </c>
+      <c r="I346">
+        <f t="shared" si="19"/>
+        <v>1715000</v>
+      </c>
+      <c r="J346">
+        <v>17150</v>
+      </c>
+      <c r="L346">
+        <f t="shared" si="18"/>
+        <v>69980</v>
+      </c>
+    </row>
+    <row r="347" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H347">
+        <v>343</v>
+      </c>
+      <c r="I347">
+        <f t="shared" si="19"/>
+        <v>1720000</v>
+      </c>
+      <c r="J347">
+        <v>17200</v>
+      </c>
+      <c r="L347">
+        <f t="shared" si="18"/>
+        <v>70180</v>
+      </c>
+    </row>
+    <row r="348" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H348">
+        <v>344</v>
+      </c>
+      <c r="I348">
+        <f t="shared" si="19"/>
+        <v>1725000</v>
+      </c>
+      <c r="J348">
+        <v>17250</v>
+      </c>
+      <c r="L348">
+        <f t="shared" si="18"/>
+        <v>70380</v>
+      </c>
+    </row>
+    <row r="349" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H349">
+        <v>345</v>
+      </c>
+      <c r="I349">
+        <f t="shared" si="19"/>
+        <v>1730000</v>
+      </c>
+      <c r="J349">
+        <v>17300</v>
+      </c>
+      <c r="L349">
+        <f t="shared" si="18"/>
+        <v>70590</v>
+      </c>
+    </row>
+    <row r="350" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H350">
+        <v>346</v>
+      </c>
+      <c r="I350">
+        <f t="shared" si="19"/>
+        <v>1735000</v>
+      </c>
+      <c r="J350">
+        <v>17350</v>
+      </c>
+      <c r="L350">
+        <f t="shared" si="18"/>
+        <v>70790</v>
+      </c>
+    </row>
+    <row r="351" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H351">
+        <v>347</v>
+      </c>
+      <c r="I351">
+        <f t="shared" si="19"/>
+        <v>1740000</v>
+      </c>
+      <c r="J351">
+        <v>17400</v>
+      </c>
+      <c r="L351">
+        <f t="shared" si="18"/>
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="352" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H352">
+        <v>348</v>
+      </c>
+      <c r="I352">
+        <f t="shared" si="19"/>
+        <v>1745000</v>
+      </c>
+      <c r="J352">
+        <v>17450</v>
+      </c>
+      <c r="L352">
+        <f t="shared" si="18"/>
+        <v>71200</v>
+      </c>
+    </row>
+    <row r="353" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H353">
+        <v>349</v>
+      </c>
+      <c r="I353">
+        <f t="shared" si="19"/>
+        <v>1750000</v>
+      </c>
+      <c r="J353">
+        <v>17500</v>
+      </c>
+      <c r="L353">
+        <f t="shared" si="18"/>
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="354" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H354">
+        <v>350</v>
+      </c>
+      <c r="I354">
+        <f t="shared" si="19"/>
+        <v>1755000</v>
+      </c>
+      <c r="J354">
+        <v>17550</v>
+      </c>
+      <c r="L354">
+        <f t="shared" si="18"/>
+        <v>71610</v>
+      </c>
+    </row>
+    <row r="355" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H355">
+        <v>351</v>
+      </c>
+      <c r="I355">
+        <f>J355*$B$6</f>
+        <v>1760000</v>
+      </c>
+      <c r="J355">
+        <v>17600</v>
+      </c>
+      <c r="L355">
+        <f>ROUNDUP(((I355/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>71810</v>
+      </c>
+    </row>
+    <row r="356" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H356">
+        <v>352</v>
+      </c>
+      <c r="I356">
+        <f>J356*$B$6</f>
+        <v>1765000</v>
+      </c>
+      <c r="J356">
+        <v>17650</v>
+      </c>
+      <c r="L356">
+        <f>ROUNDUP(((I356/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>72020</v>
+      </c>
+    </row>
+    <row r="357" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H357">
+        <v>353</v>
+      </c>
+      <c r="I357">
+        <f>J357*$B$6</f>
+        <v>1770000</v>
+      </c>
+      <c r="J357">
+        <v>17700</v>
+      </c>
+      <c r="L357">
+        <f>ROUNDUP(((I357/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>72220</v>
+      </c>
+    </row>
+    <row r="358" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H358">
+        <v>354</v>
+      </c>
+      <c r="I358">
+        <f>J358*$B$6</f>
+        <v>1775000</v>
+      </c>
+      <c r="J358">
+        <v>17750</v>
+      </c>
+      <c r="L358">
+        <f>ROUNDUP(((I358/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>72420</v>
+      </c>
+    </row>
+    <row r="359" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H359">
+        <v>355</v>
+      </c>
+      <c r="I359">
+        <f>J359*$B$6</f>
+        <v>1780000</v>
+      </c>
+      <c r="J359">
+        <v>17800</v>
+      </c>
+      <c r="L359">
+        <f>ROUNDUP(((I359/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>72630</v>
+      </c>
+    </row>
+    <row r="360" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H360">
+        <v>356</v>
+      </c>
+      <c r="I360">
+        <f>J360*$B$6</f>
+        <v>1785000</v>
+      </c>
+      <c r="J360">
+        <v>17850</v>
+      </c>
+      <c r="L360">
+        <f>ROUNDUP(((I360/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>72830</v>
+      </c>
+    </row>
+    <row r="361" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H361">
+        <v>357</v>
+      </c>
+      <c r="I361">
+        <f>J361*$B$6</f>
+        <v>1790000</v>
+      </c>
+      <c r="J361">
+        <v>17900</v>
+      </c>
+      <c r="L361">
+        <f>ROUNDUP(((I361/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>73040</v>
+      </c>
+    </row>
+    <row r="362" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H362">
+        <v>358</v>
+      </c>
+      <c r="I362">
+        <f t="shared" ref="I362:I371" si="20">J362*$B$6</f>
+        <v>1795000</v>
+      </c>
+      <c r="J362">
+        <v>17950</v>
+      </c>
+      <c r="L362">
+        <f t="shared" ref="L362:L371" si="21">ROUNDUP(((I362/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>73240</v>
+      </c>
+    </row>
+    <row r="363" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H363">
+        <v>359</v>
+      </c>
+      <c r="I363">
+        <f t="shared" si="20"/>
+        <v>1800000</v>
+      </c>
+      <c r="J363">
+        <v>18000</v>
+      </c>
+      <c r="L363">
+        <f t="shared" si="21"/>
+        <v>73440</v>
+      </c>
+    </row>
+    <row r="364" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H364">
+        <v>360</v>
+      </c>
+      <c r="I364">
+        <f t="shared" si="20"/>
+        <v>1805000</v>
+      </c>
+      <c r="J364">
+        <v>18050</v>
+      </c>
+      <c r="L364">
+        <f t="shared" si="21"/>
+        <v>73650</v>
+      </c>
+    </row>
+    <row r="365" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H365">
+        <v>361</v>
+      </c>
+      <c r="I365">
+        <f t="shared" si="20"/>
+        <v>1810000</v>
+      </c>
+      <c r="J365">
+        <v>18100</v>
+      </c>
+      <c r="L365">
+        <f t="shared" si="21"/>
+        <v>73850</v>
+      </c>
+    </row>
+    <row r="366" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H366">
+        <v>362</v>
+      </c>
+      <c r="I366">
+        <f t="shared" si="20"/>
+        <v>1815000</v>
+      </c>
+      <c r="J366">
+        <v>18150</v>
+      </c>
+      <c r="L366">
+        <f t="shared" si="21"/>
+        <v>74060</v>
+      </c>
+    </row>
+    <row r="367" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H367">
+        <v>363</v>
+      </c>
+      <c r="I367">
+        <f t="shared" si="20"/>
+        <v>1820000</v>
+      </c>
+      <c r="J367">
+        <v>18200</v>
+      </c>
+      <c r="L367">
+        <f t="shared" si="21"/>
+        <v>74260</v>
+      </c>
+    </row>
+    <row r="368" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H368">
+        <v>364</v>
+      </c>
+      <c r="I368">
+        <f t="shared" si="20"/>
+        <v>1825000</v>
+      </c>
+      <c r="J368">
+        <v>18250</v>
+      </c>
+      <c r="L368">
+        <f t="shared" si="21"/>
+        <v>74460</v>
+      </c>
+    </row>
+    <row r="369" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H369">
+        <v>365</v>
+      </c>
+      <c r="I369">
+        <f t="shared" si="20"/>
+        <v>1830000</v>
+      </c>
+      <c r="J369">
+        <v>18300</v>
+      </c>
+      <c r="L369">
+        <f t="shared" si="21"/>
+        <v>74670</v>
+      </c>
+    </row>
+    <row r="370" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H370">
+        <v>366</v>
+      </c>
+      <c r="I370">
+        <f t="shared" si="20"/>
+        <v>1835000</v>
+      </c>
+      <c r="J370">
+        <v>18350</v>
+      </c>
+      <c r="L370">
+        <f t="shared" si="21"/>
+        <v>74870</v>
+      </c>
+    </row>
+    <row r="371" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H371">
+        <v>367</v>
+      </c>
+      <c r="I371">
+        <f t="shared" si="20"/>
+        <v>1840000</v>
+      </c>
+      <c r="J371">
+        <v>18400</v>
+      </c>
+      <c r="L371">
+        <f t="shared" si="21"/>
+        <v>75080</v>
+      </c>
+    </row>
+    <row r="372" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H372">
+        <v>368</v>
+      </c>
+      <c r="I372">
+        <f t="shared" ref="I372:I401" si="22">J372*$B$6</f>
+        <v>1845000</v>
+      </c>
+      <c r="J372">
+        <v>18450</v>
+      </c>
+      <c r="L372">
+        <f t="shared" ref="L372:L401" si="23">ROUNDUP(((I372/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>75280</v>
+      </c>
+    </row>
+    <row r="373" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H373">
+        <v>369</v>
+      </c>
+      <c r="I373">
+        <f t="shared" si="22"/>
+        <v>1850000</v>
+      </c>
+      <c r="J373">
+        <v>18500</v>
+      </c>
+      <c r="L373">
+        <f t="shared" si="23"/>
+        <v>75480</v>
+      </c>
+    </row>
+    <row r="374" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H374">
+        <v>370</v>
+      </c>
+      <c r="I374">
+        <f t="shared" si="22"/>
+        <v>1855000</v>
+      </c>
+      <c r="J374">
+        <v>18550</v>
+      </c>
+      <c r="L374">
+        <f t="shared" si="23"/>
+        <v>75690</v>
+      </c>
+    </row>
+    <row r="375" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H375">
+        <v>371</v>
+      </c>
+      <c r="I375">
+        <f t="shared" si="22"/>
+        <v>1860000</v>
+      </c>
+      <c r="J375">
+        <v>18600</v>
+      </c>
+      <c r="L375">
+        <f t="shared" si="23"/>
+        <v>75890</v>
+      </c>
+    </row>
+    <row r="376" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H376">
+        <v>372</v>
+      </c>
+      <c r="I376">
+        <f t="shared" si="22"/>
+        <v>1865000</v>
+      </c>
+      <c r="J376">
+        <v>18650</v>
+      </c>
+      <c r="L376">
+        <f t="shared" si="23"/>
+        <v>76100</v>
+      </c>
+    </row>
+    <row r="377" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H377">
+        <v>373</v>
+      </c>
+      <c r="I377">
+        <f t="shared" si="22"/>
+        <v>1870000</v>
+      </c>
+      <c r="J377">
+        <v>18700</v>
+      </c>
+      <c r="L377">
+        <f t="shared" si="23"/>
+        <v>76300</v>
+      </c>
+    </row>
+    <row r="378" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H378">
+        <v>374</v>
+      </c>
+      <c r="I378">
+        <f t="shared" si="22"/>
+        <v>1875000</v>
+      </c>
+      <c r="J378">
+        <v>18750</v>
+      </c>
+      <c r="L378">
+        <f t="shared" si="23"/>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="379" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H379">
+        <v>375</v>
+      </c>
+      <c r="I379">
+        <f t="shared" si="22"/>
+        <v>1880000</v>
+      </c>
+      <c r="J379">
+        <v>18800</v>
+      </c>
+      <c r="L379">
+        <f t="shared" si="23"/>
+        <v>76710</v>
+      </c>
+    </row>
+    <row r="380" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H380">
+        <v>376</v>
+      </c>
+      <c r="I380">
+        <f t="shared" si="22"/>
+        <v>1885000</v>
+      </c>
+      <c r="J380">
+        <v>18850</v>
+      </c>
+      <c r="L380">
+        <f t="shared" si="23"/>
+        <v>76910</v>
+      </c>
+    </row>
+    <row r="381" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H381">
+        <v>377</v>
+      </c>
+      <c r="I381">
+        <f t="shared" si="22"/>
+        <v>1890000</v>
+      </c>
+      <c r="J381">
+        <v>18900</v>
+      </c>
+      <c r="L381">
+        <f t="shared" si="23"/>
+        <v>77120</v>
+      </c>
+    </row>
+    <row r="382" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H382">
+        <v>378</v>
+      </c>
+      <c r="I382">
+        <f t="shared" si="22"/>
+        <v>1895000</v>
+      </c>
+      <c r="J382">
+        <v>18950</v>
+      </c>
+      <c r="L382">
+        <f t="shared" si="23"/>
+        <v>77320</v>
+      </c>
+    </row>
+    <row r="383" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H383">
+        <v>379</v>
+      </c>
+      <c r="I383">
+        <f t="shared" si="22"/>
+        <v>1900000</v>
+      </c>
+      <c r="J383">
+        <v>19000</v>
+      </c>
+      <c r="L383">
+        <f t="shared" si="23"/>
+        <v>77520</v>
+      </c>
+    </row>
+    <row r="384" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H384">
+        <v>380</v>
+      </c>
+      <c r="I384">
+        <f t="shared" si="22"/>
+        <v>1905000</v>
+      </c>
+      <c r="J384">
+        <v>19050</v>
+      </c>
+      <c r="L384">
+        <f t="shared" si="23"/>
+        <v>77730</v>
+      </c>
+    </row>
+    <row r="385" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H385">
+        <v>381</v>
+      </c>
+      <c r="I385">
+        <f t="shared" si="22"/>
+        <v>1910000</v>
+      </c>
+      <c r="J385">
+        <v>19100</v>
+      </c>
+      <c r="L385">
+        <f t="shared" si="23"/>
+        <v>77930</v>
+      </c>
+    </row>
+    <row r="386" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H386">
+        <v>382</v>
+      </c>
+      <c r="I386">
+        <f t="shared" si="22"/>
+        <v>1915000</v>
+      </c>
+      <c r="J386">
+        <v>19150</v>
+      </c>
+      <c r="L386">
+        <f t="shared" si="23"/>
+        <v>78140</v>
+      </c>
+    </row>
+    <row r="387" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H387">
+        <v>383</v>
+      </c>
+      <c r="I387">
+        <f t="shared" si="22"/>
+        <v>1920000</v>
+      </c>
+      <c r="J387">
+        <v>19200</v>
+      </c>
+      <c r="L387">
+        <f t="shared" si="23"/>
+        <v>78340</v>
+      </c>
+    </row>
+    <row r="388" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H388">
+        <v>384</v>
+      </c>
+      <c r="I388">
+        <f t="shared" si="22"/>
+        <v>1925000</v>
+      </c>
+      <c r="J388">
+        <v>19250</v>
+      </c>
+      <c r="L388">
+        <f t="shared" si="23"/>
+        <v>78540</v>
+      </c>
+    </row>
+    <row r="389" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H389">
+        <v>385</v>
+      </c>
+      <c r="I389">
+        <f t="shared" si="22"/>
+        <v>1930000</v>
+      </c>
+      <c r="J389">
+        <v>19300</v>
+      </c>
+      <c r="L389">
+        <f t="shared" si="23"/>
+        <v>78750</v>
+      </c>
+    </row>
+    <row r="390" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H390">
+        <v>386</v>
+      </c>
+      <c r="I390">
+        <f t="shared" si="22"/>
+        <v>1935000</v>
+      </c>
+      <c r="J390">
+        <v>19350</v>
+      </c>
+      <c r="L390">
+        <f t="shared" si="23"/>
+        <v>78950</v>
+      </c>
+    </row>
+    <row r="391" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H391">
+        <v>387</v>
+      </c>
+      <c r="I391">
+        <f t="shared" si="22"/>
+        <v>1940000</v>
+      </c>
+      <c r="J391">
+        <v>19400</v>
+      </c>
+      <c r="L391">
+        <f t="shared" si="23"/>
+        <v>79160</v>
+      </c>
+    </row>
+    <row r="392" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H392">
+        <v>388</v>
+      </c>
+      <c r="I392">
+        <f t="shared" si="22"/>
+        <v>1945000</v>
+      </c>
+      <c r="J392">
+        <v>19450</v>
+      </c>
+      <c r="L392">
+        <f t="shared" si="23"/>
+        <v>79360</v>
+      </c>
+    </row>
+    <row r="393" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H393">
+        <v>389</v>
+      </c>
+      <c r="I393">
+        <f t="shared" si="22"/>
+        <v>1950000</v>
+      </c>
+      <c r="J393">
+        <v>19500</v>
+      </c>
+      <c r="L393">
+        <f t="shared" si="23"/>
+        <v>79560</v>
+      </c>
+    </row>
+    <row r="394" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H394">
+        <v>390</v>
+      </c>
+      <c r="I394">
+        <f t="shared" si="22"/>
+        <v>1955000</v>
+      </c>
+      <c r="J394">
+        <v>19550</v>
+      </c>
+      <c r="L394">
+        <f t="shared" si="23"/>
+        <v>79770</v>
+      </c>
+    </row>
+    <row r="395" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H395">
+        <v>391</v>
+      </c>
+      <c r="I395">
+        <f t="shared" si="22"/>
+        <v>1960000</v>
+      </c>
+      <c r="J395">
+        <v>19600</v>
+      </c>
+      <c r="L395">
+        <f t="shared" si="23"/>
+        <v>79970</v>
+      </c>
+    </row>
+    <row r="396" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H396">
+        <v>392</v>
+      </c>
+      <c r="I396">
+        <f t="shared" si="22"/>
+        <v>1965000</v>
+      </c>
+      <c r="J396">
+        <v>19650</v>
+      </c>
+      <c r="L396">
+        <f t="shared" si="23"/>
+        <v>80180</v>
+      </c>
+    </row>
+    <row r="397" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H397">
+        <v>393</v>
+      </c>
+      <c r="I397">
+        <f t="shared" si="22"/>
+        <v>1970000</v>
+      </c>
+      <c r="J397">
+        <v>19700</v>
+      </c>
+      <c r="L397">
+        <f t="shared" si="23"/>
+        <v>80380</v>
+      </c>
+    </row>
+    <row r="398" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H398">
+        <v>394</v>
+      </c>
+      <c r="I398">
+        <f t="shared" si="22"/>
+        <v>1975000</v>
+      </c>
+      <c r="J398">
+        <v>19750</v>
+      </c>
+      <c r="L398">
+        <f t="shared" si="23"/>
+        <v>80580</v>
+      </c>
+    </row>
+    <row r="399" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H399">
+        <v>395</v>
+      </c>
+      <c r="I399">
+        <f t="shared" si="22"/>
+        <v>1980000</v>
+      </c>
+      <c r="J399">
+        <v>19800</v>
+      </c>
+      <c r="L399">
+        <f t="shared" si="23"/>
+        <v>80790</v>
+      </c>
+    </row>
+    <row r="400" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H400">
+        <v>396</v>
+      </c>
+      <c r="I400">
+        <f t="shared" si="22"/>
+        <v>1985000</v>
+      </c>
+      <c r="J400">
+        <v>19850</v>
+      </c>
+      <c r="L400">
+        <f t="shared" si="23"/>
+        <v>80990</v>
+      </c>
+    </row>
+    <row r="401" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H401">
+        <v>397</v>
+      </c>
+      <c r="I401">
+        <f t="shared" si="22"/>
+        <v>1990000</v>
+      </c>
+      <c r="J401">
+        <v>19900</v>
+      </c>
+      <c r="L401">
+        <f t="shared" si="23"/>
+        <v>81200</v>
+      </c>
+    </row>
+    <row r="402" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H402">
+        <v>398</v>
+      </c>
+      <c r="I402">
+        <f t="shared" ref="I402:I457" si="24">J402*$B$6</f>
+        <v>1995000</v>
+      </c>
+      <c r="J402">
+        <v>19950</v>
+      </c>
+      <c r="L402">
+        <f t="shared" ref="L402:L457" si="25">ROUNDUP(((I402/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>81400</v>
+      </c>
+    </row>
+    <row r="403" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H403">
+        <v>399</v>
+      </c>
+      <c r="I403">
+        <f t="shared" si="24"/>
+        <v>2000000</v>
+      </c>
+      <c r="J403">
+        <v>20000</v>
+      </c>
+      <c r="L403">
+        <f t="shared" si="25"/>
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="404" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H404">
+        <v>400</v>
+      </c>
+      <c r="I404">
+        <f t="shared" si="24"/>
+        <v>2005000</v>
+      </c>
+      <c r="J404">
+        <v>20050</v>
+      </c>
+      <c r="L404">
+        <f t="shared" si="25"/>
+        <v>81810</v>
+      </c>
+    </row>
+    <row r="405" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H405">
+        <v>401</v>
+      </c>
+      <c r="I405">
+        <f t="shared" si="24"/>
+        <v>2010000</v>
+      </c>
+      <c r="J405">
+        <v>20100</v>
+      </c>
+      <c r="L405">
+        <f t="shared" si="25"/>
+        <v>82010</v>
+      </c>
+    </row>
+    <row r="406" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H406">
+        <v>402</v>
+      </c>
+      <c r="I406">
+        <f t="shared" si="24"/>
+        <v>2015000</v>
+      </c>
+      <c r="J406">
+        <v>20150</v>
+      </c>
+      <c r="L406">
+        <f t="shared" si="25"/>
+        <v>82220</v>
+      </c>
+    </row>
+    <row r="407" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H407">
+        <v>403</v>
+      </c>
+      <c r="I407">
+        <f t="shared" si="24"/>
+        <v>2020000</v>
+      </c>
+      <c r="J407">
+        <v>20200</v>
+      </c>
+      <c r="L407">
+        <f t="shared" si="25"/>
+        <v>82420</v>
+      </c>
+    </row>
+    <row r="408" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H408">
+        <v>404</v>
+      </c>
+      <c r="I408">
+        <f t="shared" si="24"/>
+        <v>2025000</v>
+      </c>
+      <c r="J408">
+        <v>20250</v>
+      </c>
+      <c r="L408">
+        <f t="shared" si="25"/>
+        <v>82620</v>
+      </c>
+    </row>
+    <row r="409" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H409">
+        <v>405</v>
+      </c>
+      <c r="I409">
+        <f t="shared" si="24"/>
+        <v>2030000</v>
+      </c>
+      <c r="J409">
+        <v>20300</v>
+      </c>
+      <c r="L409">
+        <f t="shared" si="25"/>
+        <v>82830</v>
+      </c>
+    </row>
+    <row r="410" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H410">
+        <v>406</v>
+      </c>
+      <c r="I410">
+        <f t="shared" si="24"/>
+        <v>2035000</v>
+      </c>
+      <c r="J410">
+        <v>20350</v>
+      </c>
+      <c r="L410">
+        <f t="shared" si="25"/>
+        <v>83030</v>
+      </c>
+    </row>
+    <row r="411" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H411">
+        <v>407</v>
+      </c>
+      <c r="I411">
+        <f t="shared" si="24"/>
+        <v>2040000</v>
+      </c>
+      <c r="J411">
+        <v>20400</v>
+      </c>
+      <c r="L411">
+        <f t="shared" si="25"/>
+        <v>83240</v>
+      </c>
+    </row>
+    <row r="412" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H412">
+        <v>408</v>
+      </c>
+      <c r="I412">
+        <f t="shared" si="24"/>
+        <v>2045000</v>
+      </c>
+      <c r="J412">
+        <v>20450</v>
+      </c>
+      <c r="L412">
+        <f t="shared" si="25"/>
+        <v>83440</v>
+      </c>
+    </row>
+    <row r="413" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H413">
+        <v>409</v>
+      </c>
+      <c r="I413">
+        <f t="shared" si="24"/>
+        <v>2050000</v>
+      </c>
+      <c r="J413">
+        <v>20500</v>
+      </c>
+      <c r="L413">
+        <f t="shared" si="25"/>
+        <v>83640</v>
+      </c>
+    </row>
+    <row r="414" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H414">
+        <v>410</v>
+      </c>
+      <c r="I414">
+        <f t="shared" si="24"/>
+        <v>2055000</v>
+      </c>
+      <c r="J414">
+        <v>20550</v>
+      </c>
+      <c r="L414">
+        <f t="shared" si="25"/>
+        <v>83850</v>
+      </c>
+    </row>
+    <row r="415" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H415">
+        <v>411</v>
+      </c>
+      <c r="I415">
+        <f t="shared" si="24"/>
+        <v>2060000</v>
+      </c>
+      <c r="J415">
+        <v>20600</v>
+      </c>
+      <c r="L415">
+        <f t="shared" si="25"/>
+        <v>84050</v>
+      </c>
+    </row>
+    <row r="416" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H416">
+        <v>412</v>
+      </c>
+      <c r="I416">
+        <f t="shared" si="24"/>
+        <v>2065000</v>
+      </c>
+      <c r="J416">
+        <v>20650</v>
+      </c>
+      <c r="L416">
+        <f t="shared" si="25"/>
+        <v>84260</v>
+      </c>
+    </row>
+    <row r="417" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H417">
+        <v>413</v>
+      </c>
+      <c r="I417">
+        <f t="shared" si="24"/>
+        <v>2070000</v>
+      </c>
+      <c r="J417">
+        <v>20700</v>
+      </c>
+      <c r="L417">
+        <f t="shared" si="25"/>
+        <v>84460</v>
+      </c>
+    </row>
+    <row r="418" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H418">
+        <v>414</v>
+      </c>
+      <c r="I418">
+        <f t="shared" si="24"/>
+        <v>2075000</v>
+      </c>
+      <c r="J418">
+        <v>20750</v>
+      </c>
+      <c r="L418">
+        <f t="shared" si="25"/>
+        <v>84660</v>
+      </c>
+    </row>
+    <row r="419" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H419">
+        <v>415</v>
+      </c>
+      <c r="I419">
+        <f t="shared" si="24"/>
+        <v>2080000</v>
+      </c>
+      <c r="J419">
+        <v>20800</v>
+      </c>
+      <c r="L419">
+        <f t="shared" si="25"/>
+        <v>84870</v>
+      </c>
+    </row>
+    <row r="420" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H420">
+        <v>416</v>
+      </c>
+      <c r="I420">
+        <f t="shared" si="24"/>
+        <v>2085000</v>
+      </c>
+      <c r="J420">
+        <v>20850</v>
+      </c>
+      <c r="L420">
+        <f t="shared" si="25"/>
+        <v>85070</v>
+      </c>
+    </row>
+    <row r="421" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H421">
+        <v>417</v>
+      </c>
+      <c r="I421">
+        <f t="shared" si="24"/>
+        <v>2090000</v>
+      </c>
+      <c r="J421">
+        <v>20900</v>
+      </c>
+      <c r="L421">
+        <f t="shared" si="25"/>
+        <v>85280</v>
+      </c>
+    </row>
+    <row r="422" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H422">
+        <v>418</v>
+      </c>
+      <c r="I422">
+        <f t="shared" si="24"/>
+        <v>2095000</v>
+      </c>
+      <c r="J422">
+        <v>20950</v>
+      </c>
+      <c r="L422">
+        <f t="shared" si="25"/>
+        <v>85480</v>
+      </c>
+    </row>
+    <row r="423" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H423">
+        <v>419</v>
+      </c>
+      <c r="I423">
+        <f t="shared" si="24"/>
+        <v>2100000</v>
+      </c>
+      <c r="J423">
+        <v>21000</v>
+      </c>
+      <c r="L423">
+        <f t="shared" si="25"/>
+        <v>85680</v>
+      </c>
+    </row>
+    <row r="424" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H424">
+        <v>420</v>
+      </c>
+      <c r="I424">
+        <f t="shared" si="24"/>
+        <v>2105000</v>
+      </c>
+      <c r="J424">
+        <v>21050</v>
+      </c>
+      <c r="L424">
+        <f t="shared" si="25"/>
+        <v>85890</v>
+      </c>
+    </row>
+    <row r="425" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H425">
+        <v>421</v>
+      </c>
+      <c r="I425">
+        <f t="shared" si="24"/>
+        <v>2110000</v>
+      </c>
+      <c r="J425">
+        <v>21100</v>
+      </c>
+      <c r="L425">
+        <f t="shared" si="25"/>
+        <v>86090</v>
+      </c>
+    </row>
+    <row r="426" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H426">
+        <v>422</v>
+      </c>
+      <c r="I426">
+        <f t="shared" si="24"/>
+        <v>2115000</v>
+      </c>
+      <c r="J426">
+        <v>21150</v>
+      </c>
+      <c r="L426">
+        <f t="shared" si="25"/>
+        <v>86300</v>
+      </c>
+    </row>
+    <row r="427" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H427">
+        <v>423</v>
+      </c>
+      <c r="I427">
+        <f t="shared" si="24"/>
+        <v>2120000</v>
+      </c>
+      <c r="J427">
+        <v>21200</v>
+      </c>
+      <c r="L427">
+        <f t="shared" si="25"/>
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="428" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H428">
+        <v>424</v>
+      </c>
+      <c r="I428">
+        <f t="shared" si="24"/>
+        <v>2125000</v>
+      </c>
+      <c r="J428">
+        <v>21250</v>
+      </c>
+      <c r="L428">
+        <f t="shared" si="25"/>
+        <v>86700</v>
+      </c>
+    </row>
+    <row r="429" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H429">
+        <v>425</v>
+      </c>
+      <c r="I429">
+        <f t="shared" si="24"/>
+        <v>2130000</v>
+      </c>
+      <c r="J429">
+        <v>21300</v>
+      </c>
+      <c r="L429">
+        <f t="shared" si="25"/>
+        <v>86910</v>
+      </c>
+    </row>
+    <row r="430" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H430">
+        <v>426</v>
+      </c>
+      <c r="I430">
+        <f t="shared" si="24"/>
+        <v>2135000</v>
+      </c>
+      <c r="J430">
+        <v>21350</v>
+      </c>
+      <c r="L430">
+        <f t="shared" si="25"/>
+        <v>87110</v>
+      </c>
+    </row>
+    <row r="431" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H431">
+        <v>427</v>
+      </c>
+      <c r="I431">
+        <f t="shared" si="24"/>
+        <v>2140000</v>
+      </c>
+      <c r="J431">
+        <v>21400</v>
+      </c>
+      <c r="L431">
+        <f t="shared" si="25"/>
+        <v>87320</v>
+      </c>
+    </row>
+    <row r="432" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H432">
+        <v>428</v>
+      </c>
+      <c r="I432">
+        <f t="shared" si="24"/>
+        <v>2145000</v>
+      </c>
+      <c r="J432">
+        <v>21450</v>
+      </c>
+      <c r="L432">
+        <f t="shared" si="25"/>
+        <v>87520</v>
+      </c>
+    </row>
+    <row r="433" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H433">
+        <v>429</v>
+      </c>
+      <c r="I433">
+        <f t="shared" si="24"/>
+        <v>2150000</v>
+      </c>
+      <c r="J433">
+        <v>21500</v>
+      </c>
+      <c r="L433">
+        <f t="shared" si="25"/>
+        <v>87720</v>
+      </c>
+    </row>
+    <row r="434" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H434">
+        <v>430</v>
+      </c>
+      <c r="I434">
+        <f t="shared" si="24"/>
+        <v>2155000</v>
+      </c>
+      <c r="J434">
+        <v>21550</v>
+      </c>
+      <c r="L434">
+        <f t="shared" si="25"/>
+        <v>87930</v>
+      </c>
+    </row>
+    <row r="435" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H435">
+        <v>431</v>
+      </c>
+      <c r="I435">
+        <f t="shared" si="24"/>
+        <v>2160000</v>
+      </c>
+      <c r="J435">
+        <v>21600</v>
+      </c>
+      <c r="L435">
+        <f t="shared" si="25"/>
+        <v>88130</v>
+      </c>
+    </row>
+    <row r="436" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H436">
+        <v>432</v>
+      </c>
+      <c r="I436">
+        <f t="shared" si="24"/>
+        <v>2165000</v>
+      </c>
+      <c r="J436">
+        <v>21650</v>
+      </c>
+      <c r="L436">
+        <f t="shared" si="25"/>
+        <v>88340</v>
+      </c>
+    </row>
+    <row r="437" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H437">
+        <v>433</v>
+      </c>
+      <c r="I437">
+        <f t="shared" si="24"/>
+        <v>2170000</v>
+      </c>
+      <c r="J437">
+        <v>21700</v>
+      </c>
+      <c r="L437">
+        <f t="shared" si="25"/>
+        <v>88540</v>
+      </c>
+    </row>
+    <row r="438" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H438">
+        <v>434</v>
+      </c>
+      <c r="I438">
+        <f t="shared" si="24"/>
+        <v>2175000</v>
+      </c>
+      <c r="J438">
+        <v>21750</v>
+      </c>
+      <c r="L438">
+        <f t="shared" si="25"/>
+        <v>88740</v>
+      </c>
+    </row>
+    <row r="439" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H439">
+        <v>435</v>
+      </c>
+      <c r="I439">
+        <f t="shared" si="24"/>
+        <v>2180000</v>
+      </c>
+      <c r="J439">
+        <v>21800</v>
+      </c>
+      <c r="L439">
+        <f t="shared" si="25"/>
+        <v>88950</v>
+      </c>
+    </row>
+    <row r="440" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H440">
+        <v>436</v>
+      </c>
+      <c r="I440">
+        <f t="shared" si="24"/>
+        <v>2185000</v>
+      </c>
+      <c r="J440">
+        <v>21850</v>
+      </c>
+      <c r="L440">
+        <f t="shared" si="25"/>
+        <v>89150</v>
+      </c>
+    </row>
+    <row r="441" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H441">
+        <v>437</v>
+      </c>
+      <c r="I441">
+        <f t="shared" si="24"/>
+        <v>2190000</v>
+      </c>
+      <c r="J441">
+        <v>21900</v>
+      </c>
+      <c r="L441">
+        <f t="shared" si="25"/>
+        <v>89360</v>
+      </c>
+    </row>
+    <row r="442" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H442">
+        <v>438</v>
+      </c>
+      <c r="I442">
+        <f t="shared" si="24"/>
+        <v>2195000</v>
+      </c>
+      <c r="J442">
+        <v>21950</v>
+      </c>
+      <c r="L442">
+        <f t="shared" si="25"/>
+        <v>89560</v>
+      </c>
+    </row>
+    <row r="443" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H443">
+        <v>439</v>
+      </c>
+      <c r="I443">
+        <f t="shared" si="24"/>
+        <v>2200000</v>
+      </c>
+      <c r="J443">
+        <v>22000</v>
+      </c>
+      <c r="L443">
+        <f t="shared" si="25"/>
+        <v>89760</v>
+      </c>
+    </row>
+    <row r="444" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H444">
+        <v>440</v>
+      </c>
+      <c r="I444">
+        <f t="shared" si="24"/>
+        <v>2205000</v>
+      </c>
+      <c r="J444">
+        <v>22050</v>
+      </c>
+      <c r="L444">
+        <f t="shared" si="25"/>
+        <v>89970</v>
+      </c>
+    </row>
+    <row r="445" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H445">
+        <v>441</v>
+      </c>
+      <c r="I445">
+        <f t="shared" si="24"/>
+        <v>2210000</v>
+      </c>
+      <c r="J445">
+        <v>22100</v>
+      </c>
+      <c r="L445">
+        <f t="shared" si="25"/>
+        <v>90170</v>
+      </c>
+    </row>
+    <row r="446" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H446">
+        <v>442</v>
+      </c>
+      <c r="I446">
+        <f t="shared" si="24"/>
+        <v>2215000</v>
+      </c>
+      <c r="J446">
+        <v>22150</v>
+      </c>
+      <c r="L446">
+        <f t="shared" si="25"/>
+        <v>90380</v>
+      </c>
+    </row>
+    <row r="447" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H447">
+        <v>443</v>
+      </c>
+      <c r="I447">
+        <f t="shared" si="24"/>
+        <v>2220000</v>
+      </c>
+      <c r="J447">
+        <v>22200</v>
+      </c>
+      <c r="L447">
+        <f t="shared" si="25"/>
+        <v>90580</v>
+      </c>
+    </row>
+    <row r="448" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H448">
+        <v>444</v>
+      </c>
+      <c r="I448">
+        <f t="shared" si="24"/>
+        <v>2225000</v>
+      </c>
+      <c r="J448">
+        <v>22250</v>
+      </c>
+      <c r="L448">
+        <f t="shared" si="25"/>
+        <v>90780</v>
+      </c>
+    </row>
+    <row r="449" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H449">
+        <v>445</v>
+      </c>
+      <c r="I449">
+        <f t="shared" si="24"/>
+        <v>2230000</v>
+      </c>
+      <c r="J449">
+        <v>22300</v>
+      </c>
+      <c r="L449">
+        <f t="shared" si="25"/>
+        <v>90990</v>
+      </c>
+    </row>
+    <row r="450" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H450">
+        <v>446</v>
+      </c>
+      <c r="I450">
+        <f t="shared" si="24"/>
+        <v>2235000</v>
+      </c>
+      <c r="J450">
+        <v>22350</v>
+      </c>
+      <c r="L450">
+        <f t="shared" si="25"/>
+        <v>91190</v>
+      </c>
+    </row>
+    <row r="451" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H451">
+        <v>447</v>
+      </c>
+      <c r="I451">
+        <f t="shared" si="24"/>
+        <v>2240000</v>
+      </c>
+      <c r="J451">
+        <v>22400</v>
+      </c>
+      <c r="L451">
+        <f t="shared" si="25"/>
+        <v>91400</v>
+      </c>
+    </row>
+    <row r="452" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H452">
+        <v>448</v>
+      </c>
+      <c r="I452">
+        <f t="shared" si="24"/>
+        <v>2245000</v>
+      </c>
+      <c r="J452">
+        <v>22450</v>
+      </c>
+      <c r="L452">
+        <f t="shared" si="25"/>
+        <v>91600</v>
+      </c>
+    </row>
+    <row r="453" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H453">
+        <v>449</v>
+      </c>
+      <c r="I453">
+        <f t="shared" si="24"/>
+        <v>2250000</v>
+      </c>
+      <c r="J453">
+        <v>22500</v>
+      </c>
+      <c r="L453">
+        <f t="shared" si="25"/>
+        <v>91800</v>
+      </c>
+    </row>
+    <row r="454" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H454">
+        <v>450</v>
+      </c>
+      <c r="I454">
+        <f t="shared" si="24"/>
+        <v>2255000</v>
+      </c>
+      <c r="J454">
+        <v>22550</v>
+      </c>
+      <c r="L454">
+        <f t="shared" si="25"/>
+        <v>92010</v>
+      </c>
+    </row>
+    <row r="455" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H455">
+        <v>451</v>
+      </c>
+      <c r="I455">
+        <f t="shared" si="24"/>
+        <v>2260000</v>
+      </c>
+      <c r="J455">
+        <v>22600</v>
+      </c>
+      <c r="L455">
+        <f t="shared" si="25"/>
+        <v>92210</v>
+      </c>
+    </row>
+    <row r="456" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H456">
+        <v>452</v>
+      </c>
+      <c r="I456">
+        <f t="shared" si="24"/>
+        <v>2265000</v>
+      </c>
+      <c r="J456">
+        <v>22650</v>
+      </c>
+      <c r="L456">
+        <f t="shared" si="25"/>
+        <v>92420</v>
+      </c>
+    </row>
+    <row r="457" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H457">
+        <v>453</v>
+      </c>
+      <c r="I457">
+        <f t="shared" si="24"/>
+        <v>2270000</v>
+      </c>
+      <c r="J457">
+        <v>22700</v>
+      </c>
+      <c r="L457">
+        <f t="shared" si="25"/>
+        <v>92620</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564707E7-3A08-4DF2-B72F-4342F0B34975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5744F5A0-8768-45CA-99EE-3117FBEFA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D400" sqref="D400"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6530,7 +6530,7 @@
         <v>18700</v>
       </c>
       <c r="C375" s="1">
-        <f t="shared" ref="C375:C401" si="8">C374</f>
+        <f t="shared" ref="C375:C438" si="8">C374</f>
         <v>49</v>
       </c>
       <c r="D375" s="1">
@@ -6952,6 +6952,1606 @@
       <c r="D401" s="1">
         <f>VLOOKUP(A401,Balalnce!H:L,5,FALSE)/100</f>
         <v>816</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>20050</v>
+      </c>
+      <c r="C402" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D402" s="1">
+        <f>VLOOKUP(A402,Balalnce!H:L,5,FALSE)/100</f>
+        <v>818.1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>20100</v>
+      </c>
+      <c r="C403" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D403" s="1">
+        <f>VLOOKUP(A403,Balalnce!H:L,5,FALSE)/100</f>
+        <v>820.1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>20150</v>
+      </c>
+      <c r="C404" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D404" s="1">
+        <f>VLOOKUP(A404,Balalnce!H:L,5,FALSE)/100</f>
+        <v>822.2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>20200</v>
+      </c>
+      <c r="C405" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D405" s="1">
+        <f>VLOOKUP(A405,Balalnce!H:L,5,FALSE)/100</f>
+        <v>824.2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>20250</v>
+      </c>
+      <c r="C406" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D406" s="1">
+        <f>VLOOKUP(A406,Balalnce!H:L,5,FALSE)/100</f>
+        <v>826.2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>20300</v>
+      </c>
+      <c r="C407" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D407" s="1">
+        <f>VLOOKUP(A407,Balalnce!H:L,5,FALSE)/100</f>
+        <v>828.3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>20350</v>
+      </c>
+      <c r="C408" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D408" s="1">
+        <f>VLOOKUP(A408,Balalnce!H:L,5,FALSE)/100</f>
+        <v>830.3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>20400</v>
+      </c>
+      <c r="C409" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D409" s="1">
+        <f>VLOOKUP(A409,Balalnce!H:L,5,FALSE)/100</f>
+        <v>832.4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>20450</v>
+      </c>
+      <c r="C410" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D410" s="1">
+        <f>VLOOKUP(A410,Balalnce!H:L,5,FALSE)/100</f>
+        <v>834.4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <v>20500</v>
+      </c>
+      <c r="C411" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D411" s="1">
+        <f>VLOOKUP(A411,Balalnce!H:L,5,FALSE)/100</f>
+        <v>836.4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2">
+        <v>20550</v>
+      </c>
+      <c r="C412" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D412" s="1">
+        <f>VLOOKUP(A412,Balalnce!H:L,5,FALSE)/100</f>
+        <v>838.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2">
+        <v>20600</v>
+      </c>
+      <c r="C413" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D413" s="1">
+        <f>VLOOKUP(A413,Balalnce!H:L,5,FALSE)/100</f>
+        <v>840.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2">
+        <v>20650</v>
+      </c>
+      <c r="C414" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D414" s="1">
+        <f>VLOOKUP(A414,Balalnce!H:L,5,FALSE)/100</f>
+        <v>842.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2">
+        <v>20700</v>
+      </c>
+      <c r="C415" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D415" s="1">
+        <f>VLOOKUP(A415,Balalnce!H:L,5,FALSE)/100</f>
+        <v>844.6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <v>20750</v>
+      </c>
+      <c r="C416" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D416" s="1">
+        <f>VLOOKUP(A416,Balalnce!H:L,5,FALSE)/100</f>
+        <v>846.6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2">
+        <v>20800</v>
+      </c>
+      <c r="C417" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D417" s="1">
+        <f>VLOOKUP(A417,Balalnce!H:L,5,FALSE)/100</f>
+        <v>848.7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2">
+        <v>20850</v>
+      </c>
+      <c r="C418" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D418" s="1">
+        <f>VLOOKUP(A418,Balalnce!H:L,5,FALSE)/100</f>
+        <v>850.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2">
+        <v>20900</v>
+      </c>
+      <c r="C419" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D419" s="1">
+        <f>VLOOKUP(A419,Balalnce!H:L,5,FALSE)/100</f>
+        <v>852.8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2">
+        <v>20950</v>
+      </c>
+      <c r="C420" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D420" s="1">
+        <f>VLOOKUP(A420,Balalnce!H:L,5,FALSE)/100</f>
+        <v>854.8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <v>21000</v>
+      </c>
+      <c r="C421" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D421" s="1">
+        <f>VLOOKUP(A421,Balalnce!H:L,5,FALSE)/100</f>
+        <v>856.8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2">
+        <v>21050</v>
+      </c>
+      <c r="C422" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D422" s="1">
+        <f>VLOOKUP(A422,Balalnce!H:L,5,FALSE)/100</f>
+        <v>858.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2">
+        <v>21100</v>
+      </c>
+      <c r="C423" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D423" s="1">
+        <f>VLOOKUP(A423,Balalnce!H:L,5,FALSE)/100</f>
+        <v>860.9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2">
+        <v>21150</v>
+      </c>
+      <c r="C424" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D424" s="1">
+        <f>VLOOKUP(A424,Balalnce!H:L,5,FALSE)/100</f>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2">
+        <v>21200</v>
+      </c>
+      <c r="C425" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D425" s="1">
+        <f>VLOOKUP(A425,Balalnce!H:L,5,FALSE)/100</f>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <v>21250</v>
+      </c>
+      <c r="C426" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D426" s="1">
+        <f>VLOOKUP(A426,Balalnce!H:L,5,FALSE)/100</f>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2">
+        <v>21300</v>
+      </c>
+      <c r="C427" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D427" s="1">
+        <f>VLOOKUP(A427,Balalnce!H:L,5,FALSE)/100</f>
+        <v>869.1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2">
+        <v>21350</v>
+      </c>
+      <c r="C428" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D428" s="1">
+        <f>VLOOKUP(A428,Balalnce!H:L,5,FALSE)/100</f>
+        <v>871.1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2">
+        <v>21400</v>
+      </c>
+      <c r="C429" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D429" s="1">
+        <f>VLOOKUP(A429,Balalnce!H:L,5,FALSE)/100</f>
+        <v>873.2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2">
+        <v>21450</v>
+      </c>
+      <c r="C430" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D430" s="1">
+        <f>VLOOKUP(A430,Balalnce!H:L,5,FALSE)/100</f>
+        <v>875.2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2">
+        <v>21500</v>
+      </c>
+      <c r="C431" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D431" s="1">
+        <f>VLOOKUP(A431,Balalnce!H:L,5,FALSE)/100</f>
+        <v>877.2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2">
+        <v>21550</v>
+      </c>
+      <c r="C432" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D432" s="1">
+        <f>VLOOKUP(A432,Balalnce!H:L,5,FALSE)/100</f>
+        <v>879.3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2">
+        <v>21600</v>
+      </c>
+      <c r="C433" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D433" s="1">
+        <f>VLOOKUP(A433,Balalnce!H:L,5,FALSE)/100</f>
+        <v>881.3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2">
+        <v>21650</v>
+      </c>
+      <c r="C434" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D434" s="1">
+        <f>VLOOKUP(A434,Balalnce!H:L,5,FALSE)/100</f>
+        <v>883.4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2">
+        <v>21700</v>
+      </c>
+      <c r="C435" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D435" s="1">
+        <f>VLOOKUP(A435,Balalnce!H:L,5,FALSE)/100</f>
+        <v>885.4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2">
+        <v>21750</v>
+      </c>
+      <c r="C436" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D436" s="1">
+        <f>VLOOKUP(A436,Balalnce!H:L,5,FALSE)/100</f>
+        <v>887.4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2">
+        <v>21800</v>
+      </c>
+      <c r="C437" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D437" s="1">
+        <f>VLOOKUP(A437,Balalnce!H:L,5,FALSE)/100</f>
+        <v>889.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2">
+        <v>21850</v>
+      </c>
+      <c r="C438" s="1">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D438" s="1">
+        <f>VLOOKUP(A438,Balalnce!H:L,5,FALSE)/100</f>
+        <v>891.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2">
+        <v>21900</v>
+      </c>
+      <c r="C439" s="1">
+        <f t="shared" ref="C439:C501" si="9">C438</f>
+        <v>49</v>
+      </c>
+      <c r="D439" s="1">
+        <f>VLOOKUP(A439,Balalnce!H:L,5,FALSE)/100</f>
+        <v>893.6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2">
+        <v>21950</v>
+      </c>
+      <c r="C440" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D440" s="1">
+        <f>VLOOKUP(A440,Balalnce!H:L,5,FALSE)/100</f>
+        <v>895.6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2">
+        <v>22000</v>
+      </c>
+      <c r="C441" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D441" s="1">
+        <f>VLOOKUP(A441,Balalnce!H:L,5,FALSE)/100</f>
+        <v>897.6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2">
+        <v>22050</v>
+      </c>
+      <c r="C442" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D442" s="1">
+        <f>VLOOKUP(A442,Balalnce!H:L,5,FALSE)/100</f>
+        <v>899.7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2">
+        <v>22100</v>
+      </c>
+      <c r="C443" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D443" s="1">
+        <f>VLOOKUP(A443,Balalnce!H:L,5,FALSE)/100</f>
+        <v>901.7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2">
+        <v>22150</v>
+      </c>
+      <c r="C444" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D444" s="1">
+        <f>VLOOKUP(A444,Balalnce!H:L,5,FALSE)/100</f>
+        <v>903.8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2">
+        <v>22200</v>
+      </c>
+      <c r="C445" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D445" s="1">
+        <f>VLOOKUP(A445,Balalnce!H:L,5,FALSE)/100</f>
+        <v>905.8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2">
+        <v>22250</v>
+      </c>
+      <c r="C446" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D446" s="1">
+        <f>VLOOKUP(A446,Balalnce!H:L,5,FALSE)/100</f>
+        <v>907.8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2">
+        <v>22300</v>
+      </c>
+      <c r="C447" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D447" s="1">
+        <f>VLOOKUP(A447,Balalnce!H:L,5,FALSE)/100</f>
+        <v>909.9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2">
+        <v>22350</v>
+      </c>
+      <c r="C448" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D448" s="1">
+        <f>VLOOKUP(A448,Balalnce!H:L,5,FALSE)/100</f>
+        <v>911.9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2">
+        <v>22400</v>
+      </c>
+      <c r="C449" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D449" s="1">
+        <f>VLOOKUP(A449,Balalnce!H:L,5,FALSE)/100</f>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2">
+        <v>22450</v>
+      </c>
+      <c r="C450" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D450" s="1">
+        <f>VLOOKUP(A450,Balalnce!H:L,5,FALSE)/100</f>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2">
+        <v>22500</v>
+      </c>
+      <c r="C451" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D451" s="1">
+        <f>VLOOKUP(A451,Balalnce!H:L,5,FALSE)/100</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2">
+        <v>22550</v>
+      </c>
+      <c r="C452" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D452" s="1">
+        <f>VLOOKUP(A452,Balalnce!H:L,5,FALSE)/100</f>
+        <v>920.1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2">
+        <v>22600</v>
+      </c>
+      <c r="C453" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D453" s="1">
+        <f>VLOOKUP(A453,Balalnce!H:L,5,FALSE)/100</f>
+        <v>922.1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2">
+        <v>22650</v>
+      </c>
+      <c r="C454" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D454" s="1">
+        <f>VLOOKUP(A454,Balalnce!H:L,5,FALSE)/100</f>
+        <v>924.2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2">
+        <v>22700</v>
+      </c>
+      <c r="C455" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D455" s="1">
+        <f>VLOOKUP(A455,Balalnce!H:L,5,FALSE)/100</f>
+        <v>926.2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2">
+        <v>22750</v>
+      </c>
+      <c r="C456" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D456" s="1">
+        <f>VLOOKUP(A456,Balalnce!H:L,5,FALSE)/100</f>
+        <v>928.2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2">
+        <v>22800</v>
+      </c>
+      <c r="C457" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D457" s="1">
+        <f>VLOOKUP(A457,Balalnce!H:L,5,FALSE)/100</f>
+        <v>930.3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2">
+        <v>22850</v>
+      </c>
+      <c r="C458" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D458" s="1">
+        <f>VLOOKUP(A458,Balalnce!H:L,5,FALSE)/100</f>
+        <v>932.3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2">
+        <v>22900</v>
+      </c>
+      <c r="C459" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D459" s="1">
+        <f>VLOOKUP(A459,Balalnce!H:L,5,FALSE)/100</f>
+        <v>934.4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2">
+        <v>22950</v>
+      </c>
+      <c r="C460" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D460" s="1">
+        <f>VLOOKUP(A460,Balalnce!H:L,5,FALSE)/100</f>
+        <v>936.4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2">
+        <v>23000</v>
+      </c>
+      <c r="C461" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D461" s="1">
+        <f>VLOOKUP(A461,Balalnce!H:L,5,FALSE)/100</f>
+        <v>938.4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2">
+        <v>23050</v>
+      </c>
+      <c r="C462" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D462" s="1">
+        <f>VLOOKUP(A462,Balalnce!H:L,5,FALSE)/100</f>
+        <v>940.5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2">
+        <v>23100</v>
+      </c>
+      <c r="C463" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D463" s="1">
+        <f>VLOOKUP(A463,Balalnce!H:L,5,FALSE)/100</f>
+        <v>942.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2">
+        <v>23150</v>
+      </c>
+      <c r="C464" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D464" s="1">
+        <f>VLOOKUP(A464,Balalnce!H:L,5,FALSE)/100</f>
+        <v>944.6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2">
+        <v>23200</v>
+      </c>
+      <c r="C465" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D465" s="1">
+        <f>VLOOKUP(A465,Balalnce!H:L,5,FALSE)/100</f>
+        <v>946.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2">
+        <v>23250</v>
+      </c>
+      <c r="C466" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D466" s="1">
+        <f>VLOOKUP(A466,Balalnce!H:L,5,FALSE)/100</f>
+        <v>948.6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2">
+        <v>23300</v>
+      </c>
+      <c r="C467" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D467" s="1">
+        <f>VLOOKUP(A467,Balalnce!H:L,5,FALSE)/100</f>
+        <v>950.7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2">
+        <v>23350</v>
+      </c>
+      <c r="C468" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D468" s="1">
+        <f>VLOOKUP(A468,Balalnce!H:L,5,FALSE)/100</f>
+        <v>952.7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2">
+        <v>23400</v>
+      </c>
+      <c r="C469" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D469" s="1">
+        <f>VLOOKUP(A469,Balalnce!H:L,5,FALSE)/100</f>
+        <v>954.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2">
+        <v>23450</v>
+      </c>
+      <c r="C470" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D470" s="1">
+        <f>VLOOKUP(A470,Balalnce!H:L,5,FALSE)/100</f>
+        <v>956.8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2">
+        <v>23500</v>
+      </c>
+      <c r="C471" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D471" s="1">
+        <f>VLOOKUP(A471,Balalnce!H:L,5,FALSE)/100</f>
+        <v>958.8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2">
+        <v>23550</v>
+      </c>
+      <c r="C472" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D472" s="1">
+        <f>VLOOKUP(A472,Balalnce!H:L,5,FALSE)/100</f>
+        <v>960.9</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2">
+        <v>23600</v>
+      </c>
+      <c r="C473" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D473" s="1">
+        <f>VLOOKUP(A473,Balalnce!H:L,5,FALSE)/100</f>
+        <v>962.9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2">
+        <v>23650</v>
+      </c>
+      <c r="C474" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D474" s="1">
+        <f>VLOOKUP(A474,Balalnce!H:L,5,FALSE)/100</f>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2">
+        <v>23700</v>
+      </c>
+      <c r="C475" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D475" s="1">
+        <f>VLOOKUP(A475,Balalnce!H:L,5,FALSE)/100</f>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2">
+        <v>23750</v>
+      </c>
+      <c r="C476" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D476" s="1">
+        <f>VLOOKUP(A476,Balalnce!H:L,5,FALSE)/100</f>
+        <v>969</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2">
+        <v>23800</v>
+      </c>
+      <c r="C477" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D477" s="1">
+        <f>VLOOKUP(A477,Balalnce!H:L,5,FALSE)/100</f>
+        <v>971.1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2">
+        <v>23850</v>
+      </c>
+      <c r="C478" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D478" s="1">
+        <f>VLOOKUP(A478,Balalnce!H:L,5,FALSE)/100</f>
+        <v>973.1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2">
+        <v>23900</v>
+      </c>
+      <c r="C479" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D479" s="1">
+        <f>VLOOKUP(A479,Balalnce!H:L,5,FALSE)/100</f>
+        <v>975.2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2">
+        <v>23950</v>
+      </c>
+      <c r="C480" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D480" s="1">
+        <f>VLOOKUP(A480,Balalnce!H:L,5,FALSE)/100</f>
+        <v>977.2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2">
+        <v>24000</v>
+      </c>
+      <c r="C481" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D481" s="1">
+        <f>VLOOKUP(A481,Balalnce!H:L,5,FALSE)/100</f>
+        <v>979.2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2">
+        <v>24050</v>
+      </c>
+      <c r="C482" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D482" s="1">
+        <f>VLOOKUP(A482,Balalnce!H:L,5,FALSE)/100</f>
+        <v>981.3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2">
+        <v>24100</v>
+      </c>
+      <c r="C483" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D483" s="1">
+        <f>VLOOKUP(A483,Balalnce!H:L,5,FALSE)/100</f>
+        <v>983.3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2">
+        <v>24150</v>
+      </c>
+      <c r="C484" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D484" s="1">
+        <f>VLOOKUP(A484,Balalnce!H:L,5,FALSE)/100</f>
+        <v>985.4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2">
+        <v>24200</v>
+      </c>
+      <c r="C485" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D485" s="1">
+        <f>VLOOKUP(A485,Balalnce!H:L,5,FALSE)/100</f>
+        <v>987.4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2">
+        <v>24250</v>
+      </c>
+      <c r="C486" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D486" s="1">
+        <f>VLOOKUP(A486,Balalnce!H:L,5,FALSE)/100</f>
+        <v>989.4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2">
+        <v>24300</v>
+      </c>
+      <c r="C487" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D487" s="1">
+        <f>VLOOKUP(A487,Balalnce!H:L,5,FALSE)/100</f>
+        <v>991.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2">
+        <v>24350</v>
+      </c>
+      <c r="C488" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D488" s="1">
+        <f>VLOOKUP(A488,Balalnce!H:L,5,FALSE)/100</f>
+        <v>993.5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2">
+        <v>24400</v>
+      </c>
+      <c r="C489" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D489" s="1">
+        <f>VLOOKUP(A489,Balalnce!H:L,5,FALSE)/100</f>
+        <v>995.6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2">
+        <v>24450</v>
+      </c>
+      <c r="C490" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D490" s="1">
+        <f>VLOOKUP(A490,Balalnce!H:L,5,FALSE)/100</f>
+        <v>997.6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2">
+        <v>24500</v>
+      </c>
+      <c r="C491" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D491" s="1">
+        <f>VLOOKUP(A491,Balalnce!H:L,5,FALSE)/100</f>
+        <v>999.6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2">
+        <v>24550</v>
+      </c>
+      <c r="C492" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D492" s="1">
+        <f>VLOOKUP(A492,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1001.7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2">
+        <v>24600</v>
+      </c>
+      <c r="C493" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D493" s="1">
+        <f>VLOOKUP(A493,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1003.7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2">
+        <v>24650</v>
+      </c>
+      <c r="C494" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D494" s="1">
+        <f>VLOOKUP(A494,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1005.8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2">
+        <v>24700</v>
+      </c>
+      <c r="C495" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D495" s="1">
+        <f>VLOOKUP(A495,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1007.8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2">
+        <v>24750</v>
+      </c>
+      <c r="C496" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D496" s="1">
+        <f>VLOOKUP(A496,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1009.8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2">
+        <v>24800</v>
+      </c>
+      <c r="C497" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D497" s="1">
+        <f>VLOOKUP(A497,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1011.9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2">
+        <v>24850</v>
+      </c>
+      <c r="C498" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D498" s="1">
+        <f>VLOOKUP(A498,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1013.9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2">
+        <v>24900</v>
+      </c>
+      <c r="C499" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D499" s="1">
+        <f>VLOOKUP(A499,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2">
+        <v>24950</v>
+      </c>
+      <c r="C500" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D500" s="1">
+        <f>VLOOKUP(A500,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C501" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D501" s="1">
+        <f>VLOOKUP(A501,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -6963,10 +8563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L457"/>
+  <dimension ref="A3:L509"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="K391" sqref="K390:K391"/>
+    <sheetView topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="H444" sqref="H444:L509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12650,14 +14250,14 @@
         <v>351</v>
       </c>
       <c r="I355">
-        <f>J355*$B$6</f>
+        <f t="shared" ref="I355:I361" si="20">J355*$B$6</f>
         <v>1760000</v>
       </c>
       <c r="J355">
         <v>17600</v>
       </c>
       <c r="L355">
-        <f>ROUNDUP(((I355/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L355:L361" si="21">ROUNDUP(((I355/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>71810</v>
       </c>
     </row>
@@ -12666,14 +14266,14 @@
         <v>352</v>
       </c>
       <c r="I356">
-        <f>J356*$B$6</f>
+        <f t="shared" si="20"/>
         <v>1765000</v>
       </c>
       <c r="J356">
         <v>17650</v>
       </c>
       <c r="L356">
-        <f>ROUNDUP(((I356/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" si="21"/>
         <v>72020</v>
       </c>
     </row>
@@ -12682,14 +14282,14 @@
         <v>353</v>
       </c>
       <c r="I357">
-        <f>J357*$B$6</f>
+        <f t="shared" si="20"/>
         <v>1770000</v>
       </c>
       <c r="J357">
         <v>17700</v>
       </c>
       <c r="L357">
-        <f>ROUNDUP(((I357/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" si="21"/>
         <v>72220</v>
       </c>
     </row>
@@ -12698,14 +14298,14 @@
         <v>354</v>
       </c>
       <c r="I358">
-        <f>J358*$B$6</f>
+        <f t="shared" si="20"/>
         <v>1775000</v>
       </c>
       <c r="J358">
         <v>17750</v>
       </c>
       <c r="L358">
-        <f>ROUNDUP(((I358/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" si="21"/>
         <v>72420</v>
       </c>
     </row>
@@ -12714,14 +14314,14 @@
         <v>355</v>
       </c>
       <c r="I359">
-        <f>J359*$B$6</f>
+        <f t="shared" si="20"/>
         <v>1780000</v>
       </c>
       <c r="J359">
         <v>17800</v>
       </c>
       <c r="L359">
-        <f>ROUNDUP(((I359/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" si="21"/>
         <v>72630</v>
       </c>
     </row>
@@ -12730,14 +14330,14 @@
         <v>356</v>
       </c>
       <c r="I360">
-        <f>J360*$B$6</f>
+        <f t="shared" si="20"/>
         <v>1785000</v>
       </c>
       <c r="J360">
         <v>17850</v>
       </c>
       <c r="L360">
-        <f>ROUNDUP(((I360/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" si="21"/>
         <v>72830</v>
       </c>
     </row>
@@ -12746,14 +14346,14 @@
         <v>357</v>
       </c>
       <c r="I361">
-        <f>J361*$B$6</f>
+        <f t="shared" si="20"/>
         <v>1790000</v>
       </c>
       <c r="J361">
         <v>17900</v>
       </c>
       <c r="L361">
-        <f>ROUNDUP(((I361/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" si="21"/>
         <v>73040</v>
       </c>
     </row>
@@ -12762,14 +14362,14 @@
         <v>358</v>
       </c>
       <c r="I362">
-        <f t="shared" ref="I362:I371" si="20">J362*$B$6</f>
+        <f t="shared" ref="I362:I371" si="22">J362*$B$6</f>
         <v>1795000</v>
       </c>
       <c r="J362">
         <v>17950</v>
       </c>
       <c r="L362">
-        <f t="shared" ref="L362:L371" si="21">ROUNDUP(((I362/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L362:L371" si="23">ROUNDUP(((I362/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>73240</v>
       </c>
     </row>
@@ -12778,14 +14378,14 @@
         <v>359</v>
       </c>
       <c r="I363">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1800000</v>
       </c>
       <c r="J363">
         <v>18000</v>
       </c>
       <c r="L363">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>73440</v>
       </c>
     </row>
@@ -12794,14 +14394,14 @@
         <v>360</v>
       </c>
       <c r="I364">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1805000</v>
       </c>
       <c r="J364">
         <v>18050</v>
       </c>
       <c r="L364">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>73650</v>
       </c>
     </row>
@@ -12810,14 +14410,14 @@
         <v>361</v>
       </c>
       <c r="I365">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1810000</v>
       </c>
       <c r="J365">
         <v>18100</v>
       </c>
       <c r="L365">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>73850</v>
       </c>
     </row>
@@ -12826,14 +14426,14 @@
         <v>362</v>
       </c>
       <c r="I366">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1815000</v>
       </c>
       <c r="J366">
         <v>18150</v>
       </c>
       <c r="L366">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>74060</v>
       </c>
     </row>
@@ -12842,14 +14442,14 @@
         <v>363</v>
       </c>
       <c r="I367">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1820000</v>
       </c>
       <c r="J367">
         <v>18200</v>
       </c>
       <c r="L367">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>74260</v>
       </c>
     </row>
@@ -12858,14 +14458,14 @@
         <v>364</v>
       </c>
       <c r="I368">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1825000</v>
       </c>
       <c r="J368">
         <v>18250</v>
       </c>
       <c r="L368">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>74460</v>
       </c>
     </row>
@@ -12874,14 +14474,14 @@
         <v>365</v>
       </c>
       <c r="I369">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1830000</v>
       </c>
       <c r="J369">
         <v>18300</v>
       </c>
       <c r="L369">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>74670</v>
       </c>
     </row>
@@ -12890,14 +14490,14 @@
         <v>366</v>
       </c>
       <c r="I370">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1835000</v>
       </c>
       <c r="J370">
         <v>18350</v>
       </c>
       <c r="L370">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>74870</v>
       </c>
     </row>
@@ -12906,14 +14506,14 @@
         <v>367</v>
       </c>
       <c r="I371">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1840000</v>
       </c>
       <c r="J371">
         <v>18400</v>
       </c>
       <c r="L371">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>75080</v>
       </c>
     </row>
@@ -12922,14 +14522,14 @@
         <v>368</v>
       </c>
       <c r="I372">
-        <f t="shared" ref="I372:I401" si="22">J372*$B$6</f>
+        <f t="shared" ref="I372:I401" si="24">J372*$B$6</f>
         <v>1845000</v>
       </c>
       <c r="J372">
         <v>18450</v>
       </c>
       <c r="L372">
-        <f t="shared" ref="L372:L401" si="23">ROUNDUP(((I372/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L372:L401" si="25">ROUNDUP(((I372/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>75280</v>
       </c>
     </row>
@@ -12938,14 +14538,14 @@
         <v>369</v>
       </c>
       <c r="I373">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1850000</v>
       </c>
       <c r="J373">
         <v>18500</v>
       </c>
       <c r="L373">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>75480</v>
       </c>
     </row>
@@ -12954,14 +14554,14 @@
         <v>370</v>
       </c>
       <c r="I374">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1855000</v>
       </c>
       <c r="J374">
         <v>18550</v>
       </c>
       <c r="L374">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>75690</v>
       </c>
     </row>
@@ -12970,14 +14570,14 @@
         <v>371</v>
       </c>
       <c r="I375">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1860000</v>
       </c>
       <c r="J375">
         <v>18600</v>
       </c>
       <c r="L375">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>75890</v>
       </c>
     </row>
@@ -12986,14 +14586,14 @@
         <v>372</v>
       </c>
       <c r="I376">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1865000</v>
       </c>
       <c r="J376">
         <v>18650</v>
       </c>
       <c r="L376">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>76100</v>
       </c>
     </row>
@@ -13002,14 +14602,14 @@
         <v>373</v>
       </c>
       <c r="I377">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1870000</v>
       </c>
       <c r="J377">
         <v>18700</v>
       </c>
       <c r="L377">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>76300</v>
       </c>
     </row>
@@ -13018,14 +14618,14 @@
         <v>374</v>
       </c>
       <c r="I378">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1875000</v>
       </c>
       <c r="J378">
         <v>18750</v>
       </c>
       <c r="L378">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>76500</v>
       </c>
     </row>
@@ -13034,14 +14634,14 @@
         <v>375</v>
       </c>
       <c r="I379">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1880000</v>
       </c>
       <c r="J379">
         <v>18800</v>
       </c>
       <c r="L379">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>76710</v>
       </c>
     </row>
@@ -13050,14 +14650,14 @@
         <v>376</v>
       </c>
       <c r="I380">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1885000</v>
       </c>
       <c r="J380">
         <v>18850</v>
       </c>
       <c r="L380">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>76910</v>
       </c>
     </row>
@@ -13066,14 +14666,14 @@
         <v>377</v>
       </c>
       <c r="I381">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1890000</v>
       </c>
       <c r="J381">
         <v>18900</v>
       </c>
       <c r="L381">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>77120</v>
       </c>
     </row>
@@ -13082,14 +14682,14 @@
         <v>378</v>
       </c>
       <c r="I382">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1895000</v>
       </c>
       <c r="J382">
         <v>18950</v>
       </c>
       <c r="L382">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>77320</v>
       </c>
     </row>
@@ -13098,14 +14698,14 @@
         <v>379</v>
       </c>
       <c r="I383">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1900000</v>
       </c>
       <c r="J383">
         <v>19000</v>
       </c>
       <c r="L383">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>77520</v>
       </c>
     </row>
@@ -13114,14 +14714,14 @@
         <v>380</v>
       </c>
       <c r="I384">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1905000</v>
       </c>
       <c r="J384">
         <v>19050</v>
       </c>
       <c r="L384">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>77730</v>
       </c>
     </row>
@@ -13130,14 +14730,14 @@
         <v>381</v>
       </c>
       <c r="I385">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1910000</v>
       </c>
       <c r="J385">
         <v>19100</v>
       </c>
       <c r="L385">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>77930</v>
       </c>
     </row>
@@ -13146,14 +14746,14 @@
         <v>382</v>
       </c>
       <c r="I386">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1915000</v>
       </c>
       <c r="J386">
         <v>19150</v>
       </c>
       <c r="L386">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78140</v>
       </c>
     </row>
@@ -13162,14 +14762,14 @@
         <v>383</v>
       </c>
       <c r="I387">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1920000</v>
       </c>
       <c r="J387">
         <v>19200</v>
       </c>
       <c r="L387">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78340</v>
       </c>
     </row>
@@ -13178,14 +14778,14 @@
         <v>384</v>
       </c>
       <c r="I388">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1925000</v>
       </c>
       <c r="J388">
         <v>19250</v>
       </c>
       <c r="L388">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78540</v>
       </c>
     </row>
@@ -13194,14 +14794,14 @@
         <v>385</v>
       </c>
       <c r="I389">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1930000</v>
       </c>
       <c r="J389">
         <v>19300</v>
       </c>
       <c r="L389">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78750</v>
       </c>
     </row>
@@ -13210,14 +14810,14 @@
         <v>386</v>
       </c>
       <c r="I390">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1935000</v>
       </c>
       <c r="J390">
         <v>19350</v>
       </c>
       <c r="L390">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78950</v>
       </c>
     </row>
@@ -13226,14 +14826,14 @@
         <v>387</v>
       </c>
       <c r="I391">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1940000</v>
       </c>
       <c r="J391">
         <v>19400</v>
       </c>
       <c r="L391">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>79160</v>
       </c>
     </row>
@@ -13242,14 +14842,14 @@
         <v>388</v>
       </c>
       <c r="I392">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1945000</v>
       </c>
       <c r="J392">
         <v>19450</v>
       </c>
       <c r="L392">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>79360</v>
       </c>
     </row>
@@ -13258,14 +14858,14 @@
         <v>389</v>
       </c>
       <c r="I393">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1950000</v>
       </c>
       <c r="J393">
         <v>19500</v>
       </c>
       <c r="L393">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>79560</v>
       </c>
     </row>
@@ -13274,14 +14874,14 @@
         <v>390</v>
       </c>
       <c r="I394">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1955000</v>
       </c>
       <c r="J394">
         <v>19550</v>
       </c>
       <c r="L394">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>79770</v>
       </c>
     </row>
@@ -13290,14 +14890,14 @@
         <v>391</v>
       </c>
       <c r="I395">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1960000</v>
       </c>
       <c r="J395">
         <v>19600</v>
       </c>
       <c r="L395">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>79970</v>
       </c>
     </row>
@@ -13306,14 +14906,14 @@
         <v>392</v>
       </c>
       <c r="I396">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1965000</v>
       </c>
       <c r="J396">
         <v>19650</v>
       </c>
       <c r="L396">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>80180</v>
       </c>
     </row>
@@ -13322,14 +14922,14 @@
         <v>393</v>
       </c>
       <c r="I397">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1970000</v>
       </c>
       <c r="J397">
         <v>19700</v>
       </c>
       <c r="L397">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>80380</v>
       </c>
     </row>
@@ -13338,14 +14938,14 @@
         <v>394</v>
       </c>
       <c r="I398">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1975000</v>
       </c>
       <c r="J398">
         <v>19750</v>
       </c>
       <c r="L398">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>80580</v>
       </c>
     </row>
@@ -13354,14 +14954,14 @@
         <v>395</v>
       </c>
       <c r="I399">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1980000</v>
       </c>
       <c r="J399">
         <v>19800</v>
       </c>
       <c r="L399">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>80790</v>
       </c>
     </row>
@@ -13370,14 +14970,14 @@
         <v>396</v>
       </c>
       <c r="I400">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1985000</v>
       </c>
       <c r="J400">
         <v>19850</v>
       </c>
       <c r="L400">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>80990</v>
       </c>
     </row>
@@ -13386,14 +14986,14 @@
         <v>397</v>
       </c>
       <c r="I401">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1990000</v>
       </c>
       <c r="J401">
         <v>19900</v>
       </c>
       <c r="L401">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>81200</v>
       </c>
     </row>
@@ -13402,14 +15002,14 @@
         <v>398</v>
       </c>
       <c r="I402">
-        <f t="shared" ref="I402:I457" si="24">J402*$B$6</f>
+        <f t="shared" ref="I402:I457" si="26">J402*$B$6</f>
         <v>1995000</v>
       </c>
       <c r="J402">
         <v>19950</v>
       </c>
       <c r="L402">
-        <f t="shared" ref="L402:L457" si="25">ROUNDUP(((I402/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L402:L457" si="27">ROUNDUP(((I402/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>81400</v>
       </c>
     </row>
@@ -13418,14 +15018,14 @@
         <v>399</v>
       </c>
       <c r="I403">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2000000</v>
       </c>
       <c r="J403">
         <v>20000</v>
       </c>
       <c r="L403">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>81600</v>
       </c>
     </row>
@@ -13434,14 +15034,14 @@
         <v>400</v>
       </c>
       <c r="I404">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2005000</v>
       </c>
       <c r="J404">
         <v>20050</v>
       </c>
       <c r="L404">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>81810</v>
       </c>
     </row>
@@ -13450,14 +15050,14 @@
         <v>401</v>
       </c>
       <c r="I405">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2010000</v>
       </c>
       <c r="J405">
         <v>20100</v>
       </c>
       <c r="L405">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>82010</v>
       </c>
     </row>
@@ -13466,14 +15066,14 @@
         <v>402</v>
       </c>
       <c r="I406">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2015000</v>
       </c>
       <c r="J406">
         <v>20150</v>
       </c>
       <c r="L406">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>82220</v>
       </c>
     </row>
@@ -13482,14 +15082,14 @@
         <v>403</v>
       </c>
       <c r="I407">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2020000</v>
       </c>
       <c r="J407">
         <v>20200</v>
       </c>
       <c r="L407">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>82420</v>
       </c>
     </row>
@@ -13498,14 +15098,14 @@
         <v>404</v>
       </c>
       <c r="I408">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2025000</v>
       </c>
       <c r="J408">
         <v>20250</v>
       </c>
       <c r="L408">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>82620</v>
       </c>
     </row>
@@ -13514,14 +15114,14 @@
         <v>405</v>
       </c>
       <c r="I409">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2030000</v>
       </c>
       <c r="J409">
         <v>20300</v>
       </c>
       <c r="L409">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>82830</v>
       </c>
     </row>
@@ -13530,14 +15130,14 @@
         <v>406</v>
       </c>
       <c r="I410">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2035000</v>
       </c>
       <c r="J410">
         <v>20350</v>
       </c>
       <c r="L410">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>83030</v>
       </c>
     </row>
@@ -13546,14 +15146,14 @@
         <v>407</v>
       </c>
       <c r="I411">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2040000</v>
       </c>
       <c r="J411">
         <v>20400</v>
       </c>
       <c r="L411">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>83240</v>
       </c>
     </row>
@@ -13562,14 +15162,14 @@
         <v>408</v>
       </c>
       <c r="I412">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2045000</v>
       </c>
       <c r="J412">
         <v>20450</v>
       </c>
       <c r="L412">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>83440</v>
       </c>
     </row>
@@ -13578,14 +15178,14 @@
         <v>409</v>
       </c>
       <c r="I413">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2050000</v>
       </c>
       <c r="J413">
         <v>20500</v>
       </c>
       <c r="L413">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>83640</v>
       </c>
     </row>
@@ -13594,14 +15194,14 @@
         <v>410</v>
       </c>
       <c r="I414">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2055000</v>
       </c>
       <c r="J414">
         <v>20550</v>
       </c>
       <c r="L414">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>83850</v>
       </c>
     </row>
@@ -13610,14 +15210,14 @@
         <v>411</v>
       </c>
       <c r="I415">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2060000</v>
       </c>
       <c r="J415">
         <v>20600</v>
       </c>
       <c r="L415">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>84050</v>
       </c>
     </row>
@@ -13626,14 +15226,14 @@
         <v>412</v>
       </c>
       <c r="I416">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2065000</v>
       </c>
       <c r="J416">
         <v>20650</v>
       </c>
       <c r="L416">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>84260</v>
       </c>
     </row>
@@ -13642,14 +15242,14 @@
         <v>413</v>
       </c>
       <c r="I417">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2070000</v>
       </c>
       <c r="J417">
         <v>20700</v>
       </c>
       <c r="L417">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>84460</v>
       </c>
     </row>
@@ -13658,14 +15258,14 @@
         <v>414</v>
       </c>
       <c r="I418">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2075000</v>
       </c>
       <c r="J418">
         <v>20750</v>
       </c>
       <c r="L418">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>84660</v>
       </c>
     </row>
@@ -13674,14 +15274,14 @@
         <v>415</v>
       </c>
       <c r="I419">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2080000</v>
       </c>
       <c r="J419">
         <v>20800</v>
       </c>
       <c r="L419">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>84870</v>
       </c>
     </row>
@@ -13690,14 +15290,14 @@
         <v>416</v>
       </c>
       <c r="I420">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2085000</v>
       </c>
       <c r="J420">
         <v>20850</v>
       </c>
       <c r="L420">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>85070</v>
       </c>
     </row>
@@ -13706,14 +15306,14 @@
         <v>417</v>
       </c>
       <c r="I421">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2090000</v>
       </c>
       <c r="J421">
         <v>20900</v>
       </c>
       <c r="L421">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>85280</v>
       </c>
     </row>
@@ -13722,14 +15322,14 @@
         <v>418</v>
       </c>
       <c r="I422">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2095000</v>
       </c>
       <c r="J422">
         <v>20950</v>
       </c>
       <c r="L422">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>85480</v>
       </c>
     </row>
@@ -13738,14 +15338,14 @@
         <v>419</v>
       </c>
       <c r="I423">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2100000</v>
       </c>
       <c r="J423">
         <v>21000</v>
       </c>
       <c r="L423">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>85680</v>
       </c>
     </row>
@@ -13754,14 +15354,14 @@
         <v>420</v>
       </c>
       <c r="I424">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2105000</v>
       </c>
       <c r="J424">
         <v>21050</v>
       </c>
       <c r="L424">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>85890</v>
       </c>
     </row>
@@ -13770,14 +15370,14 @@
         <v>421</v>
       </c>
       <c r="I425">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2110000</v>
       </c>
       <c r="J425">
         <v>21100</v>
       </c>
       <c r="L425">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>86090</v>
       </c>
     </row>
@@ -13786,14 +15386,14 @@
         <v>422</v>
       </c>
       <c r="I426">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2115000</v>
       </c>
       <c r="J426">
         <v>21150</v>
       </c>
       <c r="L426">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>86300</v>
       </c>
     </row>
@@ -13802,14 +15402,14 @@
         <v>423</v>
       </c>
       <c r="I427">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2120000</v>
       </c>
       <c r="J427">
         <v>21200</v>
       </c>
       <c r="L427">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>86500</v>
       </c>
     </row>
@@ -13818,14 +15418,14 @@
         <v>424</v>
       </c>
       <c r="I428">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2125000</v>
       </c>
       <c r="J428">
         <v>21250</v>
       </c>
       <c r="L428">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>86700</v>
       </c>
     </row>
@@ -13834,14 +15434,14 @@
         <v>425</v>
       </c>
       <c r="I429">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2130000</v>
       </c>
       <c r="J429">
         <v>21300</v>
       </c>
       <c r="L429">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>86910</v>
       </c>
     </row>
@@ -13850,14 +15450,14 @@
         <v>426</v>
       </c>
       <c r="I430">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2135000</v>
       </c>
       <c r="J430">
         <v>21350</v>
       </c>
       <c r="L430">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>87110</v>
       </c>
     </row>
@@ -13866,14 +15466,14 @@
         <v>427</v>
       </c>
       <c r="I431">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2140000</v>
       </c>
       <c r="J431">
         <v>21400</v>
       </c>
       <c r="L431">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>87320</v>
       </c>
     </row>
@@ -13882,14 +15482,14 @@
         <v>428</v>
       </c>
       <c r="I432">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2145000</v>
       </c>
       <c r="J432">
         <v>21450</v>
       </c>
       <c r="L432">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>87520</v>
       </c>
     </row>
@@ -13898,14 +15498,14 @@
         <v>429</v>
       </c>
       <c r="I433">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2150000</v>
       </c>
       <c r="J433">
         <v>21500</v>
       </c>
       <c r="L433">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>87720</v>
       </c>
     </row>
@@ -13914,14 +15514,14 @@
         <v>430</v>
       </c>
       <c r="I434">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2155000</v>
       </c>
       <c r="J434">
         <v>21550</v>
       </c>
       <c r="L434">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>87930</v>
       </c>
     </row>
@@ -13930,14 +15530,14 @@
         <v>431</v>
       </c>
       <c r="I435">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2160000</v>
       </c>
       <c r="J435">
         <v>21600</v>
       </c>
       <c r="L435">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>88130</v>
       </c>
     </row>
@@ -13946,14 +15546,14 @@
         <v>432</v>
       </c>
       <c r="I436">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2165000</v>
       </c>
       <c r="J436">
         <v>21650</v>
       </c>
       <c r="L436">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>88340</v>
       </c>
     </row>
@@ -13962,14 +15562,14 @@
         <v>433</v>
       </c>
       <c r="I437">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2170000</v>
       </c>
       <c r="J437">
         <v>21700</v>
       </c>
       <c r="L437">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>88540</v>
       </c>
     </row>
@@ -13978,14 +15578,14 @@
         <v>434</v>
       </c>
       <c r="I438">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2175000</v>
       </c>
       <c r="J438">
         <v>21750</v>
       </c>
       <c r="L438">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>88740</v>
       </c>
     </row>
@@ -13994,14 +15594,14 @@
         <v>435</v>
       </c>
       <c r="I439">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2180000</v>
       </c>
       <c r="J439">
         <v>21800</v>
       </c>
       <c r="L439">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>88950</v>
       </c>
     </row>
@@ -14010,14 +15610,14 @@
         <v>436</v>
       </c>
       <c r="I440">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2185000</v>
       </c>
       <c r="J440">
         <v>21850</v>
       </c>
       <c r="L440">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>89150</v>
       </c>
     </row>
@@ -14026,14 +15626,14 @@
         <v>437</v>
       </c>
       <c r="I441">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2190000</v>
       </c>
       <c r="J441">
         <v>21900</v>
       </c>
       <c r="L441">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>89360</v>
       </c>
     </row>
@@ -14042,14 +15642,14 @@
         <v>438</v>
       </c>
       <c r="I442">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2195000</v>
       </c>
       <c r="J442">
         <v>21950</v>
       </c>
       <c r="L442">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>89560</v>
       </c>
     </row>
@@ -14058,14 +15658,14 @@
         <v>439</v>
       </c>
       <c r="I443">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2200000</v>
       </c>
       <c r="J443">
         <v>22000</v>
       </c>
       <c r="L443">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>89760</v>
       </c>
     </row>
@@ -14074,14 +15674,14 @@
         <v>440</v>
       </c>
       <c r="I444">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2205000</v>
       </c>
       <c r="J444">
         <v>22050</v>
       </c>
       <c r="L444">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>89970</v>
       </c>
     </row>
@@ -14090,14 +15690,14 @@
         <v>441</v>
       </c>
       <c r="I445">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2210000</v>
       </c>
       <c r="J445">
         <v>22100</v>
       </c>
       <c r="L445">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>90170</v>
       </c>
     </row>
@@ -14106,14 +15706,14 @@
         <v>442</v>
       </c>
       <c r="I446">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2215000</v>
       </c>
       <c r="J446">
         <v>22150</v>
       </c>
       <c r="L446">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>90380</v>
       </c>
     </row>
@@ -14122,14 +15722,14 @@
         <v>443</v>
       </c>
       <c r="I447">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2220000</v>
       </c>
       <c r="J447">
         <v>22200</v>
       </c>
       <c r="L447">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>90580</v>
       </c>
     </row>
@@ -14138,14 +15738,14 @@
         <v>444</v>
       </c>
       <c r="I448">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2225000</v>
       </c>
       <c r="J448">
         <v>22250</v>
       </c>
       <c r="L448">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>90780</v>
       </c>
     </row>
@@ -14154,14 +15754,14 @@
         <v>445</v>
       </c>
       <c r="I449">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2230000</v>
       </c>
       <c r="J449">
         <v>22300</v>
       </c>
       <c r="L449">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>90990</v>
       </c>
     </row>
@@ -14170,14 +15770,14 @@
         <v>446</v>
       </c>
       <c r="I450">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2235000</v>
       </c>
       <c r="J450">
         <v>22350</v>
       </c>
       <c r="L450">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91190</v>
       </c>
     </row>
@@ -14186,14 +15786,14 @@
         <v>447</v>
       </c>
       <c r="I451">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2240000</v>
       </c>
       <c r="J451">
         <v>22400</v>
       </c>
       <c r="L451">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91400</v>
       </c>
     </row>
@@ -14202,14 +15802,14 @@
         <v>448</v>
       </c>
       <c r="I452">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2245000</v>
       </c>
       <c r="J452">
         <v>22450</v>
       </c>
       <c r="L452">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91600</v>
       </c>
     </row>
@@ -14218,14 +15818,14 @@
         <v>449</v>
       </c>
       <c r="I453">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2250000</v>
       </c>
       <c r="J453">
         <v>22500</v>
       </c>
       <c r="L453">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>91800</v>
       </c>
     </row>
@@ -14234,14 +15834,14 @@
         <v>450</v>
       </c>
       <c r="I454">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2255000</v>
       </c>
       <c r="J454">
         <v>22550</v>
       </c>
       <c r="L454">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92010</v>
       </c>
     </row>
@@ -14250,14 +15850,14 @@
         <v>451</v>
       </c>
       <c r="I455">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2260000</v>
       </c>
       <c r="J455">
         <v>22600</v>
       </c>
       <c r="L455">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92210</v>
       </c>
     </row>
@@ -14266,14 +15866,14 @@
         <v>452</v>
       </c>
       <c r="I456">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2265000</v>
       </c>
       <c r="J456">
         <v>22650</v>
       </c>
       <c r="L456">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92420</v>
       </c>
     </row>
@@ -14282,15 +15882,847 @@
         <v>453</v>
       </c>
       <c r="I457">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2270000</v>
       </c>
       <c r="J457">
         <v>22700</v>
       </c>
       <c r="L457">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92620</v>
+      </c>
+    </row>
+    <row r="458" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H458">
+        <v>454</v>
+      </c>
+      <c r="I458">
+        <f t="shared" ref="I458:I493" si="28">J458*$B$6</f>
+        <v>2275000</v>
+      </c>
+      <c r="J458">
+        <v>22750</v>
+      </c>
+      <c r="L458">
+        <f t="shared" ref="L458:L493" si="29">ROUNDUP(((I458/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>92820</v>
+      </c>
+    </row>
+    <row r="459" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H459">
+        <v>455</v>
+      </c>
+      <c r="I459">
+        <f t="shared" si="28"/>
+        <v>2280000</v>
+      </c>
+      <c r="J459">
+        <v>22800</v>
+      </c>
+      <c r="L459">
+        <f t="shared" si="29"/>
+        <v>93030</v>
+      </c>
+    </row>
+    <row r="460" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H460">
+        <v>456</v>
+      </c>
+      <c r="I460">
+        <f t="shared" si="28"/>
+        <v>2285000</v>
+      </c>
+      <c r="J460">
+        <v>22850</v>
+      </c>
+      <c r="L460">
+        <f t="shared" si="29"/>
+        <v>93230</v>
+      </c>
+    </row>
+    <row r="461" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H461">
+        <v>457</v>
+      </c>
+      <c r="I461">
+        <f t="shared" si="28"/>
+        <v>2290000</v>
+      </c>
+      <c r="J461">
+        <v>22900</v>
+      </c>
+      <c r="L461">
+        <f t="shared" si="29"/>
+        <v>93440</v>
+      </c>
+    </row>
+    <row r="462" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H462">
+        <v>458</v>
+      </c>
+      <c r="I462">
+        <f t="shared" si="28"/>
+        <v>2295000</v>
+      </c>
+      <c r="J462">
+        <v>22950</v>
+      </c>
+      <c r="L462">
+        <f t="shared" si="29"/>
+        <v>93640</v>
+      </c>
+    </row>
+    <row r="463" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H463">
+        <v>459</v>
+      </c>
+      <c r="I463">
+        <f t="shared" si="28"/>
+        <v>2300000</v>
+      </c>
+      <c r="J463">
+        <v>23000</v>
+      </c>
+      <c r="L463">
+        <f t="shared" si="29"/>
+        <v>93840</v>
+      </c>
+    </row>
+    <row r="464" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H464">
+        <v>460</v>
+      </c>
+      <c r="I464">
+        <f t="shared" si="28"/>
+        <v>2305000</v>
+      </c>
+      <c r="J464">
+        <v>23050</v>
+      </c>
+      <c r="L464">
+        <f t="shared" si="29"/>
+        <v>94050</v>
+      </c>
+    </row>
+    <row r="465" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H465">
+        <v>461</v>
+      </c>
+      <c r="I465">
+        <f t="shared" si="28"/>
+        <v>2310000</v>
+      </c>
+      <c r="J465">
+        <v>23100</v>
+      </c>
+      <c r="L465">
+        <f t="shared" si="29"/>
+        <v>94250</v>
+      </c>
+    </row>
+    <row r="466" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H466">
+        <v>462</v>
+      </c>
+      <c r="I466">
+        <f t="shared" si="28"/>
+        <v>2315000</v>
+      </c>
+      <c r="J466">
+        <v>23150</v>
+      </c>
+      <c r="L466">
+        <f t="shared" si="29"/>
+        <v>94460</v>
+      </c>
+    </row>
+    <row r="467" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H467">
+        <v>463</v>
+      </c>
+      <c r="I467">
+        <f t="shared" si="28"/>
+        <v>2320000</v>
+      </c>
+      <c r="J467">
+        <v>23200</v>
+      </c>
+      <c r="L467">
+        <f t="shared" si="29"/>
+        <v>94660</v>
+      </c>
+    </row>
+    <row r="468" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H468">
+        <v>464</v>
+      </c>
+      <c r="I468">
+        <f t="shared" si="28"/>
+        <v>2325000</v>
+      </c>
+      <c r="J468">
+        <v>23250</v>
+      </c>
+      <c r="L468">
+        <f t="shared" si="29"/>
+        <v>94860</v>
+      </c>
+    </row>
+    <row r="469" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H469">
+        <v>465</v>
+      </c>
+      <c r="I469">
+        <f t="shared" si="28"/>
+        <v>2330000</v>
+      </c>
+      <c r="J469">
+        <v>23300</v>
+      </c>
+      <c r="L469">
+        <f t="shared" si="29"/>
+        <v>95070</v>
+      </c>
+    </row>
+    <row r="470" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H470">
+        <v>466</v>
+      </c>
+      <c r="I470">
+        <f t="shared" si="28"/>
+        <v>2335000</v>
+      </c>
+      <c r="J470">
+        <v>23350</v>
+      </c>
+      <c r="L470">
+        <f t="shared" si="29"/>
+        <v>95270</v>
+      </c>
+    </row>
+    <row r="471" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H471">
+        <v>467</v>
+      </c>
+      <c r="I471">
+        <f t="shared" si="28"/>
+        <v>2340000</v>
+      </c>
+      <c r="J471">
+        <v>23400</v>
+      </c>
+      <c r="L471">
+        <f t="shared" si="29"/>
+        <v>95480</v>
+      </c>
+    </row>
+    <row r="472" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H472">
+        <v>468</v>
+      </c>
+      <c r="I472">
+        <f t="shared" si="28"/>
+        <v>2345000</v>
+      </c>
+      <c r="J472">
+        <v>23450</v>
+      </c>
+      <c r="L472">
+        <f t="shared" si="29"/>
+        <v>95680</v>
+      </c>
+    </row>
+    <row r="473" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H473">
+        <v>469</v>
+      </c>
+      <c r="I473">
+        <f t="shared" si="28"/>
+        <v>2350000</v>
+      </c>
+      <c r="J473">
+        <v>23500</v>
+      </c>
+      <c r="L473">
+        <f t="shared" si="29"/>
+        <v>95880</v>
+      </c>
+    </row>
+    <row r="474" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H474">
+        <v>470</v>
+      </c>
+      <c r="I474">
+        <f t="shared" si="28"/>
+        <v>2355000</v>
+      </c>
+      <c r="J474">
+        <v>23550</v>
+      </c>
+      <c r="L474">
+        <f t="shared" si="29"/>
+        <v>96090</v>
+      </c>
+    </row>
+    <row r="475" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H475">
+        <v>471</v>
+      </c>
+      <c r="I475">
+        <f t="shared" si="28"/>
+        <v>2360000</v>
+      </c>
+      <c r="J475">
+        <v>23600</v>
+      </c>
+      <c r="L475">
+        <f t="shared" si="29"/>
+        <v>96290</v>
+      </c>
+    </row>
+    <row r="476" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H476">
+        <v>472</v>
+      </c>
+      <c r="I476">
+        <f t="shared" si="28"/>
+        <v>2365000</v>
+      </c>
+      <c r="J476">
+        <v>23650</v>
+      </c>
+      <c r="L476">
+        <f t="shared" si="29"/>
+        <v>96500</v>
+      </c>
+    </row>
+    <row r="477" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H477">
+        <v>473</v>
+      </c>
+      <c r="I477">
+        <f t="shared" si="28"/>
+        <v>2370000</v>
+      </c>
+      <c r="J477">
+        <v>23700</v>
+      </c>
+      <c r="L477">
+        <f t="shared" si="29"/>
+        <v>96700</v>
+      </c>
+    </row>
+    <row r="478" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H478">
+        <v>474</v>
+      </c>
+      <c r="I478">
+        <f t="shared" si="28"/>
+        <v>2375000</v>
+      </c>
+      <c r="J478">
+        <v>23750</v>
+      </c>
+      <c r="L478">
+        <f t="shared" si="29"/>
+        <v>96900</v>
+      </c>
+    </row>
+    <row r="479" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H479">
+        <v>475</v>
+      </c>
+      <c r="I479">
+        <f t="shared" si="28"/>
+        <v>2380000</v>
+      </c>
+      <c r="J479">
+        <v>23800</v>
+      </c>
+      <c r="L479">
+        <f t="shared" si="29"/>
+        <v>97110</v>
+      </c>
+    </row>
+    <row r="480" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H480">
+        <v>476</v>
+      </c>
+      <c r="I480">
+        <f t="shared" si="28"/>
+        <v>2385000</v>
+      </c>
+      <c r="J480">
+        <v>23850</v>
+      </c>
+      <c r="L480">
+        <f t="shared" si="29"/>
+        <v>97310</v>
+      </c>
+    </row>
+    <row r="481" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H481">
+        <v>477</v>
+      </c>
+      <c r="I481">
+        <f t="shared" si="28"/>
+        <v>2390000</v>
+      </c>
+      <c r="J481">
+        <v>23900</v>
+      </c>
+      <c r="L481">
+        <f t="shared" si="29"/>
+        <v>97520</v>
+      </c>
+    </row>
+    <row r="482" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H482">
+        <v>478</v>
+      </c>
+      <c r="I482">
+        <f t="shared" si="28"/>
+        <v>2395000</v>
+      </c>
+      <c r="J482">
+        <v>23950</v>
+      </c>
+      <c r="L482">
+        <f t="shared" si="29"/>
+        <v>97720</v>
+      </c>
+    </row>
+    <row r="483" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H483">
+        <v>479</v>
+      </c>
+      <c r="I483">
+        <f t="shared" si="28"/>
+        <v>2400000</v>
+      </c>
+      <c r="J483">
+        <v>24000</v>
+      </c>
+      <c r="L483">
+        <f t="shared" si="29"/>
+        <v>97920</v>
+      </c>
+    </row>
+    <row r="484" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H484">
+        <v>480</v>
+      </c>
+      <c r="I484">
+        <f t="shared" si="28"/>
+        <v>2405000</v>
+      </c>
+      <c r="J484">
+        <v>24050</v>
+      </c>
+      <c r="L484">
+        <f t="shared" si="29"/>
+        <v>98130</v>
+      </c>
+    </row>
+    <row r="485" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H485">
+        <v>481</v>
+      </c>
+      <c r="I485">
+        <f t="shared" si="28"/>
+        <v>2410000</v>
+      </c>
+      <c r="J485">
+        <v>24100</v>
+      </c>
+      <c r="L485">
+        <f t="shared" si="29"/>
+        <v>98330</v>
+      </c>
+    </row>
+    <row r="486" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H486">
+        <v>482</v>
+      </c>
+      <c r="I486">
+        <f t="shared" si="28"/>
+        <v>2415000</v>
+      </c>
+      <c r="J486">
+        <v>24150</v>
+      </c>
+      <c r="L486">
+        <f t="shared" si="29"/>
+        <v>98540</v>
+      </c>
+    </row>
+    <row r="487" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H487">
+        <v>483</v>
+      </c>
+      <c r="I487">
+        <f t="shared" si="28"/>
+        <v>2420000</v>
+      </c>
+      <c r="J487">
+        <v>24200</v>
+      </c>
+      <c r="L487">
+        <f t="shared" si="29"/>
+        <v>98740</v>
+      </c>
+    </row>
+    <row r="488" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H488">
+        <v>484</v>
+      </c>
+      <c r="I488">
+        <f t="shared" si="28"/>
+        <v>2425000</v>
+      </c>
+      <c r="J488">
+        <v>24250</v>
+      </c>
+      <c r="L488">
+        <f t="shared" si="29"/>
+        <v>98940</v>
+      </c>
+    </row>
+    <row r="489" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H489">
+        <v>485</v>
+      </c>
+      <c r="I489">
+        <f t="shared" si="28"/>
+        <v>2430000</v>
+      </c>
+      <c r="J489">
+        <v>24300</v>
+      </c>
+      <c r="L489">
+        <f t="shared" si="29"/>
+        <v>99150</v>
+      </c>
+    </row>
+    <row r="490" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H490">
+        <v>486</v>
+      </c>
+      <c r="I490">
+        <f t="shared" si="28"/>
+        <v>2435000</v>
+      </c>
+      <c r="J490">
+        <v>24350</v>
+      </c>
+      <c r="L490">
+        <f t="shared" si="29"/>
+        <v>99350</v>
+      </c>
+    </row>
+    <row r="491" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H491">
+        <v>487</v>
+      </c>
+      <c r="I491">
+        <f t="shared" si="28"/>
+        <v>2440000</v>
+      </c>
+      <c r="J491">
+        <v>24400</v>
+      </c>
+      <c r="L491">
+        <f t="shared" si="29"/>
+        <v>99560</v>
+      </c>
+    </row>
+    <row r="492" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H492">
+        <v>488</v>
+      </c>
+      <c r="I492">
+        <f t="shared" si="28"/>
+        <v>2445000</v>
+      </c>
+      <c r="J492">
+        <v>24450</v>
+      </c>
+      <c r="L492">
+        <f t="shared" si="29"/>
+        <v>99760</v>
+      </c>
+    </row>
+    <row r="493" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H493">
+        <v>489</v>
+      </c>
+      <c r="I493">
+        <f t="shared" si="28"/>
+        <v>2450000</v>
+      </c>
+      <c r="J493">
+        <v>24500</v>
+      </c>
+      <c r="L493">
+        <f t="shared" si="29"/>
+        <v>99960</v>
+      </c>
+    </row>
+    <row r="494" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H494">
+        <v>490</v>
+      </c>
+      <c r="I494">
+        <f t="shared" ref="I494:I509" si="30">J494*$B$6</f>
+        <v>2455000</v>
+      </c>
+      <c r="J494">
+        <v>24550</v>
+      </c>
+      <c r="L494">
+        <f t="shared" ref="L494:L509" si="31">ROUNDUP(((I494/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>100170</v>
+      </c>
+    </row>
+    <row r="495" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H495">
+        <v>491</v>
+      </c>
+      <c r="I495">
+        <f t="shared" si="30"/>
+        <v>2460000</v>
+      </c>
+      <c r="J495">
+        <v>24600</v>
+      </c>
+      <c r="L495">
+        <f t="shared" si="31"/>
+        <v>100370</v>
+      </c>
+    </row>
+    <row r="496" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H496">
+        <v>492</v>
+      </c>
+      <c r="I496">
+        <f t="shared" si="30"/>
+        <v>2465000</v>
+      </c>
+      <c r="J496">
+        <v>24650</v>
+      </c>
+      <c r="L496">
+        <f t="shared" si="31"/>
+        <v>100580</v>
+      </c>
+    </row>
+    <row r="497" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H497">
+        <v>493</v>
+      </c>
+      <c r="I497">
+        <f t="shared" si="30"/>
+        <v>2470000</v>
+      </c>
+      <c r="J497">
+        <v>24700</v>
+      </c>
+      <c r="L497">
+        <f t="shared" si="31"/>
+        <v>100780</v>
+      </c>
+    </row>
+    <row r="498" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H498">
+        <v>494</v>
+      </c>
+      <c r="I498">
+        <f t="shared" si="30"/>
+        <v>2475000</v>
+      </c>
+      <c r="J498">
+        <v>24750</v>
+      </c>
+      <c r="L498">
+        <f t="shared" si="31"/>
+        <v>100980</v>
+      </c>
+    </row>
+    <row r="499" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H499">
+        <v>495</v>
+      </c>
+      <c r="I499">
+        <f t="shared" si="30"/>
+        <v>2480000</v>
+      </c>
+      <c r="J499">
+        <v>24800</v>
+      </c>
+      <c r="L499">
+        <f t="shared" si="31"/>
+        <v>101190</v>
+      </c>
+    </row>
+    <row r="500" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H500">
+        <v>496</v>
+      </c>
+      <c r="I500">
+        <f t="shared" si="30"/>
+        <v>2485000</v>
+      </c>
+      <c r="J500">
+        <v>24850</v>
+      </c>
+      <c r="L500">
+        <f t="shared" si="31"/>
+        <v>101390</v>
+      </c>
+    </row>
+    <row r="501" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H501">
+        <v>497</v>
+      </c>
+      <c r="I501">
+        <f t="shared" si="30"/>
+        <v>2490000</v>
+      </c>
+      <c r="J501">
+        <v>24900</v>
+      </c>
+      <c r="L501">
+        <f t="shared" si="31"/>
+        <v>101600</v>
+      </c>
+    </row>
+    <row r="502" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H502">
+        <v>498</v>
+      </c>
+      <c r="I502">
+        <f t="shared" si="30"/>
+        <v>2495000</v>
+      </c>
+      <c r="J502">
+        <v>24950</v>
+      </c>
+      <c r="L502">
+        <f t="shared" si="31"/>
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="503" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H503">
+        <v>499</v>
+      </c>
+      <c r="I503">
+        <f t="shared" si="30"/>
+        <v>2500000</v>
+      </c>
+      <c r="J503">
+        <v>25000</v>
+      </c>
+      <c r="L503">
+        <f t="shared" si="31"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="504" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H504">
+        <v>500</v>
+      </c>
+      <c r="I504">
+        <f t="shared" si="30"/>
+        <v>2505000</v>
+      </c>
+      <c r="J504">
+        <v>25050</v>
+      </c>
+      <c r="L504">
+        <f t="shared" si="31"/>
+        <v>102210</v>
+      </c>
+    </row>
+    <row r="505" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H505">
+        <v>501</v>
+      </c>
+      <c r="I505">
+        <f t="shared" si="30"/>
+        <v>2510000</v>
+      </c>
+      <c r="J505">
+        <v>25100</v>
+      </c>
+      <c r="L505">
+        <f t="shared" si="31"/>
+        <v>102410</v>
+      </c>
+    </row>
+    <row r="506" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H506">
+        <v>502</v>
+      </c>
+      <c r="I506">
+        <f t="shared" si="30"/>
+        <v>2515000</v>
+      </c>
+      <c r="J506">
+        <v>25150</v>
+      </c>
+      <c r="L506">
+        <f t="shared" si="31"/>
+        <v>102620</v>
+      </c>
+    </row>
+    <row r="507" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H507">
+        <v>503</v>
+      </c>
+      <c r="I507">
+        <f t="shared" si="30"/>
+        <v>2520000</v>
+      </c>
+      <c r="J507">
+        <v>25200</v>
+      </c>
+      <c r="L507">
+        <f t="shared" si="31"/>
+        <v>102820</v>
+      </c>
+    </row>
+    <row r="508" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H508">
+        <v>504</v>
+      </c>
+      <c r="I508">
+        <f t="shared" si="30"/>
+        <v>2525000</v>
+      </c>
+      <c r="J508">
+        <v>25250</v>
+      </c>
+      <c r="L508">
+        <f t="shared" si="31"/>
+        <v>103020</v>
+      </c>
+    </row>
+    <row r="509" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H509">
+        <v>505</v>
+      </c>
+      <c r="I509">
+        <f t="shared" si="30"/>
+        <v>2530000</v>
+      </c>
+      <c r="J509">
+        <v>25300</v>
+      </c>
+      <c r="L509">
+        <f t="shared" si="31"/>
+        <v>103230</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5744F5A0-8768-45CA-99EE-3117FBEFA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81785A17-A380-4B71-B395-EF1119D7FD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhoUpgrade" sheetId="1" r:id="rId1"/>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B496" sqref="B496"/>
+      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B598" sqref="B598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7554,7 +7554,7 @@
         <v>21900</v>
       </c>
       <c r="C439" s="1">
-        <f t="shared" ref="C439:C501" si="9">C438</f>
+        <f t="shared" ref="C439:C502" si="9">C438</f>
         <v>49</v>
       </c>
       <c r="D439" s="1">
@@ -8552,6 +8552,1606 @@
       <c r="D501" s="1">
         <f>VLOOKUP(A501,Balalnce!H:L,5,FALSE)/100</f>
         <v>1020</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2">
+        <v>25050</v>
+      </c>
+      <c r="C502" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D502" s="1">
+        <f>VLOOKUP(A502,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1022.1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2">
+        <v>25100</v>
+      </c>
+      <c r="C503" s="1">
+        <f t="shared" ref="C503:C566" si="10">C502</f>
+        <v>49</v>
+      </c>
+      <c r="D503" s="1">
+        <f>VLOOKUP(A503,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1024.0999999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2">
+        <v>25150</v>
+      </c>
+      <c r="C504" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D504" s="1">
+        <f>VLOOKUP(A504,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1026.2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2">
+        <v>25200</v>
+      </c>
+      <c r="C505" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D505" s="1">
+        <f>VLOOKUP(A505,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1028.2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2">
+        <v>25250</v>
+      </c>
+      <c r="C506" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D506" s="1">
+        <f>VLOOKUP(A506,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1030.2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2">
+        <v>25300</v>
+      </c>
+      <c r="C507" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D507" s="1">
+        <f>VLOOKUP(A507,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1032.3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2">
+        <v>25350</v>
+      </c>
+      <c r="C508" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D508" s="1">
+        <f>VLOOKUP(A508,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1034.3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2">
+        <v>25400</v>
+      </c>
+      <c r="C509" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D509" s="1">
+        <f>VLOOKUP(A509,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1036.4000000000001</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2">
+        <v>25450</v>
+      </c>
+      <c r="C510" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D510" s="1">
+        <f>VLOOKUP(A510,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1038.4000000000001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2">
+        <v>25500</v>
+      </c>
+      <c r="C511" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D511" s="1">
+        <f>VLOOKUP(A511,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1040.4000000000001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2">
+        <v>25550</v>
+      </c>
+      <c r="C512" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D512" s="1">
+        <f>VLOOKUP(A512,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1042.5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2">
+        <v>25600</v>
+      </c>
+      <c r="C513" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D513" s="1">
+        <f>VLOOKUP(A513,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1044.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2">
+        <v>25650</v>
+      </c>
+      <c r="C514" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D514" s="1">
+        <f>VLOOKUP(A514,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1046.5999999999999</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2">
+        <v>25700</v>
+      </c>
+      <c r="C515" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D515" s="1">
+        <f>VLOOKUP(A515,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1048.5999999999999</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2">
+        <v>25750</v>
+      </c>
+      <c r="C516" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D516" s="1">
+        <f>VLOOKUP(A516,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1050.5999999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2">
+        <v>25800</v>
+      </c>
+      <c r="C517" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D517" s="1">
+        <f>VLOOKUP(A517,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1052.7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2">
+        <v>25850</v>
+      </c>
+      <c r="C518" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D518" s="1">
+        <f>VLOOKUP(A518,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1054.7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2">
+        <v>25900</v>
+      </c>
+      <c r="C519" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D519" s="1">
+        <f>VLOOKUP(A519,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1056.8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2">
+        <v>25950</v>
+      </c>
+      <c r="C520" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D520" s="1">
+        <f>VLOOKUP(A520,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1058.8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2">
+        <v>26000</v>
+      </c>
+      <c r="C521" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D521" s="1">
+        <f>VLOOKUP(A521,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1060.8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2">
+        <v>26050</v>
+      </c>
+      <c r="C522" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D522" s="1">
+        <f>VLOOKUP(A522,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1062.9000000000001</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2">
+        <v>26100</v>
+      </c>
+      <c r="C523" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D523" s="1">
+        <f>VLOOKUP(A523,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1064.9000000000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2">
+        <v>26150</v>
+      </c>
+      <c r="C524" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D524" s="1">
+        <f>VLOOKUP(A524,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2">
+        <v>26200</v>
+      </c>
+      <c r="C525" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D525" s="1">
+        <f>VLOOKUP(A525,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2">
+        <v>26250</v>
+      </c>
+      <c r="C526" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D526" s="1">
+        <f>VLOOKUP(A526,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2">
+        <v>26300</v>
+      </c>
+      <c r="C527" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D527" s="1">
+        <f>VLOOKUP(A527,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1073.0999999999999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2">
+        <v>26350</v>
+      </c>
+      <c r="C528" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D528" s="1">
+        <f>VLOOKUP(A528,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1075.0999999999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2">
+        <v>26400</v>
+      </c>
+      <c r="C529" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D529" s="1">
+        <f>VLOOKUP(A529,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1077.2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2">
+        <v>26450</v>
+      </c>
+      <c r="C530" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D530" s="1">
+        <f>VLOOKUP(A530,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1079.2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2">
+        <v>26500</v>
+      </c>
+      <c r="C531" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D531" s="1">
+        <f>VLOOKUP(A531,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1081.2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2">
+        <v>26550</v>
+      </c>
+      <c r="C532" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D532" s="1">
+        <f>VLOOKUP(A532,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1083.3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2">
+        <v>26600</v>
+      </c>
+      <c r="C533" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D533" s="1">
+        <f>VLOOKUP(A533,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1085.3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2">
+        <v>26650</v>
+      </c>
+      <c r="C534" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D534" s="1">
+        <f>VLOOKUP(A534,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1087.4000000000001</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2">
+        <v>26700</v>
+      </c>
+      <c r="C535" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D535" s="1">
+        <f>VLOOKUP(A535,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1089.4000000000001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2">
+        <v>26750</v>
+      </c>
+      <c r="C536" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D536" s="1">
+        <f>VLOOKUP(A536,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1091.4000000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2">
+        <v>26800</v>
+      </c>
+      <c r="C537" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D537" s="1">
+        <f>VLOOKUP(A537,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1093.5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2">
+        <v>26850</v>
+      </c>
+      <c r="C538" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D538" s="1">
+        <f>VLOOKUP(A538,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1095.5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2">
+        <v>26900</v>
+      </c>
+      <c r="C539" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D539" s="1">
+        <f>VLOOKUP(A539,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1097.5999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2">
+        <v>26950</v>
+      </c>
+      <c r="C540" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D540" s="1">
+        <f>VLOOKUP(A540,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1099.5999999999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2">
+        <v>27000</v>
+      </c>
+      <c r="C541" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D541" s="1">
+        <f>VLOOKUP(A541,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1101.5999999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2">
+        <v>27050</v>
+      </c>
+      <c r="C542" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D542" s="1">
+        <f>VLOOKUP(A542,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1103.7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2">
+        <v>27100</v>
+      </c>
+      <c r="C543" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D543" s="1">
+        <f>VLOOKUP(A543,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1105.7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2">
+        <v>27150</v>
+      </c>
+      <c r="C544" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D544" s="1">
+        <f>VLOOKUP(A544,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1107.8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2">
+        <v>27200</v>
+      </c>
+      <c r="C545" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D545" s="1">
+        <f>VLOOKUP(A545,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1109.8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2">
+        <v>27250</v>
+      </c>
+      <c r="C546" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D546" s="1">
+        <f>VLOOKUP(A546,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1111.8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2">
+        <v>27300</v>
+      </c>
+      <c r="C547" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D547" s="1">
+        <f>VLOOKUP(A547,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1113.9000000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2">
+        <v>27350</v>
+      </c>
+      <c r="C548" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D548" s="1">
+        <f>VLOOKUP(A548,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1115.9000000000001</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2">
+        <v>27400</v>
+      </c>
+      <c r="C549" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D549" s="1">
+        <f>VLOOKUP(A549,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2">
+        <v>27450</v>
+      </c>
+      <c r="C550" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D550" s="1">
+        <f>VLOOKUP(A550,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2">
+        <v>27500</v>
+      </c>
+      <c r="C551" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D551" s="1">
+        <f>VLOOKUP(A551,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2">
+        <v>27550</v>
+      </c>
+      <c r="C552" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D552" s="1">
+        <f>VLOOKUP(A552,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1124.0999999999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2">
+        <v>27600</v>
+      </c>
+      <c r="C553" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D553" s="1">
+        <f>VLOOKUP(A553,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1126.0999999999999</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2">
+        <v>27650</v>
+      </c>
+      <c r="C554" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D554" s="1">
+        <f>VLOOKUP(A554,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1128.2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2">
+        <v>27700</v>
+      </c>
+      <c r="C555" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D555" s="1">
+        <f>VLOOKUP(A555,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1130.2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2">
+        <v>27750</v>
+      </c>
+      <c r="C556" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D556" s="1">
+        <f>VLOOKUP(A556,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1132.2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2">
+        <v>27800</v>
+      </c>
+      <c r="C557" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D557" s="1">
+        <f>VLOOKUP(A557,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1134.3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2">
+        <v>27850</v>
+      </c>
+      <c r="C558" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D558" s="1">
+        <f>VLOOKUP(A558,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1136.3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2">
+        <v>27900</v>
+      </c>
+      <c r="C559" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D559" s="1">
+        <f>VLOOKUP(A559,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1138.4000000000001</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2">
+        <v>27950</v>
+      </c>
+      <c r="C560" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D560" s="1">
+        <f>VLOOKUP(A560,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1140.4000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C561" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D561" s="1">
+        <f>VLOOKUP(A561,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1142.4000000000001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2">
+        <v>28050</v>
+      </c>
+      <c r="C562" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D562" s="1">
+        <f>VLOOKUP(A562,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1144.5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2">
+        <v>28100</v>
+      </c>
+      <c r="C563" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D563" s="1">
+        <f>VLOOKUP(A563,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1146.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2">
+        <v>28150</v>
+      </c>
+      <c r="C564" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D564" s="1">
+        <f>VLOOKUP(A564,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1148.5999999999999</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2">
+        <v>28200</v>
+      </c>
+      <c r="C565" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D565" s="1">
+        <f>VLOOKUP(A565,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1150.5999999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2">
+        <v>28250</v>
+      </c>
+      <c r="C566" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="D566" s="1">
+        <f>VLOOKUP(A566,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1152.5999999999999</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2">
+        <v>28300</v>
+      </c>
+      <c r="C567" s="1">
+        <f t="shared" ref="C567:C601" si="11">C566</f>
+        <v>49</v>
+      </c>
+      <c r="D567" s="1">
+        <f>VLOOKUP(A567,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1154.7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2">
+        <v>28350</v>
+      </c>
+      <c r="C568" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D568" s="1">
+        <f>VLOOKUP(A568,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1156.7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2">
+        <v>28400</v>
+      </c>
+      <c r="C569" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D569" s="1">
+        <f>VLOOKUP(A569,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1158.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2">
+        <v>28450</v>
+      </c>
+      <c r="C570" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D570" s="1">
+        <f>VLOOKUP(A570,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1160.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2">
+        <v>28500</v>
+      </c>
+      <c r="C571" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D571" s="1">
+        <f>VLOOKUP(A571,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1162.8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2">
+        <v>28550</v>
+      </c>
+      <c r="C572" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D572" s="1">
+        <f>VLOOKUP(A572,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1164.9000000000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2">
+        <v>28600</v>
+      </c>
+      <c r="C573" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D573" s="1">
+        <f>VLOOKUP(A573,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1166.9000000000001</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2">
+        <v>28650</v>
+      </c>
+      <c r="C574" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D574" s="1">
+        <f>VLOOKUP(A574,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2">
+        <v>28700</v>
+      </c>
+      <c r="C575" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D575" s="1">
+        <f>VLOOKUP(A575,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2">
+        <v>28750</v>
+      </c>
+      <c r="C576" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D576" s="1">
+        <f>VLOOKUP(A576,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2">
+        <v>28800</v>
+      </c>
+      <c r="C577" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D577" s="1">
+        <f>VLOOKUP(A577,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1175.0999999999999</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <v>28850</v>
+      </c>
+      <c r="C578" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D578" s="1">
+        <f>VLOOKUP(A578,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1177.0999999999999</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2">
+        <v>28900</v>
+      </c>
+      <c r="C579" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D579" s="1">
+        <f>VLOOKUP(A579,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1179.2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2">
+        <v>28950</v>
+      </c>
+      <c r="C580" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D580" s="1">
+        <f>VLOOKUP(A580,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1181.2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2">
+        <v>29000</v>
+      </c>
+      <c r="C581" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D581" s="1">
+        <f>VLOOKUP(A581,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1183.2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2">
+        <v>29050</v>
+      </c>
+      <c r="C582" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D582" s="1">
+        <f>VLOOKUP(A582,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1185.3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2">
+        <v>29100</v>
+      </c>
+      <c r="C583" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D583" s="1">
+        <f>VLOOKUP(A583,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1187.3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2">
+        <v>29150</v>
+      </c>
+      <c r="C584" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D584" s="1">
+        <f>VLOOKUP(A584,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1189.4000000000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2">
+        <v>29200</v>
+      </c>
+      <c r="C585" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D585" s="1">
+        <f>VLOOKUP(A585,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1191.4000000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2">
+        <v>29250</v>
+      </c>
+      <c r="C586" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D586" s="1">
+        <f>VLOOKUP(A586,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1193.4000000000001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2">
+        <v>29300</v>
+      </c>
+      <c r="C587" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D587" s="1">
+        <f>VLOOKUP(A587,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1195.5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2">
+        <v>29350</v>
+      </c>
+      <c r="C588" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D588" s="1">
+        <f>VLOOKUP(A588,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1197.5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2">
+        <v>29400</v>
+      </c>
+      <c r="C589" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D589" s="1">
+        <f>VLOOKUP(A589,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1199.5999999999999</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>29450</v>
+      </c>
+      <c r="C590" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D590" s="1">
+        <f>VLOOKUP(A590,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1201.5999999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>29500</v>
+      </c>
+      <c r="C591" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D591" s="1">
+        <f>VLOOKUP(A591,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1203.5999999999999</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>29550</v>
+      </c>
+      <c r="C592" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D592" s="1">
+        <f>VLOOKUP(A592,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1205.7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>29600</v>
+      </c>
+      <c r="C593" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D593" s="1">
+        <f>VLOOKUP(A593,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1207.7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>29650</v>
+      </c>
+      <c r="C594" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D594" s="1">
+        <f>VLOOKUP(A594,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1209.8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>29700</v>
+      </c>
+      <c r="C595" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D595" s="1">
+        <f>VLOOKUP(A595,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1211.8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>29750</v>
+      </c>
+      <c r="C596" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D596" s="1">
+        <f>VLOOKUP(A596,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1213.8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>29800</v>
+      </c>
+      <c r="C597" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D597" s="1">
+        <f>VLOOKUP(A597,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1215.9000000000001</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>29850</v>
+      </c>
+      <c r="C598" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D598" s="1">
+        <f>VLOOKUP(A598,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1217.9000000000001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>29900</v>
+      </c>
+      <c r="C599" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D599" s="1">
+        <f>VLOOKUP(A599,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>29950</v>
+      </c>
+      <c r="C600" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D600" s="1">
+        <f>VLOOKUP(A600,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C601" s="1">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="D601" s="1">
+        <f>VLOOKUP(A601,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -8563,10 +10163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L509"/>
+  <dimension ref="A3:L604"/>
   <sheetViews>
-    <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="H444" sqref="H444:L509"/>
+    <sheetView topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="H444" sqref="H444:L604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16474,14 +18074,14 @@
         <v>490</v>
       </c>
       <c r="I494">
-        <f t="shared" ref="I494:I509" si="30">J494*$B$6</f>
+        <f t="shared" ref="I494:I557" si="30">J494*$B$6</f>
         <v>2455000</v>
       </c>
       <c r="J494">
         <v>24550</v>
       </c>
       <c r="L494">
-        <f t="shared" ref="L494:L509" si="31">ROUNDUP(((I494/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <f t="shared" ref="L494:L557" si="31">ROUNDUP(((I494/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
         <v>100170</v>
       </c>
     </row>
@@ -16723,6 +18323,1526 @@
       <c r="L509">
         <f t="shared" si="31"/>
         <v>103230</v>
+      </c>
+    </row>
+    <row r="510" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H510">
+        <v>506</v>
+      </c>
+      <c r="I510">
+        <f t="shared" si="30"/>
+        <v>2535000</v>
+      </c>
+      <c r="J510">
+        <v>25350</v>
+      </c>
+      <c r="L510">
+        <f t="shared" si="31"/>
+        <v>103430</v>
+      </c>
+    </row>
+    <row r="511" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H511">
+        <v>507</v>
+      </c>
+      <c r="I511">
+        <f t="shared" si="30"/>
+        <v>2540000</v>
+      </c>
+      <c r="J511">
+        <v>25400</v>
+      </c>
+      <c r="L511">
+        <f t="shared" si="31"/>
+        <v>103640</v>
+      </c>
+    </row>
+    <row r="512" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H512">
+        <v>508</v>
+      </c>
+      <c r="I512">
+        <f t="shared" si="30"/>
+        <v>2545000</v>
+      </c>
+      <c r="J512">
+        <v>25450</v>
+      </c>
+      <c r="L512">
+        <f t="shared" si="31"/>
+        <v>103840</v>
+      </c>
+    </row>
+    <row r="513" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H513">
+        <v>509</v>
+      </c>
+      <c r="I513">
+        <f t="shared" si="30"/>
+        <v>2550000</v>
+      </c>
+      <c r="J513">
+        <v>25500</v>
+      </c>
+      <c r="L513">
+        <f t="shared" si="31"/>
+        <v>104040</v>
+      </c>
+    </row>
+    <row r="514" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H514">
+        <v>510</v>
+      </c>
+      <c r="I514">
+        <f t="shared" si="30"/>
+        <v>2555000</v>
+      </c>
+      <c r="J514">
+        <v>25550</v>
+      </c>
+      <c r="L514">
+        <f t="shared" si="31"/>
+        <v>104250</v>
+      </c>
+    </row>
+    <row r="515" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H515">
+        <v>511</v>
+      </c>
+      <c r="I515">
+        <f t="shared" si="30"/>
+        <v>2560000</v>
+      </c>
+      <c r="J515">
+        <v>25600</v>
+      </c>
+      <c r="L515">
+        <f t="shared" si="31"/>
+        <v>104450</v>
+      </c>
+    </row>
+    <row r="516" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H516">
+        <v>512</v>
+      </c>
+      <c r="I516">
+        <f t="shared" si="30"/>
+        <v>2565000</v>
+      </c>
+      <c r="J516">
+        <v>25650</v>
+      </c>
+      <c r="L516">
+        <f t="shared" si="31"/>
+        <v>104660</v>
+      </c>
+    </row>
+    <row r="517" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H517">
+        <v>513</v>
+      </c>
+      <c r="I517">
+        <f t="shared" si="30"/>
+        <v>2570000</v>
+      </c>
+      <c r="J517">
+        <v>25700</v>
+      </c>
+      <c r="L517">
+        <f t="shared" si="31"/>
+        <v>104860</v>
+      </c>
+    </row>
+    <row r="518" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H518">
+        <v>514</v>
+      </c>
+      <c r="I518">
+        <f t="shared" si="30"/>
+        <v>2575000</v>
+      </c>
+      <c r="J518">
+        <v>25750</v>
+      </c>
+      <c r="L518">
+        <f t="shared" si="31"/>
+        <v>105060</v>
+      </c>
+    </row>
+    <row r="519" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H519">
+        <v>515</v>
+      </c>
+      <c r="I519">
+        <f t="shared" si="30"/>
+        <v>2580000</v>
+      </c>
+      <c r="J519">
+        <v>25800</v>
+      </c>
+      <c r="L519">
+        <f t="shared" si="31"/>
+        <v>105270</v>
+      </c>
+    </row>
+    <row r="520" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H520">
+        <v>516</v>
+      </c>
+      <c r="I520">
+        <f t="shared" si="30"/>
+        <v>2585000</v>
+      </c>
+      <c r="J520">
+        <v>25850</v>
+      </c>
+      <c r="L520">
+        <f t="shared" si="31"/>
+        <v>105470</v>
+      </c>
+    </row>
+    <row r="521" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H521">
+        <v>517</v>
+      </c>
+      <c r="I521">
+        <f t="shared" si="30"/>
+        <v>2590000</v>
+      </c>
+      <c r="J521">
+        <v>25900</v>
+      </c>
+      <c r="L521">
+        <f t="shared" si="31"/>
+        <v>105680</v>
+      </c>
+    </row>
+    <row r="522" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H522">
+        <v>518</v>
+      </c>
+      <c r="I522">
+        <f t="shared" si="30"/>
+        <v>2595000</v>
+      </c>
+      <c r="J522">
+        <v>25950</v>
+      </c>
+      <c r="L522">
+        <f t="shared" si="31"/>
+        <v>105880</v>
+      </c>
+    </row>
+    <row r="523" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H523">
+        <v>519</v>
+      </c>
+      <c r="I523">
+        <f t="shared" si="30"/>
+        <v>2600000</v>
+      </c>
+      <c r="J523">
+        <v>26000</v>
+      </c>
+      <c r="L523">
+        <f t="shared" si="31"/>
+        <v>106080</v>
+      </c>
+    </row>
+    <row r="524" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H524">
+        <v>520</v>
+      </c>
+      <c r="I524">
+        <f t="shared" si="30"/>
+        <v>2605000</v>
+      </c>
+      <c r="J524">
+        <v>26050</v>
+      </c>
+      <c r="L524">
+        <f t="shared" si="31"/>
+        <v>106290</v>
+      </c>
+    </row>
+    <row r="525" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H525">
+        <v>521</v>
+      </c>
+      <c r="I525">
+        <f t="shared" si="30"/>
+        <v>2610000</v>
+      </c>
+      <c r="J525">
+        <v>26100</v>
+      </c>
+      <c r="L525">
+        <f t="shared" si="31"/>
+        <v>106490</v>
+      </c>
+    </row>
+    <row r="526" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H526">
+        <v>522</v>
+      </c>
+      <c r="I526">
+        <f t="shared" si="30"/>
+        <v>2615000</v>
+      </c>
+      <c r="J526">
+        <v>26150</v>
+      </c>
+      <c r="L526">
+        <f t="shared" si="31"/>
+        <v>106700</v>
+      </c>
+    </row>
+    <row r="527" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H527">
+        <v>523</v>
+      </c>
+      <c r="I527">
+        <f t="shared" si="30"/>
+        <v>2620000</v>
+      </c>
+      <c r="J527">
+        <v>26200</v>
+      </c>
+      <c r="L527">
+        <f t="shared" si="31"/>
+        <v>106900</v>
+      </c>
+    </row>
+    <row r="528" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H528">
+        <v>524</v>
+      </c>
+      <c r="I528">
+        <f t="shared" si="30"/>
+        <v>2625000</v>
+      </c>
+      <c r="J528">
+        <v>26250</v>
+      </c>
+      <c r="L528">
+        <f t="shared" si="31"/>
+        <v>107100</v>
+      </c>
+    </row>
+    <row r="529" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H529">
+        <v>525</v>
+      </c>
+      <c r="I529">
+        <f t="shared" si="30"/>
+        <v>2630000</v>
+      </c>
+      <c r="J529">
+        <v>26300</v>
+      </c>
+      <c r="L529">
+        <f t="shared" si="31"/>
+        <v>107310</v>
+      </c>
+    </row>
+    <row r="530" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H530">
+        <v>526</v>
+      </c>
+      <c r="I530">
+        <f t="shared" si="30"/>
+        <v>2635000</v>
+      </c>
+      <c r="J530">
+        <v>26350</v>
+      </c>
+      <c r="L530">
+        <f t="shared" si="31"/>
+        <v>107510</v>
+      </c>
+    </row>
+    <row r="531" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H531">
+        <v>527</v>
+      </c>
+      <c r="I531">
+        <f t="shared" si="30"/>
+        <v>2640000</v>
+      </c>
+      <c r="J531">
+        <v>26400</v>
+      </c>
+      <c r="L531">
+        <f t="shared" si="31"/>
+        <v>107720</v>
+      </c>
+    </row>
+    <row r="532" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H532">
+        <v>528</v>
+      </c>
+      <c r="I532">
+        <f t="shared" si="30"/>
+        <v>2645000</v>
+      </c>
+      <c r="J532">
+        <v>26450</v>
+      </c>
+      <c r="L532">
+        <f t="shared" si="31"/>
+        <v>107920</v>
+      </c>
+    </row>
+    <row r="533" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H533">
+        <v>529</v>
+      </c>
+      <c r="I533">
+        <f t="shared" si="30"/>
+        <v>2650000</v>
+      </c>
+      <c r="J533">
+        <v>26500</v>
+      </c>
+      <c r="L533">
+        <f t="shared" si="31"/>
+        <v>108120</v>
+      </c>
+    </row>
+    <row r="534" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H534">
+        <v>530</v>
+      </c>
+      <c r="I534">
+        <f t="shared" si="30"/>
+        <v>2655000</v>
+      </c>
+      <c r="J534">
+        <v>26550</v>
+      </c>
+      <c r="L534">
+        <f t="shared" si="31"/>
+        <v>108330</v>
+      </c>
+    </row>
+    <row r="535" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H535">
+        <v>531</v>
+      </c>
+      <c r="I535">
+        <f t="shared" si="30"/>
+        <v>2660000</v>
+      </c>
+      <c r="J535">
+        <v>26600</v>
+      </c>
+      <c r="L535">
+        <f t="shared" si="31"/>
+        <v>108530</v>
+      </c>
+    </row>
+    <row r="536" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H536">
+        <v>532</v>
+      </c>
+      <c r="I536">
+        <f t="shared" si="30"/>
+        <v>2665000</v>
+      </c>
+      <c r="J536">
+        <v>26650</v>
+      </c>
+      <c r="L536">
+        <f t="shared" si="31"/>
+        <v>108740</v>
+      </c>
+    </row>
+    <row r="537" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H537">
+        <v>533</v>
+      </c>
+      <c r="I537">
+        <f t="shared" si="30"/>
+        <v>2670000</v>
+      </c>
+      <c r="J537">
+        <v>26700</v>
+      </c>
+      <c r="L537">
+        <f t="shared" si="31"/>
+        <v>108940</v>
+      </c>
+    </row>
+    <row r="538" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H538">
+        <v>534</v>
+      </c>
+      <c r="I538">
+        <f t="shared" si="30"/>
+        <v>2675000</v>
+      </c>
+      <c r="J538">
+        <v>26750</v>
+      </c>
+      <c r="L538">
+        <f t="shared" si="31"/>
+        <v>109140</v>
+      </c>
+    </row>
+    <row r="539" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H539">
+        <v>535</v>
+      </c>
+      <c r="I539">
+        <f t="shared" si="30"/>
+        <v>2680000</v>
+      </c>
+      <c r="J539">
+        <v>26800</v>
+      </c>
+      <c r="L539">
+        <f t="shared" si="31"/>
+        <v>109350</v>
+      </c>
+    </row>
+    <row r="540" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H540">
+        <v>536</v>
+      </c>
+      <c r="I540">
+        <f t="shared" si="30"/>
+        <v>2685000</v>
+      </c>
+      <c r="J540">
+        <v>26850</v>
+      </c>
+      <c r="L540">
+        <f t="shared" si="31"/>
+        <v>109550</v>
+      </c>
+    </row>
+    <row r="541" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H541">
+        <v>537</v>
+      </c>
+      <c r="I541">
+        <f t="shared" si="30"/>
+        <v>2690000</v>
+      </c>
+      <c r="J541">
+        <v>26900</v>
+      </c>
+      <c r="L541">
+        <f t="shared" si="31"/>
+        <v>109760</v>
+      </c>
+    </row>
+    <row r="542" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H542">
+        <v>538</v>
+      </c>
+      <c r="I542">
+        <f t="shared" si="30"/>
+        <v>2695000</v>
+      </c>
+      <c r="J542">
+        <v>26950</v>
+      </c>
+      <c r="L542">
+        <f t="shared" si="31"/>
+        <v>109960</v>
+      </c>
+    </row>
+    <row r="543" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H543">
+        <v>539</v>
+      </c>
+      <c r="I543">
+        <f t="shared" si="30"/>
+        <v>2700000</v>
+      </c>
+      <c r="J543">
+        <v>27000</v>
+      </c>
+      <c r="L543">
+        <f t="shared" si="31"/>
+        <v>110160</v>
+      </c>
+    </row>
+    <row r="544" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H544">
+        <v>540</v>
+      </c>
+      <c r="I544">
+        <f t="shared" si="30"/>
+        <v>2705000</v>
+      </c>
+      <c r="J544">
+        <v>27050</v>
+      </c>
+      <c r="L544">
+        <f t="shared" si="31"/>
+        <v>110370</v>
+      </c>
+    </row>
+    <row r="545" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H545">
+        <v>541</v>
+      </c>
+      <c r="I545">
+        <f t="shared" si="30"/>
+        <v>2710000</v>
+      </c>
+      <c r="J545">
+        <v>27100</v>
+      </c>
+      <c r="L545">
+        <f t="shared" si="31"/>
+        <v>110570</v>
+      </c>
+    </row>
+    <row r="546" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H546">
+        <v>542</v>
+      </c>
+      <c r="I546">
+        <f t="shared" si="30"/>
+        <v>2715000</v>
+      </c>
+      <c r="J546">
+        <v>27150</v>
+      </c>
+      <c r="L546">
+        <f t="shared" si="31"/>
+        <v>110780</v>
+      </c>
+    </row>
+    <row r="547" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H547">
+        <v>543</v>
+      </c>
+      <c r="I547">
+        <f t="shared" si="30"/>
+        <v>2720000</v>
+      </c>
+      <c r="J547">
+        <v>27200</v>
+      </c>
+      <c r="L547">
+        <f t="shared" si="31"/>
+        <v>110980</v>
+      </c>
+    </row>
+    <row r="548" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H548">
+        <v>544</v>
+      </c>
+      <c r="I548">
+        <f t="shared" si="30"/>
+        <v>2725000</v>
+      </c>
+      <c r="J548">
+        <v>27250</v>
+      </c>
+      <c r="L548">
+        <f t="shared" si="31"/>
+        <v>111180</v>
+      </c>
+    </row>
+    <row r="549" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H549">
+        <v>545</v>
+      </c>
+      <c r="I549">
+        <f t="shared" si="30"/>
+        <v>2730000</v>
+      </c>
+      <c r="J549">
+        <v>27300</v>
+      </c>
+      <c r="L549">
+        <f t="shared" si="31"/>
+        <v>111390</v>
+      </c>
+    </row>
+    <row r="550" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H550">
+        <v>546</v>
+      </c>
+      <c r="I550">
+        <f t="shared" si="30"/>
+        <v>2735000</v>
+      </c>
+      <c r="J550">
+        <v>27350</v>
+      </c>
+      <c r="L550">
+        <f t="shared" si="31"/>
+        <v>111590</v>
+      </c>
+    </row>
+    <row r="551" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H551">
+        <v>547</v>
+      </c>
+      <c r="I551">
+        <f t="shared" si="30"/>
+        <v>2740000</v>
+      </c>
+      <c r="J551">
+        <v>27400</v>
+      </c>
+      <c r="L551">
+        <f t="shared" si="31"/>
+        <v>111800</v>
+      </c>
+    </row>
+    <row r="552" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H552">
+        <v>548</v>
+      </c>
+      <c r="I552">
+        <f t="shared" si="30"/>
+        <v>2745000</v>
+      </c>
+      <c r="J552">
+        <v>27450</v>
+      </c>
+      <c r="L552">
+        <f t="shared" si="31"/>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="553" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H553">
+        <v>549</v>
+      </c>
+      <c r="I553">
+        <f t="shared" si="30"/>
+        <v>2750000</v>
+      </c>
+      <c r="J553">
+        <v>27500</v>
+      </c>
+      <c r="L553">
+        <f t="shared" si="31"/>
+        <v>112200</v>
+      </c>
+    </row>
+    <row r="554" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H554">
+        <v>550</v>
+      </c>
+      <c r="I554">
+        <f t="shared" si="30"/>
+        <v>2755000</v>
+      </c>
+      <c r="J554">
+        <v>27550</v>
+      </c>
+      <c r="L554">
+        <f t="shared" si="31"/>
+        <v>112410</v>
+      </c>
+    </row>
+    <row r="555" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H555">
+        <v>551</v>
+      </c>
+      <c r="I555">
+        <f t="shared" si="30"/>
+        <v>2760000</v>
+      </c>
+      <c r="J555">
+        <v>27600</v>
+      </c>
+      <c r="L555">
+        <f t="shared" si="31"/>
+        <v>112610</v>
+      </c>
+    </row>
+    <row r="556" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H556">
+        <v>552</v>
+      </c>
+      <c r="I556">
+        <f t="shared" si="30"/>
+        <v>2765000</v>
+      </c>
+      <c r="J556">
+        <v>27650</v>
+      </c>
+      <c r="L556">
+        <f t="shared" si="31"/>
+        <v>112820</v>
+      </c>
+    </row>
+    <row r="557" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H557">
+        <v>553</v>
+      </c>
+      <c r="I557">
+        <f t="shared" si="30"/>
+        <v>2770000</v>
+      </c>
+      <c r="J557">
+        <v>27700</v>
+      </c>
+      <c r="L557">
+        <f t="shared" si="31"/>
+        <v>113020</v>
+      </c>
+    </row>
+    <row r="558" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H558">
+        <v>554</v>
+      </c>
+      <c r="I558">
+        <f t="shared" ref="I558:I604" si="32">J558*$B$6</f>
+        <v>2775000</v>
+      </c>
+      <c r="J558">
+        <v>27750</v>
+      </c>
+      <c r="L558">
+        <f t="shared" ref="L558:L604" si="33">ROUNDUP(((I558/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>113220</v>
+      </c>
+    </row>
+    <row r="559" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H559">
+        <v>555</v>
+      </c>
+      <c r="I559">
+        <f t="shared" si="32"/>
+        <v>2780000</v>
+      </c>
+      <c r="J559">
+        <v>27800</v>
+      </c>
+      <c r="L559">
+        <f t="shared" si="33"/>
+        <v>113430</v>
+      </c>
+    </row>
+    <row r="560" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H560">
+        <v>556</v>
+      </c>
+      <c r="I560">
+        <f t="shared" si="32"/>
+        <v>2785000</v>
+      </c>
+      <c r="J560">
+        <v>27850</v>
+      </c>
+      <c r="L560">
+        <f t="shared" si="33"/>
+        <v>113630</v>
+      </c>
+    </row>
+    <row r="561" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H561">
+        <v>557</v>
+      </c>
+      <c r="I561">
+        <f t="shared" si="32"/>
+        <v>2790000</v>
+      </c>
+      <c r="J561">
+        <v>27900</v>
+      </c>
+      <c r="L561">
+        <f t="shared" si="33"/>
+        <v>113840</v>
+      </c>
+    </row>
+    <row r="562" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H562">
+        <v>558</v>
+      </c>
+      <c r="I562">
+        <f t="shared" si="32"/>
+        <v>2795000</v>
+      </c>
+      <c r="J562">
+        <v>27950</v>
+      </c>
+      <c r="L562">
+        <f t="shared" si="33"/>
+        <v>114040</v>
+      </c>
+    </row>
+    <row r="563" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H563">
+        <v>559</v>
+      </c>
+      <c r="I563">
+        <f t="shared" si="32"/>
+        <v>2800000</v>
+      </c>
+      <c r="J563">
+        <v>28000</v>
+      </c>
+      <c r="L563">
+        <f t="shared" si="33"/>
+        <v>114240</v>
+      </c>
+    </row>
+    <row r="564" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H564">
+        <v>560</v>
+      </c>
+      <c r="I564">
+        <f t="shared" si="32"/>
+        <v>2805000</v>
+      </c>
+      <c r="J564">
+        <v>28050</v>
+      </c>
+      <c r="L564">
+        <f t="shared" si="33"/>
+        <v>114450</v>
+      </c>
+    </row>
+    <row r="565" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H565">
+        <v>561</v>
+      </c>
+      <c r="I565">
+        <f t="shared" si="32"/>
+        <v>2810000</v>
+      </c>
+      <c r="J565">
+        <v>28100</v>
+      </c>
+      <c r="L565">
+        <f t="shared" si="33"/>
+        <v>114650</v>
+      </c>
+    </row>
+    <row r="566" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H566">
+        <v>562</v>
+      </c>
+      <c r="I566">
+        <f t="shared" si="32"/>
+        <v>2815000</v>
+      </c>
+      <c r="J566">
+        <v>28150</v>
+      </c>
+      <c r="L566">
+        <f t="shared" si="33"/>
+        <v>114860</v>
+      </c>
+    </row>
+    <row r="567" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H567">
+        <v>563</v>
+      </c>
+      <c r="I567">
+        <f t="shared" si="32"/>
+        <v>2820000</v>
+      </c>
+      <c r="J567">
+        <v>28200</v>
+      </c>
+      <c r="L567">
+        <f t="shared" si="33"/>
+        <v>115060</v>
+      </c>
+    </row>
+    <row r="568" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H568">
+        <v>564</v>
+      </c>
+      <c r="I568">
+        <f t="shared" si="32"/>
+        <v>2825000</v>
+      </c>
+      <c r="J568">
+        <v>28250</v>
+      </c>
+      <c r="L568">
+        <f t="shared" si="33"/>
+        <v>115260</v>
+      </c>
+    </row>
+    <row r="569" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H569">
+        <v>565</v>
+      </c>
+      <c r="I569">
+        <f t="shared" si="32"/>
+        <v>2830000</v>
+      </c>
+      <c r="J569">
+        <v>28300</v>
+      </c>
+      <c r="L569">
+        <f t="shared" si="33"/>
+        <v>115470</v>
+      </c>
+    </row>
+    <row r="570" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H570">
+        <v>566</v>
+      </c>
+      <c r="I570">
+        <f t="shared" si="32"/>
+        <v>2835000</v>
+      </c>
+      <c r="J570">
+        <v>28350</v>
+      </c>
+      <c r="L570">
+        <f t="shared" si="33"/>
+        <v>115670</v>
+      </c>
+    </row>
+    <row r="571" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H571">
+        <v>567</v>
+      </c>
+      <c r="I571">
+        <f t="shared" si="32"/>
+        <v>2840000</v>
+      </c>
+      <c r="J571">
+        <v>28400</v>
+      </c>
+      <c r="L571">
+        <f t="shared" si="33"/>
+        <v>115880</v>
+      </c>
+    </row>
+    <row r="572" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H572">
+        <v>568</v>
+      </c>
+      <c r="I572">
+        <f t="shared" si="32"/>
+        <v>2845000</v>
+      </c>
+      <c r="J572">
+        <v>28450</v>
+      </c>
+      <c r="L572">
+        <f t="shared" si="33"/>
+        <v>116080</v>
+      </c>
+    </row>
+    <row r="573" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H573">
+        <v>569</v>
+      </c>
+      <c r="I573">
+        <f t="shared" si="32"/>
+        <v>2850000</v>
+      </c>
+      <c r="J573">
+        <v>28500</v>
+      </c>
+      <c r="L573">
+        <f t="shared" si="33"/>
+        <v>116280</v>
+      </c>
+    </row>
+    <row r="574" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H574">
+        <v>570</v>
+      </c>
+      <c r="I574">
+        <f t="shared" si="32"/>
+        <v>2855000</v>
+      </c>
+      <c r="J574">
+        <v>28550</v>
+      </c>
+      <c r="L574">
+        <f t="shared" si="33"/>
+        <v>116490</v>
+      </c>
+    </row>
+    <row r="575" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H575">
+        <v>571</v>
+      </c>
+      <c r="I575">
+        <f t="shared" si="32"/>
+        <v>2860000</v>
+      </c>
+      <c r="J575">
+        <v>28600</v>
+      </c>
+      <c r="L575">
+        <f t="shared" si="33"/>
+        <v>116690</v>
+      </c>
+    </row>
+    <row r="576" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H576">
+        <v>572</v>
+      </c>
+      <c r="I576">
+        <f t="shared" si="32"/>
+        <v>2865000</v>
+      </c>
+      <c r="J576">
+        <v>28650</v>
+      </c>
+      <c r="L576">
+        <f t="shared" si="33"/>
+        <v>116900</v>
+      </c>
+    </row>
+    <row r="577" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H577">
+        <v>573</v>
+      </c>
+      <c r="I577">
+        <f t="shared" si="32"/>
+        <v>2870000</v>
+      </c>
+      <c r="J577">
+        <v>28700</v>
+      </c>
+      <c r="L577">
+        <f t="shared" si="33"/>
+        <v>117100</v>
+      </c>
+    </row>
+    <row r="578" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H578">
+        <v>574</v>
+      </c>
+      <c r="I578">
+        <f t="shared" si="32"/>
+        <v>2875000</v>
+      </c>
+      <c r="J578">
+        <v>28750</v>
+      </c>
+      <c r="L578">
+        <f t="shared" si="33"/>
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="579" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H579">
+        <v>575</v>
+      </c>
+      <c r="I579">
+        <f t="shared" si="32"/>
+        <v>2880000</v>
+      </c>
+      <c r="J579">
+        <v>28800</v>
+      </c>
+      <c r="L579">
+        <f t="shared" si="33"/>
+        <v>117510</v>
+      </c>
+    </row>
+    <row r="580" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H580">
+        <v>576</v>
+      </c>
+      <c r="I580">
+        <f t="shared" si="32"/>
+        <v>2885000</v>
+      </c>
+      <c r="J580">
+        <v>28850</v>
+      </c>
+      <c r="L580">
+        <f t="shared" si="33"/>
+        <v>117710</v>
+      </c>
+    </row>
+    <row r="581" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H581">
+        <v>577</v>
+      </c>
+      <c r="I581">
+        <f t="shared" si="32"/>
+        <v>2890000</v>
+      </c>
+      <c r="J581">
+        <v>28900</v>
+      </c>
+      <c r="L581">
+        <f t="shared" si="33"/>
+        <v>117920</v>
+      </c>
+    </row>
+    <row r="582" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H582">
+        <v>578</v>
+      </c>
+      <c r="I582">
+        <f t="shared" si="32"/>
+        <v>2895000</v>
+      </c>
+      <c r="J582">
+        <v>28950</v>
+      </c>
+      <c r="L582">
+        <f t="shared" si="33"/>
+        <v>118120</v>
+      </c>
+    </row>
+    <row r="583" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H583">
+        <v>579</v>
+      </c>
+      <c r="I583">
+        <f t="shared" si="32"/>
+        <v>2900000</v>
+      </c>
+      <c r="J583">
+        <v>29000</v>
+      </c>
+      <c r="L583">
+        <f t="shared" si="33"/>
+        <v>118320</v>
+      </c>
+    </row>
+    <row r="584" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H584">
+        <v>580</v>
+      </c>
+      <c r="I584">
+        <f t="shared" si="32"/>
+        <v>2905000</v>
+      </c>
+      <c r="J584">
+        <v>29050</v>
+      </c>
+      <c r="L584">
+        <f t="shared" si="33"/>
+        <v>118530</v>
+      </c>
+    </row>
+    <row r="585" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H585">
+        <v>581</v>
+      </c>
+      <c r="I585">
+        <f t="shared" si="32"/>
+        <v>2910000</v>
+      </c>
+      <c r="J585">
+        <v>29100</v>
+      </c>
+      <c r="L585">
+        <f t="shared" si="33"/>
+        <v>118730</v>
+      </c>
+    </row>
+    <row r="586" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H586">
+        <v>582</v>
+      </c>
+      <c r="I586">
+        <f t="shared" si="32"/>
+        <v>2915000</v>
+      </c>
+      <c r="J586">
+        <v>29150</v>
+      </c>
+      <c r="L586">
+        <f t="shared" si="33"/>
+        <v>118940</v>
+      </c>
+    </row>
+    <row r="587" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H587">
+        <v>583</v>
+      </c>
+      <c r="I587">
+        <f t="shared" si="32"/>
+        <v>2920000</v>
+      </c>
+      <c r="J587">
+        <v>29200</v>
+      </c>
+      <c r="L587">
+        <f t="shared" si="33"/>
+        <v>119140</v>
+      </c>
+    </row>
+    <row r="588" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H588">
+        <v>584</v>
+      </c>
+      <c r="I588">
+        <f t="shared" si="32"/>
+        <v>2925000</v>
+      </c>
+      <c r="J588">
+        <v>29250</v>
+      </c>
+      <c r="L588">
+        <f t="shared" si="33"/>
+        <v>119340</v>
+      </c>
+    </row>
+    <row r="589" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H589">
+        <v>585</v>
+      </c>
+      <c r="I589">
+        <f t="shared" si="32"/>
+        <v>2930000</v>
+      </c>
+      <c r="J589">
+        <v>29300</v>
+      </c>
+      <c r="L589">
+        <f t="shared" si="33"/>
+        <v>119550</v>
+      </c>
+    </row>
+    <row r="590" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H590">
+        <v>586</v>
+      </c>
+      <c r="I590">
+        <f t="shared" si="32"/>
+        <v>2935000</v>
+      </c>
+      <c r="J590">
+        <v>29350</v>
+      </c>
+      <c r="L590">
+        <f t="shared" si="33"/>
+        <v>119750</v>
+      </c>
+    </row>
+    <row r="591" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H591">
+        <v>587</v>
+      </c>
+      <c r="I591">
+        <f t="shared" si="32"/>
+        <v>2940000</v>
+      </c>
+      <c r="J591">
+        <v>29400</v>
+      </c>
+      <c r="L591">
+        <f t="shared" si="33"/>
+        <v>119960</v>
+      </c>
+    </row>
+    <row r="592" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H592">
+        <v>588</v>
+      </c>
+      <c r="I592">
+        <f t="shared" si="32"/>
+        <v>2945000</v>
+      </c>
+      <c r="J592">
+        <v>29450</v>
+      </c>
+      <c r="L592">
+        <f t="shared" si="33"/>
+        <v>120160</v>
+      </c>
+    </row>
+    <row r="593" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H593">
+        <v>589</v>
+      </c>
+      <c r="I593">
+        <f t="shared" si="32"/>
+        <v>2950000</v>
+      </c>
+      <c r="J593">
+        <v>29500</v>
+      </c>
+      <c r="L593">
+        <f t="shared" si="33"/>
+        <v>120360</v>
+      </c>
+    </row>
+    <row r="594" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H594">
+        <v>590</v>
+      </c>
+      <c r="I594">
+        <f t="shared" si="32"/>
+        <v>2955000</v>
+      </c>
+      <c r="J594">
+        <v>29550</v>
+      </c>
+      <c r="L594">
+        <f t="shared" si="33"/>
+        <v>120570</v>
+      </c>
+    </row>
+    <row r="595" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H595">
+        <v>591</v>
+      </c>
+      <c r="I595">
+        <f t="shared" si="32"/>
+        <v>2960000</v>
+      </c>
+      <c r="J595">
+        <v>29600</v>
+      </c>
+      <c r="L595">
+        <f t="shared" si="33"/>
+        <v>120770</v>
+      </c>
+    </row>
+    <row r="596" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H596">
+        <v>592</v>
+      </c>
+      <c r="I596">
+        <f t="shared" si="32"/>
+        <v>2965000</v>
+      </c>
+      <c r="J596">
+        <v>29650</v>
+      </c>
+      <c r="L596">
+        <f t="shared" si="33"/>
+        <v>120980</v>
+      </c>
+    </row>
+    <row r="597" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H597">
+        <v>593</v>
+      </c>
+      <c r="I597">
+        <f t="shared" si="32"/>
+        <v>2970000</v>
+      </c>
+      <c r="J597">
+        <v>29700</v>
+      </c>
+      <c r="L597">
+        <f t="shared" si="33"/>
+        <v>121180</v>
+      </c>
+    </row>
+    <row r="598" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H598">
+        <v>594</v>
+      </c>
+      <c r="I598">
+        <f t="shared" si="32"/>
+        <v>2975000</v>
+      </c>
+      <c r="J598">
+        <v>29750</v>
+      </c>
+      <c r="L598">
+        <f t="shared" si="33"/>
+        <v>121380</v>
+      </c>
+    </row>
+    <row r="599" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H599">
+        <v>595</v>
+      </c>
+      <c r="I599">
+        <f t="shared" si="32"/>
+        <v>2980000</v>
+      </c>
+      <c r="J599">
+        <v>29800</v>
+      </c>
+      <c r="L599">
+        <f t="shared" si="33"/>
+        <v>121590</v>
+      </c>
+    </row>
+    <row r="600" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H600">
+        <v>596</v>
+      </c>
+      <c r="I600">
+        <f t="shared" si="32"/>
+        <v>2985000</v>
+      </c>
+      <c r="J600">
+        <v>29850</v>
+      </c>
+      <c r="L600">
+        <f t="shared" si="33"/>
+        <v>121790</v>
+      </c>
+    </row>
+    <row r="601" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H601">
+        <v>597</v>
+      </c>
+      <c r="I601">
+        <f t="shared" si="32"/>
+        <v>2990000</v>
+      </c>
+      <c r="J601">
+        <v>29900</v>
+      </c>
+      <c r="L601">
+        <f t="shared" si="33"/>
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="602" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H602">
+        <v>598</v>
+      </c>
+      <c r="I602">
+        <f t="shared" si="32"/>
+        <v>2995000</v>
+      </c>
+      <c r="J602">
+        <v>29950</v>
+      </c>
+      <c r="L602">
+        <f t="shared" si="33"/>
+        <v>122200</v>
+      </c>
+    </row>
+    <row r="603" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H603">
+        <v>599</v>
+      </c>
+      <c r="I603">
+        <f t="shared" si="32"/>
+        <v>3000000</v>
+      </c>
+      <c r="J603">
+        <v>30000</v>
+      </c>
+      <c r="L603">
+        <f t="shared" si="33"/>
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="604" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H604">
+        <v>600</v>
+      </c>
+      <c r="I604">
+        <f t="shared" si="32"/>
+        <v>3005000</v>
+      </c>
+      <c r="J604">
+        <v>30050</v>
+      </c>
+      <c r="L604">
+        <f t="shared" si="33"/>
+        <v>122610</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC64AEF-A911-43EA-A9EE-24B4D700C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706DBD2-C9BF-486D-95C5-00DCB316073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhoUpgrade" sheetId="1" r:id="rId1"/>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D701"/>
+  <dimension ref="A1:D801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C700" sqref="C700"/>
+      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B794" sqref="B794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11650,7 +11650,7 @@
         <v>34700</v>
       </c>
       <c r="C695" s="1">
-        <f t="shared" ref="C695:C701" si="13">C694</f>
+        <f t="shared" ref="C695:C758" si="13">C694</f>
         <v>49</v>
       </c>
       <c r="D695" s="1">
@@ -11752,6 +11752,1606 @@
       <c r="D701" s="1">
         <f>VLOOKUP(A701,Balalnce!H:L,5,FALSE)/100</f>
         <v>1428</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2">
+        <v>35050</v>
+      </c>
+      <c r="C702" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D702" s="1">
+        <f>VLOOKUP(A702,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1430.1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2">
+        <v>35100</v>
+      </c>
+      <c r="C703" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D703" s="1">
+        <f>VLOOKUP(A703,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1432.1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2">
+        <v>35150</v>
+      </c>
+      <c r="C704" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D704" s="1">
+        <f>VLOOKUP(A704,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1434.2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2">
+        <v>35200</v>
+      </c>
+      <c r="C705" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D705" s="1">
+        <f>VLOOKUP(A705,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1436.2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2">
+        <v>35250</v>
+      </c>
+      <c r="C706" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D706" s="1">
+        <f>VLOOKUP(A706,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1438.2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2">
+        <v>35300</v>
+      </c>
+      <c r="C707" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D707" s="1">
+        <f>VLOOKUP(A707,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1440.3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2">
+        <v>35350</v>
+      </c>
+      <c r="C708" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D708" s="1">
+        <f>VLOOKUP(A708,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1442.3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2">
+        <v>35400</v>
+      </c>
+      <c r="C709" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D709" s="1">
+        <f>VLOOKUP(A709,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1444.4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2">
+        <v>35450</v>
+      </c>
+      <c r="C710" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D710" s="1">
+        <f>VLOOKUP(A710,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1446.4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2">
+        <v>35500</v>
+      </c>
+      <c r="C711" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D711" s="1">
+        <f>VLOOKUP(A711,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1448.4</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2">
+        <v>35550</v>
+      </c>
+      <c r="C712" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D712" s="1">
+        <f>VLOOKUP(A712,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1450.5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2">
+        <v>35600</v>
+      </c>
+      <c r="C713" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D713" s="1">
+        <f>VLOOKUP(A713,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1452.5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2">
+        <v>35650</v>
+      </c>
+      <c r="C714" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D714" s="1">
+        <f>VLOOKUP(A714,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1454.6</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2">
+        <v>35700</v>
+      </c>
+      <c r="C715" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D715" s="1">
+        <f>VLOOKUP(A715,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1456.6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2">
+        <v>35750</v>
+      </c>
+      <c r="C716" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D716" s="1">
+        <f>VLOOKUP(A716,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1458.6</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2">
+        <v>35800</v>
+      </c>
+      <c r="C717" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D717" s="1">
+        <f>VLOOKUP(A717,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1460.7</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2">
+        <v>35850</v>
+      </c>
+      <c r="C718" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D718" s="1">
+        <f>VLOOKUP(A718,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1462.7</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2">
+        <v>35900</v>
+      </c>
+      <c r="C719" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D719" s="1">
+        <f>VLOOKUP(A719,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1464.8</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2">
+        <v>35950</v>
+      </c>
+      <c r="C720" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D720" s="1">
+        <f>VLOOKUP(A720,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1466.8</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2">
+        <v>36000</v>
+      </c>
+      <c r="C721" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D721" s="1">
+        <f>VLOOKUP(A721,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1468.8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2">
+        <v>36050</v>
+      </c>
+      <c r="C722" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D722" s="1">
+        <f>VLOOKUP(A722,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1470.9</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2">
+        <v>36100</v>
+      </c>
+      <c r="C723" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D723" s="1">
+        <f>VLOOKUP(A723,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1472.9</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2">
+        <v>36150</v>
+      </c>
+      <c r="C724" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D724" s="1">
+        <f>VLOOKUP(A724,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2">
+        <v>36200</v>
+      </c>
+      <c r="C725" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D725" s="1">
+        <f>VLOOKUP(A725,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2">
+        <v>36250</v>
+      </c>
+      <c r="C726" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D726" s="1">
+        <f>VLOOKUP(A726,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C727" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D727" s="1">
+        <f>VLOOKUP(A727,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1481.1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2">
+        <v>36350</v>
+      </c>
+      <c r="C728" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D728" s="1">
+        <f>VLOOKUP(A728,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1483.1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2">
+        <v>36400</v>
+      </c>
+      <c r="C729" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D729" s="1">
+        <f>VLOOKUP(A729,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1485.2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2">
+        <v>36450</v>
+      </c>
+      <c r="C730" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D730" s="1">
+        <f>VLOOKUP(A730,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1487.2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2">
+        <v>36500</v>
+      </c>
+      <c r="C731" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D731" s="1">
+        <f>VLOOKUP(A731,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1489.2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2">
+        <v>36550</v>
+      </c>
+      <c r="C732" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D732" s="1">
+        <f>VLOOKUP(A732,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1491.3</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2">
+        <v>36600</v>
+      </c>
+      <c r="C733" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D733" s="1">
+        <f>VLOOKUP(A733,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1493.3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2">
+        <v>36650</v>
+      </c>
+      <c r="C734" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D734" s="1">
+        <f>VLOOKUP(A734,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1495.4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2">
+        <v>36700</v>
+      </c>
+      <c r="C735" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D735" s="1">
+        <f>VLOOKUP(A735,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1497.4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2">
+        <v>36750</v>
+      </c>
+      <c r="C736" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D736" s="1">
+        <f>VLOOKUP(A736,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1499.4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2">
+        <v>36800</v>
+      </c>
+      <c r="C737" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D737" s="1">
+        <f>VLOOKUP(A737,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1501.5</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2">
+        <v>36850</v>
+      </c>
+      <c r="C738" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D738" s="1">
+        <f>VLOOKUP(A738,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1503.5</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2">
+        <v>36900</v>
+      </c>
+      <c r="C739" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D739" s="1">
+        <f>VLOOKUP(A739,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1505.6</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2">
+        <v>36950</v>
+      </c>
+      <c r="C740" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D740" s="1">
+        <f>VLOOKUP(A740,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1507.6</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2">
+        <v>37000</v>
+      </c>
+      <c r="C741" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D741" s="1">
+        <f>VLOOKUP(A741,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1509.6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2">
+        <v>37050</v>
+      </c>
+      <c r="C742" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D742" s="1">
+        <f>VLOOKUP(A742,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1511.7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2">
+        <v>37100</v>
+      </c>
+      <c r="C743" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D743" s="1">
+        <f>VLOOKUP(A743,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1513.7</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2">
+        <v>37150</v>
+      </c>
+      <c r="C744" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D744" s="1">
+        <f>VLOOKUP(A744,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1515.8</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2">
+        <v>37200</v>
+      </c>
+      <c r="C745" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D745" s="1">
+        <f>VLOOKUP(A745,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1517.8</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2">
+        <v>37250</v>
+      </c>
+      <c r="C746" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D746" s="1">
+        <f>VLOOKUP(A746,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1519.8</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2">
+        <v>37300</v>
+      </c>
+      <c r="C747" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D747" s="1">
+        <f>VLOOKUP(A747,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1521.9</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2">
+        <v>37350</v>
+      </c>
+      <c r="C748" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D748" s="1">
+        <f>VLOOKUP(A748,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1523.9</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2">
+        <v>37400</v>
+      </c>
+      <c r="C749" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D749" s="1">
+        <f>VLOOKUP(A749,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2">
+        <v>37450</v>
+      </c>
+      <c r="C750" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D750" s="1">
+        <f>VLOOKUP(A750,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2">
+        <v>37500</v>
+      </c>
+      <c r="C751" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D751" s="1">
+        <f>VLOOKUP(A751,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2">
+        <v>37550</v>
+      </c>
+      <c r="C752" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D752" s="1">
+        <f>VLOOKUP(A752,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1532.1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2">
+        <v>37600</v>
+      </c>
+      <c r="C753" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D753" s="1">
+        <f>VLOOKUP(A753,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1534.1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2">
+        <v>37650</v>
+      </c>
+      <c r="C754" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D754" s="1">
+        <f>VLOOKUP(A754,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1536.2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2">
+        <v>37700</v>
+      </c>
+      <c r="C755" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D755" s="1">
+        <f>VLOOKUP(A755,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1538.2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2">
+        <v>37750</v>
+      </c>
+      <c r="C756" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D756" s="1">
+        <f>VLOOKUP(A756,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1540.2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2">
+        <v>37800</v>
+      </c>
+      <c r="C757" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D757" s="1">
+        <f>VLOOKUP(A757,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1542.3</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2">
+        <v>37850</v>
+      </c>
+      <c r="C758" s="1">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D758" s="1">
+        <f>VLOOKUP(A758,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1544.3</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2">
+        <v>37900</v>
+      </c>
+      <c r="C759" s="1">
+        <f t="shared" ref="C759:C801" si="14">C758</f>
+        <v>49</v>
+      </c>
+      <c r="D759" s="1">
+        <f>VLOOKUP(A759,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1546.4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2">
+        <v>37950</v>
+      </c>
+      <c r="C760" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D760" s="1">
+        <f>VLOOKUP(A760,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1548.4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2">
+        <v>38000</v>
+      </c>
+      <c r="C761" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D761" s="1">
+        <f>VLOOKUP(A761,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1550.4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2">
+        <v>38050</v>
+      </c>
+      <c r="C762" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D762" s="1">
+        <f>VLOOKUP(A762,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1552.5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2">
+        <v>38100</v>
+      </c>
+      <c r="C763" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D763" s="1">
+        <f>VLOOKUP(A763,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1554.5</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2">
+        <v>38150</v>
+      </c>
+      <c r="C764" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D764" s="1">
+        <f>VLOOKUP(A764,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1556.6</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2">
+        <v>38200</v>
+      </c>
+      <c r="C765" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D765" s="1">
+        <f>VLOOKUP(A765,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1558.6</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2">
+        <v>38250</v>
+      </c>
+      <c r="C766" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D766" s="1">
+        <f>VLOOKUP(A766,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1560.6</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2">
+        <v>38300</v>
+      </c>
+      <c r="C767" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D767" s="1">
+        <f>VLOOKUP(A767,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1562.7</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2">
+        <v>38350</v>
+      </c>
+      <c r="C768" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D768" s="1">
+        <f>VLOOKUP(A768,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1564.7</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2">
+        <v>38400</v>
+      </c>
+      <c r="C769" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D769" s="1">
+        <f>VLOOKUP(A769,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1566.8</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2">
+        <v>38450</v>
+      </c>
+      <c r="C770" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D770" s="1">
+        <f>VLOOKUP(A770,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1568.8</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2">
+        <v>38500</v>
+      </c>
+      <c r="C771" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D771" s="1">
+        <f>VLOOKUP(A771,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1570.8</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2">
+        <v>38550</v>
+      </c>
+      <c r="C772" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D772" s="1">
+        <f>VLOOKUP(A772,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1572.9</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2">
+        <v>38600</v>
+      </c>
+      <c r="C773" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D773" s="1">
+        <f>VLOOKUP(A773,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1574.9</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2">
+        <v>38650</v>
+      </c>
+      <c r="C774" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D774" s="1">
+        <f>VLOOKUP(A774,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2">
+        <v>38700</v>
+      </c>
+      <c r="C775" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D775" s="1">
+        <f>VLOOKUP(A775,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2">
+        <v>38750</v>
+      </c>
+      <c r="C776" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D776" s="1">
+        <f>VLOOKUP(A776,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2">
+        <v>38800</v>
+      </c>
+      <c r="C777" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D777" s="1">
+        <f>VLOOKUP(A777,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1583.1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2">
+        <v>38850</v>
+      </c>
+      <c r="C778" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D778" s="1">
+        <f>VLOOKUP(A778,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1585.1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2">
+        <v>38900</v>
+      </c>
+      <c r="C779" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D779" s="1">
+        <f>VLOOKUP(A779,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1587.2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2">
+        <v>38950</v>
+      </c>
+      <c r="C780" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D780" s="1">
+        <f>VLOOKUP(A780,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1589.2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2">
+        <v>39000</v>
+      </c>
+      <c r="C781" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D781" s="1">
+        <f>VLOOKUP(A781,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1591.2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2">
+        <v>39050</v>
+      </c>
+      <c r="C782" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D782" s="1">
+        <f>VLOOKUP(A782,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1593.3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2">
+        <v>39100</v>
+      </c>
+      <c r="C783" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D783" s="1">
+        <f>VLOOKUP(A783,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1595.3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2">
+        <v>39150</v>
+      </c>
+      <c r="C784" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D784" s="1">
+        <f>VLOOKUP(A784,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1597.4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2">
+        <v>39200</v>
+      </c>
+      <c r="C785" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D785" s="1">
+        <f>VLOOKUP(A785,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1599.4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2">
+        <v>39250</v>
+      </c>
+      <c r="C786" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D786" s="1">
+        <f>VLOOKUP(A786,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1601.4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2">
+        <v>39300</v>
+      </c>
+      <c r="C787" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D787" s="1">
+        <f>VLOOKUP(A787,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1603.5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2">
+        <v>39350</v>
+      </c>
+      <c r="C788" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D788" s="1">
+        <f>VLOOKUP(A788,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1605.5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2">
+        <v>39400</v>
+      </c>
+      <c r="C789" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D789" s="1">
+        <f>VLOOKUP(A789,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1607.6</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2">
+        <v>39450</v>
+      </c>
+      <c r="C790" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D790" s="1">
+        <f>VLOOKUP(A790,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1609.6</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2">
+        <v>39500</v>
+      </c>
+      <c r="C791" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D791" s="1">
+        <f>VLOOKUP(A791,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1611.6</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2">
+        <v>39550</v>
+      </c>
+      <c r="C792" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D792" s="1">
+        <f>VLOOKUP(A792,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1613.7</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2">
+        <v>39600</v>
+      </c>
+      <c r="C793" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D793" s="1">
+        <f>VLOOKUP(A793,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1615.7</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2">
+        <v>39650</v>
+      </c>
+      <c r="C794" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D794" s="1">
+        <f>VLOOKUP(A794,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1617.8</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2">
+        <v>39700</v>
+      </c>
+      <c r="C795" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D795" s="1">
+        <f>VLOOKUP(A795,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1619.8</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2">
+        <v>39750</v>
+      </c>
+      <c r="C796" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D796" s="1">
+        <f>VLOOKUP(A796,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1621.8</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2">
+        <v>39800</v>
+      </c>
+      <c r="C797" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D797" s="1">
+        <f>VLOOKUP(A797,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1623.9</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2">
+        <v>39850</v>
+      </c>
+      <c r="C798" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D798" s="1">
+        <f>VLOOKUP(A798,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1625.9</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2">
+        <v>39900</v>
+      </c>
+      <c r="C799" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D799" s="1">
+        <f>VLOOKUP(A799,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2">
+        <v>39950</v>
+      </c>
+      <c r="C800" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D800" s="1">
+        <f>VLOOKUP(A800,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2">
+        <v>40000</v>
+      </c>
+      <c r="C801" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D801" s="1">
+        <f>VLOOKUP(A801,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1632</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706DBD2-C9BF-486D-95C5-00DCB316073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D93C51-9BBB-42E8-BA4C-161254C71163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D801"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B794" sqref="B794"/>
+      <pane ySplit="1" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B996" sqref="B996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12674,7 +12674,7 @@
         <v>37900</v>
       </c>
       <c r="C759" s="1">
-        <f t="shared" ref="C759:C801" si="14">C758</f>
+        <f t="shared" ref="C759:C822" si="14">C758</f>
         <v>49</v>
       </c>
       <c r="D759" s="1">
@@ -13352,6 +13352,3206 @@
       <c r="D801" s="1">
         <f>VLOOKUP(A801,Balalnce!H:L,5,FALSE)/100</f>
         <v>1632</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802" s="2">
+        <v>40050</v>
+      </c>
+      <c r="C802" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D802" s="1">
+        <f>VLOOKUP(A802,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1634.1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803" s="2">
+        <v>40100</v>
+      </c>
+      <c r="C803" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D803" s="1">
+        <f>VLOOKUP(A803,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1636.1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804" s="2">
+        <v>40150</v>
+      </c>
+      <c r="C804" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D804" s="1">
+        <f>VLOOKUP(A804,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1638.2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805" s="2">
+        <v>40200</v>
+      </c>
+      <c r="C805" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D805" s="1">
+        <f>VLOOKUP(A805,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1640.2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806" s="2">
+        <v>40250</v>
+      </c>
+      <c r="C806" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D806" s="1">
+        <f>VLOOKUP(A806,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1642.2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807" s="2">
+        <v>40300</v>
+      </c>
+      <c r="C807" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D807" s="1">
+        <f>VLOOKUP(A807,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1644.3</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808" s="2">
+        <v>40350</v>
+      </c>
+      <c r="C808" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D808" s="1">
+        <f>VLOOKUP(A808,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1646.3</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809" s="2">
+        <v>40400</v>
+      </c>
+      <c r="C809" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D809" s="1">
+        <f>VLOOKUP(A809,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1648.4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810" s="2">
+        <v>40450</v>
+      </c>
+      <c r="C810" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D810" s="1">
+        <f>VLOOKUP(A810,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1650.4</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811" s="2">
+        <v>40500</v>
+      </c>
+      <c r="C811" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D811" s="1">
+        <f>VLOOKUP(A811,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1652.4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812" s="2">
+        <v>40550</v>
+      </c>
+      <c r="C812" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D812" s="1">
+        <f>VLOOKUP(A812,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1654.5</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813" s="2">
+        <v>40600</v>
+      </c>
+      <c r="C813" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D813" s="1">
+        <f>VLOOKUP(A813,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1656.5</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814" s="2">
+        <v>40650</v>
+      </c>
+      <c r="C814" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D814" s="1">
+        <f>VLOOKUP(A814,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1658.6</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815" s="2">
+        <v>40700</v>
+      </c>
+      <c r="C815" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D815" s="1">
+        <f>VLOOKUP(A815,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1660.6</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816" s="2">
+        <v>40750</v>
+      </c>
+      <c r="C816" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D816" s="1">
+        <f>VLOOKUP(A816,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1662.6</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817" s="2">
+        <v>40800</v>
+      </c>
+      <c r="C817" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D817" s="1">
+        <f>VLOOKUP(A817,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1664.7</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818" s="2">
+        <v>40850</v>
+      </c>
+      <c r="C818" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D818" s="1">
+        <f>VLOOKUP(A818,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1666.7</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819" s="2">
+        <v>40900</v>
+      </c>
+      <c r="C819" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D819" s="1">
+        <f>VLOOKUP(A819,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1668.8</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820" s="2">
+        <v>40950</v>
+      </c>
+      <c r="C820" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D820" s="1">
+        <f>VLOOKUP(A820,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1670.8</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821" s="2">
+        <v>41000</v>
+      </c>
+      <c r="C821" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D821" s="1">
+        <f>VLOOKUP(A821,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1672.8</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822" s="2">
+        <v>41050</v>
+      </c>
+      <c r="C822" s="1">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="D822" s="1">
+        <f>VLOOKUP(A822,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1674.9</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823" s="2">
+        <v>41100</v>
+      </c>
+      <c r="C823" s="1">
+        <f t="shared" ref="C823:C886" si="15">C822</f>
+        <v>49</v>
+      </c>
+      <c r="D823" s="1">
+        <f>VLOOKUP(A823,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1676.9</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824" s="2">
+        <v>41150</v>
+      </c>
+      <c r="C824" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D824" s="1">
+        <f>VLOOKUP(A824,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825" s="2">
+        <v>41200</v>
+      </c>
+      <c r="C825" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D825" s="1">
+        <f>VLOOKUP(A825,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826" s="2">
+        <v>41250</v>
+      </c>
+      <c r="C826" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D826" s="1">
+        <f>VLOOKUP(A826,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827" s="2">
+        <v>41300</v>
+      </c>
+      <c r="C827" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D827" s="1">
+        <f>VLOOKUP(A827,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1685.1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828" s="2">
+        <v>41350</v>
+      </c>
+      <c r="C828" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D828" s="1">
+        <f>VLOOKUP(A828,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1687.1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2">
+        <v>41400</v>
+      </c>
+      <c r="C829" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D829" s="1">
+        <f>VLOOKUP(A829,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1689.2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2">
+        <v>41450</v>
+      </c>
+      <c r="C830" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D830" s="1">
+        <f>VLOOKUP(A830,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1691.2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2">
+        <v>41500</v>
+      </c>
+      <c r="C831" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D831" s="1">
+        <f>VLOOKUP(A831,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1693.2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2">
+        <v>41550</v>
+      </c>
+      <c r="C832" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D832" s="1">
+        <f>VLOOKUP(A832,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1695.3</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2">
+        <v>41600</v>
+      </c>
+      <c r="C833" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D833" s="1">
+        <f>VLOOKUP(A833,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1697.3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2">
+        <v>41650</v>
+      </c>
+      <c r="C834" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D834" s="1">
+        <f>VLOOKUP(A834,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1699.4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2">
+        <v>41700</v>
+      </c>
+      <c r="C835" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D835" s="1">
+        <f>VLOOKUP(A835,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1701.4</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2">
+        <v>41750</v>
+      </c>
+      <c r="C836" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D836" s="1">
+        <f>VLOOKUP(A836,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1703.4</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2">
+        <v>41800</v>
+      </c>
+      <c r="C837" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D837" s="1">
+        <f>VLOOKUP(A837,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1705.5</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2">
+        <v>41850</v>
+      </c>
+      <c r="C838" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D838" s="1">
+        <f>VLOOKUP(A838,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1707.5</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2">
+        <v>41900</v>
+      </c>
+      <c r="C839" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D839" s="1">
+        <f>VLOOKUP(A839,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1709.6</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840" s="2">
+        <v>41950</v>
+      </c>
+      <c r="C840" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D840" s="1">
+        <f>VLOOKUP(A840,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1711.6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841" s="2">
+        <v>42000</v>
+      </c>
+      <c r="C841" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D841" s="1">
+        <f>VLOOKUP(A841,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1713.6</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842" s="2">
+        <v>42050</v>
+      </c>
+      <c r="C842" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D842" s="1">
+        <f>VLOOKUP(A842,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1715.7</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843" s="2">
+        <v>42100</v>
+      </c>
+      <c r="C843" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D843" s="1">
+        <f>VLOOKUP(A843,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1717.7</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844" s="2">
+        <v>42150</v>
+      </c>
+      <c r="C844" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D844" s="1">
+        <f>VLOOKUP(A844,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1719.8</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845" s="2">
+        <v>42200</v>
+      </c>
+      <c r="C845" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D845" s="1">
+        <f>VLOOKUP(A845,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1721.8</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846" s="2">
+        <v>42250</v>
+      </c>
+      <c r="C846" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D846" s="1">
+        <f>VLOOKUP(A846,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1723.8</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847" s="2">
+        <v>42300</v>
+      </c>
+      <c r="C847" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D847" s="1">
+        <f>VLOOKUP(A847,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1725.9</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848" s="2">
+        <v>42350</v>
+      </c>
+      <c r="C848" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D848" s="1">
+        <f>VLOOKUP(A848,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1727.9</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849" s="2">
+        <v>42400</v>
+      </c>
+      <c r="C849" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D849" s="1">
+        <f>VLOOKUP(A849,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850" s="2">
+        <v>42450</v>
+      </c>
+      <c r="C850" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D850" s="1">
+        <f>VLOOKUP(A850,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2">
+        <v>42500</v>
+      </c>
+      <c r="C851" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D851" s="1">
+        <f>VLOOKUP(A851,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2">
+        <v>42550</v>
+      </c>
+      <c r="C852" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D852" s="1">
+        <f>VLOOKUP(A852,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1736.1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2">
+        <v>42600</v>
+      </c>
+      <c r="C853" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D853" s="1">
+        <f>VLOOKUP(A853,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1738.1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2">
+        <v>42650</v>
+      </c>
+      <c r="C854" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D854" s="1">
+        <f>VLOOKUP(A854,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1740.2</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2">
+        <v>42700</v>
+      </c>
+      <c r="C855" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D855" s="1">
+        <f>VLOOKUP(A855,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1742.2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2">
+        <v>42750</v>
+      </c>
+      <c r="C856" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D856" s="1">
+        <f>VLOOKUP(A856,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1744.2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2">
+        <v>42800</v>
+      </c>
+      <c r="C857" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D857" s="1">
+        <f>VLOOKUP(A857,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1746.3</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2">
+        <v>42850</v>
+      </c>
+      <c r="C858" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D858" s="1">
+        <f>VLOOKUP(A858,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1748.3</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2">
+        <v>42900</v>
+      </c>
+      <c r="C859" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D859" s="1">
+        <f>VLOOKUP(A859,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1750.4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2">
+        <v>42950</v>
+      </c>
+      <c r="C860" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D860" s="1">
+        <f>VLOOKUP(A860,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1752.4</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C861" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D861" s="1">
+        <f>VLOOKUP(A861,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1754.4</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C862" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D862" s="1">
+        <f>VLOOKUP(A862,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1756.5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2">
+        <v>43100</v>
+      </c>
+      <c r="C863" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D863" s="1">
+        <f>VLOOKUP(A863,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1758.5</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2">
+        <v>43150</v>
+      </c>
+      <c r="C864" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D864" s="1">
+        <f>VLOOKUP(A864,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1760.6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2">
+        <v>43200</v>
+      </c>
+      <c r="C865" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D865" s="1">
+        <f>VLOOKUP(A865,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1762.6</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2">
+        <v>43250</v>
+      </c>
+      <c r="C866" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D866" s="1">
+        <f>VLOOKUP(A866,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1764.6</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2">
+        <v>43300</v>
+      </c>
+      <c r="C867" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D867" s="1">
+        <f>VLOOKUP(A867,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1766.7</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2">
+        <v>43350</v>
+      </c>
+      <c r="C868" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D868" s="1">
+        <f>VLOOKUP(A868,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1768.7</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2">
+        <v>43400</v>
+      </c>
+      <c r="C869" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D869" s="1">
+        <f>VLOOKUP(A869,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1770.8</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2">
+        <v>43450</v>
+      </c>
+      <c r="C870" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D870" s="1">
+        <f>VLOOKUP(A870,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1772.8</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2">
+        <v>43500</v>
+      </c>
+      <c r="C871" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D871" s="1">
+        <f>VLOOKUP(A871,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1774.8</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C872" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D872" s="1">
+        <f>VLOOKUP(A872,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1776.9</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2">
+        <v>43600</v>
+      </c>
+      <c r="C873" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D873" s="1">
+        <f>VLOOKUP(A873,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1778.9</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2">
+        <v>43650</v>
+      </c>
+      <c r="C874" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D874" s="1">
+        <f>VLOOKUP(A874,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C875" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D875" s="1">
+        <f>VLOOKUP(A875,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2">
+        <v>43750</v>
+      </c>
+      <c r="C876" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D876" s="1">
+        <f>VLOOKUP(A876,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C877" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D877" s="1">
+        <f>VLOOKUP(A877,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1787.1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2">
+        <v>43850</v>
+      </c>
+      <c r="C878" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D878" s="1">
+        <f>VLOOKUP(A878,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1789.1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2">
+        <v>43900</v>
+      </c>
+      <c r="C879" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D879" s="1">
+        <f>VLOOKUP(A879,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1791.2</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C880" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D880" s="1">
+        <f>VLOOKUP(A880,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1793.2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C881" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D881" s="1">
+        <f>VLOOKUP(A881,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1795.2</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2">
+        <v>44050</v>
+      </c>
+      <c r="C882" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D882" s="1">
+        <f>VLOOKUP(A882,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1797.3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2">
+        <v>44100</v>
+      </c>
+      <c r="C883" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D883" s="1">
+        <f>VLOOKUP(A883,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1799.3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2">
+        <v>44150</v>
+      </c>
+      <c r="C884" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D884" s="1">
+        <f>VLOOKUP(A884,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1801.4</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2">
+        <v>44200</v>
+      </c>
+      <c r="C885" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D885" s="1">
+        <f>VLOOKUP(A885,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1803.4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2">
+        <v>44250</v>
+      </c>
+      <c r="C886" s="1">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="D886" s="1">
+        <f>VLOOKUP(A886,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1805.4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2">
+        <v>44300</v>
+      </c>
+      <c r="C887" s="1">
+        <f t="shared" ref="C887:C950" si="16">C886</f>
+        <v>49</v>
+      </c>
+      <c r="D887" s="1">
+        <f>VLOOKUP(A887,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1807.5</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2">
+        <v>44350</v>
+      </c>
+      <c r="C888" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D888" s="1">
+        <f>VLOOKUP(A888,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1809.5</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C889" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D889" s="1">
+        <f>VLOOKUP(A889,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1811.6</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2">
+        <v>44450</v>
+      </c>
+      <c r="C890" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D890" s="1">
+        <f>VLOOKUP(A890,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1813.6</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C891" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D891" s="1">
+        <f>VLOOKUP(A891,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1815.6</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2">
+        <v>44550</v>
+      </c>
+      <c r="C892" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D892" s="1">
+        <f>VLOOKUP(A892,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1817.7</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2">
+        <v>44600</v>
+      </c>
+      <c r="C893" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D893" s="1">
+        <f>VLOOKUP(A893,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1819.7</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C894" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D894" s="1">
+        <f>VLOOKUP(A894,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1821.8</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895" s="2">
+        <v>44700</v>
+      </c>
+      <c r="C895" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D895" s="1">
+        <f>VLOOKUP(A895,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1823.8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896" s="2">
+        <v>44750</v>
+      </c>
+      <c r="C896" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D896" s="1">
+        <f>VLOOKUP(A896,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1825.8</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897" s="2">
+        <v>44800</v>
+      </c>
+      <c r="C897" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D897" s="1">
+        <f>VLOOKUP(A897,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1827.9</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2">
+        <v>44850</v>
+      </c>
+      <c r="C898" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D898" s="1">
+        <f>VLOOKUP(A898,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1829.9</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2">
+        <v>44900</v>
+      </c>
+      <c r="C899" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D899" s="1">
+        <f>VLOOKUP(A899,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C900" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D900" s="1">
+        <f>VLOOKUP(A900,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2">
+        <v>45000</v>
+      </c>
+      <c r="C901" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D901" s="1">
+        <f>VLOOKUP(A901,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902" s="2">
+        <v>45050</v>
+      </c>
+      <c r="C902" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D902" s="1">
+        <f>VLOOKUP(A902,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1838.1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2">
+        <v>45100</v>
+      </c>
+      <c r="C903" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D903" s="1">
+        <f>VLOOKUP(A903,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1840.1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C904" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D904" s="1">
+        <f>VLOOKUP(A904,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1842.2</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2">
+        <v>45200</v>
+      </c>
+      <c r="C905" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D905" s="1">
+        <f>VLOOKUP(A905,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1844.2</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2">
+        <v>45250</v>
+      </c>
+      <c r="C906" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D906" s="1">
+        <f>VLOOKUP(A906,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1846.2</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2">
+        <v>45300</v>
+      </c>
+      <c r="C907" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D907" s="1">
+        <f>VLOOKUP(A907,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1848.3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C908" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D908" s="1">
+        <f>VLOOKUP(A908,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1850.3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2">
+        <v>45400</v>
+      </c>
+      <c r="C909" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D909" s="1">
+        <f>VLOOKUP(A909,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1852.4</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2">
+        <v>45450</v>
+      </c>
+      <c r="C910" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D910" s="1">
+        <f>VLOOKUP(A910,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1854.4</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2">
+        <v>45500</v>
+      </c>
+      <c r="C911" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D911" s="1">
+        <f>VLOOKUP(A911,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1856.4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2">
+        <v>45550</v>
+      </c>
+      <c r="C912" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D912" s="1">
+        <f>VLOOKUP(A912,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1858.5</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2">
+        <v>45600</v>
+      </c>
+      <c r="C913" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D913" s="1">
+        <f>VLOOKUP(A913,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1860.5</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2">
+        <v>45650</v>
+      </c>
+      <c r="C914" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D914" s="1">
+        <f>VLOOKUP(A914,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1862.6</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2">
+        <v>45700</v>
+      </c>
+      <c r="C915" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D915" s="1">
+        <f>VLOOKUP(A915,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1864.6</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2">
+        <v>45750</v>
+      </c>
+      <c r="C916" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D916" s="1">
+        <f>VLOOKUP(A916,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1866.6</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2">
+        <v>45800</v>
+      </c>
+      <c r="C917" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D917" s="1">
+        <f>VLOOKUP(A917,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1868.7</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2">
+        <v>45850</v>
+      </c>
+      <c r="C918" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D918" s="1">
+        <f>VLOOKUP(A918,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1870.7</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C919" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D919" s="1">
+        <f>VLOOKUP(A919,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1872.8</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C920" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D920" s="1">
+        <f>VLOOKUP(A920,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1874.8</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C921" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D921" s="1">
+        <f>VLOOKUP(A921,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1876.8</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C922" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D922" s="1">
+        <f>VLOOKUP(A922,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1878.9</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2">
+        <v>46100</v>
+      </c>
+      <c r="C923" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D923" s="1">
+        <f>VLOOKUP(A923,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1880.9</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2">
+        <v>46150</v>
+      </c>
+      <c r="C924" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D924" s="1">
+        <f>VLOOKUP(A924,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2">
+        <v>46200</v>
+      </c>
+      <c r="C925" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D925" s="1">
+        <f>VLOOKUP(A925,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2">
+        <v>46250</v>
+      </c>
+      <c r="C926" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D926" s="1">
+        <f>VLOOKUP(A926,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2">
+        <v>46300</v>
+      </c>
+      <c r="C927" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D927" s="1">
+        <f>VLOOKUP(A927,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1889.1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2">
+        <v>46350</v>
+      </c>
+      <c r="C928" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D928" s="1">
+        <f>VLOOKUP(A928,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1891.1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2">
+        <v>46400</v>
+      </c>
+      <c r="C929" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D929" s="1">
+        <f>VLOOKUP(A929,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1893.2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2">
+        <v>46450</v>
+      </c>
+      <c r="C930" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D930" s="1">
+        <f>VLOOKUP(A930,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1895.2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2">
+        <v>46500</v>
+      </c>
+      <c r="C931" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D931" s="1">
+        <f>VLOOKUP(A931,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1897.2</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2">
+        <v>46550</v>
+      </c>
+      <c r="C932" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D932" s="1">
+        <f>VLOOKUP(A932,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1899.3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2">
+        <v>46600</v>
+      </c>
+      <c r="C933" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D933" s="1">
+        <f>VLOOKUP(A933,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1901.3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2">
+        <v>46650</v>
+      </c>
+      <c r="C934" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D934" s="1">
+        <f>VLOOKUP(A934,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1903.4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2">
+        <v>46700</v>
+      </c>
+      <c r="C935" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D935" s="1">
+        <f>VLOOKUP(A935,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1905.4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2">
+        <v>46750</v>
+      </c>
+      <c r="C936" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D936" s="1">
+        <f>VLOOKUP(A936,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1907.4</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2">
+        <v>46800</v>
+      </c>
+      <c r="C937" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D937" s="1">
+        <f>VLOOKUP(A937,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1909.5</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2">
+        <v>46850</v>
+      </c>
+      <c r="C938" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D938" s="1">
+        <f>VLOOKUP(A938,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1911.5</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2">
+        <v>46900</v>
+      </c>
+      <c r="C939" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D939" s="1">
+        <f>VLOOKUP(A939,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1913.6</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2">
+        <v>46950</v>
+      </c>
+      <c r="C940" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D940" s="1">
+        <f>VLOOKUP(A940,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1915.6</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2">
+        <v>47000</v>
+      </c>
+      <c r="C941" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D941" s="1">
+        <f>VLOOKUP(A941,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1917.6</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2">
+        <v>47050</v>
+      </c>
+      <c r="C942" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D942" s="1">
+        <f>VLOOKUP(A942,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1919.7</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2">
+        <v>47100</v>
+      </c>
+      <c r="C943" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D943" s="1">
+        <f>VLOOKUP(A943,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1921.7</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2">
+        <v>47150</v>
+      </c>
+      <c r="C944" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D944" s="1">
+        <f>VLOOKUP(A944,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1923.8</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2">
+        <v>47200</v>
+      </c>
+      <c r="C945" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D945" s="1">
+        <f>VLOOKUP(A945,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1925.8</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2">
+        <v>47250</v>
+      </c>
+      <c r="C946" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D946" s="1">
+        <f>VLOOKUP(A946,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1927.8</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2">
+        <v>47300</v>
+      </c>
+      <c r="C947" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D947" s="1">
+        <f>VLOOKUP(A947,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1929.9</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2">
+        <v>47350</v>
+      </c>
+      <c r="C948" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D948" s="1">
+        <f>VLOOKUP(A948,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1931.9</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2">
+        <v>47400</v>
+      </c>
+      <c r="C949" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D949" s="1">
+        <f>VLOOKUP(A949,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2">
+        <v>47450</v>
+      </c>
+      <c r="C950" s="1">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="D950" s="1">
+        <f>VLOOKUP(A950,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2">
+        <v>47500</v>
+      </c>
+      <c r="C951" s="1">
+        <f t="shared" ref="C951:C1001" si="17">C950</f>
+        <v>49</v>
+      </c>
+      <c r="D951" s="1">
+        <f>VLOOKUP(A951,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2">
+        <v>47550</v>
+      </c>
+      <c r="C952" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D952" s="1">
+        <f>VLOOKUP(A952,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1940.1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2">
+        <v>47600</v>
+      </c>
+      <c r="C953" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D953" s="1">
+        <f>VLOOKUP(A953,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1942.1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2">
+        <v>47650</v>
+      </c>
+      <c r="C954" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D954" s="1">
+        <f>VLOOKUP(A954,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1944.2</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2">
+        <v>47700</v>
+      </c>
+      <c r="C955" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D955" s="1">
+        <f>VLOOKUP(A955,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1946.2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2">
+        <v>47750</v>
+      </c>
+      <c r="C956" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D956" s="1">
+        <f>VLOOKUP(A956,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1948.2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2">
+        <v>47800</v>
+      </c>
+      <c r="C957" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D957" s="1">
+        <f>VLOOKUP(A957,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1950.3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2">
+        <v>47850</v>
+      </c>
+      <c r="C958" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D958" s="1">
+        <f>VLOOKUP(A958,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1952.3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2">
+        <v>47900</v>
+      </c>
+      <c r="C959" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D959" s="1">
+        <f>VLOOKUP(A959,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1954.4</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2">
+        <v>47950</v>
+      </c>
+      <c r="C960" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D960" s="1">
+        <f>VLOOKUP(A960,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1956.4</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C961" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D961" s="1">
+        <f>VLOOKUP(A961,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1958.4</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2">
+        <v>48050</v>
+      </c>
+      <c r="C962" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D962" s="1">
+        <f>VLOOKUP(A962,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1960.5</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2">
+        <v>48100</v>
+      </c>
+      <c r="C963" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D963" s="1">
+        <f>VLOOKUP(A963,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1962.5</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2">
+        <v>48150</v>
+      </c>
+      <c r="C964" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D964" s="1">
+        <f>VLOOKUP(A964,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1964.6</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2">
+        <v>48200</v>
+      </c>
+      <c r="C965" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D965" s="1">
+        <f>VLOOKUP(A965,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1966.6</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2">
+        <v>48250</v>
+      </c>
+      <c r="C966" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D966" s="1">
+        <f>VLOOKUP(A966,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1968.6</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967" s="2">
+        <v>48300</v>
+      </c>
+      <c r="C967" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D967" s="1">
+        <f>VLOOKUP(A967,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1970.7</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968" s="2">
+        <v>48350</v>
+      </c>
+      <c r="C968" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D968" s="1">
+        <f>VLOOKUP(A968,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1972.7</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969" s="2">
+        <v>48400</v>
+      </c>
+      <c r="C969" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D969" s="1">
+        <f>VLOOKUP(A969,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1974.8</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970" s="2">
+        <v>48450</v>
+      </c>
+      <c r="C970" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D970" s="1">
+        <f>VLOOKUP(A970,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1976.8</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971" s="2">
+        <v>48500</v>
+      </c>
+      <c r="C971" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D971" s="1">
+        <f>VLOOKUP(A971,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1978.8</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972" s="2">
+        <v>48550</v>
+      </c>
+      <c r="C972" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D972" s="1">
+        <f>VLOOKUP(A972,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1980.9</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973" s="2">
+        <v>48600</v>
+      </c>
+      <c r="C973" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D973" s="1">
+        <f>VLOOKUP(A973,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1982.9</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974" s="2">
+        <v>48650</v>
+      </c>
+      <c r="C974" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D974" s="1">
+        <f>VLOOKUP(A974,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975" s="2">
+        <v>48700</v>
+      </c>
+      <c r="C975" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D975" s="1">
+        <f>VLOOKUP(A975,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976" s="2">
+        <v>48750</v>
+      </c>
+      <c r="C976" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D976" s="1">
+        <f>VLOOKUP(A976,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977" s="2">
+        <v>48800</v>
+      </c>
+      <c r="C977" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D977" s="1">
+        <f>VLOOKUP(A977,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1991.1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978" s="2">
+        <v>48850</v>
+      </c>
+      <c r="C978" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D978" s="1">
+        <f>VLOOKUP(A978,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1993.1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979" s="2">
+        <v>48900</v>
+      </c>
+      <c r="C979" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D979" s="1">
+        <f>VLOOKUP(A979,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1995.2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980" s="2">
+        <v>48950</v>
+      </c>
+      <c r="C980" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D980" s="1">
+        <f>VLOOKUP(A980,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1997.2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981" s="2">
+        <v>49000</v>
+      </c>
+      <c r="C981" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D981" s="1">
+        <f>VLOOKUP(A981,Balalnce!H:L,5,FALSE)/100</f>
+        <v>1999.2</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982" s="2">
+        <v>49050</v>
+      </c>
+      <c r="C982" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D982" s="1">
+        <f>VLOOKUP(A982,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2001.3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983" s="2">
+        <v>49100</v>
+      </c>
+      <c r="C983" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D983" s="1">
+        <f>VLOOKUP(A983,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2003.3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984" s="2">
+        <v>49150</v>
+      </c>
+      <c r="C984" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D984" s="1">
+        <f>VLOOKUP(A984,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2005.4</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985" s="2">
+        <v>49200</v>
+      </c>
+      <c r="C985" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D985" s="1">
+        <f>VLOOKUP(A985,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2007.4</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986" s="2">
+        <v>49250</v>
+      </c>
+      <c r="C986" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D986" s="1">
+        <f>VLOOKUP(A986,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2009.4</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987" s="2">
+        <v>49300</v>
+      </c>
+      <c r="C987" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D987" s="1">
+        <f>VLOOKUP(A987,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2011.5</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988" s="2">
+        <v>49350</v>
+      </c>
+      <c r="C988" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D988" s="1">
+        <f>VLOOKUP(A988,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2013.5</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989" s="2">
+        <v>49400</v>
+      </c>
+      <c r="C989" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D989" s="1">
+        <f>VLOOKUP(A989,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2015.6</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990" s="2">
+        <v>49450</v>
+      </c>
+      <c r="C990" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D990" s="1">
+        <f>VLOOKUP(A990,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2017.6</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991" s="2">
+        <v>49500</v>
+      </c>
+      <c r="C991" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D991" s="1">
+        <f>VLOOKUP(A991,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2019.6</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992" s="2">
+        <v>49550</v>
+      </c>
+      <c r="C992" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D992" s="1">
+        <f>VLOOKUP(A992,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2021.7</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993" s="2">
+        <v>49600</v>
+      </c>
+      <c r="C993" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D993" s="1">
+        <f>VLOOKUP(A993,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2023.7</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994" s="2">
+        <v>49650</v>
+      </c>
+      <c r="C994" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D994" s="1">
+        <f>VLOOKUP(A994,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2025.8</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995" s="2">
+        <v>49700</v>
+      </c>
+      <c r="C995" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D995" s="1">
+        <f>VLOOKUP(A995,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2027.8</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996" s="2">
+        <v>49750</v>
+      </c>
+      <c r="C996" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D996" s="1">
+        <f>VLOOKUP(A996,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2029.8</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997" s="2">
+        <v>49800</v>
+      </c>
+      <c r="C997" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D997" s="1">
+        <f>VLOOKUP(A997,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2031.9</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998" s="2">
+        <v>49850</v>
+      </c>
+      <c r="C998" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D998" s="1">
+        <f>VLOOKUP(A998,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2033.9</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999" s="2">
+        <v>49900</v>
+      </c>
+      <c r="C999" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D999" s="1">
+        <f>VLOOKUP(A999,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="2">
+        <v>49950</v>
+      </c>
+      <c r="C1000" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1000" s="1">
+        <f>VLOOKUP(A1000,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C1001" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1001" s="1">
+        <f>VLOOKUP(A1001,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D93C51-9BBB-42E8-BA4C-161254C71163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C427FAA-ABDA-45E6-88FC-5D0F100AFA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -231,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -377,7 +377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:D1201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B996" sqref="B996"/>
+      <pane ySplit="1" topLeftCell="A1168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1179" sqref="B1179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15746,7 +15746,7 @@
         <v>47500</v>
       </c>
       <c r="C951" s="1">
-        <f t="shared" ref="C951:C1001" si="17">C950</f>
+        <f t="shared" ref="C951:C1014" si="17">C950</f>
         <v>49</v>
       </c>
       <c r="D951" s="1">
@@ -16552,6 +16552,3206 @@
       <c r="D1001" s="1">
         <f>VLOOKUP(A1001,Balalnce!H:L,5,FALSE)/100</f>
         <v>2040</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="2">
+        <v>50050</v>
+      </c>
+      <c r="C1002" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1002" s="1">
+        <f>VLOOKUP(A1002,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2042.1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="2">
+        <v>50100</v>
+      </c>
+      <c r="C1003" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1003" s="1">
+        <f>VLOOKUP(A1003,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2044.1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="2">
+        <v>50150</v>
+      </c>
+      <c r="C1004" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1004" s="1">
+        <f>VLOOKUP(A1004,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2046.2</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="2">
+        <v>50200</v>
+      </c>
+      <c r="C1005" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1005" s="1">
+        <f>VLOOKUP(A1005,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2048.1999999999998</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="2">
+        <v>50250</v>
+      </c>
+      <c r="C1006" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1006" s="1">
+        <f>VLOOKUP(A1006,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2050.1999999999998</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="2">
+        <v>50300</v>
+      </c>
+      <c r="C1007" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1007" s="1">
+        <f>VLOOKUP(A1007,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2052.3000000000002</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="2">
+        <v>50350</v>
+      </c>
+      <c r="C1008" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1008" s="1">
+        <f>VLOOKUP(A1008,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2054.3000000000002</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="2">
+        <v>50400</v>
+      </c>
+      <c r="C1009" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1009" s="1">
+        <f>VLOOKUP(A1009,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2056.4</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="2">
+        <v>50450</v>
+      </c>
+      <c r="C1010" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1010" s="1">
+        <f>VLOOKUP(A1010,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2058.4</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="2">
+        <v>50500</v>
+      </c>
+      <c r="C1011" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1011" s="1">
+        <f>VLOOKUP(A1011,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2060.4</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="2">
+        <v>50550</v>
+      </c>
+      <c r="C1012" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1012" s="1">
+        <f>VLOOKUP(A1012,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2062.5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="2">
+        <v>50600</v>
+      </c>
+      <c r="C1013" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1013" s="1">
+        <f>VLOOKUP(A1013,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2064.5</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="2">
+        <v>50650</v>
+      </c>
+      <c r="C1014" s="1">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D1014" s="1">
+        <f>VLOOKUP(A1014,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2066.6</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="2">
+        <v>50700</v>
+      </c>
+      <c r="C1015" s="1">
+        <f t="shared" ref="C1015:C1078" si="18">C1014</f>
+        <v>49</v>
+      </c>
+      <c r="D1015" s="1">
+        <f>VLOOKUP(A1015,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2068.6</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="2">
+        <v>50750</v>
+      </c>
+      <c r="C1016" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1016" s="1">
+        <f>VLOOKUP(A1016,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2070.6</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="2">
+        <v>50800</v>
+      </c>
+      <c r="C1017" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1017" s="1">
+        <f>VLOOKUP(A1017,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2072.6999999999998</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="2">
+        <v>50850</v>
+      </c>
+      <c r="C1018" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1018" s="1">
+        <f>VLOOKUP(A1018,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2074.6999999999998</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="2">
+        <v>50900</v>
+      </c>
+      <c r="C1019" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1019" s="1">
+        <f>VLOOKUP(A1019,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2076.8000000000002</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="2">
+        <v>50950</v>
+      </c>
+      <c r="C1020" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1020" s="1">
+        <f>VLOOKUP(A1020,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2078.8000000000002</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="2">
+        <v>51000</v>
+      </c>
+      <c r="C1021" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1021" s="1">
+        <f>VLOOKUP(A1021,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2080.8000000000002</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="2">
+        <v>51050</v>
+      </c>
+      <c r="C1022" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1022" s="1">
+        <f>VLOOKUP(A1022,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2082.9</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="2">
+        <v>51100</v>
+      </c>
+      <c r="C1023" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1023" s="1">
+        <f>VLOOKUP(A1023,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2084.9</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="2">
+        <v>51150</v>
+      </c>
+      <c r="C1024" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1024" s="1">
+        <f>VLOOKUP(A1024,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="2">
+        <v>51200</v>
+      </c>
+      <c r="C1025" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1025" s="1">
+        <f>VLOOKUP(A1025,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="2">
+        <v>51250</v>
+      </c>
+      <c r="C1026" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1026" s="1">
+        <f>VLOOKUP(A1026,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="2">
+        <v>51300</v>
+      </c>
+      <c r="C1027" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1027" s="1">
+        <f>VLOOKUP(A1027,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2093.1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="2">
+        <v>51350</v>
+      </c>
+      <c r="C1028" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1028" s="1">
+        <f>VLOOKUP(A1028,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2095.1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="2">
+        <v>51400</v>
+      </c>
+      <c r="C1029" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1029" s="1">
+        <f>VLOOKUP(A1029,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2097.1999999999998</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="2">
+        <v>51450</v>
+      </c>
+      <c r="C1030" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1030" s="1">
+        <f>VLOOKUP(A1030,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2099.1999999999998</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="2">
+        <v>51500</v>
+      </c>
+      <c r="C1031" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1031" s="1">
+        <f>VLOOKUP(A1031,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2101.1999999999998</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="2">
+        <v>51550</v>
+      </c>
+      <c r="C1032" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1032" s="1">
+        <f>VLOOKUP(A1032,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2103.3000000000002</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="2">
+        <v>51600</v>
+      </c>
+      <c r="C1033" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1033" s="1">
+        <f>VLOOKUP(A1033,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2105.3000000000002</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="2">
+        <v>51650</v>
+      </c>
+      <c r="C1034" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1034" s="1">
+        <f>VLOOKUP(A1034,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2107.4</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="2">
+        <v>51700</v>
+      </c>
+      <c r="C1035" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1035" s="1">
+        <f>VLOOKUP(A1035,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2109.4</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="2">
+        <v>51750</v>
+      </c>
+      <c r="C1036" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1036" s="1">
+        <f>VLOOKUP(A1036,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2111.4</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="2">
+        <v>51800</v>
+      </c>
+      <c r="C1037" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1037" s="1">
+        <f>VLOOKUP(A1037,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2113.5</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="2">
+        <v>51850</v>
+      </c>
+      <c r="C1038" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1038" s="1">
+        <f>VLOOKUP(A1038,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2115.5</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="2">
+        <v>51900</v>
+      </c>
+      <c r="C1039" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1039" s="1">
+        <f>VLOOKUP(A1039,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2117.6</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="2">
+        <v>51950</v>
+      </c>
+      <c r="C1040" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1040" s="1">
+        <f>VLOOKUP(A1040,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2119.6</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="2">
+        <v>52000</v>
+      </c>
+      <c r="C1041" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1041" s="1">
+        <f>VLOOKUP(A1041,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2121.6</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="2">
+        <v>52050</v>
+      </c>
+      <c r="C1042" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1042" s="1">
+        <f>VLOOKUP(A1042,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2123.6999999999998</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="2">
+        <v>52100</v>
+      </c>
+      <c r="C1043" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1043" s="1">
+        <f>VLOOKUP(A1043,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2125.6999999999998</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="2">
+        <v>52150</v>
+      </c>
+      <c r="C1044" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1044" s="1">
+        <f>VLOOKUP(A1044,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2127.8000000000002</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="2">
+        <v>52200</v>
+      </c>
+      <c r="C1045" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1045" s="1">
+        <f>VLOOKUP(A1045,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2129.8000000000002</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="2">
+        <v>52250</v>
+      </c>
+      <c r="C1046" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1046" s="1">
+        <f>VLOOKUP(A1046,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2131.8000000000002</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="2">
+        <v>52300</v>
+      </c>
+      <c r="C1047" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1047" s="1">
+        <f>VLOOKUP(A1047,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2133.9</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="2">
+        <v>52350</v>
+      </c>
+      <c r="C1048" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1048" s="1">
+        <f>VLOOKUP(A1048,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2135.9</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="2">
+        <v>52400</v>
+      </c>
+      <c r="C1049" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1049" s="1">
+        <f>VLOOKUP(A1049,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="2">
+        <v>52450</v>
+      </c>
+      <c r="C1050" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1050" s="1">
+        <f>VLOOKUP(A1050,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="2">
+        <v>52500</v>
+      </c>
+      <c r="C1051" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1051" s="1">
+        <f>VLOOKUP(A1051,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="2">
+        <v>52550</v>
+      </c>
+      <c r="C1052" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1052" s="1">
+        <f>VLOOKUP(A1052,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2144.1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="2">
+        <v>52600</v>
+      </c>
+      <c r="C1053" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1053" s="1">
+        <f>VLOOKUP(A1053,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2146.1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="2">
+        <v>52650</v>
+      </c>
+      <c r="C1054" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1054" s="1">
+        <f>VLOOKUP(A1054,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2148.1999999999998</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="2">
+        <v>52700</v>
+      </c>
+      <c r="C1055" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1055" s="1">
+        <f>VLOOKUP(A1055,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2150.1999999999998</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="2">
+        <v>52750</v>
+      </c>
+      <c r="C1056" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1056" s="1">
+        <f>VLOOKUP(A1056,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2152.1999999999998</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="2">
+        <v>52800</v>
+      </c>
+      <c r="C1057" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1057" s="1">
+        <f>VLOOKUP(A1057,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2154.3000000000002</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="2">
+        <v>52850</v>
+      </c>
+      <c r="C1058" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1058" s="1">
+        <f>VLOOKUP(A1058,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2156.3000000000002</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="2">
+        <v>52900</v>
+      </c>
+      <c r="C1059" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1059" s="1">
+        <f>VLOOKUP(A1059,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2158.4</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="2">
+        <v>52950</v>
+      </c>
+      <c r="C1060" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1060" s="1">
+        <f>VLOOKUP(A1060,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2160.4</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="2">
+        <v>53000</v>
+      </c>
+      <c r="C1061" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1061" s="1">
+        <f>VLOOKUP(A1061,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2162.4</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="2">
+        <v>53050</v>
+      </c>
+      <c r="C1062" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1062" s="1">
+        <f>VLOOKUP(A1062,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2164.5</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="2">
+        <v>53100</v>
+      </c>
+      <c r="C1063" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1063" s="1">
+        <f>VLOOKUP(A1063,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2166.5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1064">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="2">
+        <v>53150</v>
+      </c>
+      <c r="C1064" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1064" s="1">
+        <f>VLOOKUP(A1064,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2168.6</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1065">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="2">
+        <v>53200</v>
+      </c>
+      <c r="C1065" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1065" s="1">
+        <f>VLOOKUP(A1065,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2170.6</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1066">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="2">
+        <v>53250</v>
+      </c>
+      <c r="C1066" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1066" s="1">
+        <f>VLOOKUP(A1066,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2172.6</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1067">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="2">
+        <v>53300</v>
+      </c>
+      <c r="C1067" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1067" s="1">
+        <f>VLOOKUP(A1067,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2174.6999999999998</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1068">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="2">
+        <v>53350</v>
+      </c>
+      <c r="C1068" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1068" s="1">
+        <f>VLOOKUP(A1068,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2176.6999999999998</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1069">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="2">
+        <v>53400</v>
+      </c>
+      <c r="C1069" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1069" s="1">
+        <f>VLOOKUP(A1069,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2178.8000000000002</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1070">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="2">
+        <v>53450</v>
+      </c>
+      <c r="C1070" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1070" s="1">
+        <f>VLOOKUP(A1070,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2180.8000000000002</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1071">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="2">
+        <v>53500</v>
+      </c>
+      <c r="C1071" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1071" s="1">
+        <f>VLOOKUP(A1071,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2182.8000000000002</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1072">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="2">
+        <v>53550</v>
+      </c>
+      <c r="C1072" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1072" s="1">
+        <f>VLOOKUP(A1072,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2184.9</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1073">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="2">
+        <v>53600</v>
+      </c>
+      <c r="C1073" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1073" s="1">
+        <f>VLOOKUP(A1073,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2186.9</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1074">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="2">
+        <v>53650</v>
+      </c>
+      <c r="C1074" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1074" s="1">
+        <f>VLOOKUP(A1074,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1075">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="2">
+        <v>53700</v>
+      </c>
+      <c r="C1075" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1075" s="1">
+        <f>VLOOKUP(A1075,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1076">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="2">
+        <v>53750</v>
+      </c>
+      <c r="C1076" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1076" s="1">
+        <f>VLOOKUP(A1076,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1077">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="2">
+        <v>53800</v>
+      </c>
+      <c r="C1077" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1077" s="1">
+        <f>VLOOKUP(A1077,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2195.1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1078">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="2">
+        <v>53850</v>
+      </c>
+      <c r="C1078" s="1">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="D1078" s="1">
+        <f>VLOOKUP(A1078,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2197.1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1079">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="2">
+        <v>53900</v>
+      </c>
+      <c r="C1079" s="1">
+        <f t="shared" ref="C1079:C1142" si="19">C1078</f>
+        <v>49</v>
+      </c>
+      <c r="D1079" s="1">
+        <f>VLOOKUP(A1079,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2199.1999999999998</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1080">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="2">
+        <v>53950</v>
+      </c>
+      <c r="C1080" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1080" s="1">
+        <f>VLOOKUP(A1080,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2201.1999999999998</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1081">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="2">
+        <v>54000</v>
+      </c>
+      <c r="C1081" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1081" s="1">
+        <f>VLOOKUP(A1081,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2203.1999999999998</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1082">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="2">
+        <v>54050</v>
+      </c>
+      <c r="C1082" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1082" s="1">
+        <f>VLOOKUP(A1082,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2205.3000000000002</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1083">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="2">
+        <v>54100</v>
+      </c>
+      <c r="C1083" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1083" s="1">
+        <f>VLOOKUP(A1083,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2207.3000000000002</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1084">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="2">
+        <v>54150</v>
+      </c>
+      <c r="C1084" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1084" s="1">
+        <f>VLOOKUP(A1084,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2209.4</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1085">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="2">
+        <v>54200</v>
+      </c>
+      <c r="C1085" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1085" s="1">
+        <f>VLOOKUP(A1085,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2211.4</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1086">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="2">
+        <v>54250</v>
+      </c>
+      <c r="C1086" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1086" s="1">
+        <f>VLOOKUP(A1086,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2213.4</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1087">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="2">
+        <v>54300</v>
+      </c>
+      <c r="C1087" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1087" s="1">
+        <f>VLOOKUP(A1087,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2215.5</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="2">
+        <v>54350</v>
+      </c>
+      <c r="C1088" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1088" s="1">
+        <f>VLOOKUP(A1088,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2217.5</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="2">
+        <v>54400</v>
+      </c>
+      <c r="C1089" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1089" s="1">
+        <f>VLOOKUP(A1089,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2219.6</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1090">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="2">
+        <v>54450</v>
+      </c>
+      <c r="C1090" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1090" s="1">
+        <f>VLOOKUP(A1090,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2221.6</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1091">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="2">
+        <v>54500</v>
+      </c>
+      <c r="C1091" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1091" s="1">
+        <f>VLOOKUP(A1091,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2223.6</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1092">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="2">
+        <v>54550</v>
+      </c>
+      <c r="C1092" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1092" s="1">
+        <f>VLOOKUP(A1092,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2225.6999999999998</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1093">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="2">
+        <v>54600</v>
+      </c>
+      <c r="C1093" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1093" s="1">
+        <f>VLOOKUP(A1093,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2227.6999999999998</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="2">
+        <v>54650</v>
+      </c>
+      <c r="C1094" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1094" s="1">
+        <f>VLOOKUP(A1094,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2229.8000000000002</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="2">
+        <v>54700</v>
+      </c>
+      <c r="C1095" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1095" s="1">
+        <f>VLOOKUP(A1095,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2231.8000000000002</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="2">
+        <v>54750</v>
+      </c>
+      <c r="C1096" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1096" s="1">
+        <f>VLOOKUP(A1096,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2233.8000000000002</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="2">
+        <v>54800</v>
+      </c>
+      <c r="C1097" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1097" s="1">
+        <f>VLOOKUP(A1097,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2235.9</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="2">
+        <v>54850</v>
+      </c>
+      <c r="C1098" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1098" s="1">
+        <f>VLOOKUP(A1098,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2237.9</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="2">
+        <v>54900</v>
+      </c>
+      <c r="C1099" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1099" s="1">
+        <f>VLOOKUP(A1099,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="2">
+        <v>54950</v>
+      </c>
+      <c r="C1100" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1100" s="1">
+        <f>VLOOKUP(A1100,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="2">
+        <v>55000</v>
+      </c>
+      <c r="C1101" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1101" s="1">
+        <f>VLOOKUP(A1101,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1102">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="2">
+        <v>55050</v>
+      </c>
+      <c r="C1102" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1102" s="1">
+        <f>VLOOKUP(A1102,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2246.1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1103">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="2">
+        <v>55100</v>
+      </c>
+      <c r="C1103" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1103" s="1">
+        <f>VLOOKUP(A1103,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2248.1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1104">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="2">
+        <v>55150</v>
+      </c>
+      <c r="C1104" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1104" s="1">
+        <f>VLOOKUP(A1104,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2250.1999999999998</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1105">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="2">
+        <v>55200</v>
+      </c>
+      <c r="C1105" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1105" s="1">
+        <f>VLOOKUP(A1105,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2252.1999999999998</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1106">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>55250</v>
+      </c>
+      <c r="C1106" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1106" s="1">
+        <f>VLOOKUP(A1106,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2254.1999999999998</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1107">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>55300</v>
+      </c>
+      <c r="C1107" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1107" s="1">
+        <f>VLOOKUP(A1107,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2256.3000000000002</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1108">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>55350</v>
+      </c>
+      <c r="C1108" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1108" s="1">
+        <f>VLOOKUP(A1108,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2258.3000000000002</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1109">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="2">
+        <v>55400</v>
+      </c>
+      <c r="C1109" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1109" s="1">
+        <f>VLOOKUP(A1109,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2260.4</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1110">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>55450</v>
+      </c>
+      <c r="C1110" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1110" s="1">
+        <f>VLOOKUP(A1110,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2262.4</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1111">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="2">
+        <v>55500</v>
+      </c>
+      <c r="C1111" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1111" s="1">
+        <f>VLOOKUP(A1111,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2264.4</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1112">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>55550</v>
+      </c>
+      <c r="C1112" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1112" s="1">
+        <f>VLOOKUP(A1112,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2266.5</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1113">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>55600</v>
+      </c>
+      <c r="C1113" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1113" s="1">
+        <f>VLOOKUP(A1113,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2268.5</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1114">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>55650</v>
+      </c>
+      <c r="C1114" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1114" s="1">
+        <f>VLOOKUP(A1114,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2270.6</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1115">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>55700</v>
+      </c>
+      <c r="C1115" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1115" s="1">
+        <f>VLOOKUP(A1115,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2272.6</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1116">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>55750</v>
+      </c>
+      <c r="C1116" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1116" s="1">
+        <f>VLOOKUP(A1116,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2274.6</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1117">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>55800</v>
+      </c>
+      <c r="C1117" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1117" s="1">
+        <f>VLOOKUP(A1117,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2276.6999999999998</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1118">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>55850</v>
+      </c>
+      <c r="C1118" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1118" s="1">
+        <f>VLOOKUP(A1118,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2278.6999999999998</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1119">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>55900</v>
+      </c>
+      <c r="C1119" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1119" s="1">
+        <f>VLOOKUP(A1119,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2280.8000000000002</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1120">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>55950</v>
+      </c>
+      <c r="C1120" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1120" s="1">
+        <f>VLOOKUP(A1120,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2282.8000000000002</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1121">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>56000</v>
+      </c>
+      <c r="C1121" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1121" s="1">
+        <f>VLOOKUP(A1121,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2284.8000000000002</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1122">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>56050</v>
+      </c>
+      <c r="C1122" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1122" s="1">
+        <f>VLOOKUP(A1122,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2286.9</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1123">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>56100</v>
+      </c>
+      <c r="C1123" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1123" s="1">
+        <f>VLOOKUP(A1123,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2288.9</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1124">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>56150</v>
+      </c>
+      <c r="C1124" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1124" s="1">
+        <f>VLOOKUP(A1124,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1125">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>56200</v>
+      </c>
+      <c r="C1125" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1125" s="1">
+        <f>VLOOKUP(A1125,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1126">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>56250</v>
+      </c>
+      <c r="C1126" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1126" s="1">
+        <f>VLOOKUP(A1126,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1127">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>56300</v>
+      </c>
+      <c r="C1127" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1127" s="1">
+        <f>VLOOKUP(A1127,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2297.1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1128">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>56350</v>
+      </c>
+      <c r="C1128" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1128" s="1">
+        <f>VLOOKUP(A1128,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2299.1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1129">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>56400</v>
+      </c>
+      <c r="C1129" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1129" s="1">
+        <f>VLOOKUP(A1129,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2301.1999999999998</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1130">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>56450</v>
+      </c>
+      <c r="C1130" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1130" s="1">
+        <f>VLOOKUP(A1130,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2303.1999999999998</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1131">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>56500</v>
+      </c>
+      <c r="C1131" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1131" s="1">
+        <f>VLOOKUP(A1131,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2305.1999999999998</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1132">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>56550</v>
+      </c>
+      <c r="C1132" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1132" s="1">
+        <f>VLOOKUP(A1132,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2307.3000000000002</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1133">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>56600</v>
+      </c>
+      <c r="C1133" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1133" s="1">
+        <f>VLOOKUP(A1133,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2309.3000000000002</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1134">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>56650</v>
+      </c>
+      <c r="C1134" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1134" s="1">
+        <f>VLOOKUP(A1134,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2311.4</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1135">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>56700</v>
+      </c>
+      <c r="C1135" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1135" s="1">
+        <f>VLOOKUP(A1135,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2313.4</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1136">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="2">
+        <v>56750</v>
+      </c>
+      <c r="C1136" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1136" s="1">
+        <f>VLOOKUP(A1136,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2315.4</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1137">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="2">
+        <v>56800</v>
+      </c>
+      <c r="C1137" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1137" s="1">
+        <f>VLOOKUP(A1137,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2317.5</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1138">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="2">
+        <v>56850</v>
+      </c>
+      <c r="C1138" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1138" s="1">
+        <f>VLOOKUP(A1138,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2319.5</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1139">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>56900</v>
+      </c>
+      <c r="C1139" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1139" s="1">
+        <f>VLOOKUP(A1139,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2321.6</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1140">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="2">
+        <v>56950</v>
+      </c>
+      <c r="C1140" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1140" s="1">
+        <f>VLOOKUP(A1140,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2323.6</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1141">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="2">
+        <v>57000</v>
+      </c>
+      <c r="C1141" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1141" s="1">
+        <f>VLOOKUP(A1141,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2325.6</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1142">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="2">
+        <v>57050</v>
+      </c>
+      <c r="C1142" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D1142" s="1">
+        <f>VLOOKUP(A1142,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2327.6999999999998</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1143">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="2">
+        <v>57100</v>
+      </c>
+      <c r="C1143" s="1">
+        <f t="shared" ref="C1143:C1201" si="20">C1142</f>
+        <v>49</v>
+      </c>
+      <c r="D1143" s="1">
+        <f>VLOOKUP(A1143,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2329.6999999999998</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1144">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="2">
+        <v>57150</v>
+      </c>
+      <c r="C1144" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1144" s="1">
+        <f>VLOOKUP(A1144,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2331.8000000000002</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1145">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="2">
+        <v>57200</v>
+      </c>
+      <c r="C1145" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1145" s="1">
+        <f>VLOOKUP(A1145,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2333.8000000000002</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1146">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="2">
+        <v>57250</v>
+      </c>
+      <c r="C1146" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1146" s="1">
+        <f>VLOOKUP(A1146,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2335.8000000000002</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1147">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="2">
+        <v>57300</v>
+      </c>
+      <c r="C1147" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1147" s="1">
+        <f>VLOOKUP(A1147,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2337.9</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1148">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="2">
+        <v>57350</v>
+      </c>
+      <c r="C1148" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1148" s="1">
+        <f>VLOOKUP(A1148,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2339.9</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1149">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="2">
+        <v>57400</v>
+      </c>
+      <c r="C1149" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1149" s="1">
+        <f>VLOOKUP(A1149,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1150">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="2">
+        <v>57450</v>
+      </c>
+      <c r="C1150" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1150" s="1">
+        <f>VLOOKUP(A1150,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1151">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="2">
+        <v>57500</v>
+      </c>
+      <c r="C1151" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1151" s="1">
+        <f>VLOOKUP(A1151,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1152">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="2">
+        <v>57550</v>
+      </c>
+      <c r="C1152" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1152" s="1">
+        <f>VLOOKUP(A1152,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2348.1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1153">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="2">
+        <v>57600</v>
+      </c>
+      <c r="C1153" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1153" s="1">
+        <f>VLOOKUP(A1153,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2350.1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1154">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="2">
+        <v>57650</v>
+      </c>
+      <c r="C1154" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1154" s="1">
+        <f>VLOOKUP(A1154,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2352.1999999999998</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1155">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="2">
+        <v>57700</v>
+      </c>
+      <c r="C1155" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1155" s="1">
+        <f>VLOOKUP(A1155,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2354.1999999999998</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1156">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="2">
+        <v>57750</v>
+      </c>
+      <c r="C1156" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1156" s="1">
+        <f>VLOOKUP(A1156,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2356.1999999999998</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1157">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="2">
+        <v>57800</v>
+      </c>
+      <c r="C1157" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1157" s="1">
+        <f>VLOOKUP(A1157,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2358.3000000000002</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1158">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="2">
+        <v>57850</v>
+      </c>
+      <c r="C1158" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1158" s="1">
+        <f>VLOOKUP(A1158,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2360.3000000000002</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1159">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="2">
+        <v>57900</v>
+      </c>
+      <c r="C1159" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1159" s="1">
+        <f>VLOOKUP(A1159,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2362.4</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1160">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="2">
+        <v>57950</v>
+      </c>
+      <c r="C1160" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1160" s="1">
+        <f>VLOOKUP(A1160,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2364.4</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1161">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="2">
+        <v>58000</v>
+      </c>
+      <c r="C1161" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1161" s="1">
+        <f>VLOOKUP(A1161,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2366.4</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1162">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="2">
+        <v>58050</v>
+      </c>
+      <c r="C1162" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1162" s="1">
+        <f>VLOOKUP(A1162,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2368.5</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1163">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="2">
+        <v>58100</v>
+      </c>
+      <c r="C1163" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1163" s="1">
+        <f>VLOOKUP(A1163,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2370.5</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1164">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="2">
+        <v>58150</v>
+      </c>
+      <c r="C1164" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1164" s="1">
+        <f>VLOOKUP(A1164,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2372.6</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1165">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="2">
+        <v>58200</v>
+      </c>
+      <c r="C1165" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1165" s="1">
+        <f>VLOOKUP(A1165,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2374.6</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1166">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="2">
+        <v>58250</v>
+      </c>
+      <c r="C1166" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1166" s="1">
+        <f>VLOOKUP(A1166,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2376.6</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1167">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="2">
+        <v>58300</v>
+      </c>
+      <c r="C1167" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1167" s="1">
+        <f>VLOOKUP(A1167,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2378.6999999999998</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1168">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="2">
+        <v>58350</v>
+      </c>
+      <c r="C1168" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1168" s="1">
+        <f>VLOOKUP(A1168,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2380.6999999999998</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1169">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="2">
+        <v>58400</v>
+      </c>
+      <c r="C1169" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1169" s="1">
+        <f>VLOOKUP(A1169,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2382.8000000000002</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1170">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="2">
+        <v>58450</v>
+      </c>
+      <c r="C1170" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1170" s="1">
+        <f>VLOOKUP(A1170,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2384.8000000000002</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1171">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="2">
+        <v>58500</v>
+      </c>
+      <c r="C1171" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1171" s="1">
+        <f>VLOOKUP(A1171,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2386.8000000000002</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1172">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="2">
+        <v>58550</v>
+      </c>
+      <c r="C1172" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1172" s="1">
+        <f>VLOOKUP(A1172,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2388.9</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1173">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="2">
+        <v>58600</v>
+      </c>
+      <c r="C1173" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1173" s="1">
+        <f>VLOOKUP(A1173,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2390.9</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1174">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="2">
+        <v>58650</v>
+      </c>
+      <c r="C1174" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1174" s="1">
+        <f>VLOOKUP(A1174,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1175">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="2">
+        <v>58700</v>
+      </c>
+      <c r="C1175" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1175" s="1">
+        <f>VLOOKUP(A1175,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1176">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="2">
+        <v>58750</v>
+      </c>
+      <c r="C1176" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1176" s="1">
+        <f>VLOOKUP(A1176,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1177">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="2">
+        <v>58800</v>
+      </c>
+      <c r="C1177" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1177" s="1">
+        <f>VLOOKUP(A1177,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2399.1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1178">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="2">
+        <v>58850</v>
+      </c>
+      <c r="C1178" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1178" s="1">
+        <f>VLOOKUP(A1178,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2401.1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1179">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="2">
+        <v>58900</v>
+      </c>
+      <c r="C1179" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1179" s="1">
+        <f>VLOOKUP(A1179,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2403.1999999999998</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1180">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="2">
+        <v>58950</v>
+      </c>
+      <c r="C1180" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1180" s="1">
+        <f>VLOOKUP(A1180,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2405.1999999999998</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1181">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="2">
+        <v>59000</v>
+      </c>
+      <c r="C1181" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1181" s="1">
+        <f>VLOOKUP(A1181,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2407.1999999999998</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1182">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="2">
+        <v>59050</v>
+      </c>
+      <c r="C1182" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1182" s="1">
+        <f>VLOOKUP(A1182,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2409.3000000000002</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1183">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="2">
+        <v>59100</v>
+      </c>
+      <c r="C1183" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1183" s="1">
+        <f>VLOOKUP(A1183,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2411.3000000000002</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1184">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="2">
+        <v>59150</v>
+      </c>
+      <c r="C1184" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1184" s="1">
+        <f>VLOOKUP(A1184,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2413.4</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1185">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>59200</v>
+      </c>
+      <c r="C1185" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1185" s="1">
+        <f>VLOOKUP(A1185,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2415.4</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1186">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="2">
+        <v>59250</v>
+      </c>
+      <c r="C1186" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1186" s="1">
+        <f>VLOOKUP(A1186,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2417.4</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1187">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>59300</v>
+      </c>
+      <c r="C1187" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1187" s="1">
+        <f>VLOOKUP(A1187,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2419.5</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1188">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="2">
+        <v>59350</v>
+      </c>
+      <c r="C1188" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1188" s="1">
+        <f>VLOOKUP(A1188,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2421.5</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1189">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="2">
+        <v>59400</v>
+      </c>
+      <c r="C1189" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1189" s="1">
+        <f>VLOOKUP(A1189,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2423.6</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1190">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="2">
+        <v>59450</v>
+      </c>
+      <c r="C1190" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1190" s="1">
+        <f>VLOOKUP(A1190,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2425.6</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1191">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="2">
+        <v>59500</v>
+      </c>
+      <c r="C1191" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1191" s="1">
+        <f>VLOOKUP(A1191,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2427.6</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1192">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>59550</v>
+      </c>
+      <c r="C1192" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1192" s="1">
+        <f>VLOOKUP(A1192,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2429.6999999999998</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1193">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="2">
+        <v>59600</v>
+      </c>
+      <c r="C1193" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1193" s="1">
+        <f>VLOOKUP(A1193,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2431.6999999999998</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1194">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>59650</v>
+      </c>
+      <c r="C1194" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1194" s="1">
+        <f>VLOOKUP(A1194,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2433.8000000000002</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1195">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="2">
+        <v>59700</v>
+      </c>
+      <c r="C1195" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1195" s="1">
+        <f>VLOOKUP(A1195,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2435.8000000000002</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1196">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="2">
+        <v>59750</v>
+      </c>
+      <c r="C1196" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1196" s="1">
+        <f>VLOOKUP(A1196,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2437.8000000000002</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1197">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="2">
+        <v>59800</v>
+      </c>
+      <c r="C1197" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1197" s="1">
+        <f>VLOOKUP(A1197,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2439.9</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1198">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>59850</v>
+      </c>
+      <c r="C1198" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1198" s="1">
+        <f>VLOOKUP(A1198,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2441.9</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1199">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="2">
+        <v>59900</v>
+      </c>
+      <c r="C1199" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1199" s="1">
+        <f>VLOOKUP(A1199,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1200">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>59950</v>
+      </c>
+      <c r="C1200" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1200" s="1">
+        <f>VLOOKUP(A1200,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1201">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="2">
+        <v>60000</v>
+      </c>
+      <c r="C1201" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1201" s="1">
+        <f>VLOOKUP(A1201,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2448</v>
       </c>
     </row>
   </sheetData>
@@ -16563,10 +19763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F487DAF-5617-475D-9474-AD8765AEB979}">
-  <dimension ref="A3:L1127"/>
+  <dimension ref="A3:L1493"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1150" workbookViewId="0">
+      <selection activeCell="I1159" sqref="I1159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34613,6 +37813,5862 @@
         <v>229300</v>
       </c>
     </row>
+    <row r="1128" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1128">
+        <v>1124</v>
+      </c>
+      <c r="I1128">
+        <f t="shared" ref="I1128:I1191" si="52">J1128*$B$6</f>
+        <v>5625000</v>
+      </c>
+      <c r="J1128">
+        <v>56250</v>
+      </c>
+      <c r="L1128">
+        <f t="shared" ref="L1128:L1191" si="53">ROUNDUP(((I1128/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1129" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1129">
+        <v>1125</v>
+      </c>
+      <c r="I1129">
+        <f t="shared" si="52"/>
+        <v>5630000</v>
+      </c>
+      <c r="J1129">
+        <v>56300</v>
+      </c>
+      <c r="L1129">
+        <f t="shared" si="53"/>
+        <v>229710</v>
+      </c>
+    </row>
+    <row r="1130" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1130">
+        <v>1126</v>
+      </c>
+      <c r="I1130">
+        <f t="shared" si="52"/>
+        <v>5635000</v>
+      </c>
+      <c r="J1130">
+        <v>56350</v>
+      </c>
+      <c r="L1130">
+        <f t="shared" si="53"/>
+        <v>229910</v>
+      </c>
+    </row>
+    <row r="1131" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1131">
+        <v>1127</v>
+      </c>
+      <c r="I1131">
+        <f t="shared" si="52"/>
+        <v>5640000</v>
+      </c>
+      <c r="J1131">
+        <v>56400</v>
+      </c>
+      <c r="L1131">
+        <f t="shared" si="53"/>
+        <v>230120</v>
+      </c>
+    </row>
+    <row r="1132" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1132">
+        <v>1128</v>
+      </c>
+      <c r="I1132">
+        <f t="shared" si="52"/>
+        <v>5645000</v>
+      </c>
+      <c r="J1132">
+        <v>56450</v>
+      </c>
+      <c r="L1132">
+        <f t="shared" si="53"/>
+        <v>230320</v>
+      </c>
+    </row>
+    <row r="1133" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1133">
+        <v>1129</v>
+      </c>
+      <c r="I1133">
+        <f t="shared" si="52"/>
+        <v>5650000</v>
+      </c>
+      <c r="J1133">
+        <v>56500</v>
+      </c>
+      <c r="L1133">
+        <f t="shared" si="53"/>
+        <v>230520</v>
+      </c>
+    </row>
+    <row r="1134" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1134">
+        <v>1130</v>
+      </c>
+      <c r="I1134">
+        <f t="shared" si="52"/>
+        <v>5655000</v>
+      </c>
+      <c r="J1134">
+        <v>56550</v>
+      </c>
+      <c r="L1134">
+        <f t="shared" si="53"/>
+        <v>230730</v>
+      </c>
+    </row>
+    <row r="1135" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1135">
+        <v>1131</v>
+      </c>
+      <c r="I1135">
+        <f t="shared" si="52"/>
+        <v>5660000</v>
+      </c>
+      <c r="J1135">
+        <v>56600</v>
+      </c>
+      <c r="L1135">
+        <f t="shared" si="53"/>
+        <v>230930</v>
+      </c>
+    </row>
+    <row r="1136" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1136">
+        <v>1132</v>
+      </c>
+      <c r="I1136">
+        <f t="shared" si="52"/>
+        <v>5665000</v>
+      </c>
+      <c r="J1136">
+        <v>56650</v>
+      </c>
+      <c r="L1136">
+        <f t="shared" si="53"/>
+        <v>231140</v>
+      </c>
+    </row>
+    <row r="1137" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1137">
+        <v>1133</v>
+      </c>
+      <c r="I1137">
+        <f t="shared" si="52"/>
+        <v>5670000</v>
+      </c>
+      <c r="J1137">
+        <v>56700</v>
+      </c>
+      <c r="L1137">
+        <f t="shared" si="53"/>
+        <v>231340</v>
+      </c>
+    </row>
+    <row r="1138" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1138">
+        <v>1134</v>
+      </c>
+      <c r="I1138">
+        <f t="shared" si="52"/>
+        <v>5675000</v>
+      </c>
+      <c r="J1138">
+        <v>56750</v>
+      </c>
+      <c r="L1138">
+        <f t="shared" si="53"/>
+        <v>231540</v>
+      </c>
+    </row>
+    <row r="1139" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1139">
+        <v>1135</v>
+      </c>
+      <c r="I1139">
+        <f t="shared" si="52"/>
+        <v>5680000</v>
+      </c>
+      <c r="J1139">
+        <v>56800</v>
+      </c>
+      <c r="L1139">
+        <f t="shared" si="53"/>
+        <v>231750</v>
+      </c>
+    </row>
+    <row r="1140" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1140">
+        <v>1136</v>
+      </c>
+      <c r="I1140">
+        <f t="shared" si="52"/>
+        <v>5685000</v>
+      </c>
+      <c r="J1140">
+        <v>56850</v>
+      </c>
+      <c r="L1140">
+        <f t="shared" si="53"/>
+        <v>231950</v>
+      </c>
+    </row>
+    <row r="1141" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1141">
+        <v>1137</v>
+      </c>
+      <c r="I1141">
+        <f t="shared" si="52"/>
+        <v>5690000</v>
+      </c>
+      <c r="J1141">
+        <v>56900</v>
+      </c>
+      <c r="L1141">
+        <f t="shared" si="53"/>
+        <v>232160</v>
+      </c>
+    </row>
+    <row r="1142" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1142">
+        <v>1138</v>
+      </c>
+      <c r="I1142">
+        <f t="shared" si="52"/>
+        <v>5695000</v>
+      </c>
+      <c r="J1142">
+        <v>56950</v>
+      </c>
+      <c r="L1142">
+        <f t="shared" si="53"/>
+        <v>232360</v>
+      </c>
+    </row>
+    <row r="1143" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1143">
+        <v>1139</v>
+      </c>
+      <c r="I1143">
+        <f t="shared" si="52"/>
+        <v>5700000</v>
+      </c>
+      <c r="J1143">
+        <v>57000</v>
+      </c>
+      <c r="L1143">
+        <f t="shared" si="53"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="1144" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1144">
+        <v>1140</v>
+      </c>
+      <c r="I1144">
+        <f t="shared" si="52"/>
+        <v>5705000</v>
+      </c>
+      <c r="J1144">
+        <v>57050</v>
+      </c>
+      <c r="L1144">
+        <f t="shared" si="53"/>
+        <v>232770</v>
+      </c>
+    </row>
+    <row r="1145" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1145">
+        <v>1141</v>
+      </c>
+      <c r="I1145">
+        <f t="shared" si="52"/>
+        <v>5710000</v>
+      </c>
+      <c r="J1145">
+        <v>57100</v>
+      </c>
+      <c r="L1145">
+        <f t="shared" si="53"/>
+        <v>232970</v>
+      </c>
+    </row>
+    <row r="1146" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1146">
+        <v>1142</v>
+      </c>
+      <c r="I1146">
+        <f t="shared" si="52"/>
+        <v>5715000</v>
+      </c>
+      <c r="J1146">
+        <v>57150</v>
+      </c>
+      <c r="L1146">
+        <f t="shared" si="53"/>
+        <v>233180</v>
+      </c>
+    </row>
+    <row r="1147" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1147">
+        <v>1143</v>
+      </c>
+      <c r="I1147">
+        <f t="shared" si="52"/>
+        <v>5720000</v>
+      </c>
+      <c r="J1147">
+        <v>57200</v>
+      </c>
+      <c r="L1147">
+        <f t="shared" si="53"/>
+        <v>233380</v>
+      </c>
+    </row>
+    <row r="1148" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1148">
+        <v>1144</v>
+      </c>
+      <c r="I1148">
+        <f t="shared" si="52"/>
+        <v>5725000</v>
+      </c>
+      <c r="J1148">
+        <v>57250</v>
+      </c>
+      <c r="L1148">
+        <f t="shared" si="53"/>
+        <v>233580</v>
+      </c>
+    </row>
+    <row r="1149" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1149">
+        <v>1145</v>
+      </c>
+      <c r="I1149">
+        <f t="shared" si="52"/>
+        <v>5730000</v>
+      </c>
+      <c r="J1149">
+        <v>57300</v>
+      </c>
+      <c r="L1149">
+        <f t="shared" si="53"/>
+        <v>233790</v>
+      </c>
+    </row>
+    <row r="1150" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1150">
+        <v>1146</v>
+      </c>
+      <c r="I1150">
+        <f t="shared" si="52"/>
+        <v>5735000</v>
+      </c>
+      <c r="J1150">
+        <v>57350</v>
+      </c>
+      <c r="L1150">
+        <f t="shared" si="53"/>
+        <v>233990</v>
+      </c>
+    </row>
+    <row r="1151" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1151">
+        <v>1147</v>
+      </c>
+      <c r="I1151">
+        <f t="shared" si="52"/>
+        <v>5740000</v>
+      </c>
+      <c r="J1151">
+        <v>57400</v>
+      </c>
+      <c r="L1151">
+        <f t="shared" si="53"/>
+        <v>234200</v>
+      </c>
+    </row>
+    <row r="1152" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1152">
+        <v>1148</v>
+      </c>
+      <c r="I1152">
+        <f t="shared" si="52"/>
+        <v>5745000</v>
+      </c>
+      <c r="J1152">
+        <v>57450</v>
+      </c>
+      <c r="L1152">
+        <f t="shared" si="53"/>
+        <v>234400</v>
+      </c>
+    </row>
+    <row r="1153" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1153">
+        <v>1149</v>
+      </c>
+      <c r="I1153">
+        <f t="shared" si="52"/>
+        <v>5750000</v>
+      </c>
+      <c r="J1153">
+        <v>57500</v>
+      </c>
+      <c r="L1153">
+        <f t="shared" si="53"/>
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="1154" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1154">
+        <v>1150</v>
+      </c>
+      <c r="I1154">
+        <f t="shared" si="52"/>
+        <v>5755000</v>
+      </c>
+      <c r="J1154">
+        <v>57550</v>
+      </c>
+      <c r="L1154">
+        <f t="shared" si="53"/>
+        <v>234810</v>
+      </c>
+    </row>
+    <row r="1155" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1155">
+        <v>1151</v>
+      </c>
+      <c r="I1155">
+        <f t="shared" si="52"/>
+        <v>5760000</v>
+      </c>
+      <c r="J1155">
+        <v>57600</v>
+      </c>
+      <c r="L1155">
+        <f t="shared" si="53"/>
+        <v>235010</v>
+      </c>
+    </row>
+    <row r="1156" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1156">
+        <v>1152</v>
+      </c>
+      <c r="I1156">
+        <f t="shared" si="52"/>
+        <v>5765000</v>
+      </c>
+      <c r="J1156">
+        <v>57650</v>
+      </c>
+      <c r="L1156">
+        <f t="shared" si="53"/>
+        <v>235220</v>
+      </c>
+    </row>
+    <row r="1157" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1157">
+        <v>1153</v>
+      </c>
+      <c r="I1157">
+        <f t="shared" si="52"/>
+        <v>5770000</v>
+      </c>
+      <c r="J1157">
+        <v>57700</v>
+      </c>
+      <c r="L1157">
+        <f t="shared" si="53"/>
+        <v>235420</v>
+      </c>
+    </row>
+    <row r="1158" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1158">
+        <v>1154</v>
+      </c>
+      <c r="I1158">
+        <f t="shared" si="52"/>
+        <v>5775000</v>
+      </c>
+      <c r="J1158">
+        <v>57750</v>
+      </c>
+      <c r="L1158">
+        <f t="shared" si="53"/>
+        <v>235620</v>
+      </c>
+    </row>
+    <row r="1159" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1159">
+        <v>1155</v>
+      </c>
+      <c r="I1159">
+        <f t="shared" si="52"/>
+        <v>5780000</v>
+      </c>
+      <c r="J1159">
+        <v>57800</v>
+      </c>
+      <c r="L1159">
+        <f t="shared" si="53"/>
+        <v>235830</v>
+      </c>
+    </row>
+    <row r="1160" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1160">
+        <v>1156</v>
+      </c>
+      <c r="I1160">
+        <f t="shared" si="52"/>
+        <v>5785000</v>
+      </c>
+      <c r="J1160">
+        <v>57850</v>
+      </c>
+      <c r="L1160">
+        <f t="shared" si="53"/>
+        <v>236030</v>
+      </c>
+    </row>
+    <row r="1161" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1161">
+        <v>1157</v>
+      </c>
+      <c r="I1161">
+        <f t="shared" si="52"/>
+        <v>5790000</v>
+      </c>
+      <c r="J1161">
+        <v>57900</v>
+      </c>
+      <c r="L1161">
+        <f t="shared" si="53"/>
+        <v>236240</v>
+      </c>
+    </row>
+    <row r="1162" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1162">
+        <v>1158</v>
+      </c>
+      <c r="I1162">
+        <f t="shared" si="52"/>
+        <v>5795000</v>
+      </c>
+      <c r="J1162">
+        <v>57950</v>
+      </c>
+      <c r="L1162">
+        <f t="shared" si="53"/>
+        <v>236440</v>
+      </c>
+    </row>
+    <row r="1163" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1163">
+        <v>1159</v>
+      </c>
+      <c r="I1163">
+        <f t="shared" si="52"/>
+        <v>5800000</v>
+      </c>
+      <c r="J1163">
+        <v>58000</v>
+      </c>
+      <c r="L1163">
+        <f t="shared" si="53"/>
+        <v>236640</v>
+      </c>
+    </row>
+    <row r="1164" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1164">
+        <v>1160</v>
+      </c>
+      <c r="I1164">
+        <f t="shared" si="52"/>
+        <v>5805000</v>
+      </c>
+      <c r="J1164">
+        <v>58050</v>
+      </c>
+      <c r="L1164">
+        <f t="shared" si="53"/>
+        <v>236850</v>
+      </c>
+    </row>
+    <row r="1165" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1165">
+        <v>1161</v>
+      </c>
+      <c r="I1165">
+        <f t="shared" si="52"/>
+        <v>5810000</v>
+      </c>
+      <c r="J1165">
+        <v>58100</v>
+      </c>
+      <c r="L1165">
+        <f t="shared" si="53"/>
+        <v>237050</v>
+      </c>
+    </row>
+    <row r="1166" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1166">
+        <v>1162</v>
+      </c>
+      <c r="I1166">
+        <f t="shared" si="52"/>
+        <v>5815000</v>
+      </c>
+      <c r="J1166">
+        <v>58150</v>
+      </c>
+      <c r="L1166">
+        <f t="shared" si="53"/>
+        <v>237260</v>
+      </c>
+    </row>
+    <row r="1167" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1167">
+        <v>1163</v>
+      </c>
+      <c r="I1167">
+        <f t="shared" si="52"/>
+        <v>5820000</v>
+      </c>
+      <c r="J1167">
+        <v>58200</v>
+      </c>
+      <c r="L1167">
+        <f t="shared" si="53"/>
+        <v>237460</v>
+      </c>
+    </row>
+    <row r="1168" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1168">
+        <v>1164</v>
+      </c>
+      <c r="I1168">
+        <f t="shared" si="52"/>
+        <v>5825000</v>
+      </c>
+      <c r="J1168">
+        <v>58250</v>
+      </c>
+      <c r="L1168">
+        <f t="shared" si="53"/>
+        <v>237660</v>
+      </c>
+    </row>
+    <row r="1169" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1169">
+        <v>1165</v>
+      </c>
+      <c r="I1169">
+        <f t="shared" si="52"/>
+        <v>5830000</v>
+      </c>
+      <c r="J1169">
+        <v>58300</v>
+      </c>
+      <c r="L1169">
+        <f t="shared" si="53"/>
+        <v>237870</v>
+      </c>
+    </row>
+    <row r="1170" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1170">
+        <v>1166</v>
+      </c>
+      <c r="I1170">
+        <f t="shared" si="52"/>
+        <v>5835000</v>
+      </c>
+      <c r="J1170">
+        <v>58350</v>
+      </c>
+      <c r="L1170">
+        <f t="shared" si="53"/>
+        <v>238070</v>
+      </c>
+    </row>
+    <row r="1171" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1171">
+        <v>1167</v>
+      </c>
+      <c r="I1171">
+        <f t="shared" si="52"/>
+        <v>5840000</v>
+      </c>
+      <c r="J1171">
+        <v>58400</v>
+      </c>
+      <c r="L1171">
+        <f t="shared" si="53"/>
+        <v>238280</v>
+      </c>
+    </row>
+    <row r="1172" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1172">
+        <v>1168</v>
+      </c>
+      <c r="I1172">
+        <f t="shared" si="52"/>
+        <v>5845000</v>
+      </c>
+      <c r="J1172">
+        <v>58450</v>
+      </c>
+      <c r="L1172">
+        <f t="shared" si="53"/>
+        <v>238480</v>
+      </c>
+    </row>
+    <row r="1173" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1173">
+        <v>1169</v>
+      </c>
+      <c r="I1173">
+        <f t="shared" si="52"/>
+        <v>5850000</v>
+      </c>
+      <c r="J1173">
+        <v>58500</v>
+      </c>
+      <c r="L1173">
+        <f t="shared" si="53"/>
+        <v>238680</v>
+      </c>
+    </row>
+    <row r="1174" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1174">
+        <v>1170</v>
+      </c>
+      <c r="I1174">
+        <f t="shared" si="52"/>
+        <v>5855000</v>
+      </c>
+      <c r="J1174">
+        <v>58550</v>
+      </c>
+      <c r="L1174">
+        <f t="shared" si="53"/>
+        <v>238890</v>
+      </c>
+    </row>
+    <row r="1175" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1175">
+        <v>1171</v>
+      </c>
+      <c r="I1175">
+        <f t="shared" si="52"/>
+        <v>5860000</v>
+      </c>
+      <c r="J1175">
+        <v>58600</v>
+      </c>
+      <c r="L1175">
+        <f t="shared" si="53"/>
+        <v>239090</v>
+      </c>
+    </row>
+    <row r="1176" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1176">
+        <v>1172</v>
+      </c>
+      <c r="I1176">
+        <f t="shared" si="52"/>
+        <v>5865000</v>
+      </c>
+      <c r="J1176">
+        <v>58650</v>
+      </c>
+      <c r="L1176">
+        <f t="shared" si="53"/>
+        <v>239300</v>
+      </c>
+    </row>
+    <row r="1177" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1177">
+        <v>1173</v>
+      </c>
+      <c r="I1177">
+        <f t="shared" si="52"/>
+        <v>5870000</v>
+      </c>
+      <c r="J1177">
+        <v>58700</v>
+      </c>
+      <c r="L1177">
+        <f t="shared" si="53"/>
+        <v>239500</v>
+      </c>
+    </row>
+    <row r="1178" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1178">
+        <v>1174</v>
+      </c>
+      <c r="I1178">
+        <f t="shared" si="52"/>
+        <v>5875000</v>
+      </c>
+      <c r="J1178">
+        <v>58750</v>
+      </c>
+      <c r="L1178">
+        <f t="shared" si="53"/>
+        <v>239700</v>
+      </c>
+    </row>
+    <row r="1179" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1179">
+        <v>1175</v>
+      </c>
+      <c r="I1179">
+        <f t="shared" si="52"/>
+        <v>5880000</v>
+      </c>
+      <c r="J1179">
+        <v>58800</v>
+      </c>
+      <c r="L1179">
+        <f t="shared" si="53"/>
+        <v>239910</v>
+      </c>
+    </row>
+    <row r="1180" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1180">
+        <v>1176</v>
+      </c>
+      <c r="I1180">
+        <f t="shared" si="52"/>
+        <v>5885000</v>
+      </c>
+      <c r="J1180">
+        <v>58850</v>
+      </c>
+      <c r="L1180">
+        <f t="shared" si="53"/>
+        <v>240110</v>
+      </c>
+    </row>
+    <row r="1181" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1181">
+        <v>1177</v>
+      </c>
+      <c r="I1181">
+        <f t="shared" si="52"/>
+        <v>5890000</v>
+      </c>
+      <c r="J1181">
+        <v>58900</v>
+      </c>
+      <c r="L1181">
+        <f t="shared" si="53"/>
+        <v>240320</v>
+      </c>
+    </row>
+    <row r="1182" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1182">
+        <v>1178</v>
+      </c>
+      <c r="I1182">
+        <f t="shared" si="52"/>
+        <v>5895000</v>
+      </c>
+      <c r="J1182">
+        <v>58950</v>
+      </c>
+      <c r="L1182">
+        <f t="shared" si="53"/>
+        <v>240520</v>
+      </c>
+    </row>
+    <row r="1183" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1183">
+        <v>1179</v>
+      </c>
+      <c r="I1183">
+        <f t="shared" si="52"/>
+        <v>5900000</v>
+      </c>
+      <c r="J1183">
+        <v>59000</v>
+      </c>
+      <c r="L1183">
+        <f t="shared" si="53"/>
+        <v>240720</v>
+      </c>
+    </row>
+    <row r="1184" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1184">
+        <v>1180</v>
+      </c>
+      <c r="I1184">
+        <f t="shared" si="52"/>
+        <v>5905000</v>
+      </c>
+      <c r="J1184">
+        <v>59050</v>
+      </c>
+      <c r="L1184">
+        <f t="shared" si="53"/>
+        <v>240930</v>
+      </c>
+    </row>
+    <row r="1185" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1185">
+        <v>1181</v>
+      </c>
+      <c r="I1185">
+        <f t="shared" si="52"/>
+        <v>5910000</v>
+      </c>
+      <c r="J1185">
+        <v>59100</v>
+      </c>
+      <c r="L1185">
+        <f t="shared" si="53"/>
+        <v>241130</v>
+      </c>
+    </row>
+    <row r="1186" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1186">
+        <v>1182</v>
+      </c>
+      <c r="I1186">
+        <f t="shared" si="52"/>
+        <v>5915000</v>
+      </c>
+      <c r="J1186">
+        <v>59150</v>
+      </c>
+      <c r="L1186">
+        <f t="shared" si="53"/>
+        <v>241340</v>
+      </c>
+    </row>
+    <row r="1187" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1187">
+        <v>1183</v>
+      </c>
+      <c r="I1187">
+        <f t="shared" si="52"/>
+        <v>5920000</v>
+      </c>
+      <c r="J1187">
+        <v>59200</v>
+      </c>
+      <c r="L1187">
+        <f t="shared" si="53"/>
+        <v>241540</v>
+      </c>
+    </row>
+    <row r="1188" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1188">
+        <v>1184</v>
+      </c>
+      <c r="I1188">
+        <f t="shared" si="52"/>
+        <v>5925000</v>
+      </c>
+      <c r="J1188">
+        <v>59250</v>
+      </c>
+      <c r="L1188">
+        <f t="shared" si="53"/>
+        <v>241740</v>
+      </c>
+    </row>
+    <row r="1189" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1189">
+        <v>1185</v>
+      </c>
+      <c r="I1189">
+        <f t="shared" si="52"/>
+        <v>5930000</v>
+      </c>
+      <c r="J1189">
+        <v>59300</v>
+      </c>
+      <c r="L1189">
+        <f t="shared" si="53"/>
+        <v>241950</v>
+      </c>
+    </row>
+    <row r="1190" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1190">
+        <v>1186</v>
+      </c>
+      <c r="I1190">
+        <f t="shared" si="52"/>
+        <v>5935000</v>
+      </c>
+      <c r="J1190">
+        <v>59350</v>
+      </c>
+      <c r="L1190">
+        <f t="shared" si="53"/>
+        <v>242150</v>
+      </c>
+    </row>
+    <row r="1191" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1191">
+        <v>1187</v>
+      </c>
+      <c r="I1191">
+        <f t="shared" si="52"/>
+        <v>5940000</v>
+      </c>
+      <c r="J1191">
+        <v>59400</v>
+      </c>
+      <c r="L1191">
+        <f t="shared" si="53"/>
+        <v>242360</v>
+      </c>
+    </row>
+    <row r="1192" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1192">
+        <v>1188</v>
+      </c>
+      <c r="I1192">
+        <f t="shared" ref="I1192:I1255" si="54">J1192*$B$6</f>
+        <v>5945000</v>
+      </c>
+      <c r="J1192">
+        <v>59450</v>
+      </c>
+      <c r="L1192">
+        <f t="shared" ref="L1192:L1255" si="55">ROUNDUP(((I1192/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>242560</v>
+      </c>
+    </row>
+    <row r="1193" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1193">
+        <v>1189</v>
+      </c>
+      <c r="I1193">
+        <f t="shared" si="54"/>
+        <v>5950000</v>
+      </c>
+      <c r="J1193">
+        <v>59500</v>
+      </c>
+      <c r="L1193">
+        <f t="shared" si="55"/>
+        <v>242760</v>
+      </c>
+    </row>
+    <row r="1194" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1194">
+        <v>1190</v>
+      </c>
+      <c r="I1194">
+        <f t="shared" si="54"/>
+        <v>5955000</v>
+      </c>
+      <c r="J1194">
+        <v>59550</v>
+      </c>
+      <c r="L1194">
+        <f t="shared" si="55"/>
+        <v>242970</v>
+      </c>
+    </row>
+    <row r="1195" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1195">
+        <v>1191</v>
+      </c>
+      <c r="I1195">
+        <f t="shared" si="54"/>
+        <v>5960000</v>
+      </c>
+      <c r="J1195">
+        <v>59600</v>
+      </c>
+      <c r="L1195">
+        <f t="shared" si="55"/>
+        <v>243170</v>
+      </c>
+    </row>
+    <row r="1196" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1196">
+        <v>1192</v>
+      </c>
+      <c r="I1196">
+        <f t="shared" si="54"/>
+        <v>5965000</v>
+      </c>
+      <c r="J1196">
+        <v>59650</v>
+      </c>
+      <c r="L1196">
+        <f t="shared" si="55"/>
+        <v>243380</v>
+      </c>
+    </row>
+    <row r="1197" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1197">
+        <v>1193</v>
+      </c>
+      <c r="I1197">
+        <f t="shared" si="54"/>
+        <v>5970000</v>
+      </c>
+      <c r="J1197">
+        <v>59700</v>
+      </c>
+      <c r="L1197">
+        <f t="shared" si="55"/>
+        <v>243580</v>
+      </c>
+    </row>
+    <row r="1198" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1198">
+        <v>1194</v>
+      </c>
+      <c r="I1198">
+        <f t="shared" si="54"/>
+        <v>5975000</v>
+      </c>
+      <c r="J1198">
+        <v>59750</v>
+      </c>
+      <c r="L1198">
+        <f t="shared" si="55"/>
+        <v>243780</v>
+      </c>
+    </row>
+    <row r="1199" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1199">
+        <v>1195</v>
+      </c>
+      <c r="I1199">
+        <f t="shared" si="54"/>
+        <v>5980000</v>
+      </c>
+      <c r="J1199">
+        <v>59800</v>
+      </c>
+      <c r="L1199">
+        <f t="shared" si="55"/>
+        <v>243990</v>
+      </c>
+    </row>
+    <row r="1200" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1200">
+        <v>1196</v>
+      </c>
+      <c r="I1200">
+        <f t="shared" si="54"/>
+        <v>5985000</v>
+      </c>
+      <c r="J1200">
+        <v>59850</v>
+      </c>
+      <c r="L1200">
+        <f t="shared" si="55"/>
+        <v>244190</v>
+      </c>
+    </row>
+    <row r="1201" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1201">
+        <v>1197</v>
+      </c>
+      <c r="I1201">
+        <f t="shared" si="54"/>
+        <v>5990000</v>
+      </c>
+      <c r="J1201">
+        <v>59900</v>
+      </c>
+      <c r="L1201">
+        <f t="shared" si="55"/>
+        <v>244400</v>
+      </c>
+    </row>
+    <row r="1202" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1202">
+        <v>1198</v>
+      </c>
+      <c r="I1202">
+        <f t="shared" si="54"/>
+        <v>5995000</v>
+      </c>
+      <c r="J1202">
+        <v>59950</v>
+      </c>
+      <c r="L1202">
+        <f t="shared" si="55"/>
+        <v>244600</v>
+      </c>
+    </row>
+    <row r="1203" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1203">
+        <v>1199</v>
+      </c>
+      <c r="I1203">
+        <f t="shared" si="54"/>
+        <v>6000000</v>
+      </c>
+      <c r="J1203">
+        <v>60000</v>
+      </c>
+      <c r="L1203">
+        <f t="shared" si="55"/>
+        <v>244800</v>
+      </c>
+    </row>
+    <row r="1204" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1204">
+        <v>1200</v>
+      </c>
+      <c r="I1204">
+        <f t="shared" si="54"/>
+        <v>6005000</v>
+      </c>
+      <c r="J1204">
+        <v>60050</v>
+      </c>
+      <c r="L1204">
+        <f t="shared" si="55"/>
+        <v>245010</v>
+      </c>
+    </row>
+    <row r="1205" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1205">
+        <v>1201</v>
+      </c>
+      <c r="I1205">
+        <f t="shared" si="54"/>
+        <v>6010000</v>
+      </c>
+      <c r="J1205">
+        <v>60100</v>
+      </c>
+      <c r="L1205">
+        <f t="shared" si="55"/>
+        <v>245210</v>
+      </c>
+    </row>
+    <row r="1206" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1206">
+        <v>1202</v>
+      </c>
+      <c r="I1206">
+        <f t="shared" si="54"/>
+        <v>6015000</v>
+      </c>
+      <c r="J1206">
+        <v>60150</v>
+      </c>
+      <c r="L1206">
+        <f t="shared" si="55"/>
+        <v>245420</v>
+      </c>
+    </row>
+    <row r="1207" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1207">
+        <v>1203</v>
+      </c>
+      <c r="I1207">
+        <f t="shared" si="54"/>
+        <v>6020000</v>
+      </c>
+      <c r="J1207">
+        <v>60200</v>
+      </c>
+      <c r="L1207">
+        <f t="shared" si="55"/>
+        <v>245620</v>
+      </c>
+    </row>
+    <row r="1208" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1208">
+        <v>1204</v>
+      </c>
+      <c r="I1208">
+        <f t="shared" si="54"/>
+        <v>6025000</v>
+      </c>
+      <c r="J1208">
+        <v>60250</v>
+      </c>
+      <c r="L1208">
+        <f t="shared" si="55"/>
+        <v>245820</v>
+      </c>
+    </row>
+    <row r="1209" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1209">
+        <v>1205</v>
+      </c>
+      <c r="I1209">
+        <f t="shared" si="54"/>
+        <v>6030000</v>
+      </c>
+      <c r="J1209">
+        <v>60300</v>
+      </c>
+      <c r="L1209">
+        <f t="shared" si="55"/>
+        <v>246030</v>
+      </c>
+    </row>
+    <row r="1210" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1210">
+        <v>1206</v>
+      </c>
+      <c r="I1210">
+        <f t="shared" si="54"/>
+        <v>6035000</v>
+      </c>
+      <c r="J1210">
+        <v>60350</v>
+      </c>
+      <c r="L1210">
+        <f t="shared" si="55"/>
+        <v>246230</v>
+      </c>
+    </row>
+    <row r="1211" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1211">
+        <v>1207</v>
+      </c>
+      <c r="I1211">
+        <f t="shared" si="54"/>
+        <v>6040000</v>
+      </c>
+      <c r="J1211">
+        <v>60400</v>
+      </c>
+      <c r="L1211">
+        <f t="shared" si="55"/>
+        <v>246440</v>
+      </c>
+    </row>
+    <row r="1212" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1212">
+        <v>1208</v>
+      </c>
+      <c r="I1212">
+        <f t="shared" si="54"/>
+        <v>6045000</v>
+      </c>
+      <c r="J1212">
+        <v>60450</v>
+      </c>
+      <c r="L1212">
+        <f t="shared" si="55"/>
+        <v>246640</v>
+      </c>
+    </row>
+    <row r="1213" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1213">
+        <v>1209</v>
+      </c>
+      <c r="I1213">
+        <f t="shared" si="54"/>
+        <v>6050000</v>
+      </c>
+      <c r="J1213">
+        <v>60500</v>
+      </c>
+      <c r="L1213">
+        <f t="shared" si="55"/>
+        <v>246840</v>
+      </c>
+    </row>
+    <row r="1214" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1214">
+        <v>1210</v>
+      </c>
+      <c r="I1214">
+        <f t="shared" si="54"/>
+        <v>6055000</v>
+      </c>
+      <c r="J1214">
+        <v>60550</v>
+      </c>
+      <c r="L1214">
+        <f t="shared" si="55"/>
+        <v>247050</v>
+      </c>
+    </row>
+    <row r="1215" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1215">
+        <v>1211</v>
+      </c>
+      <c r="I1215">
+        <f t="shared" si="54"/>
+        <v>6060000</v>
+      </c>
+      <c r="J1215">
+        <v>60600</v>
+      </c>
+      <c r="L1215">
+        <f t="shared" si="55"/>
+        <v>247250</v>
+      </c>
+    </row>
+    <row r="1216" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1216">
+        <v>1212</v>
+      </c>
+      <c r="I1216">
+        <f t="shared" si="54"/>
+        <v>6065000</v>
+      </c>
+      <c r="J1216">
+        <v>60650</v>
+      </c>
+      <c r="L1216">
+        <f t="shared" si="55"/>
+        <v>247460</v>
+      </c>
+    </row>
+    <row r="1217" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1217">
+        <v>1213</v>
+      </c>
+      <c r="I1217">
+        <f t="shared" si="54"/>
+        <v>6070000</v>
+      </c>
+      <c r="J1217">
+        <v>60700</v>
+      </c>
+      <c r="L1217">
+        <f t="shared" si="55"/>
+        <v>247660</v>
+      </c>
+    </row>
+    <row r="1218" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1218">
+        <v>1214</v>
+      </c>
+      <c r="I1218">
+        <f t="shared" si="54"/>
+        <v>6075000</v>
+      </c>
+      <c r="J1218">
+        <v>60750</v>
+      </c>
+      <c r="L1218">
+        <f t="shared" si="55"/>
+        <v>247860</v>
+      </c>
+    </row>
+    <row r="1219" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1219">
+        <v>1215</v>
+      </c>
+      <c r="I1219">
+        <f t="shared" si="54"/>
+        <v>6080000</v>
+      </c>
+      <c r="J1219">
+        <v>60800</v>
+      </c>
+      <c r="L1219">
+        <f t="shared" si="55"/>
+        <v>248070</v>
+      </c>
+    </row>
+    <row r="1220" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1220">
+        <v>1216</v>
+      </c>
+      <c r="I1220">
+        <f t="shared" si="54"/>
+        <v>6085000</v>
+      </c>
+      <c r="J1220">
+        <v>60850</v>
+      </c>
+      <c r="L1220">
+        <f t="shared" si="55"/>
+        <v>248270</v>
+      </c>
+    </row>
+    <row r="1221" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1221">
+        <v>1217</v>
+      </c>
+      <c r="I1221">
+        <f t="shared" si="54"/>
+        <v>6090000</v>
+      </c>
+      <c r="J1221">
+        <v>60900</v>
+      </c>
+      <c r="L1221">
+        <f t="shared" si="55"/>
+        <v>248480</v>
+      </c>
+    </row>
+    <row r="1222" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1222">
+        <v>1218</v>
+      </c>
+      <c r="I1222">
+        <f t="shared" si="54"/>
+        <v>6095000</v>
+      </c>
+      <c r="J1222">
+        <v>60950</v>
+      </c>
+      <c r="L1222">
+        <f t="shared" si="55"/>
+        <v>248680</v>
+      </c>
+    </row>
+    <row r="1223" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1223">
+        <v>1219</v>
+      </c>
+      <c r="I1223">
+        <f t="shared" si="54"/>
+        <v>6100000</v>
+      </c>
+      <c r="J1223">
+        <v>61000</v>
+      </c>
+      <c r="L1223">
+        <f t="shared" si="55"/>
+        <v>248880</v>
+      </c>
+    </row>
+    <row r="1224" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1224">
+        <v>1220</v>
+      </c>
+      <c r="I1224">
+        <f t="shared" si="54"/>
+        <v>6105000</v>
+      </c>
+      <c r="J1224">
+        <v>61050</v>
+      </c>
+      <c r="L1224">
+        <f t="shared" si="55"/>
+        <v>249090</v>
+      </c>
+    </row>
+    <row r="1225" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1225">
+        <v>1221</v>
+      </c>
+      <c r="I1225">
+        <f t="shared" si="54"/>
+        <v>6110000</v>
+      </c>
+      <c r="J1225">
+        <v>61100</v>
+      </c>
+      <c r="L1225">
+        <f t="shared" si="55"/>
+        <v>249290</v>
+      </c>
+    </row>
+    <row r="1226" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1226">
+        <v>1222</v>
+      </c>
+      <c r="I1226">
+        <f t="shared" si="54"/>
+        <v>6115000</v>
+      </c>
+      <c r="J1226">
+        <v>61150</v>
+      </c>
+      <c r="L1226">
+        <f t="shared" si="55"/>
+        <v>249500</v>
+      </c>
+    </row>
+    <row r="1227" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1227">
+        <v>1223</v>
+      </c>
+      <c r="I1227">
+        <f t="shared" si="54"/>
+        <v>6120000</v>
+      </c>
+      <c r="J1227">
+        <v>61200</v>
+      </c>
+      <c r="L1227">
+        <f t="shared" si="55"/>
+        <v>249700</v>
+      </c>
+    </row>
+    <row r="1228" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1228">
+        <v>1224</v>
+      </c>
+      <c r="I1228">
+        <f t="shared" si="54"/>
+        <v>6125000</v>
+      </c>
+      <c r="J1228">
+        <v>61250</v>
+      </c>
+      <c r="L1228">
+        <f t="shared" si="55"/>
+        <v>249900</v>
+      </c>
+    </row>
+    <row r="1229" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1229">
+        <v>1225</v>
+      </c>
+      <c r="I1229">
+        <f t="shared" si="54"/>
+        <v>6130000</v>
+      </c>
+      <c r="J1229">
+        <v>61300</v>
+      </c>
+      <c r="L1229">
+        <f t="shared" si="55"/>
+        <v>250110</v>
+      </c>
+    </row>
+    <row r="1230" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1230">
+        <v>1226</v>
+      </c>
+      <c r="I1230">
+        <f t="shared" si="54"/>
+        <v>6135000</v>
+      </c>
+      <c r="J1230">
+        <v>61350</v>
+      </c>
+      <c r="L1230">
+        <f t="shared" si="55"/>
+        <v>250310</v>
+      </c>
+    </row>
+    <row r="1231" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1231">
+        <v>1227</v>
+      </c>
+      <c r="I1231">
+        <f t="shared" si="54"/>
+        <v>6140000</v>
+      </c>
+      <c r="J1231">
+        <v>61400</v>
+      </c>
+      <c r="L1231">
+        <f t="shared" si="55"/>
+        <v>250520</v>
+      </c>
+    </row>
+    <row r="1232" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1232">
+        <v>1228</v>
+      </c>
+      <c r="I1232">
+        <f t="shared" si="54"/>
+        <v>6145000</v>
+      </c>
+      <c r="J1232">
+        <v>61450</v>
+      </c>
+      <c r="L1232">
+        <f t="shared" si="55"/>
+        <v>250720</v>
+      </c>
+    </row>
+    <row r="1233" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1233">
+        <v>1229</v>
+      </c>
+      <c r="I1233">
+        <f t="shared" si="54"/>
+        <v>6150000</v>
+      </c>
+      <c r="J1233">
+        <v>61500</v>
+      </c>
+      <c r="L1233">
+        <f t="shared" si="55"/>
+        <v>250920</v>
+      </c>
+    </row>
+    <row r="1234" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1234">
+        <v>1230</v>
+      </c>
+      <c r="I1234">
+        <f t="shared" si="54"/>
+        <v>6155000</v>
+      </c>
+      <c r="J1234">
+        <v>61550</v>
+      </c>
+      <c r="L1234">
+        <f t="shared" si="55"/>
+        <v>251130</v>
+      </c>
+    </row>
+    <row r="1235" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1235">
+        <v>1231</v>
+      </c>
+      <c r="I1235">
+        <f t="shared" si="54"/>
+        <v>6160000</v>
+      </c>
+      <c r="J1235">
+        <v>61600</v>
+      </c>
+      <c r="L1235">
+        <f t="shared" si="55"/>
+        <v>251330</v>
+      </c>
+    </row>
+    <row r="1236" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1236">
+        <v>1232</v>
+      </c>
+      <c r="I1236">
+        <f t="shared" si="54"/>
+        <v>6165000</v>
+      </c>
+      <c r="J1236">
+        <v>61650</v>
+      </c>
+      <c r="L1236">
+        <f t="shared" si="55"/>
+        <v>251540</v>
+      </c>
+    </row>
+    <row r="1237" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1237">
+        <v>1233</v>
+      </c>
+      <c r="I1237">
+        <f t="shared" si="54"/>
+        <v>6170000</v>
+      </c>
+      <c r="J1237">
+        <v>61700</v>
+      </c>
+      <c r="L1237">
+        <f t="shared" si="55"/>
+        <v>251740</v>
+      </c>
+    </row>
+    <row r="1238" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1238">
+        <v>1234</v>
+      </c>
+      <c r="I1238">
+        <f t="shared" si="54"/>
+        <v>6175000</v>
+      </c>
+      <c r="J1238">
+        <v>61750</v>
+      </c>
+      <c r="L1238">
+        <f t="shared" si="55"/>
+        <v>251940</v>
+      </c>
+    </row>
+    <row r="1239" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1239">
+        <v>1235</v>
+      </c>
+      <c r="I1239">
+        <f t="shared" si="54"/>
+        <v>6180000</v>
+      </c>
+      <c r="J1239">
+        <v>61800</v>
+      </c>
+      <c r="L1239">
+        <f t="shared" si="55"/>
+        <v>252150</v>
+      </c>
+    </row>
+    <row r="1240" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1240">
+        <v>1236</v>
+      </c>
+      <c r="I1240">
+        <f t="shared" si="54"/>
+        <v>6185000</v>
+      </c>
+      <c r="J1240">
+        <v>61850</v>
+      </c>
+      <c r="L1240">
+        <f t="shared" si="55"/>
+        <v>252350</v>
+      </c>
+    </row>
+    <row r="1241" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1241">
+        <v>1237</v>
+      </c>
+      <c r="I1241">
+        <f t="shared" si="54"/>
+        <v>6190000</v>
+      </c>
+      <c r="J1241">
+        <v>61900</v>
+      </c>
+      <c r="L1241">
+        <f t="shared" si="55"/>
+        <v>252560</v>
+      </c>
+    </row>
+    <row r="1242" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1242">
+        <v>1238</v>
+      </c>
+      <c r="I1242">
+        <f t="shared" si="54"/>
+        <v>6195000</v>
+      </c>
+      <c r="J1242">
+        <v>61950</v>
+      </c>
+      <c r="L1242">
+        <f t="shared" si="55"/>
+        <v>252760</v>
+      </c>
+    </row>
+    <row r="1243" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1243">
+        <v>1239</v>
+      </c>
+      <c r="I1243">
+        <f t="shared" si="54"/>
+        <v>6200000</v>
+      </c>
+      <c r="J1243">
+        <v>62000</v>
+      </c>
+      <c r="L1243">
+        <f t="shared" si="55"/>
+        <v>252960</v>
+      </c>
+    </row>
+    <row r="1244" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1244">
+        <v>1240</v>
+      </c>
+      <c r="I1244">
+        <f t="shared" si="54"/>
+        <v>6205000</v>
+      </c>
+      <c r="J1244">
+        <v>62050</v>
+      </c>
+      <c r="L1244">
+        <f t="shared" si="55"/>
+        <v>253170</v>
+      </c>
+    </row>
+    <row r="1245" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1245">
+        <v>1241</v>
+      </c>
+      <c r="I1245">
+        <f t="shared" si="54"/>
+        <v>6210000</v>
+      </c>
+      <c r="J1245">
+        <v>62100</v>
+      </c>
+      <c r="L1245">
+        <f t="shared" si="55"/>
+        <v>253370</v>
+      </c>
+    </row>
+    <row r="1246" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1246">
+        <v>1242</v>
+      </c>
+      <c r="I1246">
+        <f t="shared" si="54"/>
+        <v>6215000</v>
+      </c>
+      <c r="J1246">
+        <v>62150</v>
+      </c>
+      <c r="L1246">
+        <f t="shared" si="55"/>
+        <v>253580</v>
+      </c>
+    </row>
+    <row r="1247" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1247">
+        <v>1243</v>
+      </c>
+      <c r="I1247">
+        <f t="shared" si="54"/>
+        <v>6220000</v>
+      </c>
+      <c r="J1247">
+        <v>62200</v>
+      </c>
+      <c r="L1247">
+        <f t="shared" si="55"/>
+        <v>253780</v>
+      </c>
+    </row>
+    <row r="1248" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1248">
+        <v>1244</v>
+      </c>
+      <c r="I1248">
+        <f t="shared" si="54"/>
+        <v>6225000</v>
+      </c>
+      <c r="J1248">
+        <v>62250</v>
+      </c>
+      <c r="L1248">
+        <f t="shared" si="55"/>
+        <v>253980</v>
+      </c>
+    </row>
+    <row r="1249" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1249">
+        <v>1245</v>
+      </c>
+      <c r="I1249">
+        <f t="shared" si="54"/>
+        <v>6230000</v>
+      </c>
+      <c r="J1249">
+        <v>62300</v>
+      </c>
+      <c r="L1249">
+        <f t="shared" si="55"/>
+        <v>254190</v>
+      </c>
+    </row>
+    <row r="1250" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1250">
+        <v>1246</v>
+      </c>
+      <c r="I1250">
+        <f t="shared" si="54"/>
+        <v>6235000</v>
+      </c>
+      <c r="J1250">
+        <v>62350</v>
+      </c>
+      <c r="L1250">
+        <f t="shared" si="55"/>
+        <v>254390</v>
+      </c>
+    </row>
+    <row r="1251" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1251">
+        <v>1247</v>
+      </c>
+      <c r="I1251">
+        <f t="shared" si="54"/>
+        <v>6240000</v>
+      </c>
+      <c r="J1251">
+        <v>62400</v>
+      </c>
+      <c r="L1251">
+        <f t="shared" si="55"/>
+        <v>254600</v>
+      </c>
+    </row>
+    <row r="1252" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1252">
+        <v>1248</v>
+      </c>
+      <c r="I1252">
+        <f t="shared" si="54"/>
+        <v>6245000</v>
+      </c>
+      <c r="J1252">
+        <v>62450</v>
+      </c>
+      <c r="L1252">
+        <f t="shared" si="55"/>
+        <v>254800</v>
+      </c>
+    </row>
+    <row r="1253" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1253">
+        <v>1249</v>
+      </c>
+      <c r="I1253">
+        <f t="shared" si="54"/>
+        <v>6250000</v>
+      </c>
+      <c r="J1253">
+        <v>62500</v>
+      </c>
+      <c r="L1253">
+        <f t="shared" si="55"/>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="1254" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1254">
+        <v>1250</v>
+      </c>
+      <c r="I1254">
+        <f t="shared" si="54"/>
+        <v>6255000</v>
+      </c>
+      <c r="J1254">
+        <v>62550</v>
+      </c>
+      <c r="L1254">
+        <f t="shared" si="55"/>
+        <v>255210</v>
+      </c>
+    </row>
+    <row r="1255" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1255">
+        <v>1251</v>
+      </c>
+      <c r="I1255">
+        <f t="shared" si="54"/>
+        <v>6260000</v>
+      </c>
+      <c r="J1255">
+        <v>62600</v>
+      </c>
+      <c r="L1255">
+        <f t="shared" si="55"/>
+        <v>255410</v>
+      </c>
+    </row>
+    <row r="1256" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1256">
+        <v>1252</v>
+      </c>
+      <c r="I1256">
+        <f t="shared" ref="I1256:I1319" si="56">J1256*$B$6</f>
+        <v>6265000</v>
+      </c>
+      <c r="J1256">
+        <v>62650</v>
+      </c>
+      <c r="L1256">
+        <f t="shared" ref="L1256:L1319" si="57">ROUNDUP(((I1256/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>255620</v>
+      </c>
+    </row>
+    <row r="1257" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1257">
+        <v>1253</v>
+      </c>
+      <c r="I1257">
+        <f t="shared" si="56"/>
+        <v>6270000</v>
+      </c>
+      <c r="J1257">
+        <v>62700</v>
+      </c>
+      <c r="L1257">
+        <f t="shared" si="57"/>
+        <v>255820</v>
+      </c>
+    </row>
+    <row r="1258" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1258">
+        <v>1254</v>
+      </c>
+      <c r="I1258">
+        <f t="shared" si="56"/>
+        <v>6275000</v>
+      </c>
+      <c r="J1258">
+        <v>62750</v>
+      </c>
+      <c r="L1258">
+        <f t="shared" si="57"/>
+        <v>256020</v>
+      </c>
+    </row>
+    <row r="1259" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1259">
+        <v>1255</v>
+      </c>
+      <c r="I1259">
+        <f t="shared" si="56"/>
+        <v>6280000</v>
+      </c>
+      <c r="J1259">
+        <v>62800</v>
+      </c>
+      <c r="L1259">
+        <f t="shared" si="57"/>
+        <v>256230</v>
+      </c>
+    </row>
+    <row r="1260" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1260">
+        <v>1256</v>
+      </c>
+      <c r="I1260">
+        <f t="shared" si="56"/>
+        <v>6285000</v>
+      </c>
+      <c r="J1260">
+        <v>62850</v>
+      </c>
+      <c r="L1260">
+        <f t="shared" si="57"/>
+        <v>256430</v>
+      </c>
+    </row>
+    <row r="1261" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1261">
+        <v>1257</v>
+      </c>
+      <c r="I1261">
+        <f t="shared" si="56"/>
+        <v>6290000</v>
+      </c>
+      <c r="J1261">
+        <v>62900</v>
+      </c>
+      <c r="L1261">
+        <f t="shared" si="57"/>
+        <v>256640</v>
+      </c>
+    </row>
+    <row r="1262" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1262">
+        <v>1258</v>
+      </c>
+      <c r="I1262">
+        <f t="shared" si="56"/>
+        <v>6295000</v>
+      </c>
+      <c r="J1262">
+        <v>62950</v>
+      </c>
+      <c r="L1262">
+        <f t="shared" si="57"/>
+        <v>256840</v>
+      </c>
+    </row>
+    <row r="1263" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1263">
+        <v>1259</v>
+      </c>
+      <c r="I1263">
+        <f t="shared" si="56"/>
+        <v>6300000</v>
+      </c>
+      <c r="J1263">
+        <v>63000</v>
+      </c>
+      <c r="L1263">
+        <f t="shared" si="57"/>
+        <v>257040</v>
+      </c>
+    </row>
+    <row r="1264" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1264">
+        <v>1260</v>
+      </c>
+      <c r="I1264">
+        <f t="shared" si="56"/>
+        <v>6305000</v>
+      </c>
+      <c r="J1264">
+        <v>63050</v>
+      </c>
+      <c r="L1264">
+        <f t="shared" si="57"/>
+        <v>257250</v>
+      </c>
+    </row>
+    <row r="1265" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1265">
+        <v>1261</v>
+      </c>
+      <c r="I1265">
+        <f t="shared" si="56"/>
+        <v>6310000</v>
+      </c>
+      <c r="J1265">
+        <v>63100</v>
+      </c>
+      <c r="L1265">
+        <f t="shared" si="57"/>
+        <v>257450</v>
+      </c>
+    </row>
+    <row r="1266" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1266">
+        <v>1262</v>
+      </c>
+      <c r="I1266">
+        <f t="shared" si="56"/>
+        <v>6315000</v>
+      </c>
+      <c r="J1266">
+        <v>63150</v>
+      </c>
+      <c r="L1266">
+        <f t="shared" si="57"/>
+        <v>257660</v>
+      </c>
+    </row>
+    <row r="1267" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1267">
+        <v>1263</v>
+      </c>
+      <c r="I1267">
+        <f t="shared" si="56"/>
+        <v>6320000</v>
+      </c>
+      <c r="J1267">
+        <v>63200</v>
+      </c>
+      <c r="L1267">
+        <f t="shared" si="57"/>
+        <v>257860</v>
+      </c>
+    </row>
+    <row r="1268" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1268">
+        <v>1264</v>
+      </c>
+      <c r="I1268">
+        <f t="shared" si="56"/>
+        <v>6325000</v>
+      </c>
+      <c r="J1268">
+        <v>63250</v>
+      </c>
+      <c r="L1268">
+        <f t="shared" si="57"/>
+        <v>258060</v>
+      </c>
+    </row>
+    <row r="1269" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1269">
+        <v>1265</v>
+      </c>
+      <c r="I1269">
+        <f t="shared" si="56"/>
+        <v>6330000</v>
+      </c>
+      <c r="J1269">
+        <v>63300</v>
+      </c>
+      <c r="L1269">
+        <f t="shared" si="57"/>
+        <v>258270</v>
+      </c>
+    </row>
+    <row r="1270" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1270">
+        <v>1266</v>
+      </c>
+      <c r="I1270">
+        <f t="shared" si="56"/>
+        <v>6335000</v>
+      </c>
+      <c r="J1270">
+        <v>63350</v>
+      </c>
+      <c r="L1270">
+        <f t="shared" si="57"/>
+        <v>258470</v>
+      </c>
+    </row>
+    <row r="1271" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1271">
+        <v>1267</v>
+      </c>
+      <c r="I1271">
+        <f t="shared" si="56"/>
+        <v>6340000</v>
+      </c>
+      <c r="J1271">
+        <v>63400</v>
+      </c>
+      <c r="L1271">
+        <f t="shared" si="57"/>
+        <v>258680</v>
+      </c>
+    </row>
+    <row r="1272" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1272">
+        <v>1268</v>
+      </c>
+      <c r="I1272">
+        <f t="shared" si="56"/>
+        <v>6345000</v>
+      </c>
+      <c r="J1272">
+        <v>63450</v>
+      </c>
+      <c r="L1272">
+        <f t="shared" si="57"/>
+        <v>258880</v>
+      </c>
+    </row>
+    <row r="1273" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1273">
+        <v>1269</v>
+      </c>
+      <c r="I1273">
+        <f t="shared" si="56"/>
+        <v>6350000</v>
+      </c>
+      <c r="J1273">
+        <v>63500</v>
+      </c>
+      <c r="L1273">
+        <f t="shared" si="57"/>
+        <v>259080</v>
+      </c>
+    </row>
+    <row r="1274" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1274">
+        <v>1270</v>
+      </c>
+      <c r="I1274">
+        <f t="shared" si="56"/>
+        <v>6355000</v>
+      </c>
+      <c r="J1274">
+        <v>63550</v>
+      </c>
+      <c r="L1274">
+        <f t="shared" si="57"/>
+        <v>259290</v>
+      </c>
+    </row>
+    <row r="1275" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1275">
+        <v>1271</v>
+      </c>
+      <c r="I1275">
+        <f t="shared" si="56"/>
+        <v>6360000</v>
+      </c>
+      <c r="J1275">
+        <v>63600</v>
+      </c>
+      <c r="L1275">
+        <f t="shared" si="57"/>
+        <v>259490</v>
+      </c>
+    </row>
+    <row r="1276" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1276">
+        <v>1272</v>
+      </c>
+      <c r="I1276">
+        <f t="shared" si="56"/>
+        <v>6365000</v>
+      </c>
+      <c r="J1276">
+        <v>63650</v>
+      </c>
+      <c r="L1276">
+        <f t="shared" si="57"/>
+        <v>259700</v>
+      </c>
+    </row>
+    <row r="1277" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1277">
+        <v>1273</v>
+      </c>
+      <c r="I1277">
+        <f t="shared" si="56"/>
+        <v>6370000</v>
+      </c>
+      <c r="J1277">
+        <v>63700</v>
+      </c>
+      <c r="L1277">
+        <f t="shared" si="57"/>
+        <v>259900</v>
+      </c>
+    </row>
+    <row r="1278" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1278">
+        <v>1274</v>
+      </c>
+      <c r="I1278">
+        <f t="shared" si="56"/>
+        <v>6375000</v>
+      </c>
+      <c r="J1278">
+        <v>63750</v>
+      </c>
+      <c r="L1278">
+        <f t="shared" si="57"/>
+        <v>260100</v>
+      </c>
+    </row>
+    <row r="1279" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1279">
+        <v>1275</v>
+      </c>
+      <c r="I1279">
+        <f t="shared" si="56"/>
+        <v>6380000</v>
+      </c>
+      <c r="J1279">
+        <v>63800</v>
+      </c>
+      <c r="L1279">
+        <f t="shared" si="57"/>
+        <v>260310</v>
+      </c>
+    </row>
+    <row r="1280" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1280">
+        <v>1276</v>
+      </c>
+      <c r="I1280">
+        <f t="shared" si="56"/>
+        <v>6385000</v>
+      </c>
+      <c r="J1280">
+        <v>63850</v>
+      </c>
+      <c r="L1280">
+        <f t="shared" si="57"/>
+        <v>260510</v>
+      </c>
+    </row>
+    <row r="1281" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1281">
+        <v>1277</v>
+      </c>
+      <c r="I1281">
+        <f t="shared" si="56"/>
+        <v>6390000</v>
+      </c>
+      <c r="J1281">
+        <v>63900</v>
+      </c>
+      <c r="L1281">
+        <f t="shared" si="57"/>
+        <v>260720</v>
+      </c>
+    </row>
+    <row r="1282" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1282">
+        <v>1278</v>
+      </c>
+      <c r="I1282">
+        <f t="shared" si="56"/>
+        <v>6395000</v>
+      </c>
+      <c r="J1282">
+        <v>63950</v>
+      </c>
+      <c r="L1282">
+        <f t="shared" si="57"/>
+        <v>260920</v>
+      </c>
+    </row>
+    <row r="1283" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1283">
+        <v>1279</v>
+      </c>
+      <c r="I1283">
+        <f t="shared" si="56"/>
+        <v>6400000</v>
+      </c>
+      <c r="J1283">
+        <v>64000</v>
+      </c>
+      <c r="L1283">
+        <f t="shared" si="57"/>
+        <v>261120</v>
+      </c>
+    </row>
+    <row r="1284" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1284">
+        <v>1280</v>
+      </c>
+      <c r="I1284">
+        <f t="shared" si="56"/>
+        <v>6405000</v>
+      </c>
+      <c r="J1284">
+        <v>64050</v>
+      </c>
+      <c r="L1284">
+        <f t="shared" si="57"/>
+        <v>261330</v>
+      </c>
+    </row>
+    <row r="1285" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1285">
+        <v>1281</v>
+      </c>
+      <c r="I1285">
+        <f t="shared" si="56"/>
+        <v>6410000</v>
+      </c>
+      <c r="J1285">
+        <v>64100</v>
+      </c>
+      <c r="L1285">
+        <f t="shared" si="57"/>
+        <v>261530</v>
+      </c>
+    </row>
+    <row r="1286" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1286">
+        <v>1282</v>
+      </c>
+      <c r="I1286">
+        <f t="shared" si="56"/>
+        <v>6415000</v>
+      </c>
+      <c r="J1286">
+        <v>64150</v>
+      </c>
+      <c r="L1286">
+        <f t="shared" si="57"/>
+        <v>261740</v>
+      </c>
+    </row>
+    <row r="1287" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1287">
+        <v>1283</v>
+      </c>
+      <c r="I1287">
+        <f t="shared" si="56"/>
+        <v>6420000</v>
+      </c>
+      <c r="J1287">
+        <v>64200</v>
+      </c>
+      <c r="L1287">
+        <f t="shared" si="57"/>
+        <v>261940</v>
+      </c>
+    </row>
+    <row r="1288" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1288">
+        <v>1284</v>
+      </c>
+      <c r="I1288">
+        <f t="shared" si="56"/>
+        <v>6425000</v>
+      </c>
+      <c r="J1288">
+        <v>64250</v>
+      </c>
+      <c r="L1288">
+        <f t="shared" si="57"/>
+        <v>262140</v>
+      </c>
+    </row>
+    <row r="1289" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1289">
+        <v>1285</v>
+      </c>
+      <c r="I1289">
+        <f t="shared" si="56"/>
+        <v>6430000</v>
+      </c>
+      <c r="J1289">
+        <v>64300</v>
+      </c>
+      <c r="L1289">
+        <f t="shared" si="57"/>
+        <v>262350</v>
+      </c>
+    </row>
+    <row r="1290" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1290">
+        <v>1286</v>
+      </c>
+      <c r="I1290">
+        <f t="shared" si="56"/>
+        <v>6435000</v>
+      </c>
+      <c r="J1290">
+        <v>64350</v>
+      </c>
+      <c r="L1290">
+        <f t="shared" si="57"/>
+        <v>262550</v>
+      </c>
+    </row>
+    <row r="1291" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1291">
+        <v>1287</v>
+      </c>
+      <c r="I1291">
+        <f t="shared" si="56"/>
+        <v>6440000</v>
+      </c>
+      <c r="J1291">
+        <v>64400</v>
+      </c>
+      <c r="L1291">
+        <f t="shared" si="57"/>
+        <v>262760</v>
+      </c>
+    </row>
+    <row r="1292" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1292">
+        <v>1288</v>
+      </c>
+      <c r="I1292">
+        <f t="shared" si="56"/>
+        <v>6445000</v>
+      </c>
+      <c r="J1292">
+        <v>64450</v>
+      </c>
+      <c r="L1292">
+        <f t="shared" si="57"/>
+        <v>262960</v>
+      </c>
+    </row>
+    <row r="1293" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1293">
+        <v>1289</v>
+      </c>
+      <c r="I1293">
+        <f t="shared" si="56"/>
+        <v>6450000</v>
+      </c>
+      <c r="J1293">
+        <v>64500</v>
+      </c>
+      <c r="L1293">
+        <f t="shared" si="57"/>
+        <v>263160</v>
+      </c>
+    </row>
+    <row r="1294" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1294">
+        <v>1290</v>
+      </c>
+      <c r="I1294">
+        <f t="shared" si="56"/>
+        <v>6455000</v>
+      </c>
+      <c r="J1294">
+        <v>64550</v>
+      </c>
+      <c r="L1294">
+        <f t="shared" si="57"/>
+        <v>263370</v>
+      </c>
+    </row>
+    <row r="1295" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1295">
+        <v>1291</v>
+      </c>
+      <c r="I1295">
+        <f t="shared" si="56"/>
+        <v>6460000</v>
+      </c>
+      <c r="J1295">
+        <v>64600</v>
+      </c>
+      <c r="L1295">
+        <f t="shared" si="57"/>
+        <v>263570</v>
+      </c>
+    </row>
+    <row r="1296" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1296">
+        <v>1292</v>
+      </c>
+      <c r="I1296">
+        <f t="shared" si="56"/>
+        <v>6465000</v>
+      </c>
+      <c r="J1296">
+        <v>64650</v>
+      </c>
+      <c r="L1296">
+        <f t="shared" si="57"/>
+        <v>263780</v>
+      </c>
+    </row>
+    <row r="1297" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1297">
+        <v>1293</v>
+      </c>
+      <c r="I1297">
+        <f t="shared" si="56"/>
+        <v>6470000</v>
+      </c>
+      <c r="J1297">
+        <v>64700</v>
+      </c>
+      <c r="L1297">
+        <f t="shared" si="57"/>
+        <v>263980</v>
+      </c>
+    </row>
+    <row r="1298" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1298">
+        <v>1294</v>
+      </c>
+      <c r="I1298">
+        <f t="shared" si="56"/>
+        <v>6475000</v>
+      </c>
+      <c r="J1298">
+        <v>64750</v>
+      </c>
+      <c r="L1298">
+        <f t="shared" si="57"/>
+        <v>264180</v>
+      </c>
+    </row>
+    <row r="1299" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1299">
+        <v>1295</v>
+      </c>
+      <c r="I1299">
+        <f t="shared" si="56"/>
+        <v>6480000</v>
+      </c>
+      <c r="J1299">
+        <v>64800</v>
+      </c>
+      <c r="L1299">
+        <f t="shared" si="57"/>
+        <v>264390</v>
+      </c>
+    </row>
+    <row r="1300" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1300">
+        <v>1296</v>
+      </c>
+      <c r="I1300">
+        <f t="shared" si="56"/>
+        <v>6485000</v>
+      </c>
+      <c r="J1300">
+        <v>64850</v>
+      </c>
+      <c r="L1300">
+        <f t="shared" si="57"/>
+        <v>264590</v>
+      </c>
+    </row>
+    <row r="1301" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1301">
+        <v>1297</v>
+      </c>
+      <c r="I1301">
+        <f t="shared" si="56"/>
+        <v>6490000</v>
+      </c>
+      <c r="J1301">
+        <v>64900</v>
+      </c>
+      <c r="L1301">
+        <f t="shared" si="57"/>
+        <v>264800</v>
+      </c>
+    </row>
+    <row r="1302" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1302">
+        <v>1298</v>
+      </c>
+      <c r="I1302">
+        <f t="shared" si="56"/>
+        <v>6495000</v>
+      </c>
+      <c r="J1302">
+        <v>64950</v>
+      </c>
+      <c r="L1302">
+        <f t="shared" si="57"/>
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="1303" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1303">
+        <v>1299</v>
+      </c>
+      <c r="I1303">
+        <f t="shared" si="56"/>
+        <v>6500000</v>
+      </c>
+      <c r="J1303">
+        <v>65000</v>
+      </c>
+      <c r="L1303">
+        <f t="shared" si="57"/>
+        <v>265200</v>
+      </c>
+    </row>
+    <row r="1304" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1304">
+        <v>1300</v>
+      </c>
+      <c r="I1304">
+        <f t="shared" si="56"/>
+        <v>6505000</v>
+      </c>
+      <c r="J1304">
+        <v>65050</v>
+      </c>
+      <c r="L1304">
+        <f t="shared" si="57"/>
+        <v>265410</v>
+      </c>
+    </row>
+    <row r="1305" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1305">
+        <v>1301</v>
+      </c>
+      <c r="I1305">
+        <f t="shared" si="56"/>
+        <v>6510000</v>
+      </c>
+      <c r="J1305">
+        <v>65100</v>
+      </c>
+      <c r="L1305">
+        <f t="shared" si="57"/>
+        <v>265610</v>
+      </c>
+    </row>
+    <row r="1306" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1306">
+        <v>1302</v>
+      </c>
+      <c r="I1306">
+        <f t="shared" si="56"/>
+        <v>6515000</v>
+      </c>
+      <c r="J1306">
+        <v>65150</v>
+      </c>
+      <c r="L1306">
+        <f t="shared" si="57"/>
+        <v>265820</v>
+      </c>
+    </row>
+    <row r="1307" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1307">
+        <v>1303</v>
+      </c>
+      <c r="I1307">
+        <f t="shared" si="56"/>
+        <v>6520000</v>
+      </c>
+      <c r="J1307">
+        <v>65200</v>
+      </c>
+      <c r="L1307">
+        <f t="shared" si="57"/>
+        <v>266020</v>
+      </c>
+    </row>
+    <row r="1308" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1308">
+        <v>1304</v>
+      </c>
+      <c r="I1308">
+        <f t="shared" si="56"/>
+        <v>6525000</v>
+      </c>
+      <c r="J1308">
+        <v>65250</v>
+      </c>
+      <c r="L1308">
+        <f t="shared" si="57"/>
+        <v>266220</v>
+      </c>
+    </row>
+    <row r="1309" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1309">
+        <v>1305</v>
+      </c>
+      <c r="I1309">
+        <f t="shared" si="56"/>
+        <v>6530000</v>
+      </c>
+      <c r="J1309">
+        <v>65300</v>
+      </c>
+      <c r="L1309">
+        <f t="shared" si="57"/>
+        <v>266430</v>
+      </c>
+    </row>
+    <row r="1310" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1310">
+        <v>1306</v>
+      </c>
+      <c r="I1310">
+        <f t="shared" si="56"/>
+        <v>6535000</v>
+      </c>
+      <c r="J1310">
+        <v>65350</v>
+      </c>
+      <c r="L1310">
+        <f t="shared" si="57"/>
+        <v>266630</v>
+      </c>
+    </row>
+    <row r="1311" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1311">
+        <v>1307</v>
+      </c>
+      <c r="I1311">
+        <f t="shared" si="56"/>
+        <v>6540000</v>
+      </c>
+      <c r="J1311">
+        <v>65400</v>
+      </c>
+      <c r="L1311">
+        <f t="shared" si="57"/>
+        <v>266840</v>
+      </c>
+    </row>
+    <row r="1312" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1312">
+        <v>1308</v>
+      </c>
+      <c r="I1312">
+        <f t="shared" si="56"/>
+        <v>6545000</v>
+      </c>
+      <c r="J1312">
+        <v>65450</v>
+      </c>
+      <c r="L1312">
+        <f t="shared" si="57"/>
+        <v>267040</v>
+      </c>
+    </row>
+    <row r="1313" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1313">
+        <v>1309</v>
+      </c>
+      <c r="I1313">
+        <f t="shared" si="56"/>
+        <v>6550000</v>
+      </c>
+      <c r="J1313">
+        <v>65500</v>
+      </c>
+      <c r="L1313">
+        <f t="shared" si="57"/>
+        <v>267240</v>
+      </c>
+    </row>
+    <row r="1314" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1314">
+        <v>1310</v>
+      </c>
+      <c r="I1314">
+        <f t="shared" si="56"/>
+        <v>6555000</v>
+      </c>
+      <c r="J1314">
+        <v>65550</v>
+      </c>
+      <c r="L1314">
+        <f t="shared" si="57"/>
+        <v>267450</v>
+      </c>
+    </row>
+    <row r="1315" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1315">
+        <v>1311</v>
+      </c>
+      <c r="I1315">
+        <f t="shared" si="56"/>
+        <v>6560000</v>
+      </c>
+      <c r="J1315">
+        <v>65600</v>
+      </c>
+      <c r="L1315">
+        <f t="shared" si="57"/>
+        <v>267650</v>
+      </c>
+    </row>
+    <row r="1316" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1316">
+        <v>1312</v>
+      </c>
+      <c r="I1316">
+        <f t="shared" si="56"/>
+        <v>6565000</v>
+      </c>
+      <c r="J1316">
+        <v>65650</v>
+      </c>
+      <c r="L1316">
+        <f t="shared" si="57"/>
+        <v>267860</v>
+      </c>
+    </row>
+    <row r="1317" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1317">
+        <v>1313</v>
+      </c>
+      <c r="I1317">
+        <f t="shared" si="56"/>
+        <v>6570000</v>
+      </c>
+      <c r="J1317">
+        <v>65700</v>
+      </c>
+      <c r="L1317">
+        <f t="shared" si="57"/>
+        <v>268060</v>
+      </c>
+    </row>
+    <row r="1318" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1318">
+        <v>1314</v>
+      </c>
+      <c r="I1318">
+        <f t="shared" si="56"/>
+        <v>6575000</v>
+      </c>
+      <c r="J1318">
+        <v>65750</v>
+      </c>
+      <c r="L1318">
+        <f t="shared" si="57"/>
+        <v>268260</v>
+      </c>
+    </row>
+    <row r="1319" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1319">
+        <v>1315</v>
+      </c>
+      <c r="I1319">
+        <f t="shared" si="56"/>
+        <v>6580000</v>
+      </c>
+      <c r="J1319">
+        <v>65800</v>
+      </c>
+      <c r="L1319">
+        <f t="shared" si="57"/>
+        <v>268470</v>
+      </c>
+    </row>
+    <row r="1320" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1320">
+        <v>1316</v>
+      </c>
+      <c r="I1320">
+        <f t="shared" ref="I1320:I1383" si="58">J1320*$B$6</f>
+        <v>6585000</v>
+      </c>
+      <c r="J1320">
+        <v>65850</v>
+      </c>
+      <c r="L1320">
+        <f t="shared" ref="L1320:L1383" si="59">ROUNDUP(((I1320/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>268670</v>
+      </c>
+    </row>
+    <row r="1321" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1321">
+        <v>1317</v>
+      </c>
+      <c r="I1321">
+        <f t="shared" si="58"/>
+        <v>6590000</v>
+      </c>
+      <c r="J1321">
+        <v>65900</v>
+      </c>
+      <c r="L1321">
+        <f t="shared" si="59"/>
+        <v>268880</v>
+      </c>
+    </row>
+    <row r="1322" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1322">
+        <v>1318</v>
+      </c>
+      <c r="I1322">
+        <f t="shared" si="58"/>
+        <v>6595000</v>
+      </c>
+      <c r="J1322">
+        <v>65950</v>
+      </c>
+      <c r="L1322">
+        <f t="shared" si="59"/>
+        <v>269080</v>
+      </c>
+    </row>
+    <row r="1323" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1323">
+        <v>1319</v>
+      </c>
+      <c r="I1323">
+        <f t="shared" si="58"/>
+        <v>6600000</v>
+      </c>
+      <c r="J1323">
+        <v>66000</v>
+      </c>
+      <c r="L1323">
+        <f t="shared" si="59"/>
+        <v>269280</v>
+      </c>
+    </row>
+    <row r="1324" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1324">
+        <v>1320</v>
+      </c>
+      <c r="I1324">
+        <f t="shared" si="58"/>
+        <v>6605000</v>
+      </c>
+      <c r="J1324">
+        <v>66050</v>
+      </c>
+      <c r="L1324">
+        <f t="shared" si="59"/>
+        <v>269490</v>
+      </c>
+    </row>
+    <row r="1325" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1325">
+        <v>1321</v>
+      </c>
+      <c r="I1325">
+        <f t="shared" si="58"/>
+        <v>6610000</v>
+      </c>
+      <c r="J1325">
+        <v>66100</v>
+      </c>
+      <c r="L1325">
+        <f t="shared" si="59"/>
+        <v>269690</v>
+      </c>
+    </row>
+    <row r="1326" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1326">
+        <v>1322</v>
+      </c>
+      <c r="I1326">
+        <f t="shared" si="58"/>
+        <v>6615000</v>
+      </c>
+      <c r="J1326">
+        <v>66150</v>
+      </c>
+      <c r="L1326">
+        <f t="shared" si="59"/>
+        <v>269900</v>
+      </c>
+    </row>
+    <row r="1327" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1327">
+        <v>1323</v>
+      </c>
+      <c r="I1327">
+        <f t="shared" si="58"/>
+        <v>6620000</v>
+      </c>
+      <c r="J1327">
+        <v>66200</v>
+      </c>
+      <c r="L1327">
+        <f t="shared" si="59"/>
+        <v>270100</v>
+      </c>
+    </row>
+    <row r="1328" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1328">
+        <v>1324</v>
+      </c>
+      <c r="I1328">
+        <f t="shared" si="58"/>
+        <v>6625000</v>
+      </c>
+      <c r="J1328">
+        <v>66250</v>
+      </c>
+      <c r="L1328">
+        <f t="shared" si="59"/>
+        <v>270300</v>
+      </c>
+    </row>
+    <row r="1329" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1329">
+        <v>1325</v>
+      </c>
+      <c r="I1329">
+        <f t="shared" si="58"/>
+        <v>6630000</v>
+      </c>
+      <c r="J1329">
+        <v>66300</v>
+      </c>
+      <c r="L1329">
+        <f t="shared" si="59"/>
+        <v>270510</v>
+      </c>
+    </row>
+    <row r="1330" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1330">
+        <v>1326</v>
+      </c>
+      <c r="I1330">
+        <f t="shared" si="58"/>
+        <v>6635000</v>
+      </c>
+      <c r="J1330">
+        <v>66350</v>
+      </c>
+      <c r="L1330">
+        <f t="shared" si="59"/>
+        <v>270710</v>
+      </c>
+    </row>
+    <row r="1331" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1331">
+        <v>1327</v>
+      </c>
+      <c r="I1331">
+        <f t="shared" si="58"/>
+        <v>6640000</v>
+      </c>
+      <c r="J1331">
+        <v>66400</v>
+      </c>
+      <c r="L1331">
+        <f t="shared" si="59"/>
+        <v>270920</v>
+      </c>
+    </row>
+    <row r="1332" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1332">
+        <v>1328</v>
+      </c>
+      <c r="I1332">
+        <f t="shared" si="58"/>
+        <v>6645000</v>
+      </c>
+      <c r="J1332">
+        <v>66450</v>
+      </c>
+      <c r="L1332">
+        <f t="shared" si="59"/>
+        <v>271120</v>
+      </c>
+    </row>
+    <row r="1333" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1333">
+        <v>1329</v>
+      </c>
+      <c r="I1333">
+        <f t="shared" si="58"/>
+        <v>6650000</v>
+      </c>
+      <c r="J1333">
+        <v>66500</v>
+      </c>
+      <c r="L1333">
+        <f t="shared" si="59"/>
+        <v>271320</v>
+      </c>
+    </row>
+    <row r="1334" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1334">
+        <v>1330</v>
+      </c>
+      <c r="I1334">
+        <f t="shared" si="58"/>
+        <v>6655000</v>
+      </c>
+      <c r="J1334">
+        <v>66550</v>
+      </c>
+      <c r="L1334">
+        <f t="shared" si="59"/>
+        <v>271530</v>
+      </c>
+    </row>
+    <row r="1335" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1335">
+        <v>1331</v>
+      </c>
+      <c r="I1335">
+        <f t="shared" si="58"/>
+        <v>6660000</v>
+      </c>
+      <c r="J1335">
+        <v>66600</v>
+      </c>
+      <c r="L1335">
+        <f t="shared" si="59"/>
+        <v>271730</v>
+      </c>
+    </row>
+    <row r="1336" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1336">
+        <v>1332</v>
+      </c>
+      <c r="I1336">
+        <f t="shared" si="58"/>
+        <v>6665000</v>
+      </c>
+      <c r="J1336">
+        <v>66650</v>
+      </c>
+      <c r="L1336">
+        <f t="shared" si="59"/>
+        <v>271940</v>
+      </c>
+    </row>
+    <row r="1337" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1337">
+        <v>1333</v>
+      </c>
+      <c r="I1337">
+        <f t="shared" si="58"/>
+        <v>6670000</v>
+      </c>
+      <c r="J1337">
+        <v>66700</v>
+      </c>
+      <c r="L1337">
+        <f t="shared" si="59"/>
+        <v>272140</v>
+      </c>
+    </row>
+    <row r="1338" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1338">
+        <v>1334</v>
+      </c>
+      <c r="I1338">
+        <f t="shared" si="58"/>
+        <v>6675000</v>
+      </c>
+      <c r="J1338">
+        <v>66750</v>
+      </c>
+      <c r="L1338">
+        <f t="shared" si="59"/>
+        <v>272340</v>
+      </c>
+    </row>
+    <row r="1339" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1339">
+        <v>1335</v>
+      </c>
+      <c r="I1339">
+        <f t="shared" si="58"/>
+        <v>6680000</v>
+      </c>
+      <c r="J1339">
+        <v>66800</v>
+      </c>
+      <c r="L1339">
+        <f t="shared" si="59"/>
+        <v>272550</v>
+      </c>
+    </row>
+    <row r="1340" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1340">
+        <v>1336</v>
+      </c>
+      <c r="I1340">
+        <f t="shared" si="58"/>
+        <v>6685000</v>
+      </c>
+      <c r="J1340">
+        <v>66850</v>
+      </c>
+      <c r="L1340">
+        <f t="shared" si="59"/>
+        <v>272750</v>
+      </c>
+    </row>
+    <row r="1341" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1341">
+        <v>1337</v>
+      </c>
+      <c r="I1341">
+        <f t="shared" si="58"/>
+        <v>6690000</v>
+      </c>
+      <c r="J1341">
+        <v>66900</v>
+      </c>
+      <c r="L1341">
+        <f t="shared" si="59"/>
+        <v>272960</v>
+      </c>
+    </row>
+    <row r="1342" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1342">
+        <v>1338</v>
+      </c>
+      <c r="I1342">
+        <f t="shared" si="58"/>
+        <v>6695000</v>
+      </c>
+      <c r="J1342">
+        <v>66950</v>
+      </c>
+      <c r="L1342">
+        <f t="shared" si="59"/>
+        <v>273160</v>
+      </c>
+    </row>
+    <row r="1343" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1343">
+        <v>1339</v>
+      </c>
+      <c r="I1343">
+        <f t="shared" si="58"/>
+        <v>6700000</v>
+      </c>
+      <c r="J1343">
+        <v>67000</v>
+      </c>
+      <c r="L1343">
+        <f t="shared" si="59"/>
+        <v>273360</v>
+      </c>
+    </row>
+    <row r="1344" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1344">
+        <v>1340</v>
+      </c>
+      <c r="I1344">
+        <f t="shared" si="58"/>
+        <v>6705000</v>
+      </c>
+      <c r="J1344">
+        <v>67050</v>
+      </c>
+      <c r="L1344">
+        <f t="shared" si="59"/>
+        <v>273570</v>
+      </c>
+    </row>
+    <row r="1345" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1345">
+        <v>1341</v>
+      </c>
+      <c r="I1345">
+        <f t="shared" si="58"/>
+        <v>6710000</v>
+      </c>
+      <c r="J1345">
+        <v>67100</v>
+      </c>
+      <c r="L1345">
+        <f t="shared" si="59"/>
+        <v>273770</v>
+      </c>
+    </row>
+    <row r="1346" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1346">
+        <v>1342</v>
+      </c>
+      <c r="I1346">
+        <f t="shared" si="58"/>
+        <v>6715000</v>
+      </c>
+      <c r="J1346">
+        <v>67150</v>
+      </c>
+      <c r="L1346">
+        <f t="shared" si="59"/>
+        <v>273980</v>
+      </c>
+    </row>
+    <row r="1347" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1347">
+        <v>1343</v>
+      </c>
+      <c r="I1347">
+        <f t="shared" si="58"/>
+        <v>6720000</v>
+      </c>
+      <c r="J1347">
+        <v>67200</v>
+      </c>
+      <c r="L1347">
+        <f t="shared" si="59"/>
+        <v>274180</v>
+      </c>
+    </row>
+    <row r="1348" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1348">
+        <v>1344</v>
+      </c>
+      <c r="I1348">
+        <f t="shared" si="58"/>
+        <v>6725000</v>
+      </c>
+      <c r="J1348">
+        <v>67250</v>
+      </c>
+      <c r="L1348">
+        <f t="shared" si="59"/>
+        <v>274380</v>
+      </c>
+    </row>
+    <row r="1349" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1349">
+        <v>1345</v>
+      </c>
+      <c r="I1349">
+        <f t="shared" si="58"/>
+        <v>6730000</v>
+      </c>
+      <c r="J1349">
+        <v>67300</v>
+      </c>
+      <c r="L1349">
+        <f t="shared" si="59"/>
+        <v>274590</v>
+      </c>
+    </row>
+    <row r="1350" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1350">
+        <v>1346</v>
+      </c>
+      <c r="I1350">
+        <f t="shared" si="58"/>
+        <v>6735000</v>
+      </c>
+      <c r="J1350">
+        <v>67350</v>
+      </c>
+      <c r="L1350">
+        <f t="shared" si="59"/>
+        <v>274790</v>
+      </c>
+    </row>
+    <row r="1351" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1351">
+        <v>1347</v>
+      </c>
+      <c r="I1351">
+        <f t="shared" si="58"/>
+        <v>6740000</v>
+      </c>
+      <c r="J1351">
+        <v>67400</v>
+      </c>
+      <c r="L1351">
+        <f t="shared" si="59"/>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="1352" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1352">
+        <v>1348</v>
+      </c>
+      <c r="I1352">
+        <f t="shared" si="58"/>
+        <v>6745000</v>
+      </c>
+      <c r="J1352">
+        <v>67450</v>
+      </c>
+      <c r="L1352">
+        <f t="shared" si="59"/>
+        <v>275200</v>
+      </c>
+    </row>
+    <row r="1353" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1353">
+        <v>1349</v>
+      </c>
+      <c r="I1353">
+        <f t="shared" si="58"/>
+        <v>6750000</v>
+      </c>
+      <c r="J1353">
+        <v>67500</v>
+      </c>
+      <c r="L1353">
+        <f t="shared" si="59"/>
+        <v>275400</v>
+      </c>
+    </row>
+    <row r="1354" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1354">
+        <v>1350</v>
+      </c>
+      <c r="I1354">
+        <f t="shared" si="58"/>
+        <v>6755000</v>
+      </c>
+      <c r="J1354">
+        <v>67550</v>
+      </c>
+      <c r="L1354">
+        <f t="shared" si="59"/>
+        <v>275610</v>
+      </c>
+    </row>
+    <row r="1355" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1355">
+        <v>1351</v>
+      </c>
+      <c r="I1355">
+        <f t="shared" si="58"/>
+        <v>6760000</v>
+      </c>
+      <c r="J1355">
+        <v>67600</v>
+      </c>
+      <c r="L1355">
+        <f t="shared" si="59"/>
+        <v>275810</v>
+      </c>
+    </row>
+    <row r="1356" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1356">
+        <v>1352</v>
+      </c>
+      <c r="I1356">
+        <f t="shared" si="58"/>
+        <v>6765000</v>
+      </c>
+      <c r="J1356">
+        <v>67650</v>
+      </c>
+      <c r="L1356">
+        <f t="shared" si="59"/>
+        <v>276020</v>
+      </c>
+    </row>
+    <row r="1357" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1357">
+        <v>1353</v>
+      </c>
+      <c r="I1357">
+        <f t="shared" si="58"/>
+        <v>6770000</v>
+      </c>
+      <c r="J1357">
+        <v>67700</v>
+      </c>
+      <c r="L1357">
+        <f t="shared" si="59"/>
+        <v>276220</v>
+      </c>
+    </row>
+    <row r="1358" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1358">
+        <v>1354</v>
+      </c>
+      <c r="I1358">
+        <f t="shared" si="58"/>
+        <v>6775000</v>
+      </c>
+      <c r="J1358">
+        <v>67750</v>
+      </c>
+      <c r="L1358">
+        <f t="shared" si="59"/>
+        <v>276420</v>
+      </c>
+    </row>
+    <row r="1359" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1359">
+        <v>1355</v>
+      </c>
+      <c r="I1359">
+        <f t="shared" si="58"/>
+        <v>6780000</v>
+      </c>
+      <c r="J1359">
+        <v>67800</v>
+      </c>
+      <c r="L1359">
+        <f t="shared" si="59"/>
+        <v>276630</v>
+      </c>
+    </row>
+    <row r="1360" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1360">
+        <v>1356</v>
+      </c>
+      <c r="I1360">
+        <f t="shared" si="58"/>
+        <v>6785000</v>
+      </c>
+      <c r="J1360">
+        <v>67850</v>
+      </c>
+      <c r="L1360">
+        <f t="shared" si="59"/>
+        <v>276830</v>
+      </c>
+    </row>
+    <row r="1361" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1361">
+        <v>1357</v>
+      </c>
+      <c r="I1361">
+        <f t="shared" si="58"/>
+        <v>6790000</v>
+      </c>
+      <c r="J1361">
+        <v>67900</v>
+      </c>
+      <c r="L1361">
+        <f t="shared" si="59"/>
+        <v>277040</v>
+      </c>
+    </row>
+    <row r="1362" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1362">
+        <v>1358</v>
+      </c>
+      <c r="I1362">
+        <f t="shared" si="58"/>
+        <v>6795000</v>
+      </c>
+      <c r="J1362">
+        <v>67950</v>
+      </c>
+      <c r="L1362">
+        <f t="shared" si="59"/>
+        <v>277240</v>
+      </c>
+    </row>
+    <row r="1363" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1363">
+        <v>1359</v>
+      </c>
+      <c r="I1363">
+        <f t="shared" si="58"/>
+        <v>6800000</v>
+      </c>
+      <c r="J1363">
+        <v>68000</v>
+      </c>
+      <c r="L1363">
+        <f t="shared" si="59"/>
+        <v>277440</v>
+      </c>
+    </row>
+    <row r="1364" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1364">
+        <v>1360</v>
+      </c>
+      <c r="I1364">
+        <f t="shared" si="58"/>
+        <v>6805000</v>
+      </c>
+      <c r="J1364">
+        <v>68050</v>
+      </c>
+      <c r="L1364">
+        <f t="shared" si="59"/>
+        <v>277650</v>
+      </c>
+    </row>
+    <row r="1365" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1365">
+        <v>1361</v>
+      </c>
+      <c r="I1365">
+        <f t="shared" si="58"/>
+        <v>6810000</v>
+      </c>
+      <c r="J1365">
+        <v>68100</v>
+      </c>
+      <c r="L1365">
+        <f t="shared" si="59"/>
+        <v>277850</v>
+      </c>
+    </row>
+    <row r="1366" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1366">
+        <v>1362</v>
+      </c>
+      <c r="I1366">
+        <f t="shared" si="58"/>
+        <v>6815000</v>
+      </c>
+      <c r="J1366">
+        <v>68150</v>
+      </c>
+      <c r="L1366">
+        <f t="shared" si="59"/>
+        <v>278060</v>
+      </c>
+    </row>
+    <row r="1367" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1367">
+        <v>1363</v>
+      </c>
+      <c r="I1367">
+        <f t="shared" si="58"/>
+        <v>6820000</v>
+      </c>
+      <c r="J1367">
+        <v>68200</v>
+      </c>
+      <c r="L1367">
+        <f t="shared" si="59"/>
+        <v>278260</v>
+      </c>
+    </row>
+    <row r="1368" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1368">
+        <v>1364</v>
+      </c>
+      <c r="I1368">
+        <f t="shared" si="58"/>
+        <v>6825000</v>
+      </c>
+      <c r="J1368">
+        <v>68250</v>
+      </c>
+      <c r="L1368">
+        <f t="shared" si="59"/>
+        <v>278460</v>
+      </c>
+    </row>
+    <row r="1369" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1369">
+        <v>1365</v>
+      </c>
+      <c r="I1369">
+        <f t="shared" si="58"/>
+        <v>6830000</v>
+      </c>
+      <c r="J1369">
+        <v>68300</v>
+      </c>
+      <c r="L1369">
+        <f t="shared" si="59"/>
+        <v>278670</v>
+      </c>
+    </row>
+    <row r="1370" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1370">
+        <v>1366</v>
+      </c>
+      <c r="I1370">
+        <f t="shared" si="58"/>
+        <v>6835000</v>
+      </c>
+      <c r="J1370">
+        <v>68350</v>
+      </c>
+      <c r="L1370">
+        <f t="shared" si="59"/>
+        <v>278870</v>
+      </c>
+    </row>
+    <row r="1371" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1371">
+        <v>1367</v>
+      </c>
+      <c r="I1371">
+        <f t="shared" si="58"/>
+        <v>6840000</v>
+      </c>
+      <c r="J1371">
+        <v>68400</v>
+      </c>
+      <c r="L1371">
+        <f t="shared" si="59"/>
+        <v>279080</v>
+      </c>
+    </row>
+    <row r="1372" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1372">
+        <v>1368</v>
+      </c>
+      <c r="I1372">
+        <f t="shared" si="58"/>
+        <v>6845000</v>
+      </c>
+      <c r="J1372">
+        <v>68450</v>
+      </c>
+      <c r="L1372">
+        <f t="shared" si="59"/>
+        <v>279280</v>
+      </c>
+    </row>
+    <row r="1373" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1373">
+        <v>1369</v>
+      </c>
+      <c r="I1373">
+        <f t="shared" si="58"/>
+        <v>6850000</v>
+      </c>
+      <c r="J1373">
+        <v>68500</v>
+      </c>
+      <c r="L1373">
+        <f t="shared" si="59"/>
+        <v>279480</v>
+      </c>
+    </row>
+    <row r="1374" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1374">
+        <v>1370</v>
+      </c>
+      <c r="I1374">
+        <f t="shared" si="58"/>
+        <v>6855000</v>
+      </c>
+      <c r="J1374">
+        <v>68550</v>
+      </c>
+      <c r="L1374">
+        <f t="shared" si="59"/>
+        <v>279690</v>
+      </c>
+    </row>
+    <row r="1375" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1375">
+        <v>1371</v>
+      </c>
+      <c r="I1375">
+        <f t="shared" si="58"/>
+        <v>6860000</v>
+      </c>
+      <c r="J1375">
+        <v>68600</v>
+      </c>
+      <c r="L1375">
+        <f t="shared" si="59"/>
+        <v>279890</v>
+      </c>
+    </row>
+    <row r="1376" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1376">
+        <v>1372</v>
+      </c>
+      <c r="I1376">
+        <f t="shared" si="58"/>
+        <v>6865000</v>
+      </c>
+      <c r="J1376">
+        <v>68650</v>
+      </c>
+      <c r="L1376">
+        <f t="shared" si="59"/>
+        <v>280100</v>
+      </c>
+    </row>
+    <row r="1377" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1377">
+        <v>1373</v>
+      </c>
+      <c r="I1377">
+        <f t="shared" si="58"/>
+        <v>6870000</v>
+      </c>
+      <c r="J1377">
+        <v>68700</v>
+      </c>
+      <c r="L1377">
+        <f t="shared" si="59"/>
+        <v>280300</v>
+      </c>
+    </row>
+    <row r="1378" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1378">
+        <v>1374</v>
+      </c>
+      <c r="I1378">
+        <f t="shared" si="58"/>
+        <v>6875000</v>
+      </c>
+      <c r="J1378">
+        <v>68750</v>
+      </c>
+      <c r="L1378">
+        <f t="shared" si="59"/>
+        <v>280500</v>
+      </c>
+    </row>
+    <row r="1379" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1379">
+        <v>1375</v>
+      </c>
+      <c r="I1379">
+        <f t="shared" si="58"/>
+        <v>6880000</v>
+      </c>
+      <c r="J1379">
+        <v>68800</v>
+      </c>
+      <c r="L1379">
+        <f t="shared" si="59"/>
+        <v>280710</v>
+      </c>
+    </row>
+    <row r="1380" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1380">
+        <v>1376</v>
+      </c>
+      <c r="I1380">
+        <f t="shared" si="58"/>
+        <v>6885000</v>
+      </c>
+      <c r="J1380">
+        <v>68850</v>
+      </c>
+      <c r="L1380">
+        <f t="shared" si="59"/>
+        <v>280910</v>
+      </c>
+    </row>
+    <row r="1381" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1381">
+        <v>1377</v>
+      </c>
+      <c r="I1381">
+        <f t="shared" si="58"/>
+        <v>6890000</v>
+      </c>
+      <c r="J1381">
+        <v>68900</v>
+      </c>
+      <c r="L1381">
+        <f t="shared" si="59"/>
+        <v>281120</v>
+      </c>
+    </row>
+    <row r="1382" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1382">
+        <v>1378</v>
+      </c>
+      <c r="I1382">
+        <f t="shared" si="58"/>
+        <v>6895000</v>
+      </c>
+      <c r="J1382">
+        <v>68950</v>
+      </c>
+      <c r="L1382">
+        <f t="shared" si="59"/>
+        <v>281320</v>
+      </c>
+    </row>
+    <row r="1383" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1383">
+        <v>1379</v>
+      </c>
+      <c r="I1383">
+        <f t="shared" si="58"/>
+        <v>6900000</v>
+      </c>
+      <c r="J1383">
+        <v>69000</v>
+      </c>
+      <c r="L1383">
+        <f t="shared" si="59"/>
+        <v>281520</v>
+      </c>
+    </row>
+    <row r="1384" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1384">
+        <v>1380</v>
+      </c>
+      <c r="I1384">
+        <f t="shared" ref="I1384:I1447" si="60">J1384*$B$6</f>
+        <v>6905000</v>
+      </c>
+      <c r="J1384">
+        <v>69050</v>
+      </c>
+      <c r="L1384">
+        <f t="shared" ref="L1384:L1447" si="61">ROUNDUP(((I1384/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>281730</v>
+      </c>
+    </row>
+    <row r="1385" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1385">
+        <v>1381</v>
+      </c>
+      <c r="I1385">
+        <f t="shared" si="60"/>
+        <v>6910000</v>
+      </c>
+      <c r="J1385">
+        <v>69100</v>
+      </c>
+      <c r="L1385">
+        <f t="shared" si="61"/>
+        <v>281930</v>
+      </c>
+    </row>
+    <row r="1386" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1386">
+        <v>1382</v>
+      </c>
+      <c r="I1386">
+        <f t="shared" si="60"/>
+        <v>6915000</v>
+      </c>
+      <c r="J1386">
+        <v>69150</v>
+      </c>
+      <c r="L1386">
+        <f t="shared" si="61"/>
+        <v>282140</v>
+      </c>
+    </row>
+    <row r="1387" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1387">
+        <v>1383</v>
+      </c>
+      <c r="I1387">
+        <f t="shared" si="60"/>
+        <v>6920000</v>
+      </c>
+      <c r="J1387">
+        <v>69200</v>
+      </c>
+      <c r="L1387">
+        <f t="shared" si="61"/>
+        <v>282340</v>
+      </c>
+    </row>
+    <row r="1388" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1388">
+        <v>1384</v>
+      </c>
+      <c r="I1388">
+        <f t="shared" si="60"/>
+        <v>6925000</v>
+      </c>
+      <c r="J1388">
+        <v>69250</v>
+      </c>
+      <c r="L1388">
+        <f t="shared" si="61"/>
+        <v>282540</v>
+      </c>
+    </row>
+    <row r="1389" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1389">
+        <v>1385</v>
+      </c>
+      <c r="I1389">
+        <f t="shared" si="60"/>
+        <v>6930000</v>
+      </c>
+      <c r="J1389">
+        <v>69300</v>
+      </c>
+      <c r="L1389">
+        <f t="shared" si="61"/>
+        <v>282750</v>
+      </c>
+    </row>
+    <row r="1390" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1390">
+        <v>1386</v>
+      </c>
+      <c r="I1390">
+        <f t="shared" si="60"/>
+        <v>6935000</v>
+      </c>
+      <c r="J1390">
+        <v>69350</v>
+      </c>
+      <c r="L1390">
+        <f t="shared" si="61"/>
+        <v>282950</v>
+      </c>
+    </row>
+    <row r="1391" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1391">
+        <v>1387</v>
+      </c>
+      <c r="I1391">
+        <f t="shared" si="60"/>
+        <v>6940000</v>
+      </c>
+      <c r="J1391">
+        <v>69400</v>
+      </c>
+      <c r="L1391">
+        <f t="shared" si="61"/>
+        <v>283160</v>
+      </c>
+    </row>
+    <row r="1392" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1392">
+        <v>1388</v>
+      </c>
+      <c r="I1392">
+        <f t="shared" si="60"/>
+        <v>6945000</v>
+      </c>
+      <c r="J1392">
+        <v>69450</v>
+      </c>
+      <c r="L1392">
+        <f t="shared" si="61"/>
+        <v>283360</v>
+      </c>
+    </row>
+    <row r="1393" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1393">
+        <v>1389</v>
+      </c>
+      <c r="I1393">
+        <f t="shared" si="60"/>
+        <v>6950000</v>
+      </c>
+      <c r="J1393">
+        <v>69500</v>
+      </c>
+      <c r="L1393">
+        <f t="shared" si="61"/>
+        <v>283560</v>
+      </c>
+    </row>
+    <row r="1394" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1394">
+        <v>1390</v>
+      </c>
+      <c r="I1394">
+        <f t="shared" si="60"/>
+        <v>6955000</v>
+      </c>
+      <c r="J1394">
+        <v>69550</v>
+      </c>
+      <c r="L1394">
+        <f t="shared" si="61"/>
+        <v>283770</v>
+      </c>
+    </row>
+    <row r="1395" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1395">
+        <v>1391</v>
+      </c>
+      <c r="I1395">
+        <f t="shared" si="60"/>
+        <v>6960000</v>
+      </c>
+      <c r="J1395">
+        <v>69600</v>
+      </c>
+      <c r="L1395">
+        <f t="shared" si="61"/>
+        <v>283970</v>
+      </c>
+    </row>
+    <row r="1396" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1396">
+        <v>1392</v>
+      </c>
+      <c r="I1396">
+        <f t="shared" si="60"/>
+        <v>6965000</v>
+      </c>
+      <c r="J1396">
+        <v>69650</v>
+      </c>
+      <c r="L1396">
+        <f t="shared" si="61"/>
+        <v>284180</v>
+      </c>
+    </row>
+    <row r="1397" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1397">
+        <v>1393</v>
+      </c>
+      <c r="I1397">
+        <f t="shared" si="60"/>
+        <v>6970000</v>
+      </c>
+      <c r="J1397">
+        <v>69700</v>
+      </c>
+      <c r="L1397">
+        <f t="shared" si="61"/>
+        <v>284380</v>
+      </c>
+    </row>
+    <row r="1398" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1398">
+        <v>1394</v>
+      </c>
+      <c r="I1398">
+        <f t="shared" si="60"/>
+        <v>6975000</v>
+      </c>
+      <c r="J1398">
+        <v>69750</v>
+      </c>
+      <c r="L1398">
+        <f t="shared" si="61"/>
+        <v>284580</v>
+      </c>
+    </row>
+    <row r="1399" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1399">
+        <v>1395</v>
+      </c>
+      <c r="I1399">
+        <f t="shared" si="60"/>
+        <v>6980000</v>
+      </c>
+      <c r="J1399">
+        <v>69800</v>
+      </c>
+      <c r="L1399">
+        <f t="shared" si="61"/>
+        <v>284790</v>
+      </c>
+    </row>
+    <row r="1400" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1400">
+        <v>1396</v>
+      </c>
+      <c r="I1400">
+        <f t="shared" si="60"/>
+        <v>6985000</v>
+      </c>
+      <c r="J1400">
+        <v>69850</v>
+      </c>
+      <c r="L1400">
+        <f t="shared" si="61"/>
+        <v>284990</v>
+      </c>
+    </row>
+    <row r="1401" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1401">
+        <v>1397</v>
+      </c>
+      <c r="I1401">
+        <f t="shared" si="60"/>
+        <v>6990000</v>
+      </c>
+      <c r="J1401">
+        <v>69900</v>
+      </c>
+      <c r="L1401">
+        <f t="shared" si="61"/>
+        <v>285200</v>
+      </c>
+    </row>
+    <row r="1402" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1402">
+        <v>1398</v>
+      </c>
+      <c r="I1402">
+        <f t="shared" si="60"/>
+        <v>6995000</v>
+      </c>
+      <c r="J1402">
+        <v>69950</v>
+      </c>
+      <c r="L1402">
+        <f t="shared" si="61"/>
+        <v>285400</v>
+      </c>
+    </row>
+    <row r="1403" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1403">
+        <v>1399</v>
+      </c>
+      <c r="I1403">
+        <f t="shared" si="60"/>
+        <v>7000000</v>
+      </c>
+      <c r="J1403">
+        <v>70000</v>
+      </c>
+      <c r="L1403">
+        <f t="shared" si="61"/>
+        <v>285600</v>
+      </c>
+    </row>
+    <row r="1404" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1404">
+        <v>1400</v>
+      </c>
+      <c r="I1404">
+        <f t="shared" si="60"/>
+        <v>7005000</v>
+      </c>
+      <c r="J1404">
+        <v>70050</v>
+      </c>
+      <c r="L1404">
+        <f t="shared" si="61"/>
+        <v>285810</v>
+      </c>
+    </row>
+    <row r="1405" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1405">
+        <v>1401</v>
+      </c>
+      <c r="I1405">
+        <f t="shared" si="60"/>
+        <v>7010000</v>
+      </c>
+      <c r="J1405">
+        <v>70100</v>
+      </c>
+      <c r="L1405">
+        <f t="shared" si="61"/>
+        <v>286010</v>
+      </c>
+    </row>
+    <row r="1406" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1406">
+        <v>1402</v>
+      </c>
+      <c r="I1406">
+        <f t="shared" si="60"/>
+        <v>7015000</v>
+      </c>
+      <c r="J1406">
+        <v>70150</v>
+      </c>
+      <c r="L1406">
+        <f t="shared" si="61"/>
+        <v>286220</v>
+      </c>
+    </row>
+    <row r="1407" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1407">
+        <v>1403</v>
+      </c>
+      <c r="I1407">
+        <f t="shared" si="60"/>
+        <v>7020000</v>
+      </c>
+      <c r="J1407">
+        <v>70200</v>
+      </c>
+      <c r="L1407">
+        <f t="shared" si="61"/>
+        <v>286420</v>
+      </c>
+    </row>
+    <row r="1408" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1408">
+        <v>1404</v>
+      </c>
+      <c r="I1408">
+        <f t="shared" si="60"/>
+        <v>7025000</v>
+      </c>
+      <c r="J1408">
+        <v>70250</v>
+      </c>
+      <c r="L1408">
+        <f t="shared" si="61"/>
+        <v>286620</v>
+      </c>
+    </row>
+    <row r="1409" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1409">
+        <v>1405</v>
+      </c>
+      <c r="I1409">
+        <f t="shared" si="60"/>
+        <v>7030000</v>
+      </c>
+      <c r="J1409">
+        <v>70300</v>
+      </c>
+      <c r="L1409">
+        <f t="shared" si="61"/>
+        <v>286830</v>
+      </c>
+    </row>
+    <row r="1410" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1410">
+        <v>1406</v>
+      </c>
+      <c r="I1410">
+        <f t="shared" si="60"/>
+        <v>7035000</v>
+      </c>
+      <c r="J1410">
+        <v>70350</v>
+      </c>
+      <c r="L1410">
+        <f t="shared" si="61"/>
+        <v>287030</v>
+      </c>
+    </row>
+    <row r="1411" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1411">
+        <v>1407</v>
+      </c>
+      <c r="I1411">
+        <f t="shared" si="60"/>
+        <v>7040000</v>
+      </c>
+      <c r="J1411">
+        <v>70400</v>
+      </c>
+      <c r="L1411">
+        <f t="shared" si="61"/>
+        <v>287240</v>
+      </c>
+    </row>
+    <row r="1412" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1412">
+        <v>1408</v>
+      </c>
+      <c r="I1412">
+        <f t="shared" si="60"/>
+        <v>7045000</v>
+      </c>
+      <c r="J1412">
+        <v>70450</v>
+      </c>
+      <c r="L1412">
+        <f t="shared" si="61"/>
+        <v>287440</v>
+      </c>
+    </row>
+    <row r="1413" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1413">
+        <v>1409</v>
+      </c>
+      <c r="I1413">
+        <f t="shared" si="60"/>
+        <v>7050000</v>
+      </c>
+      <c r="J1413">
+        <v>70500</v>
+      </c>
+      <c r="L1413">
+        <f t="shared" si="61"/>
+        <v>287640</v>
+      </c>
+    </row>
+    <row r="1414" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1414">
+        <v>1410</v>
+      </c>
+      <c r="I1414">
+        <f t="shared" si="60"/>
+        <v>7055000</v>
+      </c>
+      <c r="J1414">
+        <v>70550</v>
+      </c>
+      <c r="L1414">
+        <f t="shared" si="61"/>
+        <v>287850</v>
+      </c>
+    </row>
+    <row r="1415" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1415">
+        <v>1411</v>
+      </c>
+      <c r="I1415">
+        <f t="shared" si="60"/>
+        <v>7060000</v>
+      </c>
+      <c r="J1415">
+        <v>70600</v>
+      </c>
+      <c r="L1415">
+        <f t="shared" si="61"/>
+        <v>288050</v>
+      </c>
+    </row>
+    <row r="1416" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1416">
+        <v>1412</v>
+      </c>
+      <c r="I1416">
+        <f t="shared" si="60"/>
+        <v>7065000</v>
+      </c>
+      <c r="J1416">
+        <v>70650</v>
+      </c>
+      <c r="L1416">
+        <f t="shared" si="61"/>
+        <v>288260</v>
+      </c>
+    </row>
+    <row r="1417" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1417">
+        <v>1413</v>
+      </c>
+      <c r="I1417">
+        <f t="shared" si="60"/>
+        <v>7070000</v>
+      </c>
+      <c r="J1417">
+        <v>70700</v>
+      </c>
+      <c r="L1417">
+        <f t="shared" si="61"/>
+        <v>288460</v>
+      </c>
+    </row>
+    <row r="1418" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1418">
+        <v>1414</v>
+      </c>
+      <c r="I1418">
+        <f t="shared" si="60"/>
+        <v>7075000</v>
+      </c>
+      <c r="J1418">
+        <v>70750</v>
+      </c>
+      <c r="L1418">
+        <f t="shared" si="61"/>
+        <v>288660</v>
+      </c>
+    </row>
+    <row r="1419" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1419">
+        <v>1415</v>
+      </c>
+      <c r="I1419">
+        <f t="shared" si="60"/>
+        <v>7080000</v>
+      </c>
+      <c r="J1419">
+        <v>70800</v>
+      </c>
+      <c r="L1419">
+        <f t="shared" si="61"/>
+        <v>288870</v>
+      </c>
+    </row>
+    <row r="1420" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1420">
+        <v>1416</v>
+      </c>
+      <c r="I1420">
+        <f t="shared" si="60"/>
+        <v>7085000</v>
+      </c>
+      <c r="J1420">
+        <v>70850</v>
+      </c>
+      <c r="L1420">
+        <f t="shared" si="61"/>
+        <v>289070</v>
+      </c>
+    </row>
+    <row r="1421" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1421">
+        <v>1417</v>
+      </c>
+      <c r="I1421">
+        <f t="shared" si="60"/>
+        <v>7090000</v>
+      </c>
+      <c r="J1421">
+        <v>70900</v>
+      </c>
+      <c r="L1421">
+        <f t="shared" si="61"/>
+        <v>289280</v>
+      </c>
+    </row>
+    <row r="1422" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1422">
+        <v>1418</v>
+      </c>
+      <c r="I1422">
+        <f t="shared" si="60"/>
+        <v>7095000</v>
+      </c>
+      <c r="J1422">
+        <v>70950</v>
+      </c>
+      <c r="L1422">
+        <f t="shared" si="61"/>
+        <v>289480</v>
+      </c>
+    </row>
+    <row r="1423" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1423">
+        <v>1419</v>
+      </c>
+      <c r="I1423">
+        <f t="shared" si="60"/>
+        <v>7100000</v>
+      </c>
+      <c r="J1423">
+        <v>71000</v>
+      </c>
+      <c r="L1423">
+        <f t="shared" si="61"/>
+        <v>289680</v>
+      </c>
+    </row>
+    <row r="1424" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1424">
+        <v>1420</v>
+      </c>
+      <c r="I1424">
+        <f t="shared" si="60"/>
+        <v>7105000</v>
+      </c>
+      <c r="J1424">
+        <v>71050</v>
+      </c>
+      <c r="L1424">
+        <f t="shared" si="61"/>
+        <v>289890</v>
+      </c>
+    </row>
+    <row r="1425" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1425">
+        <v>1421</v>
+      </c>
+      <c r="I1425">
+        <f t="shared" si="60"/>
+        <v>7110000</v>
+      </c>
+      <c r="J1425">
+        <v>71100</v>
+      </c>
+      <c r="L1425">
+        <f t="shared" si="61"/>
+        <v>290090</v>
+      </c>
+    </row>
+    <row r="1426" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1426">
+        <v>1422</v>
+      </c>
+      <c r="I1426">
+        <f t="shared" si="60"/>
+        <v>7115000</v>
+      </c>
+      <c r="J1426">
+        <v>71150</v>
+      </c>
+      <c r="L1426">
+        <f t="shared" si="61"/>
+        <v>290300</v>
+      </c>
+    </row>
+    <row r="1427" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1427">
+        <v>1423</v>
+      </c>
+      <c r="I1427">
+        <f t="shared" si="60"/>
+        <v>7120000</v>
+      </c>
+      <c r="J1427">
+        <v>71200</v>
+      </c>
+      <c r="L1427">
+        <f t="shared" si="61"/>
+        <v>290500</v>
+      </c>
+    </row>
+    <row r="1428" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1428">
+        <v>1424</v>
+      </c>
+      <c r="I1428">
+        <f t="shared" si="60"/>
+        <v>7125000</v>
+      </c>
+      <c r="J1428">
+        <v>71250</v>
+      </c>
+      <c r="L1428">
+        <f t="shared" si="61"/>
+        <v>290700</v>
+      </c>
+    </row>
+    <row r="1429" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1429">
+        <v>1425</v>
+      </c>
+      <c r="I1429">
+        <f t="shared" si="60"/>
+        <v>7130000</v>
+      </c>
+      <c r="J1429">
+        <v>71300</v>
+      </c>
+      <c r="L1429">
+        <f t="shared" si="61"/>
+        <v>290910</v>
+      </c>
+    </row>
+    <row r="1430" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1430">
+        <v>1426</v>
+      </c>
+      <c r="I1430">
+        <f t="shared" si="60"/>
+        <v>7135000</v>
+      </c>
+      <c r="J1430">
+        <v>71350</v>
+      </c>
+      <c r="L1430">
+        <f t="shared" si="61"/>
+        <v>291110</v>
+      </c>
+    </row>
+    <row r="1431" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1431">
+        <v>1427</v>
+      </c>
+      <c r="I1431">
+        <f t="shared" si="60"/>
+        <v>7140000</v>
+      </c>
+      <c r="J1431">
+        <v>71400</v>
+      </c>
+      <c r="L1431">
+        <f t="shared" si="61"/>
+        <v>291320</v>
+      </c>
+    </row>
+    <row r="1432" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1432">
+        <v>1428</v>
+      </c>
+      <c r="I1432">
+        <f t="shared" si="60"/>
+        <v>7145000</v>
+      </c>
+      <c r="J1432">
+        <v>71450</v>
+      </c>
+      <c r="L1432">
+        <f t="shared" si="61"/>
+        <v>291520</v>
+      </c>
+    </row>
+    <row r="1433" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1433">
+        <v>1429</v>
+      </c>
+      <c r="I1433">
+        <f t="shared" si="60"/>
+        <v>7150000</v>
+      </c>
+      <c r="J1433">
+        <v>71500</v>
+      </c>
+      <c r="L1433">
+        <f t="shared" si="61"/>
+        <v>291720</v>
+      </c>
+    </row>
+    <row r="1434" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1434">
+        <v>1430</v>
+      </c>
+      <c r="I1434">
+        <f t="shared" si="60"/>
+        <v>7155000</v>
+      </c>
+      <c r="J1434">
+        <v>71550</v>
+      </c>
+      <c r="L1434">
+        <f t="shared" si="61"/>
+        <v>291930</v>
+      </c>
+    </row>
+    <row r="1435" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1435">
+        <v>1431</v>
+      </c>
+      <c r="I1435">
+        <f t="shared" si="60"/>
+        <v>7160000</v>
+      </c>
+      <c r="J1435">
+        <v>71600</v>
+      </c>
+      <c r="L1435">
+        <f t="shared" si="61"/>
+        <v>292130</v>
+      </c>
+    </row>
+    <row r="1436" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1436">
+        <v>1432</v>
+      </c>
+      <c r="I1436">
+        <f t="shared" si="60"/>
+        <v>7165000</v>
+      </c>
+      <c r="J1436">
+        <v>71650</v>
+      </c>
+      <c r="L1436">
+        <f t="shared" si="61"/>
+        <v>292340</v>
+      </c>
+    </row>
+    <row r="1437" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1437">
+        <v>1433</v>
+      </c>
+      <c r="I1437">
+        <f t="shared" si="60"/>
+        <v>7170000</v>
+      </c>
+      <c r="J1437">
+        <v>71700</v>
+      </c>
+      <c r="L1437">
+        <f t="shared" si="61"/>
+        <v>292540</v>
+      </c>
+    </row>
+    <row r="1438" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1438">
+        <v>1434</v>
+      </c>
+      <c r="I1438">
+        <f t="shared" si="60"/>
+        <v>7175000</v>
+      </c>
+      <c r="J1438">
+        <v>71750</v>
+      </c>
+      <c r="L1438">
+        <f t="shared" si="61"/>
+        <v>292740</v>
+      </c>
+    </row>
+    <row r="1439" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1439">
+        <v>1435</v>
+      </c>
+      <c r="I1439">
+        <f t="shared" si="60"/>
+        <v>7180000</v>
+      </c>
+      <c r="J1439">
+        <v>71800</v>
+      </c>
+      <c r="L1439">
+        <f t="shared" si="61"/>
+        <v>292950</v>
+      </c>
+    </row>
+    <row r="1440" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1440">
+        <v>1436</v>
+      </c>
+      <c r="I1440">
+        <f t="shared" si="60"/>
+        <v>7185000</v>
+      </c>
+      <c r="J1440">
+        <v>71850</v>
+      </c>
+      <c r="L1440">
+        <f t="shared" si="61"/>
+        <v>293150</v>
+      </c>
+    </row>
+    <row r="1441" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1441">
+        <v>1437</v>
+      </c>
+      <c r="I1441">
+        <f t="shared" si="60"/>
+        <v>7190000</v>
+      </c>
+      <c r="J1441">
+        <v>71900</v>
+      </c>
+      <c r="L1441">
+        <f t="shared" si="61"/>
+        <v>293360</v>
+      </c>
+    </row>
+    <row r="1442" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1442">
+        <v>1438</v>
+      </c>
+      <c r="I1442">
+        <f t="shared" si="60"/>
+        <v>7195000</v>
+      </c>
+      <c r="J1442">
+        <v>71950</v>
+      </c>
+      <c r="L1442">
+        <f t="shared" si="61"/>
+        <v>293560</v>
+      </c>
+    </row>
+    <row r="1443" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1443">
+        <v>1439</v>
+      </c>
+      <c r="I1443">
+        <f t="shared" si="60"/>
+        <v>7200000</v>
+      </c>
+      <c r="J1443">
+        <v>72000</v>
+      </c>
+      <c r="L1443">
+        <f t="shared" si="61"/>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="1444" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1444">
+        <v>1440</v>
+      </c>
+      <c r="I1444">
+        <f t="shared" si="60"/>
+        <v>7205000</v>
+      </c>
+      <c r="J1444">
+        <v>72050</v>
+      </c>
+      <c r="L1444">
+        <f t="shared" si="61"/>
+        <v>293970</v>
+      </c>
+    </row>
+    <row r="1445" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1445">
+        <v>1441</v>
+      </c>
+      <c r="I1445">
+        <f t="shared" si="60"/>
+        <v>7210000</v>
+      </c>
+      <c r="J1445">
+        <v>72100</v>
+      </c>
+      <c r="L1445">
+        <f t="shared" si="61"/>
+        <v>294170</v>
+      </c>
+    </row>
+    <row r="1446" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1446">
+        <v>1442</v>
+      </c>
+      <c r="I1446">
+        <f t="shared" si="60"/>
+        <v>7215000</v>
+      </c>
+      <c r="J1446">
+        <v>72150</v>
+      </c>
+      <c r="L1446">
+        <f t="shared" si="61"/>
+        <v>294380</v>
+      </c>
+    </row>
+    <row r="1447" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1447">
+        <v>1443</v>
+      </c>
+      <c r="I1447">
+        <f t="shared" si="60"/>
+        <v>7220000</v>
+      </c>
+      <c r="J1447">
+        <v>72200</v>
+      </c>
+      <c r="L1447">
+        <f t="shared" si="61"/>
+        <v>294580</v>
+      </c>
+    </row>
+    <row r="1448" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1448">
+        <v>1444</v>
+      </c>
+      <c r="I1448">
+        <f t="shared" ref="I1448:I1493" si="62">J1448*$B$6</f>
+        <v>7225000</v>
+      </c>
+      <c r="J1448">
+        <v>72250</v>
+      </c>
+      <c r="L1448">
+        <f t="shared" ref="L1448:L1493" si="63">ROUNDUP(((I1448/$B$3)*$B$4*(100+$B$5)/100),-1)</f>
+        <v>294780</v>
+      </c>
+    </row>
+    <row r="1449" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1449">
+        <v>1445</v>
+      </c>
+      <c r="I1449">
+        <f t="shared" si="62"/>
+        <v>7230000</v>
+      </c>
+      <c r="J1449">
+        <v>72300</v>
+      </c>
+      <c r="L1449">
+        <f t="shared" si="63"/>
+        <v>294990</v>
+      </c>
+    </row>
+    <row r="1450" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1450">
+        <v>1446</v>
+      </c>
+      <c r="I1450">
+        <f t="shared" si="62"/>
+        <v>7235000</v>
+      </c>
+      <c r="J1450">
+        <v>72350</v>
+      </c>
+      <c r="L1450">
+        <f t="shared" si="63"/>
+        <v>295190</v>
+      </c>
+    </row>
+    <row r="1451" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1451">
+        <v>1447</v>
+      </c>
+      <c r="I1451">
+        <f t="shared" si="62"/>
+        <v>7240000</v>
+      </c>
+      <c r="J1451">
+        <v>72400</v>
+      </c>
+      <c r="L1451">
+        <f t="shared" si="63"/>
+        <v>295400</v>
+      </c>
+    </row>
+    <row r="1452" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1452">
+        <v>1448</v>
+      </c>
+      <c r="I1452">
+        <f t="shared" si="62"/>
+        <v>7245000</v>
+      </c>
+      <c r="J1452">
+        <v>72450</v>
+      </c>
+      <c r="L1452">
+        <f t="shared" si="63"/>
+        <v>295600</v>
+      </c>
+    </row>
+    <row r="1453" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1453">
+        <v>1449</v>
+      </c>
+      <c r="I1453">
+        <f t="shared" si="62"/>
+        <v>7250000</v>
+      </c>
+      <c r="J1453">
+        <v>72500</v>
+      </c>
+      <c r="L1453">
+        <f t="shared" si="63"/>
+        <v>295800</v>
+      </c>
+    </row>
+    <row r="1454" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1454">
+        <v>1450</v>
+      </c>
+      <c r="I1454">
+        <f t="shared" si="62"/>
+        <v>7255000</v>
+      </c>
+      <c r="J1454">
+        <v>72550</v>
+      </c>
+      <c r="L1454">
+        <f t="shared" si="63"/>
+        <v>296010</v>
+      </c>
+    </row>
+    <row r="1455" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1455">
+        <v>1451</v>
+      </c>
+      <c r="I1455">
+        <f t="shared" si="62"/>
+        <v>7260000</v>
+      </c>
+      <c r="J1455">
+        <v>72600</v>
+      </c>
+      <c r="L1455">
+        <f t="shared" si="63"/>
+        <v>296210</v>
+      </c>
+    </row>
+    <row r="1456" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1456">
+        <v>1452</v>
+      </c>
+      <c r="I1456">
+        <f t="shared" si="62"/>
+        <v>7265000</v>
+      </c>
+      <c r="J1456">
+        <v>72650</v>
+      </c>
+      <c r="L1456">
+        <f t="shared" si="63"/>
+        <v>296420</v>
+      </c>
+    </row>
+    <row r="1457" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1457">
+        <v>1453</v>
+      </c>
+      <c r="I1457">
+        <f t="shared" si="62"/>
+        <v>7270000</v>
+      </c>
+      <c r="J1457">
+        <v>72700</v>
+      </c>
+      <c r="L1457">
+        <f t="shared" si="63"/>
+        <v>296620</v>
+      </c>
+    </row>
+    <row r="1458" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1458">
+        <v>1454</v>
+      </c>
+      <c r="I1458">
+        <f t="shared" si="62"/>
+        <v>7275000</v>
+      </c>
+      <c r="J1458">
+        <v>72750</v>
+      </c>
+      <c r="L1458">
+        <f t="shared" si="63"/>
+        <v>296820</v>
+      </c>
+    </row>
+    <row r="1459" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1459">
+        <v>1455</v>
+      </c>
+      <c r="I1459">
+        <f t="shared" si="62"/>
+        <v>7280000</v>
+      </c>
+      <c r="J1459">
+        <v>72800</v>
+      </c>
+      <c r="L1459">
+        <f t="shared" si="63"/>
+        <v>297030</v>
+      </c>
+    </row>
+    <row r="1460" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1460">
+        <v>1456</v>
+      </c>
+      <c r="I1460">
+        <f t="shared" si="62"/>
+        <v>7285000</v>
+      </c>
+      <c r="J1460">
+        <v>72850</v>
+      </c>
+      <c r="L1460">
+        <f t="shared" si="63"/>
+        <v>297230</v>
+      </c>
+    </row>
+    <row r="1461" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1461">
+        <v>1457</v>
+      </c>
+      <c r="I1461">
+        <f t="shared" si="62"/>
+        <v>7290000</v>
+      </c>
+      <c r="J1461">
+        <v>72900</v>
+      </c>
+      <c r="L1461">
+        <f t="shared" si="63"/>
+        <v>297440</v>
+      </c>
+    </row>
+    <row r="1462" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1462">
+        <v>1458</v>
+      </c>
+      <c r="I1462">
+        <f t="shared" si="62"/>
+        <v>7295000</v>
+      </c>
+      <c r="J1462">
+        <v>72950</v>
+      </c>
+      <c r="L1462">
+        <f t="shared" si="63"/>
+        <v>297640</v>
+      </c>
+    </row>
+    <row r="1463" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1463">
+        <v>1459</v>
+      </c>
+      <c r="I1463">
+        <f t="shared" si="62"/>
+        <v>7300000</v>
+      </c>
+      <c r="J1463">
+        <v>73000</v>
+      </c>
+      <c r="L1463">
+        <f t="shared" si="63"/>
+        <v>297840</v>
+      </c>
+    </row>
+    <row r="1464" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1464">
+        <v>1460</v>
+      </c>
+      <c r="I1464">
+        <f t="shared" si="62"/>
+        <v>7305000</v>
+      </c>
+      <c r="J1464">
+        <v>73050</v>
+      </c>
+      <c r="L1464">
+        <f t="shared" si="63"/>
+        <v>298050</v>
+      </c>
+    </row>
+    <row r="1465" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1465">
+        <v>1461</v>
+      </c>
+      <c r="I1465">
+        <f t="shared" si="62"/>
+        <v>7310000</v>
+      </c>
+      <c r="J1465">
+        <v>73100</v>
+      </c>
+      <c r="L1465">
+        <f t="shared" si="63"/>
+        <v>298250</v>
+      </c>
+    </row>
+    <row r="1466" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1466">
+        <v>1462</v>
+      </c>
+      <c r="I1466">
+        <f t="shared" si="62"/>
+        <v>7315000</v>
+      </c>
+      <c r="J1466">
+        <v>73150</v>
+      </c>
+      <c r="L1466">
+        <f t="shared" si="63"/>
+        <v>298460</v>
+      </c>
+    </row>
+    <row r="1467" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1467">
+        <v>1463</v>
+      </c>
+      <c r="I1467">
+        <f t="shared" si="62"/>
+        <v>7320000</v>
+      </c>
+      <c r="J1467">
+        <v>73200</v>
+      </c>
+      <c r="L1467">
+        <f t="shared" si="63"/>
+        <v>298660</v>
+      </c>
+    </row>
+    <row r="1468" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1468">
+        <v>1464</v>
+      </c>
+      <c r="I1468">
+        <f t="shared" si="62"/>
+        <v>7325000</v>
+      </c>
+      <c r="J1468">
+        <v>73250</v>
+      </c>
+      <c r="L1468">
+        <f t="shared" si="63"/>
+        <v>298860</v>
+      </c>
+    </row>
+    <row r="1469" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1469">
+        <v>1465</v>
+      </c>
+      <c r="I1469">
+        <f t="shared" si="62"/>
+        <v>7330000</v>
+      </c>
+      <c r="J1469">
+        <v>73300</v>
+      </c>
+      <c r="L1469">
+        <f t="shared" si="63"/>
+        <v>299070</v>
+      </c>
+    </row>
+    <row r="1470" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1470">
+        <v>1466</v>
+      </c>
+      <c r="I1470">
+        <f t="shared" si="62"/>
+        <v>7335000</v>
+      </c>
+      <c r="J1470">
+        <v>73350</v>
+      </c>
+      <c r="L1470">
+        <f t="shared" si="63"/>
+        <v>299270</v>
+      </c>
+    </row>
+    <row r="1471" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1471">
+        <v>1467</v>
+      </c>
+      <c r="I1471">
+        <f t="shared" si="62"/>
+        <v>7340000</v>
+      </c>
+      <c r="J1471">
+        <v>73400</v>
+      </c>
+      <c r="L1471">
+        <f t="shared" si="63"/>
+        <v>299480</v>
+      </c>
+    </row>
+    <row r="1472" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1472">
+        <v>1468</v>
+      </c>
+      <c r="I1472">
+        <f t="shared" si="62"/>
+        <v>7345000</v>
+      </c>
+      <c r="J1472">
+        <v>73450</v>
+      </c>
+      <c r="L1472">
+        <f t="shared" si="63"/>
+        <v>299680</v>
+      </c>
+    </row>
+    <row r="1473" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1473">
+        <v>1469</v>
+      </c>
+      <c r="I1473">
+        <f t="shared" si="62"/>
+        <v>7350000</v>
+      </c>
+      <c r="J1473">
+        <v>73500</v>
+      </c>
+      <c r="L1473">
+        <f t="shared" si="63"/>
+        <v>299880</v>
+      </c>
+    </row>
+    <row r="1474" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1474">
+        <v>1470</v>
+      </c>
+      <c r="I1474">
+        <f t="shared" si="62"/>
+        <v>7355000</v>
+      </c>
+      <c r="J1474">
+        <v>73550</v>
+      </c>
+      <c r="L1474">
+        <f t="shared" si="63"/>
+        <v>300090</v>
+      </c>
+    </row>
+    <row r="1475" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1475">
+        <v>1471</v>
+      </c>
+      <c r="I1475">
+        <f t="shared" si="62"/>
+        <v>7360000</v>
+      </c>
+      <c r="J1475">
+        <v>73600</v>
+      </c>
+      <c r="L1475">
+        <f t="shared" si="63"/>
+        <v>300290</v>
+      </c>
+    </row>
+    <row r="1476" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1476">
+        <v>1472</v>
+      </c>
+      <c r="I1476">
+        <f t="shared" si="62"/>
+        <v>7365000</v>
+      </c>
+      <c r="J1476">
+        <v>73650</v>
+      </c>
+      <c r="L1476">
+        <f t="shared" si="63"/>
+        <v>300500</v>
+      </c>
+    </row>
+    <row r="1477" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1477">
+        <v>1473</v>
+      </c>
+      <c r="I1477">
+        <f t="shared" si="62"/>
+        <v>7370000</v>
+      </c>
+      <c r="J1477">
+        <v>73700</v>
+      </c>
+      <c r="L1477">
+        <f t="shared" si="63"/>
+        <v>300700</v>
+      </c>
+    </row>
+    <row r="1478" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1478">
+        <v>1474</v>
+      </c>
+      <c r="I1478">
+        <f t="shared" si="62"/>
+        <v>7375000</v>
+      </c>
+      <c r="J1478">
+        <v>73750</v>
+      </c>
+      <c r="L1478">
+        <f t="shared" si="63"/>
+        <v>300900</v>
+      </c>
+    </row>
+    <row r="1479" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1479">
+        <v>1475</v>
+      </c>
+      <c r="I1479">
+        <f t="shared" si="62"/>
+        <v>7380000</v>
+      </c>
+      <c r="J1479">
+        <v>73800</v>
+      </c>
+      <c r="L1479">
+        <f t="shared" si="63"/>
+        <v>301110</v>
+      </c>
+    </row>
+    <row r="1480" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1480">
+        <v>1476</v>
+      </c>
+      <c r="I1480">
+        <f t="shared" si="62"/>
+        <v>7385000</v>
+      </c>
+      <c r="J1480">
+        <v>73850</v>
+      </c>
+      <c r="L1480">
+        <f t="shared" si="63"/>
+        <v>301310</v>
+      </c>
+    </row>
+    <row r="1481" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1481">
+        <v>1477</v>
+      </c>
+      <c r="I1481">
+        <f t="shared" si="62"/>
+        <v>7390000</v>
+      </c>
+      <c r="J1481">
+        <v>73900</v>
+      </c>
+      <c r="L1481">
+        <f t="shared" si="63"/>
+        <v>301520</v>
+      </c>
+    </row>
+    <row r="1482" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1482">
+        <v>1478</v>
+      </c>
+      <c r="I1482">
+        <f t="shared" si="62"/>
+        <v>7395000</v>
+      </c>
+      <c r="J1482">
+        <v>73950</v>
+      </c>
+      <c r="L1482">
+        <f t="shared" si="63"/>
+        <v>301720</v>
+      </c>
+    </row>
+    <row r="1483" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1483">
+        <v>1479</v>
+      </c>
+      <c r="I1483">
+        <f t="shared" si="62"/>
+        <v>7400000</v>
+      </c>
+      <c r="J1483">
+        <v>74000</v>
+      </c>
+      <c r="L1483">
+        <f t="shared" si="63"/>
+        <v>301920</v>
+      </c>
+    </row>
+    <row r="1484" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1484">
+        <v>1480</v>
+      </c>
+      <c r="I1484">
+        <f t="shared" si="62"/>
+        <v>7405000</v>
+      </c>
+      <c r="J1484">
+        <v>74050</v>
+      </c>
+      <c r="L1484">
+        <f t="shared" si="63"/>
+        <v>302130</v>
+      </c>
+    </row>
+    <row r="1485" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1485">
+        <v>1481</v>
+      </c>
+      <c r="I1485">
+        <f t="shared" si="62"/>
+        <v>7410000</v>
+      </c>
+      <c r="J1485">
+        <v>74100</v>
+      </c>
+      <c r="L1485">
+        <f t="shared" si="63"/>
+        <v>302330</v>
+      </c>
+    </row>
+    <row r="1486" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1486">
+        <v>1482</v>
+      </c>
+      <c r="I1486">
+        <f t="shared" si="62"/>
+        <v>7415000</v>
+      </c>
+      <c r="J1486">
+        <v>74150</v>
+      </c>
+      <c r="L1486">
+        <f t="shared" si="63"/>
+        <v>302540</v>
+      </c>
+    </row>
+    <row r="1487" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1487">
+        <v>1483</v>
+      </c>
+      <c r="I1487">
+        <f t="shared" si="62"/>
+        <v>7420000</v>
+      </c>
+      <c r="J1487">
+        <v>74200</v>
+      </c>
+      <c r="L1487">
+        <f t="shared" si="63"/>
+        <v>302740</v>
+      </c>
+    </row>
+    <row r="1488" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1488">
+        <v>1484</v>
+      </c>
+      <c r="I1488">
+        <f t="shared" si="62"/>
+        <v>7425000</v>
+      </c>
+      <c r="J1488">
+        <v>74250</v>
+      </c>
+      <c r="L1488">
+        <f t="shared" si="63"/>
+        <v>302940</v>
+      </c>
+    </row>
+    <row r="1489" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1489">
+        <v>1485</v>
+      </c>
+      <c r="I1489">
+        <f t="shared" si="62"/>
+        <v>7430000</v>
+      </c>
+      <c r="J1489">
+        <v>74300</v>
+      </c>
+      <c r="L1489">
+        <f t="shared" si="63"/>
+        <v>303150</v>
+      </c>
+    </row>
+    <row r="1490" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1490">
+        <v>1486</v>
+      </c>
+      <c r="I1490">
+        <f t="shared" si="62"/>
+        <v>7435000</v>
+      </c>
+      <c r="J1490">
+        <v>74350</v>
+      </c>
+      <c r="L1490">
+        <f t="shared" si="63"/>
+        <v>303350</v>
+      </c>
+    </row>
+    <row r="1491" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1491">
+        <v>1487</v>
+      </c>
+      <c r="I1491">
+        <f t="shared" si="62"/>
+        <v>7440000</v>
+      </c>
+      <c r="J1491">
+        <v>74400</v>
+      </c>
+      <c r="L1491">
+        <f t="shared" si="63"/>
+        <v>303560</v>
+      </c>
+    </row>
+    <row r="1492" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1492">
+        <v>1488</v>
+      </c>
+      <c r="I1492">
+        <f t="shared" si="62"/>
+        <v>7445000</v>
+      </c>
+      <c r="J1492">
+        <v>74450</v>
+      </c>
+      <c r="L1492">
+        <f t="shared" si="63"/>
+        <v>303760</v>
+      </c>
+    </row>
+    <row r="1493" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H1493">
+        <v>1489</v>
+      </c>
+      <c r="I1493">
+        <f t="shared" si="62"/>
+        <v>7450000</v>
+      </c>
+      <c r="J1493">
+        <v>74500</v>
+      </c>
+      <c r="L1493">
+        <f t="shared" si="63"/>
+        <v>303960</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C427FAA-ABDA-45E6-88FC-5D0F100AFA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70471B-26A0-463F-94D0-83C608F3E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D1201"/>
+  <dimension ref="A1:D1401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1179" sqref="B1179"/>
+      <pane ySplit="1" topLeftCell="A1384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1397" sqref="B1397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18818,7 +18818,7 @@
         <v>57100</v>
       </c>
       <c r="C1143" s="1">
-        <f t="shared" ref="C1143:C1201" si="20">C1142</f>
+        <f t="shared" ref="C1143:C1206" si="20">C1142</f>
         <v>49</v>
       </c>
       <c r="D1143" s="1">
@@ -19752,6 +19752,3206 @@
       <c r="D1201" s="1">
         <f>VLOOKUP(A1201,Balalnce!H:L,5,FALSE)/100</f>
         <v>2448</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1202">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="2">
+        <v>60050</v>
+      </c>
+      <c r="C1202" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1202" s="1">
+        <f>VLOOKUP(A1202,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2450.1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1203">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="2">
+        <v>60100</v>
+      </c>
+      <c r="C1203" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1203" s="1">
+        <f>VLOOKUP(A1203,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2452.1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1204">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="2">
+        <v>60150</v>
+      </c>
+      <c r="C1204" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1204" s="1">
+        <f>VLOOKUP(A1204,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2454.1999999999998</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1205">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="2">
+        <v>60200</v>
+      </c>
+      <c r="C1205" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1205" s="1">
+        <f>VLOOKUP(A1205,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2456.1999999999998</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1206">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="2">
+        <v>60250</v>
+      </c>
+      <c r="C1206" s="1">
+        <f t="shared" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="D1206" s="1">
+        <f>VLOOKUP(A1206,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2458.1999999999998</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1207">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="2">
+        <v>60300</v>
+      </c>
+      <c r="C1207" s="1">
+        <f t="shared" ref="C1207:C1270" si="21">C1206</f>
+        <v>49</v>
+      </c>
+      <c r="D1207" s="1">
+        <f>VLOOKUP(A1207,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2460.3000000000002</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1208">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="2">
+        <v>60350</v>
+      </c>
+      <c r="C1208" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1208" s="1">
+        <f>VLOOKUP(A1208,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2462.3000000000002</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1209">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="2">
+        <v>60400</v>
+      </c>
+      <c r="C1209" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1209" s="1">
+        <f>VLOOKUP(A1209,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2464.4</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1210">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="2">
+        <v>60450</v>
+      </c>
+      <c r="C1210" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1210" s="1">
+        <f>VLOOKUP(A1210,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2466.4</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1211">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="2">
+        <v>60500</v>
+      </c>
+      <c r="C1211" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1211" s="1">
+        <f>VLOOKUP(A1211,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2468.4</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1212">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="2">
+        <v>60550</v>
+      </c>
+      <c r="C1212" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1212" s="1">
+        <f>VLOOKUP(A1212,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2470.5</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1213">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="2">
+        <v>60600</v>
+      </c>
+      <c r="C1213" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1213" s="1">
+        <f>VLOOKUP(A1213,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2472.5</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1214">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>60650</v>
+      </c>
+      <c r="C1214" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1214" s="1">
+        <f>VLOOKUP(A1214,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2474.6</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1215">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>60700</v>
+      </c>
+      <c r="C1215" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1215" s="1">
+        <f>VLOOKUP(A1215,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2476.6</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1216">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>60750</v>
+      </c>
+      <c r="C1216" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1216" s="1">
+        <f>VLOOKUP(A1216,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2478.6</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1217">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>60800</v>
+      </c>
+      <c r="C1217" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1217" s="1">
+        <f>VLOOKUP(A1217,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2480.6999999999998</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1218">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>60850</v>
+      </c>
+      <c r="C1218" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1218" s="1">
+        <f>VLOOKUP(A1218,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2482.6999999999998</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1219">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>60900</v>
+      </c>
+      <c r="C1219" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1219" s="1">
+        <f>VLOOKUP(A1219,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2484.8000000000002</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1220">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>60950</v>
+      </c>
+      <c r="C1220" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1220" s="1">
+        <f>VLOOKUP(A1220,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2486.8000000000002</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1221">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>61000</v>
+      </c>
+      <c r="C1221" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1221" s="1">
+        <f>VLOOKUP(A1221,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2488.8000000000002</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1222">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>61050</v>
+      </c>
+      <c r="C1222" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1222" s="1">
+        <f>VLOOKUP(A1222,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2490.9</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1223">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>61100</v>
+      </c>
+      <c r="C1223" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1223" s="1">
+        <f>VLOOKUP(A1223,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2492.9</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1224">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>61150</v>
+      </c>
+      <c r="C1224" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1224" s="1">
+        <f>VLOOKUP(A1224,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1225">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>61200</v>
+      </c>
+      <c r="C1225" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1225" s="1">
+        <f>VLOOKUP(A1225,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1226">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>61250</v>
+      </c>
+      <c r="C1226" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1226" s="1">
+        <f>VLOOKUP(A1226,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1227">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>61300</v>
+      </c>
+      <c r="C1227" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1227" s="1">
+        <f>VLOOKUP(A1227,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2501.1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1228">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="2">
+        <v>61350</v>
+      </c>
+      <c r="C1228" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1228" s="1">
+        <f>VLOOKUP(A1228,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2503.1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1229">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="2">
+        <v>61400</v>
+      </c>
+      <c r="C1229" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1229" s="1">
+        <f>VLOOKUP(A1229,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2505.1999999999998</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1230">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="2">
+        <v>61450</v>
+      </c>
+      <c r="C1230" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1230" s="1">
+        <f>VLOOKUP(A1230,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2507.1999999999998</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1231">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="2">
+        <v>61500</v>
+      </c>
+      <c r="C1231" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1231" s="1">
+        <f>VLOOKUP(A1231,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2509.1999999999998</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1232">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="2">
+        <v>61550</v>
+      </c>
+      <c r="C1232" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1232" s="1">
+        <f>VLOOKUP(A1232,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2511.3000000000002</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1233">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="2">
+        <v>61600</v>
+      </c>
+      <c r="C1233" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1233" s="1">
+        <f>VLOOKUP(A1233,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2513.3000000000002</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1234">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="2">
+        <v>61650</v>
+      </c>
+      <c r="C1234" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1234" s="1">
+        <f>VLOOKUP(A1234,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2515.4</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1235">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="2">
+        <v>61700</v>
+      </c>
+      <c r="C1235" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1235" s="1">
+        <f>VLOOKUP(A1235,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2517.4</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1236">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="2">
+        <v>61750</v>
+      </c>
+      <c r="C1236" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1236" s="1">
+        <f>VLOOKUP(A1236,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2519.4</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1237">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="2">
+        <v>61800</v>
+      </c>
+      <c r="C1237" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1237" s="1">
+        <f>VLOOKUP(A1237,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2521.5</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1238">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="2">
+        <v>61850</v>
+      </c>
+      <c r="C1238" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1238" s="1">
+        <f>VLOOKUP(A1238,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2523.5</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1239">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="2">
+        <v>61900</v>
+      </c>
+      <c r="C1239" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1239" s="1">
+        <f>VLOOKUP(A1239,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2525.6</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1240">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="2">
+        <v>61950</v>
+      </c>
+      <c r="C1240" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1240" s="1">
+        <f>VLOOKUP(A1240,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2527.6</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1241">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="2">
+        <v>62000</v>
+      </c>
+      <c r="C1241" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1241" s="1">
+        <f>VLOOKUP(A1241,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2529.6</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1242">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="2">
+        <v>62050</v>
+      </c>
+      <c r="C1242" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1242" s="1">
+        <f>VLOOKUP(A1242,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2531.6999999999998</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1243">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="2">
+        <v>62100</v>
+      </c>
+      <c r="C1243" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1243" s="1">
+        <f>VLOOKUP(A1243,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2533.6999999999998</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1244">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="2">
+        <v>62150</v>
+      </c>
+      <c r="C1244" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1244" s="1">
+        <f>VLOOKUP(A1244,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2535.8000000000002</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1245">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="2">
+        <v>62200</v>
+      </c>
+      <c r="C1245" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1245" s="1">
+        <f>VLOOKUP(A1245,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2537.8000000000002</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1246">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>62250</v>
+      </c>
+      <c r="C1246" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1246" s="1">
+        <f>VLOOKUP(A1246,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2539.8000000000002</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1247">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="2">
+        <v>62300</v>
+      </c>
+      <c r="C1247" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1247" s="1">
+        <f>VLOOKUP(A1247,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2541.9</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1248">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>62350</v>
+      </c>
+      <c r="C1248" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1248" s="1">
+        <f>VLOOKUP(A1248,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2543.9</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1249">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="2">
+        <v>62400</v>
+      </c>
+      <c r="C1249" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1249" s="1">
+        <f>VLOOKUP(A1249,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1250">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="2">
+        <v>62450</v>
+      </c>
+      <c r="C1250" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1250" s="1">
+        <f>VLOOKUP(A1250,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1251">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="2">
+        <v>62500</v>
+      </c>
+      <c r="C1251" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1251" s="1">
+        <f>VLOOKUP(A1251,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1252">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="2">
+        <v>62550</v>
+      </c>
+      <c r="C1252" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1252" s="1">
+        <f>VLOOKUP(A1252,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2552.1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="2">
+        <v>62600</v>
+      </c>
+      <c r="C1253" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1253" s="1">
+        <f>VLOOKUP(A1253,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2554.1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1254">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>62650</v>
+      </c>
+      <c r="C1254" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1254" s="1">
+        <f>VLOOKUP(A1254,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2556.1999999999998</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="2">
+        <v>62700</v>
+      </c>
+      <c r="C1255" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1255" s="1">
+        <f>VLOOKUP(A1255,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2558.1999999999998</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>62750</v>
+      </c>
+      <c r="C1256" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1256" s="1">
+        <f>VLOOKUP(A1256,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2560.1999999999998</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="2">
+        <v>62800</v>
+      </c>
+      <c r="C1257" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1257" s="1">
+        <f>VLOOKUP(A1257,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2562.3000000000002</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="2">
+        <v>62850</v>
+      </c>
+      <c r="C1258" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1258" s="1">
+        <f>VLOOKUP(A1258,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2564.3000000000002</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="2">
+        <v>62900</v>
+      </c>
+      <c r="C1259" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1259" s="1">
+        <f>VLOOKUP(A1259,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2566.4</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="2">
+        <v>62950</v>
+      </c>
+      <c r="C1260" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1260" s="1">
+        <f>VLOOKUP(A1260,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2568.4</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="2">
+        <v>63000</v>
+      </c>
+      <c r="C1261" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1261" s="1">
+        <f>VLOOKUP(A1261,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2570.4</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="2">
+        <v>63050</v>
+      </c>
+      <c r="C1262" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1262" s="1">
+        <f>VLOOKUP(A1262,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2572.5</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="2">
+        <v>63100</v>
+      </c>
+      <c r="C1263" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1263" s="1">
+        <f>VLOOKUP(A1263,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2574.5</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1264">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="2">
+        <v>63150</v>
+      </c>
+      <c r="C1264" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1264" s="1">
+        <f>VLOOKUP(A1264,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2576.6</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="2">
+        <v>63200</v>
+      </c>
+      <c r="C1265" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1265" s="1">
+        <f>VLOOKUP(A1265,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2578.6</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="2">
+        <v>63250</v>
+      </c>
+      <c r="C1266" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1266" s="1">
+        <f>VLOOKUP(A1266,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2580.6</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="2">
+        <v>63300</v>
+      </c>
+      <c r="C1267" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1267" s="1">
+        <f>VLOOKUP(A1267,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2582.6999999999998</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="2">
+        <v>63350</v>
+      </c>
+      <c r="C1268" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1268" s="1">
+        <f>VLOOKUP(A1268,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2584.6999999999998</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1269">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="2">
+        <v>63400</v>
+      </c>
+      <c r="C1269" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1269" s="1">
+        <f>VLOOKUP(A1269,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2586.8000000000002</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="2">
+        <v>63450</v>
+      </c>
+      <c r="C1270" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="D1270" s="1">
+        <f>VLOOKUP(A1270,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2588.8000000000002</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1271">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="2">
+        <v>63500</v>
+      </c>
+      <c r="C1271" s="1">
+        <f t="shared" ref="C1271:C1334" si="22">C1270</f>
+        <v>49</v>
+      </c>
+      <c r="D1271" s="1">
+        <f>VLOOKUP(A1271,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2590.8000000000002</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1272">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="2">
+        <v>63550</v>
+      </c>
+      <c r="C1272" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1272" s="1">
+        <f>VLOOKUP(A1272,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2592.9</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="2">
+        <v>63600</v>
+      </c>
+      <c r="C1273" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1273" s="1">
+        <f>VLOOKUP(A1273,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2594.9</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="2">
+        <v>63650</v>
+      </c>
+      <c r="C1274" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1274" s="1">
+        <f>VLOOKUP(A1274,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="2">
+        <v>63700</v>
+      </c>
+      <c r="C1275" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1275" s="1">
+        <f>VLOOKUP(A1275,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="2">
+        <v>63750</v>
+      </c>
+      <c r="C1276" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1276" s="1">
+        <f>VLOOKUP(A1276,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="2">
+        <v>63800</v>
+      </c>
+      <c r="C1277" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1277" s="1">
+        <f>VLOOKUP(A1277,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2603.1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1278">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="2">
+        <v>63850</v>
+      </c>
+      <c r="C1278" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1278" s="1">
+        <f>VLOOKUP(A1278,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2605.1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1279">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="2">
+        <v>63900</v>
+      </c>
+      <c r="C1279" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1279" s="1">
+        <f>VLOOKUP(A1279,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2607.1999999999998</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1280">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="2">
+        <v>63950</v>
+      </c>
+      <c r="C1280" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1280" s="1">
+        <f>VLOOKUP(A1280,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2609.1999999999998</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1281">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="2">
+        <v>64000</v>
+      </c>
+      <c r="C1281" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1281" s="1">
+        <f>VLOOKUP(A1281,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2611.1999999999998</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1282">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="2">
+        <v>64050</v>
+      </c>
+      <c r="C1282" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1282" s="1">
+        <f>VLOOKUP(A1282,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2613.3000000000002</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1283">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="2">
+        <v>64100</v>
+      </c>
+      <c r="C1283" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1283" s="1">
+        <f>VLOOKUP(A1283,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2615.3000000000002</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1284">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="2">
+        <v>64150</v>
+      </c>
+      <c r="C1284" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1284" s="1">
+        <f>VLOOKUP(A1284,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2617.4</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1285">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="2">
+        <v>64200</v>
+      </c>
+      <c r="C1285" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1285" s="1">
+        <f>VLOOKUP(A1285,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2619.4</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1286">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="2">
+        <v>64250</v>
+      </c>
+      <c r="C1286" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1286" s="1">
+        <f>VLOOKUP(A1286,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2621.4</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1287">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="2">
+        <v>64300</v>
+      </c>
+      <c r="C1287" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1287" s="1">
+        <f>VLOOKUP(A1287,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2623.5</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1288">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="2">
+        <v>64350</v>
+      </c>
+      <c r="C1288" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1288" s="1">
+        <f>VLOOKUP(A1288,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2625.5</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1289">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="2">
+        <v>64400</v>
+      </c>
+      <c r="C1289" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1289" s="1">
+        <f>VLOOKUP(A1289,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2627.6</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1290">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="2">
+        <v>64450</v>
+      </c>
+      <c r="C1290" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1290" s="1">
+        <f>VLOOKUP(A1290,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2629.6</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1291">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="2">
+        <v>64500</v>
+      </c>
+      <c r="C1291" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1291" s="1">
+        <f>VLOOKUP(A1291,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2631.6</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1292">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="2">
+        <v>64550</v>
+      </c>
+      <c r="C1292" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1292" s="1">
+        <f>VLOOKUP(A1292,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2633.7</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1293">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="2">
+        <v>64600</v>
+      </c>
+      <c r="C1293" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1293" s="1">
+        <f>VLOOKUP(A1293,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2635.7</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1294">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="2">
+        <v>64650</v>
+      </c>
+      <c r="C1294" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1294" s="1">
+        <f>VLOOKUP(A1294,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2637.8</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1295">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="2">
+        <v>64700</v>
+      </c>
+      <c r="C1295" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1295" s="1">
+        <f>VLOOKUP(A1295,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2639.8</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1296">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="2">
+        <v>64750</v>
+      </c>
+      <c r="C1296" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1296" s="1">
+        <f>VLOOKUP(A1296,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2641.8</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1297">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="2">
+        <v>64800</v>
+      </c>
+      <c r="C1297" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1297" s="1">
+        <f>VLOOKUP(A1297,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2643.9</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1298">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="2">
+        <v>64850</v>
+      </c>
+      <c r="C1298" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1298" s="1">
+        <f>VLOOKUP(A1298,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2645.9</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1299">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="2">
+        <v>64900</v>
+      </c>
+      <c r="C1299" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1299" s="1">
+        <f>VLOOKUP(A1299,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1300">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="2">
+        <v>64950</v>
+      </c>
+      <c r="C1300" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1300" s="1">
+        <f>VLOOKUP(A1300,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1301">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="2">
+        <v>65000</v>
+      </c>
+      <c r="C1301" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1301" s="1">
+        <f>VLOOKUP(A1301,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1302">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="2">
+        <v>65050</v>
+      </c>
+      <c r="C1302" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1302" s="1">
+        <f>VLOOKUP(A1302,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2654.1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1303">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="2">
+        <v>65100</v>
+      </c>
+      <c r="C1303" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1303" s="1">
+        <f>VLOOKUP(A1303,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2656.1</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1304">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="2">
+        <v>65150</v>
+      </c>
+      <c r="C1304" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1304" s="1">
+        <f>VLOOKUP(A1304,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2658.2</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1305">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="2">
+        <v>65200</v>
+      </c>
+      <c r="C1305" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1305" s="1">
+        <f>VLOOKUP(A1305,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2660.2</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1306">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="2">
+        <v>65250</v>
+      </c>
+      <c r="C1306" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1306" s="1">
+        <f>VLOOKUP(A1306,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2662.2</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1307">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="2">
+        <v>65300</v>
+      </c>
+      <c r="C1307" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1307" s="1">
+        <f>VLOOKUP(A1307,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2664.3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1308">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="2">
+        <v>65350</v>
+      </c>
+      <c r="C1308" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1308" s="1">
+        <f>VLOOKUP(A1308,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2666.3</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1309">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="2">
+        <v>65400</v>
+      </c>
+      <c r="C1309" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1309" s="1">
+        <f>VLOOKUP(A1309,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2668.4</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1310">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="2">
+        <v>65450</v>
+      </c>
+      <c r="C1310" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1310" s="1">
+        <f>VLOOKUP(A1310,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2670.4</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1311">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="2">
+        <v>65500</v>
+      </c>
+      <c r="C1311" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1311" s="1">
+        <f>VLOOKUP(A1311,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2672.4</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1312">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="2">
+        <v>65550</v>
+      </c>
+      <c r="C1312" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1312" s="1">
+        <f>VLOOKUP(A1312,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2674.5</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1313">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="2">
+        <v>65600</v>
+      </c>
+      <c r="C1313" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1313" s="1">
+        <f>VLOOKUP(A1313,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2676.5</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1314">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="2">
+        <v>65650</v>
+      </c>
+      <c r="C1314" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1314" s="1">
+        <f>VLOOKUP(A1314,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2678.6</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1315">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="2">
+        <v>65700</v>
+      </c>
+      <c r="C1315" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1315" s="1">
+        <f>VLOOKUP(A1315,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2680.6</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1316">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="2">
+        <v>65750</v>
+      </c>
+      <c r="C1316" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1316" s="1">
+        <f>VLOOKUP(A1316,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2682.6</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1317">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="2">
+        <v>65800</v>
+      </c>
+      <c r="C1317" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1317" s="1">
+        <f>VLOOKUP(A1317,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2684.7</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1318">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="2">
+        <v>65850</v>
+      </c>
+      <c r="C1318" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1318" s="1">
+        <f>VLOOKUP(A1318,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2686.7</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1319">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="2">
+        <v>65900</v>
+      </c>
+      <c r="C1319" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1319" s="1">
+        <f>VLOOKUP(A1319,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2688.8</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1320">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="2">
+        <v>65950</v>
+      </c>
+      <c r="C1320" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1320" s="1">
+        <f>VLOOKUP(A1320,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2690.8</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1321">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="2">
+        <v>66000</v>
+      </c>
+      <c r="C1321" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1321" s="1">
+        <f>VLOOKUP(A1321,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2692.8</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1322">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="2">
+        <v>66050</v>
+      </c>
+      <c r="C1322" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1322" s="1">
+        <f>VLOOKUP(A1322,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2694.9</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1323">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="2">
+        <v>66100</v>
+      </c>
+      <c r="C1323" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1323" s="1">
+        <f>VLOOKUP(A1323,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2696.9</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1324">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="2">
+        <v>66150</v>
+      </c>
+      <c r="C1324" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1324" s="1">
+        <f>VLOOKUP(A1324,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1325">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="2">
+        <v>66200</v>
+      </c>
+      <c r="C1325" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1325" s="1">
+        <f>VLOOKUP(A1325,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1326">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="2">
+        <v>66250</v>
+      </c>
+      <c r="C1326" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1326" s="1">
+        <f>VLOOKUP(A1326,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1327">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="2">
+        <v>66300</v>
+      </c>
+      <c r="C1327" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1327" s="1">
+        <f>VLOOKUP(A1327,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2705.1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1328">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="2">
+        <v>66350</v>
+      </c>
+      <c r="C1328" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1328" s="1">
+        <f>VLOOKUP(A1328,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2707.1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1329">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="2">
+        <v>66400</v>
+      </c>
+      <c r="C1329" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1329" s="1">
+        <f>VLOOKUP(A1329,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2709.2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1330">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="2">
+        <v>66450</v>
+      </c>
+      <c r="C1330" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1330" s="1">
+        <f>VLOOKUP(A1330,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2711.2</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1331">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="2">
+        <v>66500</v>
+      </c>
+      <c r="C1331" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1331" s="1">
+        <f>VLOOKUP(A1331,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2713.2</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1332">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="2">
+        <v>66550</v>
+      </c>
+      <c r="C1332" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1332" s="1">
+        <f>VLOOKUP(A1332,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2715.3</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1333">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="2">
+        <v>66600</v>
+      </c>
+      <c r="C1333" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1333" s="1">
+        <f>VLOOKUP(A1333,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2717.3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1334">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="2">
+        <v>66650</v>
+      </c>
+      <c r="C1334" s="1">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+      <c r="D1334" s="1">
+        <f>VLOOKUP(A1334,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2719.4</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1335">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="2">
+        <v>66700</v>
+      </c>
+      <c r="C1335" s="1">
+        <f t="shared" ref="C1335:C1398" si="23">C1334</f>
+        <v>49</v>
+      </c>
+      <c r="D1335" s="1">
+        <f>VLOOKUP(A1335,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2721.4</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1336">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="2">
+        <v>66750</v>
+      </c>
+      <c r="C1336" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1336" s="1">
+        <f>VLOOKUP(A1336,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2723.4</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1337">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="2">
+        <v>66800</v>
+      </c>
+      <c r="C1337" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1337" s="1">
+        <f>VLOOKUP(A1337,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2725.5</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1338">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="2">
+        <v>66850</v>
+      </c>
+      <c r="C1338" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1338" s="1">
+        <f>VLOOKUP(A1338,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2727.5</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1339">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="2">
+        <v>66900</v>
+      </c>
+      <c r="C1339" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1339" s="1">
+        <f>VLOOKUP(A1339,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2729.6</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1340">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="2">
+        <v>66950</v>
+      </c>
+      <c r="C1340" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1340" s="1">
+        <f>VLOOKUP(A1340,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2731.6</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1341">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="2">
+        <v>67000</v>
+      </c>
+      <c r="C1341" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1341" s="1">
+        <f>VLOOKUP(A1341,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2733.6</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1342">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="2">
+        <v>67050</v>
+      </c>
+      <c r="C1342" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1342" s="1">
+        <f>VLOOKUP(A1342,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2735.7</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1343">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="2">
+        <v>67100</v>
+      </c>
+      <c r="C1343" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1343" s="1">
+        <f>VLOOKUP(A1343,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2737.7</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1344">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="2">
+        <v>67150</v>
+      </c>
+      <c r="C1344" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1344" s="1">
+        <f>VLOOKUP(A1344,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2739.8</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1345">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="2">
+        <v>67200</v>
+      </c>
+      <c r="C1345" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1345" s="1">
+        <f>VLOOKUP(A1345,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2741.8</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1346">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="2">
+        <v>67250</v>
+      </c>
+      <c r="C1346" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1346" s="1">
+        <f>VLOOKUP(A1346,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2743.8</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1347">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="2">
+        <v>67300</v>
+      </c>
+      <c r="C1347" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1347" s="1">
+        <f>VLOOKUP(A1347,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2745.9</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1348">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="2">
+        <v>67350</v>
+      </c>
+      <c r="C1348" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1348" s="1">
+        <f>VLOOKUP(A1348,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2747.9</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1349">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="2">
+        <v>67400</v>
+      </c>
+      <c r="C1349" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1349" s="1">
+        <f>VLOOKUP(A1349,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1350">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="2">
+        <v>67450</v>
+      </c>
+      <c r="C1350" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1350" s="1">
+        <f>VLOOKUP(A1350,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1351">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="2">
+        <v>67500</v>
+      </c>
+      <c r="C1351" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1351" s="1">
+        <f>VLOOKUP(A1351,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1352">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="2">
+        <v>67550</v>
+      </c>
+      <c r="C1352" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1352" s="1">
+        <f>VLOOKUP(A1352,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2756.1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1353">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="2">
+        <v>67600</v>
+      </c>
+      <c r="C1353" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1353" s="1">
+        <f>VLOOKUP(A1353,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2758.1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1354">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="2">
+        <v>67650</v>
+      </c>
+      <c r="C1354" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1354" s="1">
+        <f>VLOOKUP(A1354,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2760.2</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1355">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="2">
+        <v>67700</v>
+      </c>
+      <c r="C1355" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1355" s="1">
+        <f>VLOOKUP(A1355,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2762.2</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1356">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="2">
+        <v>67750</v>
+      </c>
+      <c r="C1356" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1356" s="1">
+        <f>VLOOKUP(A1356,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2764.2</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1357">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="2">
+        <v>67800</v>
+      </c>
+      <c r="C1357" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1357" s="1">
+        <f>VLOOKUP(A1357,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2766.3</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1358">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="2">
+        <v>67850</v>
+      </c>
+      <c r="C1358" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1358" s="1">
+        <f>VLOOKUP(A1358,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2768.3</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1359">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="2">
+        <v>67900</v>
+      </c>
+      <c r="C1359" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1359" s="1">
+        <f>VLOOKUP(A1359,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2770.4</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1360">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="2">
+        <v>67950</v>
+      </c>
+      <c r="C1360" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1360" s="1">
+        <f>VLOOKUP(A1360,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2772.4</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1361">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="2">
+        <v>68000</v>
+      </c>
+      <c r="C1361" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1361" s="1">
+        <f>VLOOKUP(A1361,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2774.4</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1362">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="2">
+        <v>68050</v>
+      </c>
+      <c r="C1362" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1362" s="1">
+        <f>VLOOKUP(A1362,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2776.5</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1363">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="2">
+        <v>68100</v>
+      </c>
+      <c r="C1363" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1363" s="1">
+        <f>VLOOKUP(A1363,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2778.5</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1364">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="2">
+        <v>68150</v>
+      </c>
+      <c r="C1364" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1364" s="1">
+        <f>VLOOKUP(A1364,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2780.6</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1365">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="2">
+        <v>68200</v>
+      </c>
+      <c r="C1365" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1365" s="1">
+        <f>VLOOKUP(A1365,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2782.6</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1366">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="2">
+        <v>68250</v>
+      </c>
+      <c r="C1366" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1366" s="1">
+        <f>VLOOKUP(A1366,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2784.6</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1367">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="2">
+        <v>68300</v>
+      </c>
+      <c r="C1367" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1367" s="1">
+        <f>VLOOKUP(A1367,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2786.7</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1368">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="2">
+        <v>68350</v>
+      </c>
+      <c r="C1368" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1368" s="1">
+        <f>VLOOKUP(A1368,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2788.7</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1369">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="2">
+        <v>68400</v>
+      </c>
+      <c r="C1369" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1369" s="1">
+        <f>VLOOKUP(A1369,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2790.8</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1370">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="2">
+        <v>68450</v>
+      </c>
+      <c r="C1370" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1370" s="1">
+        <f>VLOOKUP(A1370,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2792.8</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1371">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="2">
+        <v>68500</v>
+      </c>
+      <c r="C1371" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1371" s="1">
+        <f>VLOOKUP(A1371,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2794.8</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1372">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="2">
+        <v>68550</v>
+      </c>
+      <c r="C1372" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1372" s="1">
+        <f>VLOOKUP(A1372,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2796.9</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1373">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="2">
+        <v>68600</v>
+      </c>
+      <c r="C1373" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1373" s="1">
+        <f>VLOOKUP(A1373,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2798.9</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1374">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="2">
+        <v>68650</v>
+      </c>
+      <c r="C1374" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1374" s="1">
+        <f>VLOOKUP(A1374,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1375">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="2">
+        <v>68700</v>
+      </c>
+      <c r="C1375" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1375" s="1">
+        <f>VLOOKUP(A1375,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1376">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="2">
+        <v>68750</v>
+      </c>
+      <c r="C1376" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1376" s="1">
+        <f>VLOOKUP(A1376,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1377">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="2">
+        <v>68800</v>
+      </c>
+      <c r="C1377" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1377" s="1">
+        <f>VLOOKUP(A1377,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2807.1</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1378">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="2">
+        <v>68850</v>
+      </c>
+      <c r="C1378" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1378" s="1">
+        <f>VLOOKUP(A1378,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2809.1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1379">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="2">
+        <v>68900</v>
+      </c>
+      <c r="C1379" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1379" s="1">
+        <f>VLOOKUP(A1379,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2811.2</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1380">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="2">
+        <v>68950</v>
+      </c>
+      <c r="C1380" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1380" s="1">
+        <f>VLOOKUP(A1380,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2813.2</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1381">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="2">
+        <v>69000</v>
+      </c>
+      <c r="C1381" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1381" s="1">
+        <f>VLOOKUP(A1381,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2815.2</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1382">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="2">
+        <v>69050</v>
+      </c>
+      <c r="C1382" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1382" s="1">
+        <f>VLOOKUP(A1382,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2817.3</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1383">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="2">
+        <v>69100</v>
+      </c>
+      <c r="C1383" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1383" s="1">
+        <f>VLOOKUP(A1383,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2819.3</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1384">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="2">
+        <v>69150</v>
+      </c>
+      <c r="C1384" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1384" s="1">
+        <f>VLOOKUP(A1384,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2821.4</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1385">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="2">
+        <v>69200</v>
+      </c>
+      <c r="C1385" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1385" s="1">
+        <f>VLOOKUP(A1385,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2823.4</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1386">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="2">
+        <v>69250</v>
+      </c>
+      <c r="C1386" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1386" s="1">
+        <f>VLOOKUP(A1386,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2825.4</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1387">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="2">
+        <v>69300</v>
+      </c>
+      <c r="C1387" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1387" s="1">
+        <f>VLOOKUP(A1387,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2827.5</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1388">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="2">
+        <v>69350</v>
+      </c>
+      <c r="C1388" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1388" s="1">
+        <f>VLOOKUP(A1388,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2829.5</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1389">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="2">
+        <v>69400</v>
+      </c>
+      <c r="C1389" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1389" s="1">
+        <f>VLOOKUP(A1389,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2831.6</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1390">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="2">
+        <v>69450</v>
+      </c>
+      <c r="C1390" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1390" s="1">
+        <f>VLOOKUP(A1390,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2833.6</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1391">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="2">
+        <v>69500</v>
+      </c>
+      <c r="C1391" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1391" s="1">
+        <f>VLOOKUP(A1391,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2835.6</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1392">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="2">
+        <v>69550</v>
+      </c>
+      <c r="C1392" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1392" s="1">
+        <f>VLOOKUP(A1392,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2837.7</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1393">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="2">
+        <v>69600</v>
+      </c>
+      <c r="C1393" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1393" s="1">
+        <f>VLOOKUP(A1393,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2839.7</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1394">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="2">
+        <v>69650</v>
+      </c>
+      <c r="C1394" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1394" s="1">
+        <f>VLOOKUP(A1394,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2841.8</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1395">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="2">
+        <v>69700</v>
+      </c>
+      <c r="C1395" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1395" s="1">
+        <f>VLOOKUP(A1395,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2843.8</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1396">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="2">
+        <v>69750</v>
+      </c>
+      <c r="C1396" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1396" s="1">
+        <f>VLOOKUP(A1396,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2845.8</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1397">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="2">
+        <v>69800</v>
+      </c>
+      <c r="C1397" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1397" s="1">
+        <f>VLOOKUP(A1397,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2847.9</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1398">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="2">
+        <v>69850</v>
+      </c>
+      <c r="C1398" s="1">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="D1398" s="1">
+        <f>VLOOKUP(A1398,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2849.9</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1399">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="2">
+        <v>69900</v>
+      </c>
+      <c r="C1399" s="1">
+        <f t="shared" ref="C1399:C1401" si="24">C1398</f>
+        <v>49</v>
+      </c>
+      <c r="D1399" s="1">
+        <f>VLOOKUP(A1399,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1400">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="2">
+        <v>69950</v>
+      </c>
+      <c r="C1400" s="1">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="D1400" s="1">
+        <f>VLOOKUP(A1400,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1401">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="2">
+        <v>70000</v>
+      </c>
+      <c r="C1401" s="1">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="D1401" s="1">
+        <f>VLOOKUP(A1401,Balalnce!H:L,5,FALSE)/100</f>
+        <v>2856</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SuhoUpgrade.xlsx
+++ b/Assets/06.Table/SuhoUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8502912-AD11-4FD1-9476-C6F8B1390AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6BEB6-8D37-4406-8EF6-4A30B656D32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -527,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D1601"/>
+  <dimension ref="A1:D2001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1600" sqref="B1600"/>
+      <pane ySplit="1" topLeftCell="A1987" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1995" sqref="B1995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25986,7 +25986,7 @@
         <v>79500</v>
       </c>
       <c r="C1591" s="1">
-        <f t="shared" ref="C1591:C1601" si="27">C1590</f>
+        <f t="shared" ref="C1591:C1654" si="27">C1590</f>
         <v>49</v>
       </c>
       <c r="D1591" s="1">
@@ -26152,6 +26152,6406 @@
       <c r="D1601" s="1">
         <f>VLOOKUP(A1601,Balalnce!H:L,5,FALSE)/100</f>
         <v>3264</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1602">
+        <v>1600</v>
+      </c>
+      <c r="B1602" s="2">
+        <v>80050</v>
+      </c>
+      <c r="C1602" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1602" s="1">
+        <f>VLOOKUP(A1602,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3266.1</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1603">
+        <v>1601</v>
+      </c>
+      <c r="B1603" s="2">
+        <v>80100</v>
+      </c>
+      <c r="C1603" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1603" s="1">
+        <f>VLOOKUP(A1603,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3268.1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1604">
+        <v>1602</v>
+      </c>
+      <c r="B1604" s="2">
+        <v>80150</v>
+      </c>
+      <c r="C1604" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1604" s="1">
+        <f>VLOOKUP(A1604,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3270.2</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1605">
+        <v>1603</v>
+      </c>
+      <c r="B1605" s="2">
+        <v>80200</v>
+      </c>
+      <c r="C1605" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1605" s="1">
+        <f>VLOOKUP(A1605,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3272.2</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1606">
+        <v>1604</v>
+      </c>
+      <c r="B1606" s="2">
+        <v>80250</v>
+      </c>
+      <c r="C1606" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1606" s="1">
+        <f>VLOOKUP(A1606,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3274.2</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1607">
+        <v>1605</v>
+      </c>
+      <c r="B1607" s="2">
+        <v>80300</v>
+      </c>
+      <c r="C1607" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1607" s="1">
+        <f>VLOOKUP(A1607,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3276.3</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1608">
+        <v>1606</v>
+      </c>
+      <c r="B1608" s="2">
+        <v>80350</v>
+      </c>
+      <c r="C1608" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1608" s="1">
+        <f>VLOOKUP(A1608,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3278.3</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1609">
+        <v>1607</v>
+      </c>
+      <c r="B1609" s="2">
+        <v>80400</v>
+      </c>
+      <c r="C1609" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1609" s="1">
+        <f>VLOOKUP(A1609,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3280.4</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1610">
+        <v>1608</v>
+      </c>
+      <c r="B1610" s="2">
+        <v>80450</v>
+      </c>
+      <c r="C1610" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1610" s="1">
+        <f>VLOOKUP(A1610,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3282.4</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1611">
+        <v>1609</v>
+      </c>
+      <c r="B1611" s="2">
+        <v>80500</v>
+      </c>
+      <c r="C1611" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1611" s="1">
+        <f>VLOOKUP(A1611,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3284.4</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1612">
+        <v>1610</v>
+      </c>
+      <c r="B1612" s="2">
+        <v>80550</v>
+      </c>
+      <c r="C1612" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1612" s="1">
+        <f>VLOOKUP(A1612,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3286.5</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1613">
+        <v>1611</v>
+      </c>
+      <c r="B1613" s="2">
+        <v>80600</v>
+      </c>
+      <c r="C1613" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1613" s="1">
+        <f>VLOOKUP(A1613,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3288.5</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1614">
+        <v>1612</v>
+      </c>
+      <c r="B1614" s="2">
+        <v>80650</v>
+      </c>
+      <c r="C1614" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1614" s="1">
+        <f>VLOOKUP(A1614,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3290.6</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1615">
+        <v>1613</v>
+      </c>
+      <c r="B1615" s="2">
+        <v>80700</v>
+      </c>
+      <c r="C1615" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1615" s="1">
+        <f>VLOOKUP(A1615,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3292.6</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1616">
+        <v>1614</v>
+      </c>
+      <c r="B1616" s="2">
+        <v>80750</v>
+      </c>
+      <c r="C1616" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1616" s="1">
+        <f>VLOOKUP(A1616,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3294.6</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1617">
+        <v>1615</v>
+      </c>
+      <c r="B1617" s="2">
+        <v>80800</v>
+      </c>
+      <c r="C1617" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1617" s="1">
+        <f>VLOOKUP(A1617,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3296.7</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1618">
+        <v>1616</v>
+      </c>
+      <c r="B1618" s="2">
+        <v>80850</v>
+      </c>
+      <c r="C1618" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1618" s="1">
+        <f>VLOOKUP(A1618,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3298.7</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1619">
+        <v>1617</v>
+      </c>
+      <c r="B1619" s="2">
+        <v>80900</v>
+      </c>
+      <c r="C1619" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1619" s="1">
+        <f>VLOOKUP(A1619,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3300.8</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1620">
+        <v>1618</v>
+      </c>
+      <c r="B1620" s="2">
+        <v>80950</v>
+      </c>
+      <c r="C1620" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1620" s="1">
+        <f>VLOOKUP(A1620,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3302.8</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1621">
+        <v>1619</v>
+      </c>
+      <c r="B1621" s="2">
+        <v>81000</v>
+      </c>
+      <c r="C1621" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1621" s="1">
+        <f>VLOOKUP(A1621,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3304.8</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1622">
+        <v>1620</v>
+      </c>
+      <c r="B1622" s="2">
+        <v>81050</v>
+      </c>
+      <c r="C1622" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1622" s="1">
+        <f>VLOOKUP(A1622,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3306.9</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1623">
+        <v>1621</v>
+      </c>
+      <c r="B1623" s="2">
+        <v>81100</v>
+      </c>
+      <c r="C1623" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1623" s="1">
+        <f>VLOOKUP(A1623,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3308.9</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1624">
+        <v>1622</v>
+      </c>
+      <c r="B1624" s="2">
+        <v>81150</v>
+      </c>
+      <c r="C1624" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1624" s="1">
+        <f>VLOOKUP(A1624,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1625">
+        <v>1623</v>
+      </c>
+      <c r="B1625" s="2">
+        <v>81200</v>
+      </c>
+      <c r="C1625" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1625" s="1">
+        <f>VLOOKUP(A1625,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1626">
+        <v>1624</v>
+      </c>
+      <c r="B1626" s="2">
+        <v>81250</v>
+      </c>
+      <c r="C1626" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1626" s="1">
+        <f>VLOOKUP(A1626,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1627">
+        <v>1625</v>
+      </c>
+      <c r="B1627" s="2">
+        <v>81300</v>
+      </c>
+      <c r="C1627" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1627" s="1">
+        <f>VLOOKUP(A1627,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3317.1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1628">
+        <v>1626</v>
+      </c>
+      <c r="B1628" s="2">
+        <v>81350</v>
+      </c>
+      <c r="C1628" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1628" s="1">
+        <f>VLOOKUP(A1628,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3319.1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1629">
+        <v>1627</v>
+      </c>
+      <c r="B1629" s="2">
+        <v>81400</v>
+      </c>
+      <c r="C1629" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1629" s="1">
+        <f>VLOOKUP(A1629,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3321.2</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1630">
+        <v>1628</v>
+      </c>
+      <c r="B1630" s="2">
+        <v>81450</v>
+      </c>
+      <c r="C1630" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1630" s="1">
+        <f>VLOOKUP(A1630,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3323.2</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1631">
+        <v>1629</v>
+      </c>
+      <c r="B1631" s="2">
+        <v>81500</v>
+      </c>
+      <c r="C1631" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1631" s="1">
+        <f>VLOOKUP(A1631,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3325.2</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1632">
+        <v>1630</v>
+      </c>
+      <c r="B1632" s="2">
+        <v>81550</v>
+      </c>
+      <c r="C1632" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1632" s="1">
+        <f>VLOOKUP(A1632,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3327.3</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1633">
+        <v>1631</v>
+      </c>
+      <c r="B1633" s="2">
+        <v>81600</v>
+      </c>
+      <c r="C1633" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1633" s="1">
+        <f>VLOOKUP(A1633,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3329.3</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1634">
+        <v>1632</v>
+      </c>
+      <c r="B1634" s="2">
+        <v>81650</v>
+      </c>
+      <c r="C1634" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1634" s="1">
+        <f>VLOOKUP(A1634,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3331.4</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1635">
+        <v>1633</v>
+      </c>
+      <c r="B1635" s="2">
+        <v>81700</v>
+      </c>
+      <c r="C1635" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1635" s="1">
+        <f>VLOOKUP(A1635,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3333.4</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1636">
+        <v>1634</v>
+      </c>
+      <c r="B1636" s="2">
+        <v>81750</v>
+      </c>
+      <c r="C1636" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1636" s="1">
+        <f>VLOOKUP(A1636,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3335.4</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1637">
+        <v>1635</v>
+      </c>
+      <c r="B1637" s="2">
+        <v>81800</v>
+      </c>
+      <c r="C1637" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1637" s="1">
+        <f>VLOOKUP(A1637,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3337.5</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1638">
+        <v>1636</v>
+      </c>
+      <c r="B1638" s="2">
+        <v>81850</v>
+      </c>
+      <c r="C1638" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1638" s="1">
+        <f>VLOOKUP(A1638,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3339.5</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1639">
+        <v>1637</v>
+      </c>
+      <c r="B1639" s="2">
+        <v>81900</v>
+      </c>
+      <c r="C1639" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1639" s="1">
+        <f>VLOOKUP(A1639,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3341.6</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1640">
+        <v>1638</v>
+      </c>
+      <c r="B1640" s="2">
+        <v>81950</v>
+      </c>
+      <c r="C1640" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1640" s="1">
+        <f>VLOOKUP(A1640,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3343.6</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1641">
+        <v>1639</v>
+      </c>
+      <c r="B1641" s="2">
+        <v>82000</v>
+      </c>
+      <c r="C1641" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1641" s="1">
+        <f>VLOOKUP(A1641,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3345.6</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1642">
+        <v>1640</v>
+      </c>
+      <c r="B1642" s="2">
+        <v>82050</v>
+      </c>
+      <c r="C1642" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1642" s="1">
+        <f>VLOOKUP(A1642,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3347.7</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1643">
+        <v>1641</v>
+      </c>
+      <c r="B1643" s="2">
+        <v>82100</v>
+      </c>
+      <c r="C1643" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1643" s="1">
+        <f>VLOOKUP(A1643,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3349.7</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1644">
+        <v>1642</v>
+      </c>
+      <c r="B1644" s="2">
+        <v>82150</v>
+      </c>
+      <c r="C1644" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1644" s="1">
+        <f>VLOOKUP(A1644,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3351.8</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1645">
+        <v>1643</v>
+      </c>
+      <c r="B1645" s="2">
+        <v>82200</v>
+      </c>
+      <c r="C1645" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1645" s="1">
+        <f>VLOOKUP(A1645,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3353.8</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1646">
+        <v>1644</v>
+      </c>
+      <c r="B1646" s="2">
+        <v>82250</v>
+      </c>
+      <c r="C1646" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1646" s="1">
+        <f>VLOOKUP(A1646,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3355.8</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1647">
+        <v>1645</v>
+      </c>
+      <c r="B1647" s="2">
+        <v>82300</v>
+      </c>
+      <c r="C1647" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1647" s="1">
+        <f>VLOOKUP(A1647,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3357.9</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1648">
+        <v>1646</v>
+      </c>
+      <c r="B1648" s="2">
+        <v>82350</v>
+      </c>
+      <c r="C1648" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1648" s="1">
+        <f>VLOOKUP(A1648,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3359.9</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1649">
+        <v>1647</v>
+      </c>
+      <c r="B1649" s="2">
+        <v>82400</v>
+      </c>
+      <c r="C1649" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1649" s="1">
+        <f>VLOOKUP(A1649,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1650">
+        <v>1648</v>
+      </c>
+      <c r="B1650" s="2">
+        <v>82450</v>
+      </c>
+      <c r="C1650" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1650" s="1">
+        <f>VLOOKUP(A1650,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1651">
+        <v>1649</v>
+      </c>
+      <c r="B1651" s="2">
+        <v>82500</v>
+      </c>
+      <c r="C1651" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1651" s="1">
+        <f>VLOOKUP(A1651,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1652">
+        <v>1650</v>
+      </c>
+      <c r="B1652" s="2">
+        <v>82550</v>
+      </c>
+      <c r="C1652" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1652" s="1">
+        <f>VLOOKUP(A1652,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3368.1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1653">
+        <v>1651</v>
+      </c>
+      <c r="B1653" s="2">
+        <v>82600</v>
+      </c>
+      <c r="C1653" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1653" s="1">
+        <f>VLOOKUP(A1653,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3370.1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1654">
+        <v>1652</v>
+      </c>
+      <c r="B1654" s="2">
+        <v>82650</v>
+      </c>
+      <c r="C1654" s="1">
+        <f t="shared" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="D1654" s="1">
+        <f>VLOOKUP(A1654,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3372.2</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1655">
+        <v>1653</v>
+      </c>
+      <c r="B1655" s="2">
+        <v>82700</v>
+      </c>
+      <c r="C1655" s="1">
+        <f t="shared" ref="C1655:C1718" si="28">C1654</f>
+        <v>49</v>
+      </c>
+      <c r="D1655" s="1">
+        <f>VLOOKUP(A1655,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3374.2</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1656">
+        <v>1654</v>
+      </c>
+      <c r="B1656" s="2">
+        <v>82750</v>
+      </c>
+      <c r="C1656" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1656" s="1">
+        <f>VLOOKUP(A1656,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3376.2</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1657">
+        <v>1655</v>
+      </c>
+      <c r="B1657" s="2">
+        <v>82800</v>
+      </c>
+      <c r="C1657" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1657" s="1">
+        <f>VLOOKUP(A1657,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3378.3</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1658">
+        <v>1656</v>
+      </c>
+      <c r="B1658" s="2">
+        <v>82850</v>
+      </c>
+      <c r="C1658" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1658" s="1">
+        <f>VLOOKUP(A1658,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3380.3</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1659">
+        <v>1657</v>
+      </c>
+      <c r="B1659" s="2">
+        <v>82900</v>
+      </c>
+      <c r="C1659" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1659" s="1">
+        <f>VLOOKUP(A1659,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3382.4</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1660">
+        <v>1658</v>
+      </c>
+      <c r="B1660" s="2">
+        <v>82950</v>
+      </c>
+      <c r="C1660" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1660" s="1">
+        <f>VLOOKUP(A1660,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3384.4</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1661">
+        <v>1659</v>
+      </c>
+      <c r="B1661" s="2">
+        <v>83000</v>
+      </c>
+      <c r="C1661" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1661" s="1">
+        <f>VLOOKUP(A1661,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3386.4</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1662">
+        <v>1660</v>
+      </c>
+      <c r="B1662" s="2">
+        <v>83050</v>
+      </c>
+      <c r="C1662" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1662" s="1">
+        <f>VLOOKUP(A1662,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3388.5</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1663">
+        <v>1661</v>
+      </c>
+      <c r="B1663" s="2">
+        <v>83100</v>
+      </c>
+      <c r="C1663" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1663" s="1">
+        <f>VLOOKUP(A1663,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3390.5</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1664">
+        <v>1662</v>
+      </c>
+      <c r="B1664" s="2">
+        <v>83150</v>
+      </c>
+      <c r="C1664" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1664" s="1">
+        <f>VLOOKUP(A1664,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3392.6</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1665">
+        <v>1663</v>
+      </c>
+      <c r="B1665" s="2">
+        <v>83200</v>
+      </c>
+      <c r="C1665" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1665" s="1">
+        <f>VLOOKUP(A1665,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3394.6</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1666">
+        <v>1664</v>
+      </c>
+      <c r="B1666" s="2">
+        <v>83250</v>
+      </c>
+      <c r="C1666" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1666" s="1">
+        <f>VLOOKUP(A1666,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3396.6</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1667">
+        <v>1665</v>
+      </c>
+      <c r="B1667" s="2">
+        <v>83300</v>
+      </c>
+      <c r="C1667" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1667" s="1">
+        <f>VLOOKUP(A1667,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3398.7</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1668">
+        <v>1666</v>
+      </c>
+      <c r="B1668" s="2">
+        <v>83350</v>
+      </c>
+      <c r="C1668" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1668" s="1">
+        <f>VLOOKUP(A1668,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3400.7</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1669">
+        <v>1667</v>
+      </c>
+      <c r="B1669" s="2">
+        <v>83400</v>
+      </c>
+      <c r="C1669" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1669" s="1">
+        <f>VLOOKUP(A1669,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3402.8</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1670">
+        <v>1668</v>
+      </c>
+      <c r="B1670" s="2">
+        <v>83450</v>
+      </c>
+      <c r="C1670" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1670" s="1">
+        <f>VLOOKUP(A1670,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3404.8</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1671">
+        <v>1669</v>
+      </c>
+      <c r="B1671" s="2">
+        <v>83500</v>
+      </c>
+      <c r="C1671" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1671" s="1">
+        <f>VLOOKUP(A1671,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3406.8</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1672">
+        <v>1670</v>
+      </c>
+      <c r="B1672" s="2">
+        <v>83550</v>
+      </c>
+      <c r="C1672" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1672" s="1">
+        <f>VLOOKUP(A1672,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3408.9</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1673">
+        <v>1671</v>
+      </c>
+      <c r="B1673" s="2">
+        <v>83600</v>
+      </c>
+      <c r="C1673" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1673" s="1">
+        <f>VLOOKUP(A1673,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3410.9</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1674">
+        <v>1672</v>
+      </c>
+      <c r="B1674" s="2">
+        <v>83650</v>
+      </c>
+      <c r="C1674" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1674" s="1">
+        <f>VLOOKUP(A1674,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1675">
+        <v>1673</v>
+      </c>
+      <c r="B1675" s="2">
+        <v>83700</v>
+      </c>
+      <c r="C1675" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1675" s="1">
+        <f>VLOOKUP(A1675,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1676">
+        <v>1674</v>
+      </c>
+      <c r="B1676" s="2">
+        <v>83750</v>
+      </c>
+      <c r="C1676" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1676" s="1">
+        <f>VLOOKUP(A1676,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1677">
+        <v>1675</v>
+      </c>
+      <c r="B1677" s="2">
+        <v>83800</v>
+      </c>
+      <c r="C1677" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1677" s="1">
+        <f>VLOOKUP(A1677,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3419.1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1678">
+        <v>1676</v>
+      </c>
+      <c r="B1678" s="2">
+        <v>83850</v>
+      </c>
+      <c r="C1678" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1678" s="1">
+        <f>VLOOKUP(A1678,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3421.1</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1679">
+        <v>1677</v>
+      </c>
+      <c r="B1679" s="2">
+        <v>83900</v>
+      </c>
+      <c r="C1679" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1679" s="1">
+        <f>VLOOKUP(A1679,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3423.2</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1680">
+        <v>1678</v>
+      </c>
+      <c r="B1680" s="2">
+        <v>83950</v>
+      </c>
+      <c r="C1680" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1680" s="1">
+        <f>VLOOKUP(A1680,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3425.2</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1681">
+        <v>1679</v>
+      </c>
+      <c r="B1681" s="2">
+        <v>84000</v>
+      </c>
+      <c r="C1681" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1681" s="1">
+        <f>VLOOKUP(A1681,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3427.2</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1682">
+        <v>1680</v>
+      </c>
+      <c r="B1682" s="2">
+        <v>84050</v>
+      </c>
+      <c r="C1682" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1682" s="1">
+        <f>VLOOKUP(A1682,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3429.3</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1683">
+        <v>1681</v>
+      </c>
+      <c r="B1683" s="2">
+        <v>84100</v>
+      </c>
+      <c r="C1683" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1683" s="1">
+        <f>VLOOKUP(A1683,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3431.3</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1684">
+        <v>1682</v>
+      </c>
+      <c r="B1684" s="2">
+        <v>84150</v>
+      </c>
+      <c r="C1684" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1684" s="1">
+        <f>VLOOKUP(A1684,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3433.4</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1685">
+        <v>1683</v>
+      </c>
+      <c r="B1685" s="2">
+        <v>84200</v>
+      </c>
+      <c r="C1685" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1685" s="1">
+        <f>VLOOKUP(A1685,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3435.4</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1686">
+        <v>1684</v>
+      </c>
+      <c r="B1686" s="2">
+        <v>84250</v>
+      </c>
+      <c r="C1686" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1686" s="1">
+        <f>VLOOKUP(A1686,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3437.4</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1687">
+        <v>1685</v>
+      </c>
+      <c r="B1687" s="2">
+        <v>84300</v>
+      </c>
+      <c r="C1687" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1687" s="1">
+        <f>VLOOKUP(A1687,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3439.5</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1688">
+        <v>1686</v>
+      </c>
+      <c r="B1688" s="2">
+        <v>84350</v>
+      </c>
+      <c r="C1688" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1688" s="1">
+        <f>VLOOKUP(A1688,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3441.5</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1689">
+        <v>1687</v>
+      </c>
+      <c r="B1689" s="2">
+        <v>84400</v>
+      </c>
+      <c r="C1689" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1689" s="1">
+        <f>VLOOKUP(A1689,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3443.6</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1690">
+        <v>1688</v>
+      </c>
+      <c r="B1690" s="2">
+        <v>84450</v>
+      </c>
+      <c r="C1690" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1690" s="1">
+        <f>VLOOKUP(A1690,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3445.6</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1691">
+        <v>1689</v>
+      </c>
+      <c r="B1691" s="2">
+        <v>84500</v>
+      </c>
+      <c r="C1691" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1691" s="1">
+        <f>VLOOKUP(A1691,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3447.6</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1692">
+        <v>1690</v>
+      </c>
+      <c r="B1692" s="2">
+        <v>84550</v>
+      </c>
+      <c r="C1692" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1692" s="1">
+        <f>VLOOKUP(A1692,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3449.7</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1693">
+        <v>1691</v>
+      </c>
+      <c r="B1693" s="2">
+        <v>84600</v>
+      </c>
+      <c r="C1693" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1693" s="1">
+        <f>VLOOKUP(A1693,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3451.7</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1694">
+        <v>1692</v>
+      </c>
+      <c r="B1694" s="2">
+        <v>84650</v>
+      </c>
+      <c r="C1694" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1694" s="1">
+        <f>VLOOKUP(A1694,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3453.8</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1695">
+        <v>1693</v>
+      </c>
+      <c r="B1695" s="2">
+        <v>84700</v>
+      </c>
+      <c r="C1695" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1695" s="1">
+        <f>VLOOKUP(A1695,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3455.8</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1696">
+        <v>1694</v>
+      </c>
+      <c r="B1696" s="2">
+        <v>84750</v>
+      </c>
+      <c r="C1696" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1696" s="1">
+        <f>VLOOKUP(A1696,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3457.8</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1697">
+        <v>1695</v>
+      </c>
+      <c r="B1697" s="2">
+        <v>84800</v>
+      </c>
+      <c r="C1697" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1697" s="1">
+        <f>VLOOKUP(A1697,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3459.9</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1698">
+        <v>1696</v>
+      </c>
+      <c r="B1698" s="2">
+        <v>84850</v>
+      </c>
+      <c r="C1698" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1698" s="1">
+        <f>VLOOKUP(A1698,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3461.9</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1699">
+        <v>1697</v>
+      </c>
+      <c r="B1699" s="2">
+        <v>84900</v>
+      </c>
+      <c r="C1699" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1699" s="1">
+        <f>VLOOKUP(A1699,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1700">
+        <v>1698</v>
+      </c>
+      <c r="B1700" s="2">
+        <v>84950</v>
+      </c>
+      <c r="C1700" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1700" s="1">
+        <f>VLOOKUP(A1700,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1701">
+        <v>1699</v>
+      </c>
+      <c r="B1701" s="2">
+        <v>85000</v>
+      </c>
+      <c r="C1701" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1701" s="1">
+        <f>VLOOKUP(A1701,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1702">
+        <v>1700</v>
+      </c>
+      <c r="B1702" s="2">
+        <v>85050</v>
+      </c>
+      <c r="C1702" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1702" s="1">
+        <f>VLOOKUP(A1702,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3470.1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1703">
+        <v>1701</v>
+      </c>
+      <c r="B1703" s="2">
+        <v>85100</v>
+      </c>
+      <c r="C1703" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1703" s="1">
+        <f>VLOOKUP(A1703,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3472.1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1704">
+        <v>1702</v>
+      </c>
+      <c r="B1704" s="2">
+        <v>85150</v>
+      </c>
+      <c r="C1704" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1704" s="1">
+        <f>VLOOKUP(A1704,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3474.2</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1705">
+        <v>1703</v>
+      </c>
+      <c r="B1705" s="2">
+        <v>85200</v>
+      </c>
+      <c r="C1705" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1705" s="1">
+        <f>VLOOKUP(A1705,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3476.2</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1706">
+        <v>1704</v>
+      </c>
+      <c r="B1706" s="2">
+        <v>85250</v>
+      </c>
+      <c r="C1706" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1706" s="1">
+        <f>VLOOKUP(A1706,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3478.2</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1707">
+        <v>1705</v>
+      </c>
+      <c r="B1707" s="2">
+        <v>85300</v>
+      </c>
+      <c r="C1707" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1707" s="1">
+        <f>VLOOKUP(A1707,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3480.3</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1708">
+        <v>1706</v>
+      </c>
+      <c r="B1708" s="2">
+        <v>85350</v>
+      </c>
+      <c r="C1708" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1708" s="1">
+        <f>VLOOKUP(A1708,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3482.3</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1709">
+        <v>1707</v>
+      </c>
+      <c r="B1709" s="2">
+        <v>85400</v>
+      </c>
+      <c r="C1709" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1709" s="1">
+        <f>VLOOKUP(A1709,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3484.4</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1710">
+        <v>1708</v>
+      </c>
+      <c r="B1710" s="2">
+        <v>85450</v>
+      </c>
+      <c r="C1710" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1710" s="1">
+        <f>VLOOKUP(A1710,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3486.4</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1711">
+        <v>1709</v>
+      </c>
+      <c r="B1711" s="2">
+        <v>85500</v>
+      </c>
+      <c r="C1711" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1711" s="1">
+        <f>VLOOKUP(A1711,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3488.4</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1712">
+        <v>1710</v>
+      </c>
+      <c r="B1712" s="2">
+        <v>85550</v>
+      </c>
+      <c r="C1712" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1712" s="1">
+        <f>VLOOKUP(A1712,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3490.5</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1713">
+        <v>1711</v>
+      </c>
+      <c r="B1713" s="2">
+        <v>85600</v>
+      </c>
+      <c r="C1713" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1713" s="1">
+        <f>VLOOKUP(A1713,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3492.5</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1714">
+        <v>1712</v>
+      </c>
+      <c r="B1714" s="2">
+        <v>85650</v>
+      </c>
+      <c r="C1714" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1714" s="1">
+        <f>VLOOKUP(A1714,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3494.6</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1715">
+        <v>1713</v>
+      </c>
+      <c r="B1715" s="2">
+        <v>85700</v>
+      </c>
+      <c r="C1715" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1715" s="1">
+        <f>VLOOKUP(A1715,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3496.6</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1716">
+        <v>1714</v>
+      </c>
+      <c r="B1716" s="2">
+        <v>85750</v>
+      </c>
+      <c r="C1716" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1716" s="1">
+        <f>VLOOKUP(A1716,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3498.6</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1717">
+        <v>1715</v>
+      </c>
+      <c r="B1717" s="2">
+        <v>85800</v>
+      </c>
+      <c r="C1717" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1717" s="1">
+        <f>VLOOKUP(A1717,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3500.7</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1718">
+        <v>1716</v>
+      </c>
+      <c r="B1718" s="2">
+        <v>85850</v>
+      </c>
+      <c r="C1718" s="1">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="D1718" s="1">
+        <f>VLOOKUP(A1718,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3502.7</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1719">
+        <v>1717</v>
+      </c>
+      <c r="B1719" s="2">
+        <v>85900</v>
+      </c>
+      <c r="C1719" s="1">
+        <f t="shared" ref="C1719:C1782" si="29">C1718</f>
+        <v>49</v>
+      </c>
+      <c r="D1719" s="1">
+        <f>VLOOKUP(A1719,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3504.8</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1720">
+        <v>1718</v>
+      </c>
+      <c r="B1720" s="2">
+        <v>85950</v>
+      </c>
+      <c r="C1720" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1720" s="1">
+        <f>VLOOKUP(A1720,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3506.8</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1721">
+        <v>1719</v>
+      </c>
+      <c r="B1721" s="2">
+        <v>86000</v>
+      </c>
+      <c r="C1721" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1721" s="1">
+        <f>VLOOKUP(A1721,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3508.8</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1722">
+        <v>1720</v>
+      </c>
+      <c r="B1722" s="2">
+        <v>86050</v>
+      </c>
+      <c r="C1722" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1722" s="1">
+        <f>VLOOKUP(A1722,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3510.9</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1723">
+        <v>1721</v>
+      </c>
+      <c r="B1723" s="2">
+        <v>86100</v>
+      </c>
+      <c r="C1723" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1723" s="1">
+        <f>VLOOKUP(A1723,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3512.9</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1724">
+        <v>1722</v>
+      </c>
+      <c r="B1724" s="2">
+        <v>86150</v>
+      </c>
+      <c r="C1724" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1724" s="1">
+        <f>VLOOKUP(A1724,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1725">
+        <v>1723</v>
+      </c>
+      <c r="B1725" s="2">
+        <v>86200</v>
+      </c>
+      <c r="C1725" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1725" s="1">
+        <f>VLOOKUP(A1725,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1726">
+        <v>1724</v>
+      </c>
+      <c r="B1726" s="2">
+        <v>86250</v>
+      </c>
+      <c r="C1726" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1726" s="1">
+        <f>VLOOKUP(A1726,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1727">
+        <v>1725</v>
+      </c>
+      <c r="B1727" s="2">
+        <v>86300</v>
+      </c>
+      <c r="C1727" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1727" s="1">
+        <f>VLOOKUP(A1727,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3521.1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1728">
+        <v>1726</v>
+      </c>
+      <c r="B1728" s="2">
+        <v>86350</v>
+      </c>
+      <c r="C1728" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1728" s="1">
+        <f>VLOOKUP(A1728,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3523.1</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1729">
+        <v>1727</v>
+      </c>
+      <c r="B1729" s="2">
+        <v>86400</v>
+      </c>
+      <c r="C1729" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1729" s="1">
+        <f>VLOOKUP(A1729,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3525.2</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1730">
+        <v>1728</v>
+      </c>
+      <c r="B1730" s="2">
+        <v>86450</v>
+      </c>
+      <c r="C1730" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1730" s="1">
+        <f>VLOOKUP(A1730,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3527.2</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1731">
+        <v>1729</v>
+      </c>
+      <c r="B1731" s="2">
+        <v>86500</v>
+      </c>
+      <c r="C1731" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1731" s="1">
+        <f>VLOOKUP(A1731,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3529.2</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1732">
+        <v>1730</v>
+      </c>
+      <c r="B1732" s="2">
+        <v>86550</v>
+      </c>
+      <c r="C1732" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1732" s="1">
+        <f>VLOOKUP(A1732,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3531.3</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1733">
+        <v>1731</v>
+      </c>
+      <c r="B1733" s="2">
+        <v>86600</v>
+      </c>
+      <c r="C1733" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1733" s="1">
+        <f>VLOOKUP(A1733,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3533.3</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1734">
+        <v>1732</v>
+      </c>
+      <c r="B1734" s="2">
+        <v>86650</v>
+      </c>
+      <c r="C1734" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1734" s="1">
+        <f>VLOOKUP(A1734,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3535.4</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1735">
+        <v>1733</v>
+      </c>
+      <c r="B1735" s="2">
+        <v>86700</v>
+      </c>
+      <c r="C1735" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1735" s="1">
+        <f>VLOOKUP(A1735,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3537.4</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1736">
+        <v>1734</v>
+      </c>
+      <c r="B1736" s="2">
+        <v>86750</v>
+      </c>
+      <c r="C1736" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1736" s="1">
+        <f>VLOOKUP(A1736,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3539.4</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1737">
+        <v>1735</v>
+      </c>
+      <c r="B1737" s="2">
+        <v>86800</v>
+      </c>
+      <c r="C1737" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1737" s="1">
+        <f>VLOOKUP(A1737,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3541.5</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1738">
+        <v>1736</v>
+      </c>
+      <c r="B1738" s="2">
+        <v>86850</v>
+      </c>
+      <c r="C1738" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1738" s="1">
+        <f>VLOOKUP(A1738,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3543.5</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1739">
+        <v>1737</v>
+      </c>
+      <c r="B1739" s="2">
+        <v>86900</v>
+      </c>
+      <c r="C1739" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1739" s="1">
+        <f>VLOOKUP(A1739,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3545.6</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1740">
+        <v>1738</v>
+      </c>
+      <c r="B1740" s="2">
+        <v>86950</v>
+      </c>
+      <c r="C1740" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1740" s="1">
+        <f>VLOOKUP(A1740,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3547.6</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1741">
+        <v>1739</v>
+      </c>
+      <c r="B1741" s="2">
+        <v>87000</v>
+      </c>
+      <c r="C1741" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1741" s="1">
+        <f>VLOOKUP(A1741,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3549.6</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1742">
+        <v>1740</v>
+      </c>
+      <c r="B1742" s="2">
+        <v>87050</v>
+      </c>
+      <c r="C1742" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1742" s="1">
+        <f>VLOOKUP(A1742,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3551.7</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1743">
+        <v>1741</v>
+      </c>
+      <c r="B1743" s="2">
+        <v>87100</v>
+      </c>
+      <c r="C1743" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1743" s="1">
+        <f>VLOOKUP(A1743,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3553.7</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1744">
+        <v>1742</v>
+      </c>
+      <c r="B1744" s="2">
+        <v>87150</v>
+      </c>
+      <c r="C1744" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1744" s="1">
+        <f>VLOOKUP(A1744,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3555.8</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1745">
+        <v>1743</v>
+      </c>
+      <c r="B1745" s="2">
+        <v>87200</v>
+      </c>
+      <c r="C1745" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1745" s="1">
+        <f>VLOOKUP(A1745,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3557.8</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1746">
+        <v>1744</v>
+      </c>
+      <c r="B1746" s="2">
+        <v>87250</v>
+      </c>
+      <c r="C1746" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1746" s="1">
+        <f>VLOOKUP(A1746,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3559.8</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1747">
+        <v>1745</v>
+      </c>
+      <c r="B1747" s="2">
+        <v>87300</v>
+      </c>
+      <c r="C1747" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1747" s="1">
+        <f>VLOOKUP(A1747,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3561.9</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1748">
+        <v>1746</v>
+      </c>
+      <c r="B1748" s="2">
+        <v>87350</v>
+      </c>
+      <c r="C1748" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1748" s="1">
+        <f>VLOOKUP(A1748,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3563.9</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1749">
+        <v>1747</v>
+      </c>
+      <c r="B1749" s="2">
+        <v>87400</v>
+      </c>
+      <c r="C1749" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1749" s="1">
+        <f>VLOOKUP(A1749,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1750">
+        <v>1748</v>
+      </c>
+      <c r="B1750" s="2">
+        <v>87450</v>
+      </c>
+      <c r="C1750" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1750" s="1">
+        <f>VLOOKUP(A1750,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1751">
+        <v>1749</v>
+      </c>
+      <c r="B1751" s="2">
+        <v>87500</v>
+      </c>
+      <c r="C1751" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1751" s="1">
+        <f>VLOOKUP(A1751,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1752">
+        <v>1750</v>
+      </c>
+      <c r="B1752" s="2">
+        <v>87550</v>
+      </c>
+      <c r="C1752" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1752" s="1">
+        <f>VLOOKUP(A1752,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3572.1</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1753">
+        <v>1751</v>
+      </c>
+      <c r="B1753" s="2">
+        <v>87600</v>
+      </c>
+      <c r="C1753" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1753" s="1">
+        <f>VLOOKUP(A1753,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3574.1</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1754">
+        <v>1752</v>
+      </c>
+      <c r="B1754" s="2">
+        <v>87650</v>
+      </c>
+      <c r="C1754" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1754" s="1">
+        <f>VLOOKUP(A1754,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3576.2</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1755">
+        <v>1753</v>
+      </c>
+      <c r="B1755" s="2">
+        <v>87700</v>
+      </c>
+      <c r="C1755" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1755" s="1">
+        <f>VLOOKUP(A1755,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3578.2</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1756">
+        <v>1754</v>
+      </c>
+      <c r="B1756" s="2">
+        <v>87750</v>
+      </c>
+      <c r="C1756" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1756" s="1">
+        <f>VLOOKUP(A1756,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3580.2</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1757">
+        <v>1755</v>
+      </c>
+      <c r="B1757" s="2">
+        <v>87800</v>
+      </c>
+      <c r="C1757" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1757" s="1">
+        <f>VLOOKUP(A1757,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3582.3</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1758">
+        <v>1756</v>
+      </c>
+      <c r="B1758" s="2">
+        <v>87850</v>
+      </c>
+      <c r="C1758" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1758" s="1">
+        <f>VLOOKUP(A1758,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3584.3</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1759">
+        <v>1757</v>
+      </c>
+      <c r="B1759" s="2">
+        <v>87900</v>
+      </c>
+      <c r="C1759" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1759" s="1">
+        <f>VLOOKUP(A1759,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3586.4</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1760">
+        <v>1758</v>
+      </c>
+      <c r="B1760" s="2">
+        <v>87950</v>
+      </c>
+      <c r="C1760" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1760" s="1">
+        <f>VLOOKUP(A1760,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3588.4</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1761">
+        <v>1759</v>
+      </c>
+      <c r="B1761" s="2">
+        <v>88000</v>
+      </c>
+      <c r="C1761" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1761" s="1">
+        <f>VLOOKUP(A1761,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3590.4</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1762">
+        <v>1760</v>
+      </c>
+      <c r="B1762" s="2">
+        <v>88050</v>
+      </c>
+      <c r="C1762" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1762" s="1">
+        <f>VLOOKUP(A1762,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3592.5</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1763">
+        <v>1761</v>
+      </c>
+      <c r="B1763" s="2">
+        <v>88100</v>
+      </c>
+      <c r="C1763" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1763" s="1">
+        <f>VLOOKUP(A1763,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3594.5</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1764">
+        <v>1762</v>
+      </c>
+      <c r="B1764" s="2">
+        <v>88150</v>
+      </c>
+      <c r="C1764" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1764" s="1">
+        <f>VLOOKUP(A1764,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3596.6</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1765">
+        <v>1763</v>
+      </c>
+      <c r="B1765" s="2">
+        <v>88200</v>
+      </c>
+      <c r="C1765" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1765" s="1">
+        <f>VLOOKUP(A1765,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3598.6</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1766">
+        <v>1764</v>
+      </c>
+      <c r="B1766" s="2">
+        <v>88250</v>
+      </c>
+      <c r="C1766" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1766" s="1">
+        <f>VLOOKUP(A1766,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3600.6</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1767">
+        <v>1765</v>
+      </c>
+      <c r="B1767" s="2">
+        <v>88300</v>
+      </c>
+      <c r="C1767" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1767" s="1">
+        <f>VLOOKUP(A1767,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3602.7</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1768">
+        <v>1766</v>
+      </c>
+      <c r="B1768" s="2">
+        <v>88350</v>
+      </c>
+      <c r="C1768" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1768" s="1">
+        <f>VLOOKUP(A1768,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3604.7</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1769">
+        <v>1767</v>
+      </c>
+      <c r="B1769" s="2">
+        <v>88400</v>
+      </c>
+      <c r="C1769" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1769" s="1">
+        <f>VLOOKUP(A1769,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3606.8</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1770">
+        <v>1768</v>
+      </c>
+      <c r="B1770" s="2">
+        <v>88450</v>
+      </c>
+      <c r="C1770" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1770" s="1">
+        <f>VLOOKUP(A1770,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3608.8</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1771">
+        <v>1769</v>
+      </c>
+      <c r="B1771" s="2">
+        <v>88500</v>
+      </c>
+      <c r="C1771" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1771" s="1">
+        <f>VLOOKUP(A1771,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3610.8</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1772">
+        <v>1770</v>
+      </c>
+      <c r="B1772" s="2">
+        <v>88550</v>
+      </c>
+      <c r="C1772" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1772" s="1">
+        <f>VLOOKUP(A1772,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3612.9</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1773">
+        <v>1771</v>
+      </c>
+      <c r="B1773" s="2">
+        <v>88600</v>
+      </c>
+      <c r="C1773" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1773" s="1">
+        <f>VLOOKUP(A1773,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3614.9</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1774">
+        <v>1772</v>
+      </c>
+      <c r="B1774" s="2">
+        <v>88650</v>
+      </c>
+      <c r="C1774" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1774" s="1">
+        <f>VLOOKUP(A1774,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1775">
+        <v>1773</v>
+      </c>
+      <c r="B1775" s="2">
+        <v>88700</v>
+      </c>
+      <c r="C1775" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1775" s="1">
+        <f>VLOOKUP(A1775,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1776">
+        <v>1774</v>
+      </c>
+      <c r="B1776" s="2">
+        <v>88750</v>
+      </c>
+      <c r="C1776" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1776" s="1">
+        <f>VLOOKUP(A1776,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1777">
+        <v>1775</v>
+      </c>
+      <c r="B1777" s="2">
+        <v>88800</v>
+      </c>
+      <c r="C1777" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1777" s="1">
+        <f>VLOOKUP(A1777,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3623.1</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1778">
+        <v>1776</v>
+      </c>
+      <c r="B1778" s="2">
+        <v>88850</v>
+      </c>
+      <c r="C1778" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1778" s="1">
+        <f>VLOOKUP(A1778,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3625.1</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1779">
+        <v>1777</v>
+      </c>
+      <c r="B1779" s="2">
+        <v>88900</v>
+      </c>
+      <c r="C1779" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1779" s="1">
+        <f>VLOOKUP(A1779,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3627.2</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1780">
+        <v>1778</v>
+      </c>
+      <c r="B1780" s="2">
+        <v>88950</v>
+      </c>
+      <c r="C1780" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1780" s="1">
+        <f>VLOOKUP(A1780,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3629.2</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1781">
+        <v>1779</v>
+      </c>
+      <c r="B1781" s="2">
+        <v>89000</v>
+      </c>
+      <c r="C1781" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1781" s="1">
+        <f>VLOOKUP(A1781,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3631.2</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1782">
+        <v>1780</v>
+      </c>
+      <c r="B1782" s="2">
+        <v>89050</v>
+      </c>
+      <c r="C1782" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="D1782" s="1">
+        <f>VLOOKUP(A1782,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3633.3</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1783">
+        <v>1781</v>
+      </c>
+      <c r="B1783" s="2">
+        <v>89100</v>
+      </c>
+      <c r="C1783" s="1">
+        <f t="shared" ref="C1783:C1846" si="30">C1782</f>
+        <v>49</v>
+      </c>
+      <c r="D1783" s="1">
+        <f>VLOOKUP(A1783,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3635.3</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1784">
+        <v>1782</v>
+      </c>
+      <c r="B1784" s="2">
+        <v>89150</v>
+      </c>
+      <c r="C1784" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1784" s="1">
+        <f>VLOOKUP(A1784,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3637.4</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1785">
+        <v>1783</v>
+      </c>
+      <c r="B1785" s="2">
+        <v>89200</v>
+      </c>
+      <c r="C1785" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1785" s="1">
+        <f>VLOOKUP(A1785,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3639.4</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1786">
+        <v>1784</v>
+      </c>
+      <c r="B1786" s="2">
+        <v>89250</v>
+      </c>
+      <c r="C1786" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1786" s="1">
+        <f>VLOOKUP(A1786,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3641.4</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1787">
+        <v>1785</v>
+      </c>
+      <c r="B1787" s="2">
+        <v>89300</v>
+      </c>
+      <c r="C1787" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1787" s="1">
+        <f>VLOOKUP(A1787,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3643.5</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1788">
+        <v>1786</v>
+      </c>
+      <c r="B1788" s="2">
+        <v>89350</v>
+      </c>
+      <c r="C1788" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1788" s="1">
+        <f>VLOOKUP(A1788,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3645.5</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1789">
+        <v>1787</v>
+      </c>
+      <c r="B1789" s="2">
+        <v>89400</v>
+      </c>
+      <c r="C1789" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1789" s="1">
+        <f>VLOOKUP(A1789,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3647.6</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1790">
+        <v>1788</v>
+      </c>
+      <c r="B1790" s="2">
+        <v>89450</v>
+      </c>
+      <c r="C1790" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1790" s="1">
+        <f>VLOOKUP(A1790,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3649.6</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1791">
+        <v>1789</v>
+      </c>
+      <c r="B1791" s="2">
+        <v>89500</v>
+      </c>
+      <c r="C1791" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1791" s="1">
+        <f>VLOOKUP(A1791,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3651.6</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1792">
+        <v>1790</v>
+      </c>
+      <c r="B1792" s="2">
+        <v>89550</v>
+      </c>
+      <c r="C1792" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1792" s="1">
+        <f>VLOOKUP(A1792,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3653.7</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1793">
+        <v>1791</v>
+      </c>
+      <c r="B1793" s="2">
+        <v>89600</v>
+      </c>
+      <c r="C1793" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1793" s="1">
+        <f>VLOOKUP(A1793,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3655.7</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1794">
+        <v>1792</v>
+      </c>
+      <c r="B1794" s="2">
+        <v>89650</v>
+      </c>
+      <c r="C1794" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1794" s="1">
+        <f>VLOOKUP(A1794,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3657.8</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1795">
+        <v>1793</v>
+      </c>
+      <c r="B1795" s="2">
+        <v>89700</v>
+      </c>
+      <c r="C1795" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1795" s="1">
+        <f>VLOOKUP(A1795,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3659.8</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1796">
+        <v>1794</v>
+      </c>
+      <c r="B1796" s="2">
+        <v>89750</v>
+      </c>
+      <c r="C1796" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1796" s="1">
+        <f>VLOOKUP(A1796,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3661.8</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1797">
+        <v>1795</v>
+      </c>
+      <c r="B1797" s="2">
+        <v>89800</v>
+      </c>
+      <c r="C1797" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1797" s="1">
+        <f>VLOOKUP(A1797,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3663.9</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1798">
+        <v>1796</v>
+      </c>
+      <c r="B1798" s="2">
+        <v>89850</v>
+      </c>
+      <c r="C1798" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1798" s="1">
+        <f>VLOOKUP(A1798,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3665.9</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1799">
+        <v>1797</v>
+      </c>
+      <c r="B1799" s="2">
+        <v>89900</v>
+      </c>
+      <c r="C1799" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1799" s="1">
+        <f>VLOOKUP(A1799,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1800">
+        <v>1798</v>
+      </c>
+      <c r="B1800" s="2">
+        <v>89950</v>
+      </c>
+      <c r="C1800" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1800" s="1">
+        <f>VLOOKUP(A1800,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1801">
+        <v>1799</v>
+      </c>
+      <c r="B1801" s="2">
+        <v>90000</v>
+      </c>
+      <c r="C1801" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1801" s="1">
+        <f>VLOOKUP(A1801,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1802">
+        <v>1800</v>
+      </c>
+      <c r="B1802" s="2">
+        <v>90050</v>
+      </c>
+      <c r="C1802" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1802" s="1">
+        <f>VLOOKUP(A1802,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3674.1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1803">
+        <v>1801</v>
+      </c>
+      <c r="B1803" s="2">
+        <v>90100</v>
+      </c>
+      <c r="C1803" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1803" s="1">
+        <f>VLOOKUP(A1803,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3676.1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1804">
+        <v>1802</v>
+      </c>
+      <c r="B1804" s="2">
+        <v>90150</v>
+      </c>
+      <c r="C1804" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1804" s="1">
+        <f>VLOOKUP(A1804,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3678.2</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1805">
+        <v>1803</v>
+      </c>
+      <c r="B1805" s="2">
+        <v>90200</v>
+      </c>
+      <c r="C1805" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1805" s="1">
+        <f>VLOOKUP(A1805,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3680.2</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1806">
+        <v>1804</v>
+      </c>
+      <c r="B1806" s="2">
+        <v>90250</v>
+      </c>
+      <c r="C1806" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1806" s="1">
+        <f>VLOOKUP(A1806,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3682.2</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1807">
+        <v>1805</v>
+      </c>
+      <c r="B1807" s="2">
+        <v>90300</v>
+      </c>
+      <c r="C1807" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1807" s="1">
+        <f>VLOOKUP(A1807,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3684.3</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1808">
+        <v>1806</v>
+      </c>
+      <c r="B1808" s="2">
+        <v>90350</v>
+      </c>
+      <c r="C1808" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1808" s="1">
+        <f>VLOOKUP(A1808,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3686.3</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1809">
+        <v>1807</v>
+      </c>
+      <c r="B1809" s="2">
+        <v>90400</v>
+      </c>
+      <c r="C1809" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1809" s="1">
+        <f>VLOOKUP(A1809,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3688.4</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1810">
+        <v>1808</v>
+      </c>
+      <c r="B1810" s="2">
+        <v>90450</v>
+      </c>
+      <c r="C1810" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1810" s="1">
+        <f>VLOOKUP(A1810,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3690.4</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1811">
+        <v>1809</v>
+      </c>
+      <c r="B1811" s="2">
+        <v>90500</v>
+      </c>
+      <c r="C1811" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1811" s="1">
+        <f>VLOOKUP(A1811,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3692.4</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1812">
+        <v>1810</v>
+      </c>
+      <c r="B1812" s="2">
+        <v>90550</v>
+      </c>
+      <c r="C1812" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1812" s="1">
+        <f>VLOOKUP(A1812,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3694.5</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1813">
+        <v>1811</v>
+      </c>
+      <c r="B1813" s="2">
+        <v>90600</v>
+      </c>
+      <c r="C1813" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1813" s="1">
+        <f>VLOOKUP(A1813,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3696.5</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1814">
+        <v>1812</v>
+      </c>
+      <c r="B1814" s="2">
+        <v>90650</v>
+      </c>
+      <c r="C1814" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1814" s="1">
+        <f>VLOOKUP(A1814,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3698.6</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1815">
+        <v>1813</v>
+      </c>
+      <c r="B1815" s="2">
+        <v>90700</v>
+      </c>
+      <c r="C1815" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1815" s="1">
+        <f>VLOOKUP(A1815,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3700.6</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1816">
+        <v>1814</v>
+      </c>
+      <c r="B1816" s="2">
+        <v>90750</v>
+      </c>
+      <c r="C1816" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1816" s="1">
+        <f>VLOOKUP(A1816,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3702.6</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1817">
+        <v>1815</v>
+      </c>
+      <c r="B1817" s="2">
+        <v>90800</v>
+      </c>
+      <c r="C1817" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1817" s="1">
+        <f>VLOOKUP(A1817,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3704.7</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1818">
+        <v>1816</v>
+      </c>
+      <c r="B1818" s="2">
+        <v>90850</v>
+      </c>
+      <c r="C1818" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1818" s="1">
+        <f>VLOOKUP(A1818,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3706.7</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1819">
+        <v>1817</v>
+      </c>
+      <c r="B1819" s="2">
+        <v>90900</v>
+      </c>
+      <c r="C1819" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1819" s="1">
+        <f>VLOOKUP(A1819,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3708.8</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1820">
+        <v>1818</v>
+      </c>
+      <c r="B1820" s="2">
+        <v>90950</v>
+      </c>
+      <c r="C1820" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1820" s="1">
+        <f>VLOOKUP(A1820,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3710.8</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1821">
+        <v>1819</v>
+      </c>
+      <c r="B1821" s="2">
+        <v>91000</v>
+      </c>
+      <c r="C1821" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1821" s="1">
+        <f>VLOOKUP(A1821,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3712.8</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1822">
+        <v>1820</v>
+      </c>
+      <c r="B1822" s="2">
+        <v>91050</v>
+      </c>
+      <c r="C1822" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1822" s="1">
+        <f>VLOOKUP(A1822,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3714.9</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1823">
+        <v>1821</v>
+      </c>
+      <c r="B1823" s="2">
+        <v>91100</v>
+      </c>
+      <c r="C1823" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1823" s="1">
+        <f>VLOOKUP(A1823,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3716.9</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1824">
+        <v>1822</v>
+      </c>
+      <c r="B1824" s="2">
+        <v>91150</v>
+      </c>
+      <c r="C1824" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1824" s="1">
+        <f>VLOOKUP(A1824,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1825">
+        <v>1823</v>
+      </c>
+      <c r="B1825" s="2">
+        <v>91200</v>
+      </c>
+      <c r="C1825" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1825" s="1">
+        <f>VLOOKUP(A1825,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1826">
+        <v>1824</v>
+      </c>
+      <c r="B1826" s="2">
+        <v>91250</v>
+      </c>
+      <c r="C1826" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1826" s="1">
+        <f>VLOOKUP(A1826,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1827">
+        <v>1825</v>
+      </c>
+      <c r="B1827" s="2">
+        <v>91300</v>
+      </c>
+      <c r="C1827" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1827" s="1">
+        <f>VLOOKUP(A1827,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3725.1</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1828">
+        <v>1826</v>
+      </c>
+      <c r="B1828" s="2">
+        <v>91350</v>
+      </c>
+      <c r="C1828" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1828" s="1">
+        <f>VLOOKUP(A1828,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3727.1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1829">
+        <v>1827</v>
+      </c>
+      <c r="B1829" s="2">
+        <v>91400</v>
+      </c>
+      <c r="C1829" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1829" s="1">
+        <f>VLOOKUP(A1829,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3729.2</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1830">
+        <v>1828</v>
+      </c>
+      <c r="B1830" s="2">
+        <v>91450</v>
+      </c>
+      <c r="C1830" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1830" s="1">
+        <f>VLOOKUP(A1830,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3731.2</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1831">
+        <v>1829</v>
+      </c>
+      <c r="B1831" s="2">
+        <v>91500</v>
+      </c>
+      <c r="C1831" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1831" s="1">
+        <f>VLOOKUP(A1831,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3733.2</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1832">
+        <v>1830</v>
+      </c>
+      <c r="B1832" s="2">
+        <v>91550</v>
+      </c>
+      <c r="C1832" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1832" s="1">
+        <f>VLOOKUP(A1832,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3735.3</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1833">
+        <v>1831</v>
+      </c>
+      <c r="B1833" s="2">
+        <v>91600</v>
+      </c>
+      <c r="C1833" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1833" s="1">
+        <f>VLOOKUP(A1833,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3737.3</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1834">
+        <v>1832</v>
+      </c>
+      <c r="B1834" s="2">
+        <v>91650</v>
+      </c>
+      <c r="C1834" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1834" s="1">
+        <f>VLOOKUP(A1834,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3739.4</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1835">
+        <v>1833</v>
+      </c>
+      <c r="B1835" s="2">
+        <v>91700</v>
+      </c>
+      <c r="C1835" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1835" s="1">
+        <f>VLOOKUP(A1835,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3741.4</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1836">
+        <v>1834</v>
+      </c>
+      <c r="B1836" s="2">
+        <v>91750</v>
+      </c>
+      <c r="C1836" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1836" s="1">
+        <f>VLOOKUP(A1836,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3743.4</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1837">
+        <v>1835</v>
+      </c>
+      <c r="B1837" s="2">
+        <v>91800</v>
+      </c>
+      <c r="C1837" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1837" s="1">
+        <f>VLOOKUP(A1837,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3745.5</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1838">
+        <v>1836</v>
+      </c>
+      <c r="B1838" s="2">
+        <v>91850</v>
+      </c>
+      <c r="C1838" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1838" s="1">
+        <f>VLOOKUP(A1838,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3747.5</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1839">
+        <v>1837</v>
+      </c>
+      <c r="B1839" s="2">
+        <v>91900</v>
+      </c>
+      <c r="C1839" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1839" s="1">
+        <f>VLOOKUP(A1839,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3749.6</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1840">
+        <v>1838</v>
+      </c>
+      <c r="B1840" s="2">
+        <v>91950</v>
+      </c>
+      <c r="C1840" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1840" s="1">
+        <f>VLOOKUP(A1840,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3751.6</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1841">
+        <v>1839</v>
+      </c>
+      <c r="B1841" s="2">
+        <v>92000</v>
+      </c>
+      <c r="C1841" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1841" s="1">
+        <f>VLOOKUP(A1841,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3753.6</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1842">
+        <v>1840</v>
+      </c>
+      <c r="B1842" s="2">
+        <v>92050</v>
+      </c>
+      <c r="C1842" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1842" s="1">
+        <f>VLOOKUP(A1842,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3755.7</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1843">
+        <v>1841</v>
+      </c>
+      <c r="B1843" s="2">
+        <v>92100</v>
+      </c>
+      <c r="C1843" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1843" s="1">
+        <f>VLOOKUP(A1843,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3757.7</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1844">
+        <v>1842</v>
+      </c>
+      <c r="B1844" s="2">
+        <v>92150</v>
+      </c>
+      <c r="C1844" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1844" s="1">
+        <f>VLOOKUP(A1844,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3759.8</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1845">
+        <v>1843</v>
+      </c>
+      <c r="B1845" s="2">
+        <v>92200</v>
+      </c>
+      <c r="C1845" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1845" s="1">
+        <f>VLOOKUP(A1845,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3761.8</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1846">
+        <v>1844</v>
+      </c>
+      <c r="B1846" s="2">
+        <v>92250</v>
+      </c>
+      <c r="C1846" s="1">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="D1846" s="1">
+        <f>VLOOKUP(A1846,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3763.8</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1847">
+        <v>1845</v>
+      </c>
+      <c r="B1847" s="2">
+        <v>92300</v>
+      </c>
+      <c r="C1847" s="1">
+        <f t="shared" ref="C1847:C1910" si="31">C1846</f>
+        <v>49</v>
+      </c>
+      <c r="D1847" s="1">
+        <f>VLOOKUP(A1847,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3765.9</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1848">
+        <v>1846</v>
+      </c>
+      <c r="B1848" s="2">
+        <v>92350</v>
+      </c>
+      <c r="C1848" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1848" s="1">
+        <f>VLOOKUP(A1848,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3767.9</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1849">
+        <v>1847</v>
+      </c>
+      <c r="B1849" s="2">
+        <v>92400</v>
+      </c>
+      <c r="C1849" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1849" s="1">
+        <f>VLOOKUP(A1849,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1850">
+        <v>1848</v>
+      </c>
+      <c r="B1850" s="2">
+        <v>92450</v>
+      </c>
+      <c r="C1850" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1850" s="1">
+        <f>VLOOKUP(A1850,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1851">
+        <v>1849</v>
+      </c>
+      <c r="B1851" s="2">
+        <v>92500</v>
+      </c>
+      <c r="C1851" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1851" s="1">
+        <f>VLOOKUP(A1851,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1852">
+        <v>1850</v>
+      </c>
+      <c r="B1852" s="2">
+        <v>92550</v>
+      </c>
+      <c r="C1852" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1852" s="1">
+        <f>VLOOKUP(A1852,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3776.1</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1853">
+        <v>1851</v>
+      </c>
+      <c r="B1853" s="2">
+        <v>92600</v>
+      </c>
+      <c r="C1853" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1853" s="1">
+        <f>VLOOKUP(A1853,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3778.1</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1854">
+        <v>1852</v>
+      </c>
+      <c r="B1854" s="2">
+        <v>92650</v>
+      </c>
+      <c r="C1854" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1854" s="1">
+        <f>VLOOKUP(A1854,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3780.2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1855">
+        <v>1853</v>
+      </c>
+      <c r="B1855" s="2">
+        <v>92700</v>
+      </c>
+      <c r="C1855" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1855" s="1">
+        <f>VLOOKUP(A1855,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3782.2</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1856">
+        <v>1854</v>
+      </c>
+      <c r="B1856" s="2">
+        <v>92750</v>
+      </c>
+      <c r="C1856" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1856" s="1">
+        <f>VLOOKUP(A1856,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3784.2</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1857">
+        <v>1855</v>
+      </c>
+      <c r="B1857" s="2">
+        <v>92800</v>
+      </c>
+      <c r="C1857" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1857" s="1">
+        <f>VLOOKUP(A1857,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3786.3</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1858">
+        <v>1856</v>
+      </c>
+      <c r="B1858" s="2">
+        <v>92850</v>
+      </c>
+      <c r="C1858" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1858" s="1">
+        <f>VLOOKUP(A1858,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3788.3</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1859">
+        <v>1857</v>
+      </c>
+      <c r="B1859" s="2">
+        <v>92900</v>
+      </c>
+      <c r="C1859" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1859" s="1">
+        <f>VLOOKUP(A1859,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3790.4</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1860">
+        <v>1858</v>
+      </c>
+      <c r="B1860" s="2">
+        <v>92950</v>
+      </c>
+      <c r="C1860" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1860" s="1">
+        <f>VLOOKUP(A1860,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3792.4</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1861">
+        <v>1859</v>
+      </c>
+      <c r="B1861" s="2">
+        <v>93000</v>
+      </c>
+      <c r="C1861" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1861" s="1">
+        <f>VLOOKUP(A1861,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3794.4</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1862">
+        <v>1860</v>
+      </c>
+      <c r="B1862" s="2">
+        <v>93050</v>
+      </c>
+      <c r="C1862" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1862" s="1">
+        <f>VLOOKUP(A1862,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3796.5</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1863">
+        <v>1861</v>
+      </c>
+      <c r="B1863" s="2">
+        <v>93100</v>
+      </c>
+      <c r="C1863" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1863" s="1">
+        <f>VLOOKUP(A1863,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3798.5</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1864">
+        <v>1862</v>
+      </c>
+      <c r="B1864" s="2">
+        <v>93150</v>
+      </c>
+      <c r="C1864" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1864" s="1">
+        <f>VLOOKUP(A1864,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3800.6</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1865">
+        <v>1863</v>
+      </c>
+      <c r="B1865" s="2">
+        <v>93200</v>
+      </c>
+      <c r="C1865" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1865" s="1">
+        <f>VLOOKUP(A1865,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3802.6</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1866">
+        <v>1864</v>
+      </c>
+      <c r="B1866" s="2">
+        <v>93250</v>
+      </c>
+      <c r="C1866" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1866" s="1">
+        <f>VLOOKUP(A1866,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3804.6</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1867">
+        <v>1865</v>
+      </c>
+      <c r="B1867" s="2">
+        <v>93300</v>
+      </c>
+      <c r="C1867" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1867" s="1">
+        <f>VLOOKUP(A1867,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3806.7</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1868">
+        <v>1866</v>
+      </c>
+      <c r="B1868" s="2">
+        <v>93350</v>
+      </c>
+      <c r="C1868" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1868" s="1">
+        <f>VLOOKUP(A1868,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3808.7</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1869">
+        <v>1867</v>
+      </c>
+      <c r="B1869" s="2">
+        <v>93400</v>
+      </c>
+      <c r="C1869" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1869" s="1">
+        <f>VLOOKUP(A1869,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3810.8</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1870">
+        <v>1868</v>
+      </c>
+      <c r="B1870" s="2">
+        <v>93450</v>
+      </c>
+      <c r="C1870" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1870" s="1">
+        <f>VLOOKUP(A1870,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3812.8</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1871">
+        <v>1869</v>
+      </c>
+      <c r="B1871" s="2">
+        <v>93500</v>
+      </c>
+      <c r="C1871" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1871" s="1">
+        <f>VLOOKUP(A1871,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3814.8</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1872">
+        <v>1870</v>
+      </c>
+      <c r="B1872" s="2">
+        <v>93550</v>
+      </c>
+      <c r="C1872" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1872" s="1">
+        <f>VLOOKUP(A1872,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3816.9</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1873">
+        <v>1871</v>
+      </c>
+      <c r="B1873" s="2">
+        <v>93600</v>
+      </c>
+      <c r="C1873" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1873" s="1">
+        <f>VLOOKUP(A1873,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3818.9</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1874">
+        <v>1872</v>
+      </c>
+      <c r="B1874" s="2">
+        <v>93650</v>
+      </c>
+      <c r="C1874" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1874" s="1">
+        <f>VLOOKUP(A1874,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1875">
+        <v>1873</v>
+      </c>
+      <c r="B1875" s="2">
+        <v>93700</v>
+      </c>
+      <c r="C1875" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1875" s="1">
+        <f>VLOOKUP(A1875,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1876">
+        <v>1874</v>
+      </c>
+      <c r="B1876" s="2">
+        <v>93750</v>
+      </c>
+      <c r="C1876" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1876" s="1">
+        <f>VLOOKUP(A1876,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1877">
+        <v>1875</v>
+      </c>
+      <c r="B1877" s="2">
+        <v>93800</v>
+      </c>
+      <c r="C1877" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1877" s="1">
+        <f>VLOOKUP(A1877,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3827.1</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1878">
+        <v>1876</v>
+      </c>
+      <c r="B1878" s="2">
+        <v>93850</v>
+      </c>
+      <c r="C1878" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1878" s="1">
+        <f>VLOOKUP(A1878,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3829.1</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1879">
+        <v>1877</v>
+      </c>
+      <c r="B1879" s="2">
+        <v>93900</v>
+      </c>
+      <c r="C1879" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1879" s="1">
+        <f>VLOOKUP(A1879,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3831.2</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1880">
+        <v>1878</v>
+      </c>
+      <c r="B1880" s="2">
+        <v>93950</v>
+      </c>
+      <c r="C1880" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1880" s="1">
+        <f>VLOOKUP(A1880,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3833.2</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1881">
+        <v>1879</v>
+      </c>
+      <c r="B1881" s="2">
+        <v>94000</v>
+      </c>
+      <c r="C1881" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1881" s="1">
+        <f>VLOOKUP(A1881,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3835.2</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1882">
+        <v>1880</v>
+      </c>
+      <c r="B1882" s="2">
+        <v>94050</v>
+      </c>
+      <c r="C1882" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1882" s="1">
+        <f>VLOOKUP(A1882,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3837.3</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1883">
+        <v>1881</v>
+      </c>
+      <c r="B1883" s="2">
+        <v>94100</v>
+      </c>
+      <c r="C1883" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1883" s="1">
+        <f>VLOOKUP(A1883,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3839.3</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1884">
+        <v>1882</v>
+      </c>
+      <c r="B1884" s="2">
+        <v>94150</v>
+      </c>
+      <c r="C1884" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1884" s="1">
+        <f>VLOOKUP(A1884,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3841.4</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1885">
+        <v>1883</v>
+      </c>
+      <c r="B1885" s="2">
+        <v>94200</v>
+      </c>
+      <c r="C1885" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1885" s="1">
+        <f>VLOOKUP(A1885,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3843.4</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1886">
+        <v>1884</v>
+      </c>
+      <c r="B1886" s="2">
+        <v>94250</v>
+      </c>
+      <c r="C1886" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1886" s="1">
+        <f>VLOOKUP(A1886,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3845.4</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1887">
+        <v>1885</v>
+      </c>
+      <c r="B1887" s="2">
+        <v>94300</v>
+      </c>
+      <c r="C1887" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1887" s="1">
+        <f>VLOOKUP(A1887,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3847.5</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1888">
+        <v>1886</v>
+      </c>
+      <c r="B1888" s="2">
+        <v>94350</v>
+      </c>
+      <c r="C1888" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1888" s="1">
+        <f>VLOOKUP(A1888,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3849.5</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1889">
+        <v>1887</v>
+      </c>
+      <c r="B1889" s="2">
+        <v>94400</v>
+      </c>
+      <c r="C1889" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1889" s="1">
+        <f>VLOOKUP(A1889,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3851.6</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1890">
+        <v>1888</v>
+      </c>
+      <c r="B1890" s="2">
+        <v>94450</v>
+      </c>
+      <c r="C1890" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1890" s="1">
+        <f>VLOOKUP(A1890,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3853.6</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1891">
+        <v>1889</v>
+      </c>
+      <c r="B1891" s="2">
+        <v>94500</v>
+      </c>
+      <c r="C1891" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1891" s="1">
+        <f>VLOOKUP(A1891,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3855.6</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1892">
+        <v>1890</v>
+      </c>
+      <c r="B1892" s="2">
+        <v>94550</v>
+      </c>
+      <c r="C1892" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1892" s="1">
+        <f>VLOOKUP(A1892,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3857.7</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1893">
+        <v>1891</v>
+      </c>
+      <c r="B1893" s="2">
+        <v>94600</v>
+      </c>
+      <c r="C1893" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1893" s="1">
+        <f>VLOOKUP(A1893,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3859.7</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1894">
+        <v>1892</v>
+      </c>
+      <c r="B1894" s="2">
+        <v>94650</v>
+      </c>
+      <c r="C1894" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1894" s="1">
+        <f>VLOOKUP(A1894,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3861.8</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1895">
+        <v>1893</v>
+      </c>
+      <c r="B1895" s="2">
+        <v>94700</v>
+      </c>
+      <c r="C1895" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1895" s="1">
+        <f>VLOOKUP(A1895,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3863.8</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1896">
+        <v>1894</v>
+      </c>
+      <c r="B1896" s="2">
+        <v>94750</v>
+      </c>
+      <c r="C1896" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1896" s="1">
+        <f>VLOOKUP(A1896,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3865.8</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1897">
+        <v>1895</v>
+      </c>
+      <c r="B1897" s="2">
+        <v>94800</v>
+      </c>
+      <c r="C1897" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1897" s="1">
+        <f>VLOOKUP(A1897,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3867.9</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1898">
+        <v>1896</v>
+      </c>
+      <c r="B1898" s="2">
+        <v>94850</v>
+      </c>
+      <c r="C1898" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1898" s="1">
+        <f>VLOOKUP(A1898,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3869.9</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1899">
+        <v>1897</v>
+      </c>
+      <c r="B1899" s="2">
+        <v>94900</v>
+      </c>
+      <c r="C1899" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1899" s="1">
+        <f>VLOOKUP(A1899,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1900">
+        <v>1898</v>
+      </c>
+      <c r="B1900" s="2">
+        <v>94950</v>
+      </c>
+      <c r="C1900" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1900" s="1">
+        <f>VLOOKUP(A1900,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1901">
+        <v>1899</v>
+      </c>
+      <c r="B1901" s="2">
+        <v>95000</v>
+      </c>
+      <c r="C1901" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1901" s="1">
+        <f>VLOOKUP(A1901,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1902">
+        <v>1900</v>
+      </c>
+      <c r="B1902" s="2">
+        <v>95050</v>
+      </c>
+      <c r="C1902" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1902" s="1">
+        <f>VLOOKUP(A1902,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3878.1</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1903">
+        <v>1901</v>
+      </c>
+      <c r="B1903" s="2">
+        <v>95100</v>
+      </c>
+      <c r="C1903" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1903" s="1">
+        <f>VLOOKUP(A1903,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3880.1</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1904">
+        <v>1902</v>
+      </c>
+      <c r="B1904" s="2">
+        <v>95150</v>
+      </c>
+      <c r="C1904" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1904" s="1">
+        <f>VLOOKUP(A1904,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3882.2</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1905">
+        <v>1903</v>
+      </c>
+      <c r="B1905" s="2">
+        <v>95200</v>
+      </c>
+      <c r="C1905" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1905" s="1">
+        <f>VLOOKUP(A1905,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3884.2</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1906">
+        <v>1904</v>
+      </c>
+      <c r="B1906" s="2">
+        <v>95250</v>
+      </c>
+      <c r="C1906" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1906" s="1">
+        <f>VLOOKUP(A1906,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3886.2</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1907">
+        <v>1905</v>
+      </c>
+      <c r="B1907" s="2">
+        <v>95300</v>
+      </c>
+      <c r="C1907" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1907" s="1">
+        <f>VLOOKUP(A1907,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3888.3</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1908">
+        <v>1906</v>
+      </c>
+      <c r="B1908" s="2">
+        <v>95350</v>
+      </c>
+      <c r="C1908" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1908" s="1">
+        <f>VLOOKUP(A1908,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3890.3</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1909">
+        <v>1907</v>
+      </c>
+      <c r="B1909" s="2">
+        <v>95400</v>
+      </c>
+      <c r="C1909" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1909" s="1">
+        <f>VLOOKUP(A1909,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3892.4</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1910">
+        <v>1908</v>
+      </c>
+      <c r="B1910" s="2">
+        <v>95450</v>
+      </c>
+      <c r="C1910" s="1">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="D1910" s="1">
+        <f>VLOOKUP(A1910,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3894.4</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1911">
+        <v>1909</v>
+      </c>
+      <c r="B1911" s="2">
+        <v>95500</v>
+      </c>
+      <c r="C1911" s="1">
+        <f t="shared" ref="C1911:C1974" si="32">C1910</f>
+        <v>49</v>
+      </c>
+      <c r="D1911" s="1">
+        <f>VLOOKUP(A1911,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3896.4</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1912">
+        <v>1910</v>
+      </c>
+      <c r="B1912" s="2">
+        <v>95550</v>
+      </c>
+      <c r="C1912" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1912" s="1">
+        <f>VLOOKUP(A1912,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3898.5</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1913">
+        <v>1911</v>
+      </c>
+      <c r="B1913" s="2">
+        <v>95600</v>
+      </c>
+      <c r="C1913" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1913" s="1">
+        <f>VLOOKUP(A1913,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3900.5</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1914">
+        <v>1912</v>
+      </c>
+      <c r="B1914" s="2">
+        <v>95650</v>
+      </c>
+      <c r="C1914" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1914" s="1">
+        <f>VLOOKUP(A1914,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3902.6</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1915">
+        <v>1913</v>
+      </c>
+      <c r="B1915" s="2">
+        <v>95700</v>
+      </c>
+      <c r="C1915" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1915" s="1">
+        <f>VLOOKUP(A1915,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3904.6</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1916">
+        <v>1914</v>
+      </c>
+      <c r="B1916" s="2">
+        <v>95750</v>
+      </c>
+      <c r="C1916" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1916" s="1">
+        <f>VLOOKUP(A1916,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3906.6</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1917">
+        <v>1915</v>
+      </c>
+      <c r="B1917" s="2">
+        <v>95800</v>
+      </c>
+      <c r="C1917" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1917" s="1">
+        <f>VLOOKUP(A1917,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3908.7</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1918">
+        <v>1916</v>
+      </c>
+      <c r="B1918" s="2">
+        <v>95850</v>
+      </c>
+      <c r="C1918" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1918" s="1">
+        <f>VLOOKUP(A1918,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3910.7</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1919">
+        <v>1917</v>
+      </c>
+      <c r="B1919" s="2">
+        <v>95900</v>
+      </c>
+      <c r="C1919" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1919" s="1">
+        <f>VLOOKUP(A1919,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3912.8</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1920">
+        <v>1918</v>
+      </c>
+      <c r="B1920" s="2">
+        <v>95950</v>
+      </c>
+      <c r="C1920" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1920" s="1">
+        <f>VLOOKUP(A1920,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3914.8</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1921">
+        <v>1919</v>
+      </c>
+      <c r="B1921" s="2">
+        <v>96000</v>
+      </c>
+      <c r="C1921" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1921" s="1">
+        <f>VLOOKUP(A1921,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3916.8</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1922">
+        <v>1920</v>
+      </c>
+      <c r="B1922" s="2">
+        <v>96050</v>
+      </c>
+      <c r="C1922" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1922" s="1">
+        <f>VLOOKUP(A1922,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3918.9</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1923">
+        <v>1921</v>
+      </c>
+      <c r="B1923" s="2">
+        <v>96100</v>
+      </c>
+      <c r="C1923" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1923" s="1">
+        <f>VLOOKUP(A1923,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3920.9</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1924">
+        <v>1922</v>
+      </c>
+      <c r="B1924" s="2">
+        <v>96150</v>
+      </c>
+      <c r="C1924" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1924" s="1">
+        <f>VLOOKUP(A1924,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1925">
+        <v>1923</v>
+      </c>
+      <c r="B1925" s="2">
+        <v>96200</v>
+      </c>
+      <c r="C1925" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1925" s="1">
+        <f>VLOOKUP(A1925,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1926">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="2">
+        <v>96250</v>
+      </c>
+      <c r="C1926" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1926" s="1">
+        <f>VLOOKUP(A1926,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1927">
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="2">
+        <v>96300</v>
+      </c>
+      <c r="C1927" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1927" s="1">
+        <f>VLOOKUP(A1927,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3929.1</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1928">
+        <v>1926</v>
+      </c>
+      <c r="B1928" s="2">
+        <v>96350</v>
+      </c>
+      <c r="C1928" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1928" s="1">
+        <f>VLOOKUP(A1928,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3931.1</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1929">
+        <v>1927</v>
+      </c>
+      <c r="B1929" s="2">
+        <v>96400</v>
+      </c>
+      <c r="C1929" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1929" s="1">
+        <f>VLOOKUP(A1929,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3933.2</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1930">
+        <v>1928</v>
+      </c>
+      <c r="B1930" s="2">
+        <v>96450</v>
+      </c>
+      <c r="C1930" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1930" s="1">
+        <f>VLOOKUP(A1930,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3935.2</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1931">
+        <v>1929</v>
+      </c>
+      <c r="B1931" s="2">
+        <v>96500</v>
+      </c>
+      <c r="C1931" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1931" s="1">
+        <f>VLOOKUP(A1931,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3937.2</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1932">
+        <v>1930</v>
+      </c>
+      <c r="B1932" s="2">
+        <v>96550</v>
+      </c>
+      <c r="C1932" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1932" s="1">
+        <f>VLOOKUP(A1932,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3939.3</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1933">
+        <v>1931</v>
+      </c>
+      <c r="B1933" s="2">
+        <v>96600</v>
+      </c>
+      <c r="C1933" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1933" s="1">
+        <f>VLOOKUP(A1933,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3941.3</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1934">
+        <v>1932</v>
+      </c>
+      <c r="B1934" s="2">
+        <v>96650</v>
+      </c>
+      <c r="C1934" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1934" s="1">
+        <f>VLOOKUP(A1934,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3943.4</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1935">
+        <v>1933</v>
+      </c>
+      <c r="B1935" s="2">
+        <v>96700</v>
+      </c>
+      <c r="C1935" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1935" s="1">
+        <f>VLOOKUP(A1935,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3945.4</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1936">
+        <v>1934</v>
+      </c>
+      <c r="B1936" s="2">
+        <v>96750</v>
+      </c>
+      <c r="C1936" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1936" s="1">
+        <f>VLOOKUP(A1936,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3947.4</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1937">
+        <v>1935</v>
+      </c>
+      <c r="B1937" s="2">
+        <v>96800</v>
+      </c>
+      <c r="C1937" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1937" s="1">
+        <f>VLOOKUP(A1937,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3949.5</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1938">
+        <v>1936</v>
+      </c>
+      <c r="B1938" s="2">
+        <v>96850</v>
+      </c>
+      <c r="C1938" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1938" s="1">
+        <f>VLOOKUP(A1938,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3951.5</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1939">
+        <v>1937</v>
+      </c>
+      <c r="B1939" s="2">
+        <v>96900</v>
+      </c>
+      <c r="C1939" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1939" s="1">
+        <f>VLOOKUP(A1939,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3953.6</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1940">
+        <v>1938</v>
+      </c>
+      <c r="B1940" s="2">
+        <v>96950</v>
+      </c>
+      <c r="C1940" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1940" s="1">
+        <f>VLOOKUP(A1940,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3955.6</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1941">
+        <v>1939</v>
+      </c>
+      <c r="B1941" s="2">
+        <v>97000</v>
+      </c>
+      <c r="C1941" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1941" s="1">
+        <f>VLOOKUP(A1941,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3957.6</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1942">
+        <v>1940</v>
+      </c>
+      <c r="B1942" s="2">
+        <v>97050</v>
+      </c>
+      <c r="C1942" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1942" s="1">
+        <f>VLOOKUP(A1942,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3959.7</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1943">
+        <v>1941</v>
+      </c>
+      <c r="B1943" s="2">
+        <v>97100</v>
+      </c>
+      <c r="C1943" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1943" s="1">
+        <f>VLOOKUP(A1943,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3961.7</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1944">
+        <v>1942</v>
+      </c>
+      <c r="B1944" s="2">
+        <v>97150</v>
+      </c>
+      <c r="C1944" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1944" s="1">
+        <f>VLOOKUP(A1944,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3963.8</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1945">
+        <v>1943</v>
+      </c>
+      <c r="B1945" s="2">
+        <v>97200</v>
+      </c>
+      <c r="C1945" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1945" s="1">
+        <f>VLOOKUP(A1945,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3965.8</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1946">
+        <v>1944</v>
+      </c>
+      <c r="B1946" s="2">
+        <v>97250</v>
+      </c>
+      <c r="C1946" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1946" s="1">
+        <f>VLOOKUP(A1946,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3967.8</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1947">
+        <v>1945</v>
+      </c>
+      <c r="B1947" s="2">
+        <v>97300</v>
+      </c>
+      <c r="C1947" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1947" s="1">
+        <f>VLOOKUP(A1947,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3969.9</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1948">
+        <v>1946</v>
+      </c>
+      <c r="B1948" s="2">
+        <v>97350</v>
+      </c>
+      <c r="C1948" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1948" s="1">
+        <f>VLOOKUP(A1948,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3971.9</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1949">
+        <v>1947</v>
+      </c>
+      <c r="B1949" s="2">
+        <v>97400</v>
+      </c>
+      <c r="C1949" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1949" s="1">
+        <f>VLOOKUP(A1949,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1950">
+        <v>1948</v>
+      </c>
+      <c r="B1950" s="2">
+        <v>97450</v>
+      </c>
+      <c r="C1950" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1950" s="1">
+        <f>VLOOKUP(A1950,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1951">
+        <v>1949</v>
+      </c>
+      <c r="B1951" s="2">
+        <v>97500</v>
+      </c>
+      <c r="C1951" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1951" s="1">
+        <f>VLOOKUP(A1951,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1952">
+        <v>1950</v>
+      </c>
+      <c r="B1952" s="2">
+        <v>97550</v>
+      </c>
+      <c r="C1952" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1952" s="1">
+        <f>VLOOKUP(A1952,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3980.1</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1953">
+        <v>1951</v>
+      </c>
+      <c r="B1953" s="2">
+        <v>97600</v>
+      </c>
+      <c r="C1953" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1953" s="1">
+        <f>VLOOKUP(A1953,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3982.1</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1954">
+        <v>1952</v>
+      </c>
+      <c r="B1954" s="2">
+        <v>97650</v>
+      </c>
+      <c r="C1954" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1954" s="1">
+        <f>VLOOKUP(A1954,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3984.2</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1955">
+        <v>1953</v>
+      </c>
+      <c r="B1955" s="2">
+        <v>97700</v>
+      </c>
+      <c r="C1955" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1955" s="1">
+        <f>VLOOKUP(A1955,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3986.2</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1956">
+        <v>1954</v>
+      </c>
+      <c r="B1956" s="2">
+        <v>97750</v>
+      </c>
+      <c r="C1956" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1956" s="1">
+        <f>VLOOKUP(A1956,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3988.2</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1957">
+        <v>1955</v>
+      </c>
+      <c r="B1957" s="2">
+        <v>97800</v>
+      </c>
+      <c r="C1957" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1957" s="1">
+        <f>VLOOKUP(A1957,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3990.3</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1958">
+        <v>1956</v>
+      </c>
+      <c r="B1958" s="2">
+        <v>97850</v>
+      </c>
+      <c r="C1958" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1958" s="1">
+        <f>VLOOKUP(A1958,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3992.3</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1959">
+        <v>1957</v>
+      </c>
+      <c r="B1959" s="2">
+        <v>97900</v>
+      </c>
+      <c r="C1959" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1959" s="1">
+        <f>VLOOKUP(A1959,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3994.4</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1960">
+        <v>1958</v>
+      </c>
+      <c r="B1960" s="2">
+        <v>97950</v>
+      </c>
+      <c r="C1960" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1960" s="1">
+        <f>VLOOKUP(A1960,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3996.4</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1961">
+        <v>1959</v>
+      </c>
+      <c r="B1961" s="2">
+        <v>98000</v>
+      </c>
+      <c r="C1961" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1961" s="1">
+        <f>VLOOKUP(A1961,Balalnce!H:L,5,FALSE)/100</f>
+        <v>3998.4</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1962">
+        <v>1960</v>
+      </c>
+      <c r="B1962" s="2">
+        <v>98050</v>
+      </c>
+      <c r="C1962" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1962" s="1">
+        <f>VLOOKUP(A1962,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4000.5</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1963">
+        <v>1961</v>
+      </c>
+      <c r="B1963" s="2">
+        <v>98100</v>
+      </c>
+      <c r="C1963" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1963" s="1">
+        <f>VLOOKUP(A1963,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4002.5</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1964">
+        <v>1962</v>
+      </c>
+      <c r="B1964" s="2">
+        <v>98150</v>
+      </c>
+      <c r="C1964" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1964" s="1">
+        <f>VLOOKUP(A1964,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4004.6</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1965">
+        <v>1963</v>
+      </c>
+      <c r="B1965" s="2">
+        <v>98200</v>
+      </c>
+      <c r="C1965" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1965" s="1">
+        <f>VLOOKUP(A1965,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4006.6</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1966">
+        <v>1964</v>
+      </c>
+      <c r="B1966" s="2">
+        <v>98250</v>
+      </c>
+      <c r="C1966" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1966" s="1">
+        <f>VLOOKUP(A1966,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4008.6</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1967">
+        <v>1965</v>
+      </c>
+      <c r="B1967" s="2">
+        <v>98300</v>
+      </c>
+      <c r="C1967" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1967" s="1">
+        <f>VLOOKUP(A1967,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4010.7</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1968">
+        <v>1966</v>
+      </c>
+      <c r="B1968" s="2">
+        <v>98350</v>
+      </c>
+      <c r="C1968" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1968" s="1">
+        <f>VLOOKUP(A1968,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4012.7</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1969">
+        <v>1967</v>
+      </c>
+      <c r="B1969" s="2">
+        <v>98400</v>
+      </c>
+      <c r="C1969" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1969" s="1">
+        <f>VLOOKUP(A1969,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4014.8</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1970">
+        <v>1968</v>
+      </c>
+      <c r="B1970" s="2">
+        <v>98450</v>
+      </c>
+      <c r="C1970" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1970" s="1">
+        <f>VLOOKUP(A1970,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4016.8</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1971">
+        <v>1969</v>
+      </c>
+      <c r="B1971" s="2">
+        <v>98500</v>
+      </c>
+      <c r="C1971" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1971" s="1">
+        <f>VLOOKUP(A1971,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4018.8</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1972">
+        <v>1970</v>
+      </c>
+      <c r="B1972" s="2">
+        <v>98550</v>
+      </c>
+      <c r="C1972" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1972" s="1">
+        <f>VLOOKUP(A1972,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4020.9</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1973">
+        <v>1971</v>
+      </c>
+      <c r="B1973" s="2">
+        <v>98600</v>
+      </c>
+      <c r="C1973" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1973" s="1">
+        <f>VLOOKUP(A1973,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4022.9</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1974">
+        <v>1972</v>
+      </c>
+      <c r="B1974" s="2">
+        <v>98650</v>
+      </c>
+      <c r="C1974" s="1">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="D1974" s="1">
+        <f>VLOOKUP(A1974,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1975">
+        <v>1973</v>
+      </c>
+      <c r="B1975" s="2">
+        <v>98700</v>
+      </c>
+      <c r="C1975" s="1">
+        <f t="shared" ref="C1975:C2001" si="33">C1974</f>
+        <v>49</v>
+      </c>
+      <c r="D1975" s="1">
+        <f>VLOOKUP(A1975,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1976">
+        <v>1974</v>
+      </c>
+      <c r="B1976" s="2">
+        <v>98750</v>
+      </c>
+      <c r="C1976" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1976" s="1">
+        <f>VLOOKUP(A1976,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1977">
+        <v>1975</v>
+      </c>
+      <c r="B1977" s="2">
+        <v>98800</v>
+      </c>
+      <c r="C1977" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1977" s="1">
+        <f>VLOOKUP(A1977,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4031.1</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1978">
+        <v>1976</v>
+      </c>
+      <c r="B1978" s="2">
+        <v>98850</v>
+      </c>
+      <c r="C1978" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1978" s="1">
+        <f>VLOOKUP(A1978,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4033.1</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1979">
+        <v>1977</v>
+      </c>
+      <c r="B1979" s="2">
+        <v>98900</v>
+      </c>
+      <c r="C1979" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1979" s="1">
+        <f>VLOOKUP(A1979,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4035.2</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1980">
+        <v>1978</v>
+      </c>
+      <c r="B1980" s="2">
+        <v>98950</v>
+      </c>
+      <c r="C1980" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1980" s="1">
+        <f>VLOOKUP(A1980,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4037.2</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1981">
+        <v>1979</v>
+      </c>
+      <c r="B1981" s="2">
+        <v>99000</v>
+      </c>
+      <c r="C1981" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1981" s="1">
+        <f>VLOOKUP(A1981,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4039.2</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1982">
+        <v>1980</v>
+      </c>
+      <c r="B1982" s="2">
+        <v>99050</v>
+      </c>
+      <c r="C1982" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1982" s="1">
+        <f>VLOOKUP(A1982,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4041.3</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1983">
+        <v>1981</v>
+      </c>
+      <c r="B1983" s="2">
+        <v>99100</v>
+      </c>
+      <c r="C1983" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1983" s="1">
+        <f>VLOOKUP(A1983,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4043.3</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1984">
+        <v>1982</v>
+      </c>
+      <c r="B1984" s="2">
+        <v>99150</v>
+      </c>
+      <c r="C1984" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1984" s="1">
+        <f>VLOOKUP(A1984,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4045.4</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1985">
+        <v>1983</v>
+      </c>
+      <c r="B1985" s="2">
+        <v>99200</v>
+      </c>
+      <c r="C1985" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1985" s="1">
+        <f>VLOOKUP(A1985,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4047.4</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1986">
+        <v>1984</v>
+      </c>
+      <c r="B1986" s="2">
+        <v>99250</v>
+      </c>
+      <c r="C1986" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1986" s="1">
+        <f>VLOOKUP(A1986,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4049.4</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1987">
+        <v>1985</v>
+      </c>
+      <c r="B1987" s="2">
+        <v>99300</v>
+      </c>
+      <c r="C1987" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1987" s="1">
+        <f>VLOOKUP(A1987,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4051.5</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1988">
+        <v>1986</v>
+      </c>
+      <c r="B1988" s="2">
+        <v>99350</v>
+      </c>
+      <c r="C1988" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1988" s="1">
+        <f>VLOOKUP(A1988,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4053.5</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1989">
+        <v>1987</v>
+      </c>
+      <c r="B1989" s="2">
+        <v>99400</v>
+      </c>
+      <c r="C1989" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1989" s="1">
+        <f>VLOOKUP(A1989,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4055.6</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1990">
+        <v>1988</v>
+      </c>
+      <c r="B1990" s="2">
+        <v>99450</v>
+      </c>
+      <c r="C1990" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1990" s="1">
+        <f>VLOOKUP(A1990,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4057.6</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1991">
+        <v>1989</v>
+      </c>
+      <c r="B1991" s="2">
+        <v>99500</v>
+      </c>
+      <c r="C1991" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1991" s="1">
+        <f>VLOOKUP(A1991,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4059.6</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1992">
+        <v>1990</v>
+      </c>
+      <c r="B1992" s="2">
+        <v>99550</v>
+      </c>
+      <c r="C1992" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1992" s="1">
+        <f>VLOOKUP(A1992,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4061.7</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1993">
+        <v>1991</v>
+      </c>
+      <c r="B1993" s="2">
+        <v>99600</v>
+      </c>
+      <c r="C1993" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1993" s="1">
+        <f>VLOOKUP(A1993,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4063.7</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1994">
+        <v>1992</v>
+      </c>
+      <c r="B1994" s="2">
+        <v>99650</v>
+      </c>
+      <c r="C1994" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1994" s="1">
+        <f>VLOOKUP(A1994,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4065.8</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1995">
+        <v>1993</v>
+      </c>
+      <c r="B1995" s="2">
+        <v>99700</v>
+      </c>
+      <c r="C1995" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1995" s="1">
+        <f>VLOOKUP(A1995,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4067.8</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1996">
+        <v>1994</v>
+      </c>
+      <c r="B1996" s="2">
+        <v>99750</v>
+      </c>
+      <c r="C1996" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1996" s="1">
+        <f>VLOOKUP(A1996,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4069.8</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1997">
+        <v>1995</v>
+      </c>
+      <c r="B1997" s="2">
+        <v>99800</v>
+      </c>
+      <c r="C1997" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1997" s="1">
+        <f>VLOOKUP(A1997,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4071.9</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1998">
+        <v>1996</v>
+      </c>
+      <c r="B1998" s="2">
+        <v>99850</v>
+      </c>
+      <c r="C1998" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1998" s="1">
+        <f>VLOOKUP(A1998,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4073.9</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1999">
+        <v>1997</v>
+      </c>
+      <c r="B1999" s="2">
+        <v>99900</v>
+      </c>
+      <c r="C1999" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D1999" s="1">
+        <f>VLOOKUP(A1999,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2000">
+        <v>1998</v>
+      </c>
+      <c r="B2000" s="2">
+        <v>99950</v>
+      </c>
+      <c r="C2000" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D2000" s="1">
+        <f>VLOOKUP(A2000,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2001">
+        <v>1999</v>
+      </c>
+      <c r="B2001" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C2001" s="1">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D2001" s="1">
+        <f>VLOOKUP(A2001,Balalnce!H:L,5,FALSE)/100</f>
+        <v>4080</v>
       </c>
     </row>
   </sheetData>
